--- a/Team Report_Rafif, Maha, Saloni-Final.xlsx
+++ b/Team Report_Rafif, Maha, Saloni-Final.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27510"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25317"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafifarab/Desktop/Stevens/SSW 555/Project/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="28560" windowHeight="16460" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -21,20 +16,20 @@
     <sheet name="Sprint4" sheetId="6" r:id="rId7"/>
     <sheet name="Stories" sheetId="11" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="215">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -707,6 +702,9 @@
   <si>
     <t>Status</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Done</t>
   </si>
 </sst>
 </file>
@@ -765,7 +763,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="56">
+  <cellStyleXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -822,6 +820,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -856,7 +856,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="56">
+  <cellStyles count="58">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -884,6 +884,8 @@
     <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -989,11 +991,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="729690928"/>
-        <c:axId val="721739936"/>
+        <c:axId val="-2145956248"/>
+        <c:axId val="-2145951080"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="729690928"/>
+        <c:axId val="-2145956248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1003,14 +1005,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="721739936"/>
+        <c:crossAx val="-2145951080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="721739936"/>
+        <c:axId val="-2145951080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1021,7 +1023,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="729690928"/>
+        <c:crossAx val="-2145956248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1399,15 +1401,15 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5" customWidth="1"/>
-    <col min="3" max="3" width="8.5" customWidth="1"/>
-    <col min="4" max="5" width="20.5" customWidth="1"/>
+    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" customWidth="1"/>
+    <col min="4" max="5" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>18</v>
       </c>
@@ -1424,7 +1426,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>159</v>
       </c>
@@ -1441,7 +1443,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>160</v>
       </c>
@@ -1458,7 +1460,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>161</v>
       </c>
@@ -1475,7 +1477,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5">
       <c r="D9" s="4" t="s">
         <v>29</v>
       </c>
@@ -1495,6 +1497,11 @@
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1502,20 +1509,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection sqref="A1:E43"/>
+    <sheetView topLeftCell="A15" zoomScale="150" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.6640625" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>211</v>
       </c>
@@ -1532,7 +1539,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1549,7 +1556,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="B3" t="s">
         <v>116</v>
       </c>
@@ -1557,7 +1564,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1574,7 +1581,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5">
       <c r="B5" t="s">
         <v>118</v>
       </c>
@@ -1582,7 +1589,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5">
       <c r="B6" t="s">
         <v>119</v>
       </c>
@@ -1590,7 +1597,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5">
       <c r="B7" t="s">
         <v>120</v>
       </c>
@@ -1598,7 +1605,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1612,10 +1619,10 @@
         <v>160</v>
       </c>
       <c r="E8" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="B9" t="s">
         <v>122</v>
       </c>
@@ -1623,7 +1630,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5">
       <c r="B10" t="s">
         <v>123</v>
       </c>
@@ -1631,7 +1638,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5">
       <c r="B11" t="s">
         <v>124</v>
       </c>
@@ -1639,7 +1646,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5">
       <c r="B12" t="s">
         <v>125</v>
       </c>
@@ -1647,7 +1654,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5">
       <c r="B13" t="s">
         <v>126</v>
       </c>
@@ -1655,7 +1662,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5">
       <c r="B14" t="s">
         <v>127</v>
       </c>
@@ -1663,7 +1670,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5">
       <c r="B15" t="s">
         <v>128</v>
       </c>
@@ -1671,7 +1678,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5">
       <c r="B16" t="s">
         <v>129</v>
       </c>
@@ -1679,7 +1686,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5">
       <c r="B17" t="s">
         <v>130</v>
       </c>
@@ -1687,7 +1694,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5">
       <c r="B18" t="s">
         <v>131</v>
       </c>
@@ -1695,7 +1702,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5">
       <c r="B19" t="s">
         <v>132</v>
       </c>
@@ -1703,7 +1710,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5">
       <c r="B20" t="s">
         <v>133</v>
       </c>
@@ -1711,7 +1718,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5">
       <c r="B21" t="s">
         <v>134</v>
       </c>
@@ -1719,7 +1726,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5">
       <c r="B22" t="s">
         <v>135</v>
       </c>
@@ -1727,7 +1734,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5">
       <c r="B23" t="s">
         <v>136</v>
       </c>
@@ -1735,7 +1742,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5">
       <c r="A24">
         <v>1</v>
       </c>
@@ -1752,7 +1759,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5">
       <c r="B25" t="s">
         <v>138</v>
       </c>
@@ -1760,7 +1767,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5">
       <c r="B26" t="s">
         <v>139</v>
       </c>
@@ -1768,7 +1775,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5">
       <c r="B27" t="s">
         <v>140</v>
       </c>
@@ -1776,7 +1783,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5">
       <c r="A28">
         <v>1</v>
       </c>
@@ -1793,7 +1800,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5">
       <c r="B29" t="s">
         <v>142</v>
       </c>
@@ -1801,7 +1808,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5">
       <c r="A30">
         <v>1</v>
       </c>
@@ -1815,10 +1822,10 @@
         <v>160</v>
       </c>
       <c r="E30" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="B31" t="s">
         <v>144</v>
       </c>
@@ -1826,7 +1833,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:5">
       <c r="B32" t="s">
         <v>145</v>
       </c>
@@ -1834,7 +1841,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:3">
       <c r="B33" t="s">
         <v>146</v>
       </c>
@@ -1842,7 +1849,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:3">
       <c r="B34" t="s">
         <v>147</v>
       </c>
@@ -1850,7 +1857,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:3">
       <c r="B35" t="s">
         <v>148</v>
       </c>
@@ -1858,7 +1865,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:3">
       <c r="B36" t="s">
         <v>149</v>
       </c>
@@ -1866,7 +1873,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:3">
       <c r="B37" t="s">
         <v>150</v>
       </c>
@@ -1874,7 +1881,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:3">
       <c r="B38" t="s">
         <v>151</v>
       </c>
@@ -1882,7 +1889,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:3">
       <c r="B39" t="s">
         <v>152</v>
       </c>
@@ -1890,7 +1897,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:3">
       <c r="B40" t="s">
         <v>153</v>
       </c>
@@ -1898,7 +1905,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:3">
       <c r="B41" t="s">
         <v>154</v>
       </c>
@@ -1906,7 +1913,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:3">
       <c r="B42" t="s">
         <v>155</v>
       </c>
@@ -1914,7 +1921,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:3">
       <c r="B43" t="s">
         <v>156</v>
       </c>
@@ -1926,6 +1933,11 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1937,17 +1949,17 @@
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="2"/>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="3" max="3" width="12.5" customWidth="1"/>
-    <col min="4" max="4" width="7.1640625" customWidth="1"/>
-    <col min="5" max="5" width="6.83203125" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="8" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="2"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" s="4" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1967,7 +1979,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="A2" s="2">
         <v>40442</v>
       </c>
@@ -1978,7 +1990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6">
       <c r="A3" s="2">
         <v>40455</v>
       </c>
@@ -2005,6 +2017,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2012,25 +2029,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="150" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" style="6"/>
-    <col min="11" max="11" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="6"/>
+    <col min="11" max="11" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -2059,7 +2076,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9">
       <c r="A2" s="4" t="s">
         <v>115</v>
       </c>
@@ -2079,10 +2096,10 @@
         <v>240</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9">
       <c r="A3" s="4"/>
     </row>
-    <row r="4" spans="1:9" ht="26" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" ht="26">
       <c r="A4" s="14" t="s">
         <v>184</v>
       </c>
@@ -2090,7 +2107,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9">
       <c r="A5" s="14" t="s">
         <v>185</v>
       </c>
@@ -2098,10 +2115,10 @@
         <v>187</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9">
       <c r="A6" s="14"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9">
       <c r="A7" s="4" t="s">
         <v>117</v>
       </c>
@@ -2121,10 +2138,10 @@
         <v>240</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9">
       <c r="A8" s="4"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>178</v>
       </c>
@@ -2132,7 +2149,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>180</v>
       </c>
@@ -2140,7 +2157,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>182</v>
       </c>
@@ -2148,7 +2165,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9">
       <c r="A13" s="4" t="s">
         <v>121</v>
       </c>
@@ -2159,7 +2176,7 @@
         <v>160</v>
       </c>
       <c r="D13" t="s">
-        <v>175</v>
+        <v>214</v>
       </c>
       <c r="E13">
         <v>100</v>
@@ -2167,12 +2184,18 @@
       <c r="F13">
         <v>240</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="G13">
+        <v>12</v>
+      </c>
+      <c r="H13">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="4"/>
       <c r="B14"/>
     </row>
-    <row r="15" spans="1:9" ht="26" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9">
       <c r="A15" s="14" t="s">
         <v>188</v>
       </c>
@@ -2180,7 +2203,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="26" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" ht="26">
       <c r="A16" s="14" t="s">
         <v>189</v>
       </c>
@@ -2188,7 +2211,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="52" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" ht="39">
       <c r="A17" s="14" t="s">
         <v>200</v>
       </c>
@@ -2196,7 +2219,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="52" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" ht="39">
       <c r="A18" s="14" t="s">
         <v>201</v>
       </c>
@@ -2204,10 +2227,10 @@
         <v>203</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8">
       <c r="A19" s="4"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8">
       <c r="A20" s="4" t="s">
         <v>137</v>
       </c>
@@ -2227,11 +2250,11 @@
         <v>240</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8">
       <c r="A21" s="4"/>
       <c r="B21"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8">
       <c r="A22" s="14" t="s">
         <v>195</v>
       </c>
@@ -2239,7 +2262,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8">
       <c r="A23" s="14" t="s">
         <v>196</v>
       </c>
@@ -2247,7 +2270,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="39" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" ht="26">
       <c r="A24" s="14" t="s">
         <v>197</v>
       </c>
@@ -2255,11 +2278,11 @@
         <v>194</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8">
       <c r="A25" s="14"/>
       <c r="B25" s="15"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8">
       <c r="A26" s="4" t="s">
         <v>141</v>
       </c>
@@ -2279,11 +2302,11 @@
         <v>240</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8">
       <c r="A27" s="4"/>
       <c r="B27"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8">
       <c r="A28" s="14" t="s">
         <v>191</v>
       </c>
@@ -2291,11 +2314,11 @@
         <v>190</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8">
       <c r="A29" s="14"/>
       <c r="B29"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8">
       <c r="A30" s="4" t="s">
         <v>143</v>
       </c>
@@ -2306,7 +2329,7 @@
         <v>160</v>
       </c>
       <c r="D30" t="s">
-        <v>175</v>
+        <v>214</v>
       </c>
       <c r="E30">
         <v>100</v>
@@ -2314,12 +2337,18 @@
       <c r="F30">
         <v>240</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G30">
+        <v>17</v>
+      </c>
+      <c r="H30">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="4"/>
       <c r="B31"/>
     </row>
-    <row r="32" spans="1:6" ht="26" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8">
       <c r="A32" s="14" t="s">
         <v>204</v>
       </c>
@@ -2327,7 +2356,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:2">
       <c r="A33" s="14" t="s">
         <v>207</v>
       </c>
@@ -2335,35 +2364,35 @@
         <v>206</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:2">
       <c r="B35" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:2">
       <c r="B36" s="5"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:2">
       <c r="B37" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:2">
       <c r="B38" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:2">
       <c r="B39" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:2">
       <c r="B41" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:2">
       <c r="B42" s="1" t="s">
         <v>209</v>
       </c>
@@ -2372,6 +2401,11 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2383,9 +2417,9 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="26" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -2418,6 +2452,11 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2429,9 +2468,9 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="26" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -2463,6 +2502,11 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2474,9 +2518,9 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="26" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -2508,6 +2552,11 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2519,13 +2568,13 @@
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="24.5" customWidth="1"/>
-    <col min="3" max="3" width="49.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" customWidth="1"/>
+    <col min="3" max="3" width="49.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>114</v>
       </c>
@@ -2536,7 +2585,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" ht="30">
       <c r="A2" t="s">
         <v>115</v>
       </c>
@@ -2547,7 +2596,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" ht="15">
       <c r="A3" t="s">
         <v>116</v>
       </c>
@@ -2558,7 +2607,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" ht="15">
       <c r="A4" t="s">
         <v>117</v>
       </c>
@@ -2569,7 +2618,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" ht="30">
       <c r="A5" t="s">
         <v>118</v>
       </c>
@@ -2580,7 +2629,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" ht="15">
       <c r="A6" t="s">
         <v>119</v>
       </c>
@@ -2591,7 +2640,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" ht="15">
       <c r="A7" t="s">
         <v>120</v>
       </c>
@@ -2602,7 +2651,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="48" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" ht="45">
       <c r="A8" t="s">
         <v>121</v>
       </c>
@@ -2613,7 +2662,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" ht="30">
       <c r="A9" t="s">
         <v>122</v>
       </c>
@@ -2624,7 +2673,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" ht="30">
       <c r="A10" t="s">
         <v>123</v>
       </c>
@@ -2635,7 +2684,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" ht="15">
       <c r="A11" t="s">
         <v>124</v>
       </c>
@@ -2646,7 +2695,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3" ht="15">
       <c r="A12" t="s">
         <v>125</v>
       </c>
@@ -2657,7 +2706,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="48" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3" ht="30">
       <c r="A13" t="s">
         <v>126</v>
       </c>
@@ -2668,7 +2717,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3" ht="30">
       <c r="A14" t="s">
         <v>127</v>
       </c>
@@ -2679,7 +2728,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3" ht="15">
       <c r="A15" t="s">
         <v>128</v>
       </c>
@@ -2690,7 +2739,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3" ht="15">
       <c r="A16" t="s">
         <v>129</v>
       </c>
@@ -2701,7 +2750,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3" ht="15">
       <c r="A17" t="s">
         <v>130</v>
       </c>
@@ -2712,7 +2761,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3" ht="15">
       <c r="A18" t="s">
         <v>131</v>
       </c>
@@ -2723,7 +2772,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3" ht="15">
       <c r="A19" t="s">
         <v>132</v>
       </c>
@@ -2734,7 +2783,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3" ht="15">
       <c r="A20" t="s">
         <v>133</v>
       </c>
@@ -2745,7 +2794,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3" ht="15">
       <c r="A21" t="s">
         <v>134</v>
       </c>
@@ -2756,7 +2805,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3" ht="30">
       <c r="A22" t="s">
         <v>135</v>
       </c>
@@ -2767,7 +2816,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3" ht="30">
       <c r="A23" t="s">
         <v>136</v>
       </c>
@@ -2778,7 +2827,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3" ht="30">
       <c r="A24" t="s">
         <v>137</v>
       </c>
@@ -2789,7 +2838,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="48" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3" ht="30">
       <c r="A25" t="s">
         <v>138</v>
       </c>
@@ -2800,7 +2849,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3" ht="30">
       <c r="A26" t="s">
         <v>139</v>
       </c>
@@ -2811,7 +2860,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="80" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3" ht="60">
       <c r="A27" t="s">
         <v>140</v>
       </c>
@@ -2822,7 +2871,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3" ht="15">
       <c r="A28" t="s">
         <v>141</v>
       </c>
@@ -2833,7 +2882,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3" ht="15">
       <c r="A29" t="s">
         <v>142</v>
       </c>
@@ -2844,7 +2893,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3" ht="15">
       <c r="A30" t="s">
         <v>143</v>
       </c>
@@ -2855,7 +2904,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:3" ht="15">
       <c r="A31" t="s">
         <v>144</v>
       </c>
@@ -2866,7 +2915,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:3" ht="30">
       <c r="A32" t="s">
         <v>145</v>
       </c>
@@ -2877,7 +2926,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3" ht="15">
       <c r="A33" t="s">
         <v>146</v>
       </c>
@@ -2888,7 +2937,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:3" ht="30">
       <c r="A34" t="s">
         <v>147</v>
       </c>
@@ -2899,7 +2948,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="48" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:3" ht="30">
       <c r="A35" t="s">
         <v>148</v>
       </c>
@@ -2910,7 +2959,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:3" ht="30">
       <c r="A36" t="s">
         <v>149</v>
       </c>
@@ -2921,7 +2970,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:3" ht="15">
       <c r="A37" t="s">
         <v>150</v>
       </c>
@@ -2932,7 +2981,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:3" ht="30">
       <c r="A38" t="s">
         <v>151</v>
       </c>
@@ -2943,7 +2992,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:3" ht="30">
       <c r="A39" t="s">
         <v>152</v>
       </c>
@@ -2954,7 +3003,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:3" ht="30">
       <c r="A40" t="s">
         <v>153</v>
       </c>
@@ -2965,7 +3014,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:3" ht="30">
       <c r="A41" t="s">
         <v>154</v>
       </c>
@@ -2976,7 +3025,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:3" ht="15">
       <c r="A42" t="s">
         <v>155</v>
       </c>
@@ -2987,7 +3036,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:3" ht="30">
       <c r="A43" t="s">
         <v>156</v>
       </c>
@@ -3001,5 +3050,10 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Team Report_Rafif, Maha, Saloni-Final.xlsx
+++ b/Team Report_Rafif, Maha, Saloni-Final.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25317"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27510"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafifarab/Desktop/SSW-555-GEDCOM/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -16,13 +21,13 @@
     <sheet name="Sprint4" sheetId="6" r:id="rId7"/>
     <sheet name="Stories" sheetId="11" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
   </extLst>
 </workbook>
@@ -991,11 +996,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2145956248"/>
-        <c:axId val="-2145951080"/>
+        <c:axId val="737080480"/>
+        <c:axId val="736984272"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-2145956248"/>
+        <c:axId val="737080480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1005,14 +1010,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2145951080"/>
+        <c:crossAx val="736984272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-2145951080"/>
+        <c:axId val="736984272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1023,7 +1028,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2145956248"/>
+        <c:crossAx val="737080480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1401,15 +1406,15 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.42578125" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" customWidth="1"/>
-    <col min="4" max="5" width="20.42578125" customWidth="1"/>
+    <col min="1" max="1" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5" customWidth="1"/>
+    <col min="3" max="3" width="8.5" customWidth="1"/>
+    <col min="4" max="5" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>18</v>
       </c>
@@ -1426,7 +1431,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>159</v>
       </c>
@@ -1443,7 +1448,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>160</v>
       </c>
@@ -1460,7 +1465,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>161</v>
       </c>
@@ -1477,7 +1482,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D9" s="4" t="s">
         <v>29</v>
       </c>
@@ -1497,11 +1502,6 @@
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1509,20 +1509,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>211</v>
       </c>
@@ -1539,7 +1539,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1556,7 +1556,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>116</v>
       </c>
@@ -1564,7 +1564,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1581,7 +1581,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>118</v>
       </c>
@@ -1589,7 +1589,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>119</v>
       </c>
@@ -1597,7 +1597,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
         <v>120</v>
       </c>
@@ -1605,7 +1605,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1622,7 +1622,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
         <v>122</v>
       </c>
@@ -1630,7 +1630,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
         <v>123</v>
       </c>
@@ -1638,7 +1638,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
         <v>124</v>
       </c>
@@ -1646,7 +1646,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
         <v>125</v>
       </c>
@@ -1654,7 +1654,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
         <v>126</v>
       </c>
@@ -1662,7 +1662,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
         <v>127</v>
       </c>
@@ -1670,7 +1670,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
         <v>128</v>
       </c>
@@ -1678,7 +1678,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
         <v>129</v>
       </c>
@@ -1686,7 +1686,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
         <v>130</v>
       </c>
@@ -1694,7 +1694,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
         <v>131</v>
       </c>
@@ -1702,7 +1702,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
         <v>132</v>
       </c>
@@ -1710,7 +1710,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
         <v>133</v>
       </c>
@@ -1718,7 +1718,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
         <v>134</v>
       </c>
@@ -1726,7 +1726,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
         <v>135</v>
       </c>
@@ -1734,7 +1734,10 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>2</v>
+      </c>
       <c r="B23" t="s">
         <v>136</v>
       </c>
@@ -1742,7 +1745,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>1</v>
       </c>
@@ -1759,7 +1762,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
         <v>138</v>
       </c>
@@ -1767,7 +1770,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
         <v>139</v>
       </c>
@@ -1775,7 +1778,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
         <v>140</v>
       </c>
@@ -1783,7 +1786,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>1</v>
       </c>
@@ -1800,7 +1803,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
         <v>142</v>
       </c>
@@ -1808,7 +1811,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>1</v>
       </c>
@@ -1825,7 +1828,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
         <v>144</v>
       </c>
@@ -1833,7 +1836,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
         <v>145</v>
       </c>
@@ -1841,7 +1844,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="33" spans="2:3">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
         <v>146</v>
       </c>
@@ -1849,7 +1852,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="34" spans="2:3">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B34" t="s">
         <v>147</v>
       </c>
@@ -1857,7 +1860,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="35" spans="2:3">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
         <v>148</v>
       </c>
@@ -1865,7 +1868,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="36" spans="2:3">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B36" t="s">
         <v>149</v>
       </c>
@@ -1873,7 +1876,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="37" spans="2:3">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B37" t="s">
         <v>150</v>
       </c>
@@ -1881,7 +1884,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="38" spans="2:3">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B38" t="s">
         <v>151</v>
       </c>
@@ -1889,7 +1892,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="39" spans="2:3">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B39" t="s">
         <v>152</v>
       </c>
@@ -1897,7 +1900,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="40" spans="2:3">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B40" t="s">
         <v>153</v>
       </c>
@@ -1905,7 +1908,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="41" spans="2:3">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B41" t="s">
         <v>154</v>
       </c>
@@ -1913,7 +1916,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="42" spans="2:3">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B42" t="s">
         <v>155</v>
       </c>
@@ -1921,7 +1924,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="43" spans="2:3">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B43" t="s">
         <v>156</v>
       </c>
@@ -1933,11 +1936,6 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1949,17 +1947,17 @@
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="2"/>
-    <col min="2" max="2" width="16.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" customWidth="1"/>
-    <col min="5" max="5" width="6.85546875" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="4" max="4" width="7.1640625" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1979,7 +1977,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>40442</v>
       </c>
@@ -1990,7 +1988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>40455</v>
       </c>
@@ -2017,11 +2015,6 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2029,25 +2022,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="150" workbookViewId="0">
+    <sheetView topLeftCell="A14" zoomScale="150" workbookViewId="0">
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" style="6"/>
-    <col min="11" max="11" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" style="6"/>
+    <col min="11" max="11" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -2076,7 +2069,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>115</v>
       </c>
@@ -2096,10 +2089,10 @@
         <v>240</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
     </row>
-    <row r="4" spans="1:9" ht="26">
+    <row r="4" spans="1:9" ht="26" x14ac:dyDescent="0.15">
       <c r="A4" s="14" t="s">
         <v>184</v>
       </c>
@@ -2107,7 +2100,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="14" t="s">
         <v>185</v>
       </c>
@@ -2115,10 +2108,10 @@
         <v>187</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="14"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>117</v>
       </c>
@@ -2138,10 +2131,10 @@
         <v>240</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="4"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>178</v>
       </c>
@@ -2149,7 +2142,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>180</v>
       </c>
@@ -2157,7 +2150,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>182</v>
       </c>
@@ -2165,7 +2158,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
         <v>121</v>
       </c>
@@ -2191,11 +2184,11 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" ht="26" x14ac:dyDescent="0.15">
       <c r="A15" s="14" t="s">
         <v>188</v>
       </c>
@@ -2203,7 +2196,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="26">
+    <row r="16" spans="1:9" ht="26" x14ac:dyDescent="0.15">
       <c r="A16" s="14" t="s">
         <v>189</v>
       </c>
@@ -2211,7 +2204,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="39">
+    <row r="17" spans="1:8" ht="52" x14ac:dyDescent="0.15">
       <c r="A17" s="14" t="s">
         <v>200</v>
       </c>
@@ -2219,7 +2212,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="39">
+    <row r="18" spans="1:8" ht="52" x14ac:dyDescent="0.15">
       <c r="A18" s="14" t="s">
         <v>201</v>
       </c>
@@ -2227,10 +2220,10 @@
         <v>203</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
         <v>137</v>
       </c>
@@ -2250,11 +2243,11 @@
         <v>240</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
       <c r="B21"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="14" t="s">
         <v>195</v>
       </c>
@@ -2262,7 +2255,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="14" t="s">
         <v>196</v>
       </c>
@@ -2270,7 +2263,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="26">
+    <row r="24" spans="1:8" ht="39" x14ac:dyDescent="0.15">
       <c r="A24" s="14" t="s">
         <v>197</v>
       </c>
@@ -2278,11 +2271,11 @@
         <v>194</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="14"/>
       <c r="B25" s="15"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
         <v>141</v>
       </c>
@@ -2302,11 +2295,11 @@
         <v>240</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="4"/>
       <c r="B27"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="14" t="s">
         <v>191</v>
       </c>
@@ -2314,11 +2307,11 @@
         <v>190</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="14"/>
       <c r="B29"/>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
         <v>143</v>
       </c>
@@ -2344,11 +2337,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="4"/>
       <c r="B31"/>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" ht="26" x14ac:dyDescent="0.15">
       <c r="A32" s="14" t="s">
         <v>204</v>
       </c>
@@ -2356,7 +2349,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="14" t="s">
         <v>207</v>
       </c>
@@ -2364,35 +2357,35 @@
         <v>206</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B35" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B36" s="5"/>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B37" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B38" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B39" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B41" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B42" s="1" t="s">
         <v>209</v>
       </c>
@@ -2401,11 +2394,6 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2417,9 +2405,9 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" ht="26" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -2452,11 +2440,6 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2468,9 +2451,9 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" ht="26" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -2502,11 +2485,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2518,9 +2496,9 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" ht="26" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -2552,11 +2530,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2568,13 +2541,13 @@
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="24.42578125" customWidth="1"/>
-    <col min="3" max="3" width="49.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5" customWidth="1"/>
+    <col min="3" max="3" width="49.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1">
+    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>114</v>
       </c>
@@ -2585,7 +2558,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="30">
+    <row r="2" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>115</v>
       </c>
@@ -2596,7 +2569,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15">
+    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>116</v>
       </c>
@@ -2607,7 +2580,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15">
+    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>117</v>
       </c>
@@ -2618,7 +2591,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30">
+    <row r="5" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>118</v>
       </c>
@@ -2629,7 +2602,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15">
+    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>119</v>
       </c>
@@ -2640,7 +2613,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15">
+    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>120</v>
       </c>
@@ -2651,7 +2624,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="45">
+    <row r="8" spans="1:3" ht="48" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>121</v>
       </c>
@@ -2662,7 +2635,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30">
+    <row r="9" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>122</v>
       </c>
@@ -2673,7 +2646,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="30">
+    <row r="10" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>123</v>
       </c>
@@ -2684,7 +2657,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15">
+    <row r="11" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>124</v>
       </c>
@@ -2695,7 +2668,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15">
+    <row r="12" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>125</v>
       </c>
@@ -2706,7 +2679,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="30">
+    <row r="13" spans="1:3" ht="48" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>126</v>
       </c>
@@ -2717,7 +2690,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="30">
+    <row r="14" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>127</v>
       </c>
@@ -2728,7 +2701,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15">
+    <row r="15" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>128</v>
       </c>
@@ -2739,7 +2712,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15">
+    <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>129</v>
       </c>
@@ -2750,7 +2723,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15">
+    <row r="17" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>130</v>
       </c>
@@ -2761,7 +2734,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15">
+    <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>131</v>
       </c>
@@ -2772,7 +2745,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15">
+    <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>132</v>
       </c>
@@ -2783,7 +2756,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15">
+    <row r="20" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>133</v>
       </c>
@@ -2794,7 +2767,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15">
+    <row r="21" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>134</v>
       </c>
@@ -2805,7 +2778,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="30">
+    <row r="22" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>135</v>
       </c>
@@ -2816,7 +2789,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="30">
+    <row r="23" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>136</v>
       </c>
@@ -2827,7 +2800,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="30">
+    <row r="24" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>137</v>
       </c>
@@ -2838,7 +2811,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="30">
+    <row r="25" spans="1:3" ht="48" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>138</v>
       </c>
@@ -2849,7 +2822,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="30">
+    <row r="26" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>139</v>
       </c>
@@ -2860,7 +2833,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="60">
+    <row r="27" spans="1:3" ht="80" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>140</v>
       </c>
@@ -2871,7 +2844,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15">
+    <row r="28" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>141</v>
       </c>
@@ -2882,7 +2855,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15">
+    <row r="29" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>142</v>
       </c>
@@ -2893,7 +2866,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15">
+    <row r="30" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>143</v>
       </c>
@@ -2904,7 +2877,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15">
+    <row r="31" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>144</v>
       </c>
@@ -2915,7 +2888,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="30">
+    <row r="32" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>145</v>
       </c>
@@ -2926,7 +2899,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15">
+    <row r="33" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>146</v>
       </c>
@@ -2937,7 +2910,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="30">
+    <row r="34" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>147</v>
       </c>
@@ -2948,7 +2921,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="30">
+    <row r="35" spans="1:3" ht="48" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>148</v>
       </c>
@@ -2959,7 +2932,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="30">
+    <row r="36" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>149</v>
       </c>
@@ -2970,7 +2943,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15">
+    <row r="37" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>150</v>
       </c>
@@ -2981,7 +2954,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="30">
+    <row r="38" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>151</v>
       </c>
@@ -2992,7 +2965,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="30">
+    <row r="39" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>152</v>
       </c>
@@ -3003,7 +2976,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="30">
+    <row r="40" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>153</v>
       </c>
@@ -3014,7 +2987,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="30">
+    <row r="41" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>154</v>
       </c>
@@ -3025,7 +2998,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="15">
+    <row r="42" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>155</v>
       </c>
@@ -3036,7 +3009,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="30">
+    <row r="43" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>156</v>
       </c>
@@ -3050,10 +3023,5 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/Team Report_Rafif, Maha, Saloni-Final.xlsx
+++ b/Team Report_Rafif, Maha, Saloni-Final.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="223">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -710,6 +710,30 @@
   </si>
   <si>
     <t>Done</t>
+  </si>
+  <si>
+    <t>T22.01</t>
+  </si>
+  <si>
+    <t>Find ID for individual and family</t>
+  </si>
+  <si>
+    <t>T22.02</t>
+  </si>
+  <si>
+    <t>Check no duplicate IDs</t>
+  </si>
+  <si>
+    <t>T38.01</t>
+  </si>
+  <si>
+    <t>Find Birthdate for each alive individual</t>
+  </si>
+  <si>
+    <t>T38.02</t>
+  </si>
+  <si>
+    <t>Check upcoming birthday for next month</t>
   </si>
 </sst>
 </file>
@@ -996,11 +1020,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="737080480"/>
-        <c:axId val="736984272"/>
+        <c:axId val="754883328"/>
+        <c:axId val="754834672"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="737080480"/>
+        <c:axId val="754883328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1010,14 +1034,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="736984272"/>
+        <c:crossAx val="754834672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="736984272"/>
+        <c:axId val="754834672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1028,7 +1052,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="737080480"/>
+        <c:crossAx val="754883328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1509,8 +1533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView topLeftCell="A16" zoomScale="150" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1553,7 +1577,7 @@
         <v>159</v>
       </c>
       <c r="E2" t="s">
-        <v>175</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -1744,6 +1768,12 @@
       <c r="C23" t="s">
         <v>91</v>
       </c>
+      <c r="D23" t="s">
+        <v>159</v>
+      </c>
+      <c r="E23" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24">
@@ -1800,7 +1830,7 @@
         <v>159</v>
       </c>
       <c r="E28" t="s">
-        <v>175</v>
+        <v>214</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
@@ -1844,7 +1874,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
         <v>146</v>
       </c>
@@ -1852,7 +1882,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B34" t="s">
         <v>147</v>
       </c>
@@ -1860,7 +1890,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
         <v>148</v>
       </c>
@@ -1868,7 +1898,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B36" t="s">
         <v>149</v>
       </c>
@@ -1876,7 +1906,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B37" t="s">
         <v>150</v>
       </c>
@@ -1884,7 +1914,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B38" t="s">
         <v>151</v>
       </c>
@@ -1892,15 +1922,24 @@
         <v>106</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>2</v>
+      </c>
       <c r="B39" t="s">
         <v>152</v>
       </c>
       <c r="C39" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="D39" t="s">
+        <v>159</v>
+      </c>
+      <c r="E39" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B40" t="s">
         <v>153</v>
       </c>
@@ -1908,7 +1947,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B41" t="s">
         <v>154</v>
       </c>
@@ -1916,7 +1955,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B42" t="s">
         <v>155</v>
       </c>
@@ -1924,7 +1963,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B43" t="s">
         <v>156</v>
       </c>
@@ -2022,14 +2061,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView topLeftCell="A17" zoomScale="150" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="37.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.1640625" bestFit="1" customWidth="1"/>
@@ -2080,7 +2119,7 @@
         <v>159</v>
       </c>
       <c r="D2" t="s">
-        <v>175</v>
+        <v>214</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -2088,11 +2127,17 @@
       <c r="F2">
         <v>240</v>
       </c>
+      <c r="G2">
+        <v>22</v>
+      </c>
+      <c r="H2">
+        <v>120</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
     </row>
-    <row r="4" spans="1:9" ht="26" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="14" t="s">
         <v>184</v>
       </c>
@@ -2188,7 +2233,7 @@
       <c r="A14" s="4"/>
       <c r="B14"/>
     </row>
-    <row r="15" spans="1:9" ht="26" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="14" t="s">
         <v>188</v>
       </c>
@@ -2196,7 +2241,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="26" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="14" t="s">
         <v>189</v>
       </c>
@@ -2204,7 +2249,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="52" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" ht="39" x14ac:dyDescent="0.15">
       <c r="A17" s="14" t="s">
         <v>200</v>
       </c>
@@ -2212,7 +2257,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="52" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" ht="39" x14ac:dyDescent="0.15">
       <c r="A18" s="14" t="s">
         <v>201</v>
       </c>
@@ -2263,7 +2308,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="39" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" ht="26" x14ac:dyDescent="0.15">
       <c r="A24" s="14" t="s">
         <v>197</v>
       </c>
@@ -2286,13 +2331,19 @@
         <v>159</v>
       </c>
       <c r="D26" t="s">
-        <v>175</v>
+        <v>214</v>
       </c>
       <c r="E26">
         <v>100</v>
       </c>
       <c r="F26">
         <v>240</v>
+      </c>
+      <c r="G26">
+        <v>16</v>
+      </c>
+      <c r="H26">
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
@@ -2341,7 +2392,7 @@
       <c r="A31" s="4"/>
       <c r="B31"/>
     </row>
-    <row r="32" spans="1:8" ht="26" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="14" t="s">
         <v>204</v>
       </c>
@@ -2399,15 +2450,18 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="35.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="26" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -2434,6 +2488,78 @@
       </c>
       <c r="I1" s="9" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E2">
+        <v>15</v>
+      </c>
+      <c r="F2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="B4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A5" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="B5" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A7" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" t="s">
+        <v>159</v>
+      </c>
+      <c r="D7" t="s">
+        <v>175</v>
+      </c>
+      <c r="E7">
+        <v>20</v>
+      </c>
+      <c r="F7">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>219</v>
+      </c>
+      <c r="B9" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>221</v>
+      </c>
+      <c r="B10" t="s">
+        <v>222</v>
       </c>
     </row>
   </sheetData>

--- a/Team Report_Rafif, Maha, Saloni-Final.xlsx
+++ b/Team Report_Rafif, Maha, Saloni-Final.xlsx
@@ -763,7 +763,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="58">
+  <cellStyleXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -820,6 +820,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -856,7 +860,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="58">
+  <cellStyles count="62">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -886,6 +890,10 @@
     <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -991,11 +999,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2145956248"/>
-        <c:axId val="-2145951080"/>
+        <c:axId val="-2144862424"/>
+        <c:axId val="-2144859352"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-2145956248"/>
+        <c:axId val="-2144862424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1005,14 +1013,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2145951080"/>
+        <c:crossAx val="-2144859352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-2145951080"/>
+        <c:axId val="-2144859352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1023,7 +1031,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2145956248"/>
+        <c:crossAx val="-2144862424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1509,8 +1517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView topLeftCell="A3" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29:C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -1946,7 +1954,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -2029,8 +2037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -2414,10 +2422,13 @@
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="4" t="s">

--- a/Team Report_Rafif, Maha, Saloni-Final.xlsx
+++ b/Team Report_Rafif, Maha, Saloni-Final.xlsx
@@ -1020,11 +1020,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="754883328"/>
-        <c:axId val="754834672"/>
+        <c:axId val="753470368"/>
+        <c:axId val="764172816"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="754883328"/>
+        <c:axId val="753470368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1034,14 +1034,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="754834672"/>
+        <c:crossAx val="764172816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="754834672"/>
+        <c:axId val="764172816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1052,7 +1052,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="754883328"/>
+        <c:crossAx val="753470368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>

--- a/Team Report_Rafif, Maha, Saloni-Final.xlsx
+++ b/Team Report_Rafif, Maha, Saloni-Final.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27510"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25317"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafifarab/Desktop/SSW-555-GEDCOM/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="4"/>
   </bookViews>
@@ -21,20 +16,20 @@
     <sheet name="Sprint4" sheetId="6" r:id="rId7"/>
     <sheet name="Stories" sheetId="11" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="233">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -734,6 +729,36 @@
   </si>
   <si>
     <t>Check upcoming birthday for next month</t>
+  </si>
+  <si>
+    <t>T16.01</t>
+  </si>
+  <si>
+    <t>T16.02</t>
+  </si>
+  <si>
+    <t>find SEX =M</t>
+  </si>
+  <si>
+    <t>Print Last Name</t>
+  </si>
+  <si>
+    <t>T36.01</t>
+  </si>
+  <si>
+    <t>T36.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">find Dead individuals </t>
+  </si>
+  <si>
+    <t>compare Death date to today</t>
+  </si>
+  <si>
+    <t>T36.03</t>
+  </si>
+  <si>
+    <t>if less than # months print Name</t>
   </si>
 </sst>
 </file>
@@ -792,7 +817,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="58">
+  <cellStyleXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -849,6 +874,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -885,7 +924,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="58">
+  <cellStyles count="72">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -915,6 +954,20 @@
     <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="71" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1020,11 +1073,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="753470368"/>
-        <c:axId val="764172816"/>
+        <c:axId val="2073009976"/>
+        <c:axId val="2073013048"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="753470368"/>
+        <c:axId val="2073009976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1034,14 +1087,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="764172816"/>
+        <c:crossAx val="2073013048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="764172816"/>
+        <c:axId val="2073013048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1052,7 +1105,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="753470368"/>
+        <c:crossAx val="2073009976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1430,15 +1483,15 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5" customWidth="1"/>
-    <col min="3" max="3" width="8.5" customWidth="1"/>
-    <col min="4" max="5" width="20.5" customWidth="1"/>
+    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" customWidth="1"/>
+    <col min="4" max="5" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>18</v>
       </c>
@@ -1455,7 +1508,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>159</v>
       </c>
@@ -1472,7 +1525,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>160</v>
       </c>
@@ -1489,7 +1542,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>161</v>
       </c>
@@ -1506,7 +1559,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5">
       <c r="D9" s="4" t="s">
         <v>29</v>
       </c>
@@ -1526,6 +1579,11 @@
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1533,20 +1591,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37:E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.6640625" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>211</v>
       </c>
@@ -1563,7 +1621,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1580,7 +1638,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="B3" t="s">
         <v>116</v>
       </c>
@@ -1588,7 +1646,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1605,7 +1663,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5">
       <c r="B5" t="s">
         <v>118</v>
       </c>
@@ -1613,7 +1671,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5">
       <c r="B6" t="s">
         <v>119</v>
       </c>
@@ -1621,7 +1679,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5">
       <c r="B7" t="s">
         <v>120</v>
       </c>
@@ -1629,7 +1687,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1646,7 +1704,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5">
       <c r="B9" t="s">
         <v>122</v>
       </c>
@@ -1654,7 +1712,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5">
       <c r="B10" t="s">
         <v>123</v>
       </c>
@@ -1662,7 +1720,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5">
       <c r="B11" t="s">
         <v>124</v>
       </c>
@@ -1670,7 +1728,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5">
       <c r="B12" t="s">
         <v>125</v>
       </c>
@@ -1678,7 +1736,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5">
       <c r="B13" t="s">
         <v>126</v>
       </c>
@@ -1686,7 +1744,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5">
       <c r="B14" t="s">
         <v>127</v>
       </c>
@@ -1694,7 +1752,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5">
       <c r="B15" t="s">
         <v>128</v>
       </c>
@@ -1702,7 +1760,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5">
       <c r="B16" t="s">
         <v>129</v>
       </c>
@@ -1710,15 +1768,24 @@
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>2</v>
+      </c>
       <c r="B17" t="s">
         <v>130</v>
       </c>
       <c r="C17" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D17" t="s">
+        <v>160</v>
+      </c>
+      <c r="E17" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="B18" t="s">
         <v>131</v>
       </c>
@@ -1726,7 +1793,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5">
       <c r="B19" t="s">
         <v>132</v>
       </c>
@@ -1734,7 +1801,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5">
       <c r="B20" t="s">
         <v>133</v>
       </c>
@@ -1742,7 +1809,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5">
       <c r="B21" t="s">
         <v>134</v>
       </c>
@@ -1750,7 +1817,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5">
       <c r="B22" t="s">
         <v>135</v>
       </c>
@@ -1758,7 +1825,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5">
       <c r="A23">
         <v>2</v>
       </c>
@@ -1775,7 +1842,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5">
       <c r="A24">
         <v>1</v>
       </c>
@@ -1792,7 +1859,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5">
       <c r="B25" t="s">
         <v>138</v>
       </c>
@@ -1800,7 +1867,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5">
       <c r="B26" t="s">
         <v>139</v>
       </c>
@@ -1808,7 +1875,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5">
       <c r="B27" t="s">
         <v>140</v>
       </c>
@@ -1816,7 +1883,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5">
       <c r="A28">
         <v>1</v>
       </c>
@@ -1833,7 +1900,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5">
       <c r="B29" t="s">
         <v>142</v>
       </c>
@@ -1841,7 +1908,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5">
       <c r="A30">
         <v>1</v>
       </c>
@@ -1858,7 +1925,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:5">
       <c r="B31" t="s">
         <v>144</v>
       </c>
@@ -1866,7 +1933,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:5">
       <c r="B32" t="s">
         <v>145</v>
       </c>
@@ -1874,7 +1941,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5">
       <c r="B33" t="s">
         <v>146</v>
       </c>
@@ -1882,7 +1949,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5">
       <c r="B34" t="s">
         <v>147</v>
       </c>
@@ -1890,7 +1957,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5">
       <c r="B35" t="s">
         <v>148</v>
       </c>
@@ -1898,7 +1965,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5">
       <c r="B36" t="s">
         <v>149</v>
       </c>
@@ -1906,15 +1973,24 @@
         <v>104</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5">
+      <c r="A37">
+        <v>2</v>
+      </c>
       <c r="B37" t="s">
         <v>150</v>
       </c>
       <c r="C37" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D37" t="s">
+        <v>160</v>
+      </c>
+      <c r="E37" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="B38" t="s">
         <v>151</v>
       </c>
@@ -1922,7 +1998,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5">
       <c r="A39">
         <v>2</v>
       </c>
@@ -1939,7 +2015,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5">
       <c r="B40" t="s">
         <v>153</v>
       </c>
@@ -1947,7 +2023,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5">
       <c r="B41" t="s">
         <v>154</v>
       </c>
@@ -1955,7 +2031,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5">
       <c r="B42" t="s">
         <v>155</v>
       </c>
@@ -1963,7 +2039,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5">
       <c r="B43" t="s">
         <v>156</v>
       </c>
@@ -1975,6 +2051,11 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1986,17 +2067,17 @@
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="2"/>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="3" max="3" width="12.5" customWidth="1"/>
-    <col min="4" max="4" width="7.1640625" customWidth="1"/>
-    <col min="5" max="5" width="6.83203125" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="8" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="2"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" s="4" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2016,7 +2097,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="A2" s="2">
         <v>40442</v>
       </c>
@@ -2027,7 +2108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6">
       <c r="A3" s="2">
         <v>40455</v>
       </c>
@@ -2054,6 +2135,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2061,25 +2147,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="150" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScale="150" workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" style="6"/>
-    <col min="11" max="11" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="6"/>
+    <col min="11" max="11" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -2108,7 +2194,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9">
       <c r="A2" s="4" t="s">
         <v>115</v>
       </c>
@@ -2134,10 +2220,10 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9">
       <c r="A3" s="4"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9">
       <c r="A4" s="14" t="s">
         <v>184</v>
       </c>
@@ -2145,7 +2231,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9">
       <c r="A5" s="14" t="s">
         <v>185</v>
       </c>
@@ -2153,10 +2239,10 @@
         <v>187</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9">
       <c r="A6" s="14"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9">
       <c r="A7" s="4" t="s">
         <v>117</v>
       </c>
@@ -2176,10 +2262,10 @@
         <v>240</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9">
       <c r="A8" s="4"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>178</v>
       </c>
@@ -2187,7 +2273,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>180</v>
       </c>
@@ -2195,7 +2281,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>182</v>
       </c>
@@ -2203,7 +2289,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9">
       <c r="A13" s="4" t="s">
         <v>121</v>
       </c>
@@ -2229,11 +2315,11 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9">
       <c r="A14" s="4"/>
       <c r="B14"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9">
       <c r="A15" s="14" t="s">
         <v>188</v>
       </c>
@@ -2241,7 +2327,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9">
       <c r="A16" s="14" t="s">
         <v>189</v>
       </c>
@@ -2249,7 +2335,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="39" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" ht="26">
       <c r="A17" s="14" t="s">
         <v>200</v>
       </c>
@@ -2257,7 +2343,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="39" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" ht="26">
       <c r="A18" s="14" t="s">
         <v>201</v>
       </c>
@@ -2265,10 +2351,10 @@
         <v>203</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8">
       <c r="A19" s="4"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8">
       <c r="A20" s="4" t="s">
         <v>137</v>
       </c>
@@ -2288,11 +2374,11 @@
         <v>240</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8">
       <c r="A21" s="4"/>
       <c r="B21"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8">
       <c r="A22" s="14" t="s">
         <v>195</v>
       </c>
@@ -2300,7 +2386,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8">
       <c r="A23" s="14" t="s">
         <v>196</v>
       </c>
@@ -2308,7 +2394,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="26" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" ht="26">
       <c r="A24" s="14" t="s">
         <v>197</v>
       </c>
@@ -2316,11 +2402,11 @@
         <v>194</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8">
       <c r="A25" s="14"/>
       <c r="B25" s="15"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8">
       <c r="A26" s="4" t="s">
         <v>141</v>
       </c>
@@ -2346,11 +2432,11 @@
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8">
       <c r="A27" s="4"/>
       <c r="B27"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8">
       <c r="A28" s="14" t="s">
         <v>191</v>
       </c>
@@ -2358,11 +2444,11 @@
         <v>190</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8">
       <c r="A29" s="14"/>
       <c r="B29"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8">
       <c r="A30" s="4" t="s">
         <v>143</v>
       </c>
@@ -2388,11 +2474,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8">
       <c r="A31" s="4"/>
       <c r="B31"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8">
       <c r="A32" s="14" t="s">
         <v>204</v>
       </c>
@@ -2400,7 +2486,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:2">
       <c r="A33" s="14" t="s">
         <v>207</v>
       </c>
@@ -2408,35 +2494,35 @@
         <v>206</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:2">
       <c r="B35" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:2">
       <c r="B36" s="5"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:2">
       <c r="B37" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:2">
       <c r="B38" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:2">
       <c r="B39" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:2">
       <c r="B41" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:2">
       <c r="B42" s="1" t="s">
         <v>209</v>
       </c>
@@ -2445,23 +2531,28 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C5"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="35.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -2490,48 +2581,48 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9">
       <c r="A2" s="4" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D2" t="s">
         <v>175</v>
       </c>
       <c r="E2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F2">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="14" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="B4" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="14" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="B5" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="4" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="B7" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="C7" t="s">
         <v>159</v>
@@ -2540,25 +2631,105 @@
         <v>175</v>
       </c>
       <c r="E7">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F7">
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
+    <row r="9" spans="1:9">
+      <c r="A9" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="B9" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="B10" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C13" t="s">
+        <v>160</v>
+      </c>
+      <c r="D13" t="s">
+        <v>175</v>
+      </c>
+      <c r="E13">
+        <v>30</v>
+      </c>
+      <c r="F13">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>227</v>
+      </c>
+      <c r="B15" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>228</v>
+      </c>
+      <c r="B16" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>231</v>
+      </c>
+      <c r="B17" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B19" t="s">
+        <v>107</v>
+      </c>
+      <c r="C19" t="s">
+        <v>159</v>
+      </c>
+      <c r="D19" t="s">
+        <v>175</v>
+      </c>
+      <c r="E19">
+        <v>20</v>
+      </c>
+      <c r="F19">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
         <v>219</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B21" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
         <v>221</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B22" t="s">
         <v>222</v>
       </c>
     </row>
@@ -2566,6 +2737,11 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2577,9 +2753,9 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="26" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -2611,6 +2787,11 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2622,9 +2803,9 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="26" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -2656,6 +2837,11 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2667,13 +2853,13 @@
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="24.5" customWidth="1"/>
-    <col min="3" max="3" width="49.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" customWidth="1"/>
+    <col min="3" max="3" width="49.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>114</v>
       </c>
@@ -2684,7 +2870,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" ht="30">
       <c r="A2" t="s">
         <v>115</v>
       </c>
@@ -2695,7 +2881,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" ht="15">
       <c r="A3" t="s">
         <v>116</v>
       </c>
@@ -2706,7 +2892,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" ht="15">
       <c r="A4" t="s">
         <v>117</v>
       </c>
@@ -2717,7 +2903,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" ht="30">
       <c r="A5" t="s">
         <v>118</v>
       </c>
@@ -2728,7 +2914,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" ht="15">
       <c r="A6" t="s">
         <v>119</v>
       </c>
@@ -2739,7 +2925,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" ht="15">
       <c r="A7" t="s">
         <v>120</v>
       </c>
@@ -2750,7 +2936,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="48" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" ht="45">
       <c r="A8" t="s">
         <v>121</v>
       </c>
@@ -2761,7 +2947,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" ht="30">
       <c r="A9" t="s">
         <v>122</v>
       </c>
@@ -2772,7 +2958,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" ht="30">
       <c r="A10" t="s">
         <v>123</v>
       </c>
@@ -2783,7 +2969,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" ht="15">
       <c r="A11" t="s">
         <v>124</v>
       </c>
@@ -2794,7 +2980,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3" ht="15">
       <c r="A12" t="s">
         <v>125</v>
       </c>
@@ -2805,7 +2991,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="48" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3" ht="30">
       <c r="A13" t="s">
         <v>126</v>
       </c>
@@ -2816,7 +3002,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3" ht="30">
       <c r="A14" t="s">
         <v>127</v>
       </c>
@@ -2827,7 +3013,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3" ht="15">
       <c r="A15" t="s">
         <v>128</v>
       </c>
@@ -2838,7 +3024,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3" ht="15">
       <c r="A16" t="s">
         <v>129</v>
       </c>
@@ -2849,7 +3035,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3" ht="15">
       <c r="A17" t="s">
         <v>130</v>
       </c>
@@ -2860,7 +3046,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3" ht="15">
       <c r="A18" t="s">
         <v>131</v>
       </c>
@@ -2871,7 +3057,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3" ht="15">
       <c r="A19" t="s">
         <v>132</v>
       </c>
@@ -2882,7 +3068,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3" ht="15">
       <c r="A20" t="s">
         <v>133</v>
       </c>
@@ -2893,7 +3079,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3" ht="15">
       <c r="A21" t="s">
         <v>134</v>
       </c>
@@ -2904,7 +3090,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3" ht="30">
       <c r="A22" t="s">
         <v>135</v>
       </c>
@@ -2915,7 +3101,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3" ht="30">
       <c r="A23" t="s">
         <v>136</v>
       </c>
@@ -2926,7 +3112,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3" ht="30">
       <c r="A24" t="s">
         <v>137</v>
       </c>
@@ -2937,7 +3123,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="48" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3" ht="30">
       <c r="A25" t="s">
         <v>138</v>
       </c>
@@ -2948,7 +3134,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3" ht="30">
       <c r="A26" t="s">
         <v>139</v>
       </c>
@@ -2959,7 +3145,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="80" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3" ht="60">
       <c r="A27" t="s">
         <v>140</v>
       </c>
@@ -2970,7 +3156,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3" ht="15">
       <c r="A28" t="s">
         <v>141</v>
       </c>
@@ -2981,7 +3167,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3" ht="15">
       <c r="A29" t="s">
         <v>142</v>
       </c>
@@ -2992,7 +3178,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3" ht="15">
       <c r="A30" t="s">
         <v>143</v>
       </c>
@@ -3003,7 +3189,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:3" ht="15">
       <c r="A31" t="s">
         <v>144</v>
       </c>
@@ -3014,7 +3200,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:3" ht="30">
       <c r="A32" t="s">
         <v>145</v>
       </c>
@@ -3025,7 +3211,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3" ht="15">
       <c r="A33" t="s">
         <v>146</v>
       </c>
@@ -3036,7 +3222,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:3" ht="30">
       <c r="A34" t="s">
         <v>147</v>
       </c>
@@ -3047,7 +3233,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="48" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:3" ht="30">
       <c r="A35" t="s">
         <v>148</v>
       </c>
@@ -3058,7 +3244,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:3" ht="30">
       <c r="A36" t="s">
         <v>149</v>
       </c>
@@ -3069,7 +3255,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:3" ht="15">
       <c r="A37" t="s">
         <v>150</v>
       </c>
@@ -3080,7 +3266,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:3" ht="30">
       <c r="A38" t="s">
         <v>151</v>
       </c>
@@ -3091,7 +3277,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:3" ht="30">
       <c r="A39" t="s">
         <v>152</v>
       </c>
@@ -3102,7 +3288,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:3" ht="30">
       <c r="A40" t="s">
         <v>153</v>
       </c>
@@ -3113,7 +3299,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:3" ht="30">
       <c r="A41" t="s">
         <v>154</v>
       </c>
@@ -3124,7 +3310,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:3" ht="15">
       <c r="A42" t="s">
         <v>155</v>
       </c>
@@ -3135,7 +3321,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:3" ht="30">
       <c r="A43" t="s">
         <v>156</v>
       </c>
@@ -3149,5 +3335,10 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Team Report_Rafif, Maha, Saloni-Final.xlsx
+++ b/Team Report_Rafif, Maha, Saloni-Final.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25317"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27510"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafifarab/Desktop/SSW-555-GEDCOM/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -16,13 +21,13 @@
     <sheet name="Sprint4" sheetId="6" r:id="rId7"/>
     <sheet name="Stories" sheetId="11" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
   </extLst>
 </workbook>
@@ -686,9 +691,6 @@
     <t xml:space="preserve">Meeting twice every week. </t>
   </si>
   <si>
-    <t>Missing deadlines</t>
-  </si>
-  <si>
     <t>Commiting progress to github</t>
   </si>
   <si>
@@ -759,6 +761,9 @@
   </si>
   <si>
     <t>if less than # months print Name</t>
+  </si>
+  <si>
+    <t>Avoid delay</t>
   </si>
 </sst>
 </file>
@@ -1073,11 +1078,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2073009976"/>
-        <c:axId val="2073013048"/>
+        <c:axId val="764616320"/>
+        <c:axId val="764620272"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="2073009976"/>
+        <c:axId val="764616320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1087,14 +1092,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2073013048"/>
+        <c:crossAx val="764620272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="2073013048"/>
+        <c:axId val="764620272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1105,7 +1110,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2073009976"/>
+        <c:crossAx val="764616320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1483,15 +1488,15 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.42578125" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" customWidth="1"/>
-    <col min="4" max="5" width="20.42578125" customWidth="1"/>
+    <col min="1" max="1" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5" customWidth="1"/>
+    <col min="3" max="3" width="8.5" customWidth="1"/>
+    <col min="4" max="5" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>18</v>
       </c>
@@ -1508,7 +1513,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>159</v>
       </c>
@@ -1525,7 +1530,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>160</v>
       </c>
@@ -1542,7 +1547,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>161</v>
       </c>
@@ -1559,7 +1564,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D9" s="4" t="s">
         <v>29</v>
       </c>
@@ -1579,11 +1584,6 @@
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1595,33 +1595,33 @@
       <selection activeCell="B37" sqref="B37:E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1635,10 +1635,10 @@
         <v>159</v>
       </c>
       <c r="E2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>116</v>
       </c>
@@ -1646,7 +1646,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1663,7 +1663,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>118</v>
       </c>
@@ -1671,7 +1671,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>119</v>
       </c>
@@ -1679,7 +1679,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
         <v>120</v>
       </c>
@@ -1687,7 +1687,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1701,10 +1701,10 @@
         <v>160</v>
       </c>
       <c r="E8" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
         <v>122</v>
       </c>
@@ -1712,7 +1712,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
         <v>123</v>
       </c>
@@ -1720,7 +1720,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
         <v>124</v>
       </c>
@@ -1728,7 +1728,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
         <v>125</v>
       </c>
@@ -1736,7 +1736,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
         <v>126</v>
       </c>
@@ -1744,7 +1744,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
         <v>127</v>
       </c>
@@ -1752,7 +1752,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
         <v>128</v>
       </c>
@@ -1760,7 +1760,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
         <v>129</v>
       </c>
@@ -1768,7 +1768,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>2</v>
       </c>
@@ -1785,7 +1785,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
         <v>131</v>
       </c>
@@ -1793,7 +1793,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
         <v>132</v>
       </c>
@@ -1801,7 +1801,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
         <v>133</v>
       </c>
@@ -1809,7 +1809,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
         <v>134</v>
       </c>
@@ -1817,7 +1817,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
         <v>135</v>
       </c>
@@ -1825,7 +1825,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>2</v>
       </c>
@@ -1842,7 +1842,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>1</v>
       </c>
@@ -1859,7 +1859,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
         <v>138</v>
       </c>
@@ -1867,7 +1867,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
         <v>139</v>
       </c>
@@ -1875,7 +1875,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
         <v>140</v>
       </c>
@@ -1883,7 +1883,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>1</v>
       </c>
@@ -1897,10 +1897,10 @@
         <v>159</v>
       </c>
       <c r="E28" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
         <v>142</v>
       </c>
@@ -1908,7 +1908,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>1</v>
       </c>
@@ -1922,10 +1922,10 @@
         <v>160</v>
       </c>
       <c r="E30" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
         <v>144</v>
       </c>
@@ -1933,7 +1933,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
         <v>145</v>
       </c>
@@ -1941,7 +1941,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
         <v>146</v>
       </c>
@@ -1949,7 +1949,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B34" t="s">
         <v>147</v>
       </c>
@@ -1957,7 +1957,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
         <v>148</v>
       </c>
@@ -1965,7 +1965,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B36" t="s">
         <v>149</v>
       </c>
@@ -1973,7 +1973,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>2</v>
       </c>
@@ -1990,7 +1990,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B38" t="s">
         <v>151</v>
       </c>
@@ -1998,7 +1998,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>2</v>
       </c>
@@ -2015,7 +2015,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B40" t="s">
         <v>153</v>
       </c>
@@ -2023,7 +2023,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B41" t="s">
         <v>154</v>
       </c>
@@ -2031,7 +2031,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B42" t="s">
         <v>155</v>
       </c>
@@ -2039,7 +2039,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B43" t="s">
         <v>156</v>
       </c>
@@ -2051,11 +2051,6 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2067,17 +2062,17 @@
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="2"/>
-    <col min="2" max="2" width="16.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" customWidth="1"/>
-    <col min="5" max="5" width="6.85546875" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="4" max="4" width="7.1640625" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2097,7 +2092,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>40442</v>
       </c>
@@ -2108,7 +2103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>40455</v>
       </c>
@@ -2135,11 +2130,6 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2147,25 +2137,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" style="6"/>
-    <col min="11" max="11" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" style="6"/>
+    <col min="11" max="11" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -2194,7 +2184,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>115</v>
       </c>
@@ -2205,7 +2195,7 @@
         <v>159</v>
       </c>
       <c r="D2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -2220,10 +2210,10 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="14" t="s">
         <v>184</v>
       </c>
@@ -2231,7 +2221,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="14" t="s">
         <v>185</v>
       </c>
@@ -2239,10 +2229,10 @@
         <v>187</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="14"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>117</v>
       </c>
@@ -2262,10 +2252,10 @@
         <v>240</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="4"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>178</v>
       </c>
@@ -2273,7 +2263,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>180</v>
       </c>
@@ -2281,7 +2271,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>182</v>
       </c>
@@ -2289,7 +2279,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
         <v>121</v>
       </c>
@@ -2300,7 +2290,7 @@
         <v>160</v>
       </c>
       <c r="D13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E13">
         <v>100</v>
@@ -2315,11 +2305,11 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="14" t="s">
         <v>188</v>
       </c>
@@ -2327,7 +2317,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="14" t="s">
         <v>189</v>
       </c>
@@ -2335,7 +2325,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="26">
+    <row r="17" spans="1:8" ht="39" x14ac:dyDescent="0.15">
       <c r="A17" s="14" t="s">
         <v>200</v>
       </c>
@@ -2343,7 +2333,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="26">
+    <row r="18" spans="1:8" ht="39" x14ac:dyDescent="0.15">
       <c r="A18" s="14" t="s">
         <v>201</v>
       </c>
@@ -2351,10 +2341,10 @@
         <v>203</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
         <v>137</v>
       </c>
@@ -2374,11 +2364,11 @@
         <v>240</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
       <c r="B21"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="14" t="s">
         <v>195</v>
       </c>
@@ -2386,7 +2376,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="14" t="s">
         <v>196</v>
       </c>
@@ -2394,7 +2384,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="26">
+    <row r="24" spans="1:8" ht="26" x14ac:dyDescent="0.15">
       <c r="A24" s="14" t="s">
         <v>197</v>
       </c>
@@ -2402,11 +2392,11 @@
         <v>194</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="14"/>
       <c r="B25" s="15"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
         <v>141</v>
       </c>
@@ -2417,7 +2407,7 @@
         <v>159</v>
       </c>
       <c r="D26" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E26">
         <v>100</v>
@@ -2432,11 +2422,11 @@
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="4"/>
       <c r="B27"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="14" t="s">
         <v>191</v>
       </c>
@@ -2444,11 +2434,11 @@
         <v>190</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="14"/>
       <c r="B29"/>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
         <v>143</v>
       </c>
@@ -2459,7 +2449,7 @@
         <v>160</v>
       </c>
       <c r="D30" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E30">
         <v>100</v>
@@ -2474,11 +2464,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="4"/>
       <c r="B31"/>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="14" t="s">
         <v>204</v>
       </c>
@@ -2486,7 +2476,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="14" t="s">
         <v>207</v>
       </c>
@@ -2494,48 +2484,43 @@
         <v>206</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B35" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B36" s="5"/>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B37" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B38" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B39" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B41" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B42" s="1" t="s">
-        <v>209</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2543,16 +2528,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -2581,7 +2566,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>130</v>
       </c>
@@ -2601,23 +2586,23 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="B4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A5" s="14" t="s">
         <v>223</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="14" t="s">
-        <v>224</v>
-      </c>
-      <c r="B5" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>136</v>
       </c>
@@ -2637,23 +2622,23 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="B9" t="s">
         <v>215</v>
       </c>
-      <c r="B9" t="s">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A10" s="14" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="14" t="s">
+      <c r="B10" t="s">
         <v>217</v>
       </c>
-      <c r="B10" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
         <v>150</v>
       </c>
@@ -2673,31 +2658,31 @@
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
+        <v>226</v>
+      </c>
+      <c r="B15" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
         <v>227</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
-      <c r="A16" t="s">
-        <v>228</v>
-      </c>
-      <c r="B16" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s">
+      <c r="B17" t="s">
         <v>231</v>
       </c>
-      <c r="B17" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
         <v>152</v>
       </c>
@@ -2717,31 +2702,26 @@
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
+        <v>218</v>
+      </c>
+      <c r="B21" t="s">
         <v>219</v>
       </c>
-      <c r="B21" t="s">
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" t="s">
+      <c r="B22" t="s">
         <v>221</v>
-      </c>
-      <c r="B22" t="s">
-        <v>222</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2753,9 +2733,9 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" ht="26" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -2787,11 +2767,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2803,9 +2778,9 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" ht="26" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -2837,11 +2812,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2853,13 +2823,13 @@
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="24.42578125" customWidth="1"/>
-    <col min="3" max="3" width="49.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5" customWidth="1"/>
+    <col min="3" max="3" width="49.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1">
+    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>114</v>
       </c>
@@ -2870,7 +2840,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="30">
+    <row r="2" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>115</v>
       </c>
@@ -2881,7 +2851,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15">
+    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>116</v>
       </c>
@@ -2892,7 +2862,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15">
+    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>117</v>
       </c>
@@ -2903,7 +2873,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30">
+    <row r="5" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>118</v>
       </c>
@@ -2914,7 +2884,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15">
+    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>119</v>
       </c>
@@ -2925,7 +2895,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15">
+    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>120</v>
       </c>
@@ -2936,7 +2906,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="45">
+    <row r="8" spans="1:3" ht="48" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>121</v>
       </c>
@@ -2947,7 +2917,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30">
+    <row r="9" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>122</v>
       </c>
@@ -2958,7 +2928,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="30">
+    <row r="10" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>123</v>
       </c>
@@ -2969,7 +2939,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15">
+    <row r="11" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>124</v>
       </c>
@@ -2980,7 +2950,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15">
+    <row r="12" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>125</v>
       </c>
@@ -2991,7 +2961,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="30">
+    <row r="13" spans="1:3" ht="48" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>126</v>
       </c>
@@ -3002,7 +2972,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="30">
+    <row r="14" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>127</v>
       </c>
@@ -3013,7 +2983,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15">
+    <row r="15" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>128</v>
       </c>
@@ -3024,7 +2994,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15">
+    <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>129</v>
       </c>
@@ -3035,7 +3005,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15">
+    <row r="17" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>130</v>
       </c>
@@ -3046,7 +3016,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15">
+    <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>131</v>
       </c>
@@ -3057,7 +3027,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15">
+    <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>132</v>
       </c>
@@ -3068,7 +3038,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15">
+    <row r="20" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>133</v>
       </c>
@@ -3079,7 +3049,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15">
+    <row r="21" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>134</v>
       </c>
@@ -3090,7 +3060,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="30">
+    <row r="22" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>135</v>
       </c>
@@ -3101,7 +3071,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="30">
+    <row r="23" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>136</v>
       </c>
@@ -3112,7 +3082,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="30">
+    <row r="24" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>137</v>
       </c>
@@ -3123,7 +3093,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="30">
+    <row r="25" spans="1:3" ht="48" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>138</v>
       </c>
@@ -3134,7 +3104,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="30">
+    <row r="26" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>139</v>
       </c>
@@ -3145,7 +3115,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="60">
+    <row r="27" spans="1:3" ht="80" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>140</v>
       </c>
@@ -3156,7 +3126,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15">
+    <row r="28" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>141</v>
       </c>
@@ -3167,7 +3137,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15">
+    <row r="29" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>142</v>
       </c>
@@ -3178,7 +3148,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15">
+    <row r="30" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>143</v>
       </c>
@@ -3189,7 +3159,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15">
+    <row r="31" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>144</v>
       </c>
@@ -3200,7 +3170,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="30">
+    <row r="32" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>145</v>
       </c>
@@ -3211,7 +3181,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15">
+    <row r="33" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>146</v>
       </c>
@@ -3222,7 +3192,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="30">
+    <row r="34" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>147</v>
       </c>
@@ -3233,7 +3203,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="30">
+    <row r="35" spans="1:3" ht="48" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>148</v>
       </c>
@@ -3244,7 +3214,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="30">
+    <row r="36" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>149</v>
       </c>
@@ -3255,7 +3225,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15">
+    <row r="37" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>150</v>
       </c>
@@ -3266,7 +3236,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="30">
+    <row r="38" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>151</v>
       </c>
@@ -3277,7 +3247,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="30">
+    <row r="39" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>152</v>
       </c>
@@ -3288,7 +3258,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="30">
+    <row r="40" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>153</v>
       </c>
@@ -3299,7 +3269,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="30">
+    <row r="41" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>154</v>
       </c>
@@ -3310,7 +3280,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="15">
+    <row r="42" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>155</v>
       </c>
@@ -3321,7 +3291,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="30">
+    <row r="43" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>156</v>
       </c>
@@ -3335,10 +3305,5 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/Team Report_Rafif, Maha, Saloni-Final.xlsx
+++ b/Team Report_Rafif, Maha, Saloni-Final.xlsx
@@ -1078,11 +1078,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="764616320"/>
-        <c:axId val="764620272"/>
+        <c:axId val="747045632"/>
+        <c:axId val="750555824"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="764616320"/>
+        <c:axId val="747045632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1092,14 +1092,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="764620272"/>
+        <c:crossAx val="750555824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="764620272"/>
+        <c:axId val="750555824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1110,7 +1110,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="764616320"/>
+        <c:crossAx val="747045632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2137,8 +2137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2209,6 +2209,9 @@
       <c r="H2">
         <v>120</v>
       </c>
+      <c r="I2" s="6">
+        <v>41182</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
@@ -2325,7 +2328,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="39" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9" ht="39" x14ac:dyDescent="0.15">
       <c r="A17" s="14" t="s">
         <v>200</v>
       </c>
@@ -2333,7 +2336,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="39" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9" ht="39" x14ac:dyDescent="0.15">
       <c r="A18" s="14" t="s">
         <v>201</v>
       </c>
@@ -2341,10 +2344,10 @@
         <v>203</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
         <v>137</v>
       </c>
@@ -2364,11 +2367,11 @@
         <v>240</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
       <c r="B21"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="14" t="s">
         <v>195</v>
       </c>
@@ -2376,7 +2379,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="14" t="s">
         <v>196</v>
       </c>
@@ -2384,7 +2387,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="26" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9" ht="26" x14ac:dyDescent="0.15">
       <c r="A24" s="14" t="s">
         <v>197</v>
       </c>
@@ -2392,11 +2395,11 @@
         <v>194</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="14"/>
       <c r="B25" s="15"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
         <v>141</v>
       </c>
@@ -2421,12 +2424,15 @@
       <c r="H26">
         <v>90</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I26" s="6">
+        <v>41184</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" s="4"/>
       <c r="B27"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" s="14" t="s">
         <v>191</v>
       </c>
@@ -2434,11 +2440,11 @@
         <v>190</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" s="14"/>
       <c r="B29"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
         <v>143</v>
       </c>
@@ -2464,11 +2470,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" s="4"/>
       <c r="B31"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" s="14" t="s">
         <v>204</v>
       </c>

--- a/Team Report_Rafif, Maha, Saloni-Final.xlsx
+++ b/Team Report_Rafif, Maha, Saloni-Final.xlsx
@@ -1078,11 +1078,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="747045632"/>
-        <c:axId val="750555824"/>
+        <c:axId val="750617856"/>
+        <c:axId val="753384768"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="747045632"/>
+        <c:axId val="750617856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1092,14 +1092,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="750555824"/>
+        <c:crossAx val="753384768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="750555824"/>
+        <c:axId val="753384768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1110,7 +1110,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="747045632"/>
+        <c:crossAx val="750617856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2137,7 +2137,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="150" workbookViewId="0">
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>

--- a/Team Report_Rafif, Maha, Saloni-Final.xlsx
+++ b/Team Report_Rafif, Maha, Saloni-Final.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27510"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25317"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafifarab/Desktop/SSW-555-GEDCOM/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="3"/>
   </bookViews>
@@ -21,13 +16,13 @@
     <sheet name="Sprint4" sheetId="6" r:id="rId7"/>
     <sheet name="Stories" sheetId="11" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
@@ -1078,11 +1073,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="750617856"/>
-        <c:axId val="753384768"/>
+        <c:axId val="2037487896"/>
+        <c:axId val="2037484808"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="750617856"/>
+        <c:axId val="2037487896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1092,14 +1087,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="753384768"/>
+        <c:crossAx val="2037484808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="753384768"/>
+        <c:axId val="2037484808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1110,7 +1105,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="750617856"/>
+        <c:crossAx val="2037487896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1488,15 +1483,15 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5" customWidth="1"/>
-    <col min="3" max="3" width="8.5" customWidth="1"/>
-    <col min="4" max="5" width="20.5" customWidth="1"/>
+    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" customWidth="1"/>
+    <col min="4" max="5" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>18</v>
       </c>
@@ -1513,7 +1508,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>159</v>
       </c>
@@ -1530,7 +1525,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>160</v>
       </c>
@@ -1547,7 +1542,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>161</v>
       </c>
@@ -1564,7 +1559,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5">
       <c r="D9" s="4" t="s">
         <v>29</v>
       </c>
@@ -1584,6 +1579,11 @@
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1595,16 +1595,16 @@
       <selection activeCell="B37" sqref="B37:E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.6640625" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>210</v>
       </c>
@@ -1621,7 +1621,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1638,7 +1638,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="B3" t="s">
         <v>116</v>
       </c>
@@ -1646,7 +1646,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1663,7 +1663,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5">
       <c r="B5" t="s">
         <v>118</v>
       </c>
@@ -1671,7 +1671,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5">
       <c r="B6" t="s">
         <v>119</v>
       </c>
@@ -1679,7 +1679,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5">
       <c r="B7" t="s">
         <v>120</v>
       </c>
@@ -1687,7 +1687,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1704,7 +1704,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5">
       <c r="B9" t="s">
         <v>122</v>
       </c>
@@ -1712,7 +1712,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5">
       <c r="B10" t="s">
         <v>123</v>
       </c>
@@ -1720,7 +1720,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5">
       <c r="B11" t="s">
         <v>124</v>
       </c>
@@ -1728,7 +1728,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5">
       <c r="B12" t="s">
         <v>125</v>
       </c>
@@ -1736,7 +1736,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5">
       <c r="B13" t="s">
         <v>126</v>
       </c>
@@ -1744,7 +1744,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5">
       <c r="B14" t="s">
         <v>127</v>
       </c>
@@ -1752,7 +1752,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5">
       <c r="B15" t="s">
         <v>128</v>
       </c>
@@ -1760,7 +1760,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5">
       <c r="B16" t="s">
         <v>129</v>
       </c>
@@ -1768,7 +1768,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>2</v>
       </c>
@@ -1785,7 +1785,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5">
       <c r="B18" t="s">
         <v>131</v>
       </c>
@@ -1793,7 +1793,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5">
       <c r="B19" t="s">
         <v>132</v>
       </c>
@@ -1801,7 +1801,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5">
       <c r="B20" t="s">
         <v>133</v>
       </c>
@@ -1809,7 +1809,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5">
       <c r="B21" t="s">
         <v>134</v>
       </c>
@@ -1817,7 +1817,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5">
       <c r="B22" t="s">
         <v>135</v>
       </c>
@@ -1825,7 +1825,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5">
       <c r="A23">
         <v>2</v>
       </c>
@@ -1842,7 +1842,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5">
       <c r="A24">
         <v>1</v>
       </c>
@@ -1859,7 +1859,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5">
       <c r="B25" t="s">
         <v>138</v>
       </c>
@@ -1867,7 +1867,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5">
       <c r="B26" t="s">
         <v>139</v>
       </c>
@@ -1875,7 +1875,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5">
       <c r="B27" t="s">
         <v>140</v>
       </c>
@@ -1883,7 +1883,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5">
       <c r="A28">
         <v>1</v>
       </c>
@@ -1900,7 +1900,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5">
       <c r="B29" t="s">
         <v>142</v>
       </c>
@@ -1908,7 +1908,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5">
       <c r="A30">
         <v>1</v>
       </c>
@@ -1925,7 +1925,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:5">
       <c r="B31" t="s">
         <v>144</v>
       </c>
@@ -1933,7 +1933,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:5">
       <c r="B32" t="s">
         <v>145</v>
       </c>
@@ -1941,7 +1941,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5">
       <c r="B33" t="s">
         <v>146</v>
       </c>
@@ -1949,7 +1949,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5">
       <c r="B34" t="s">
         <v>147</v>
       </c>
@@ -1957,7 +1957,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5">
       <c r="B35" t="s">
         <v>148</v>
       </c>
@@ -1965,7 +1965,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5">
       <c r="B36" t="s">
         <v>149</v>
       </c>
@@ -1973,7 +1973,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5">
       <c r="A37">
         <v>2</v>
       </c>
@@ -1990,7 +1990,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5">
       <c r="B38" t="s">
         <v>151</v>
       </c>
@@ -1998,7 +1998,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5">
       <c r="A39">
         <v>2</v>
       </c>
@@ -2015,7 +2015,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5">
       <c r="B40" t="s">
         <v>153</v>
       </c>
@@ -2023,7 +2023,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5">
       <c r="B41" t="s">
         <v>154</v>
       </c>
@@ -2031,7 +2031,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5">
       <c r="B42" t="s">
         <v>155</v>
       </c>
@@ -2039,7 +2039,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5">
       <c r="B43" t="s">
         <v>156</v>
       </c>
@@ -2051,6 +2051,11 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2062,17 +2067,17 @@
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="2"/>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="3" max="3" width="12.5" customWidth="1"/>
-    <col min="4" max="4" width="7.1640625" customWidth="1"/>
-    <col min="5" max="5" width="6.83203125" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="8" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="2"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" s="4" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2092,7 +2097,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="A2" s="2">
         <v>40442</v>
       </c>
@@ -2103,7 +2108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6">
       <c r="A3" s="2">
         <v>40455</v>
       </c>
@@ -2130,6 +2135,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2137,25 +2147,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="150" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="150" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" style="6"/>
-    <col min="11" max="11" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="6"/>
+    <col min="11" max="11" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -2184,7 +2194,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9">
       <c r="A2" s="4" t="s">
         <v>115</v>
       </c>
@@ -2213,10 +2223,10 @@
         <v>41182</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9">
       <c r="A3" s="4"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9">
       <c r="A4" s="14" t="s">
         <v>184</v>
       </c>
@@ -2224,7 +2234,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9">
       <c r="A5" s="14" t="s">
         <v>185</v>
       </c>
@@ -2232,10 +2242,10 @@
         <v>187</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9">
       <c r="A6" s="14"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9">
       <c r="A7" s="4" t="s">
         <v>117</v>
       </c>
@@ -2255,10 +2265,10 @@
         <v>240</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9">
       <c r="A8" s="4"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>178</v>
       </c>
@@ -2266,7 +2276,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>180</v>
       </c>
@@ -2274,7 +2284,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>182</v>
       </c>
@@ -2282,7 +2292,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9">
       <c r="A13" s="4" t="s">
         <v>121</v>
       </c>
@@ -2307,12 +2317,15 @@
       <c r="H13">
         <v>70</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I13" s="6">
+        <v>41181</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="4"/>
       <c r="B14"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9">
       <c r="A15" s="14" t="s">
         <v>188</v>
       </c>
@@ -2320,7 +2333,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9">
       <c r="A16" s="14" t="s">
         <v>189</v>
       </c>
@@ -2328,7 +2341,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="39" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9" ht="26">
       <c r="A17" s="14" t="s">
         <v>200</v>
       </c>
@@ -2336,7 +2349,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="39" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9" ht="26">
       <c r="A18" s="14" t="s">
         <v>201</v>
       </c>
@@ -2344,10 +2357,10 @@
         <v>203</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9">
       <c r="A19" s="4"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9">
       <c r="A20" s="4" t="s">
         <v>137</v>
       </c>
@@ -2367,11 +2380,11 @@
         <v>240</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9">
       <c r="A21" s="4"/>
       <c r="B21"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9">
       <c r="A22" s="14" t="s">
         <v>195</v>
       </c>
@@ -2379,7 +2392,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9">
       <c r="A23" s="14" t="s">
         <v>196</v>
       </c>
@@ -2387,7 +2400,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="26" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9" ht="26">
       <c r="A24" s="14" t="s">
         <v>197</v>
       </c>
@@ -2395,11 +2408,11 @@
         <v>194</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9">
       <c r="A25" s="14"/>
       <c r="B25" s="15"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9">
       <c r="A26" s="4" t="s">
         <v>141</v>
       </c>
@@ -2428,11 +2441,11 @@
         <v>41184</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9">
       <c r="A27" s="4"/>
       <c r="B27"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9">
       <c r="A28" s="14" t="s">
         <v>191</v>
       </c>
@@ -2440,11 +2453,11 @@
         <v>190</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9">
       <c r="A29" s="14"/>
       <c r="B29"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:9">
       <c r="A30" s="4" t="s">
         <v>143</v>
       </c>
@@ -2469,12 +2482,15 @@
       <c r="H30">
         <v>40</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I30" s="6">
+        <v>41184</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="4"/>
       <c r="B31"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:9">
       <c r="A32" s="14" t="s">
         <v>204</v>
       </c>
@@ -2482,7 +2498,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:2">
       <c r="A33" s="14" t="s">
         <v>207</v>
       </c>
@@ -2490,35 +2506,35 @@
         <v>206</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:2">
       <c r="B35" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:2">
       <c r="B36" s="5"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:2">
       <c r="B37" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:2">
       <c r="B38" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:2">
       <c r="B39" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:2">
       <c r="B41" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:2">
       <c r="B42" s="1" t="s">
         <v>232</v>
       </c>
@@ -2527,6 +2543,11 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2538,12 +2559,12 @@
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="35.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -2572,7 +2593,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9">
       <c r="A2" s="4" t="s">
         <v>130</v>
       </c>
@@ -2592,7 +2613,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9">
       <c r="A4" s="14" t="s">
         <v>222</v>
       </c>
@@ -2600,7 +2621,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9">
       <c r="A5" s="14" t="s">
         <v>223</v>
       </c>
@@ -2608,7 +2629,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9">
       <c r="A7" s="4" t="s">
         <v>136</v>
       </c>
@@ -2628,7 +2649,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9">
       <c r="A9" s="14" t="s">
         <v>214</v>
       </c>
@@ -2636,7 +2657,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9">
       <c r="A10" s="14" t="s">
         <v>216</v>
       </c>
@@ -2644,7 +2665,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9">
       <c r="A13" s="4" t="s">
         <v>150</v>
       </c>
@@ -2664,7 +2685,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>226</v>
       </c>
@@ -2672,7 +2693,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>227</v>
       </c>
@@ -2680,7 +2701,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>230</v>
       </c>
@@ -2688,7 +2709,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6">
       <c r="A19" s="4" t="s">
         <v>152</v>
       </c>
@@ -2708,7 +2729,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>218</v>
       </c>
@@ -2716,7 +2737,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>220</v>
       </c>
@@ -2728,6 +2749,11 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2739,9 +2765,9 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="26" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -2773,6 +2799,11 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2784,9 +2815,9 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="26" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -2818,6 +2849,11 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2829,13 +2865,13 @@
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="24.5" customWidth="1"/>
-    <col min="3" max="3" width="49.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" customWidth="1"/>
+    <col min="3" max="3" width="49.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>114</v>
       </c>
@@ -2846,7 +2882,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" ht="30">
       <c r="A2" t="s">
         <v>115</v>
       </c>
@@ -2857,7 +2893,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" ht="15">
       <c r="A3" t="s">
         <v>116</v>
       </c>
@@ -2868,7 +2904,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" ht="15">
       <c r="A4" t="s">
         <v>117</v>
       </c>
@@ -2879,7 +2915,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" ht="30">
       <c r="A5" t="s">
         <v>118</v>
       </c>
@@ -2890,7 +2926,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" ht="15">
       <c r="A6" t="s">
         <v>119</v>
       </c>
@@ -2901,7 +2937,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" ht="15">
       <c r="A7" t="s">
         <v>120</v>
       </c>
@@ -2912,7 +2948,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="48" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" ht="45">
       <c r="A8" t="s">
         <v>121</v>
       </c>
@@ -2923,7 +2959,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" ht="30">
       <c r="A9" t="s">
         <v>122</v>
       </c>
@@ -2934,7 +2970,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" ht="30">
       <c r="A10" t="s">
         <v>123</v>
       </c>
@@ -2945,7 +2981,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" ht="15">
       <c r="A11" t="s">
         <v>124</v>
       </c>
@@ -2956,7 +2992,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3" ht="15">
       <c r="A12" t="s">
         <v>125</v>
       </c>
@@ -2967,7 +3003,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="48" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3" ht="30">
       <c r="A13" t="s">
         <v>126</v>
       </c>
@@ -2978,7 +3014,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3" ht="30">
       <c r="A14" t="s">
         <v>127</v>
       </c>
@@ -2989,7 +3025,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3" ht="15">
       <c r="A15" t="s">
         <v>128</v>
       </c>
@@ -3000,7 +3036,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3" ht="15">
       <c r="A16" t="s">
         <v>129</v>
       </c>
@@ -3011,7 +3047,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3" ht="15">
       <c r="A17" t="s">
         <v>130</v>
       </c>
@@ -3022,7 +3058,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3" ht="15">
       <c r="A18" t="s">
         <v>131</v>
       </c>
@@ -3033,7 +3069,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3" ht="15">
       <c r="A19" t="s">
         <v>132</v>
       </c>
@@ -3044,7 +3080,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3" ht="15">
       <c r="A20" t="s">
         <v>133</v>
       </c>
@@ -3055,7 +3091,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3" ht="15">
       <c r="A21" t="s">
         <v>134</v>
       </c>
@@ -3066,7 +3102,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3" ht="30">
       <c r="A22" t="s">
         <v>135</v>
       </c>
@@ -3077,7 +3113,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3" ht="30">
       <c r="A23" t="s">
         <v>136</v>
       </c>
@@ -3088,7 +3124,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3" ht="30">
       <c r="A24" t="s">
         <v>137</v>
       </c>
@@ -3099,7 +3135,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="48" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3" ht="30">
       <c r="A25" t="s">
         <v>138</v>
       </c>
@@ -3110,7 +3146,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3" ht="30">
       <c r="A26" t="s">
         <v>139</v>
       </c>
@@ -3121,7 +3157,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="80" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3" ht="60">
       <c r="A27" t="s">
         <v>140</v>
       </c>
@@ -3132,7 +3168,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3" ht="15">
       <c r="A28" t="s">
         <v>141</v>
       </c>
@@ -3143,7 +3179,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3" ht="15">
       <c r="A29" t="s">
         <v>142</v>
       </c>
@@ -3154,7 +3190,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3" ht="15">
       <c r="A30" t="s">
         <v>143</v>
       </c>
@@ -3165,7 +3201,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:3" ht="15">
       <c r="A31" t="s">
         <v>144</v>
       </c>
@@ -3176,7 +3212,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:3" ht="30">
       <c r="A32" t="s">
         <v>145</v>
       </c>
@@ -3187,7 +3223,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3" ht="15">
       <c r="A33" t="s">
         <v>146</v>
       </c>
@@ -3198,7 +3234,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:3" ht="30">
       <c r="A34" t="s">
         <v>147</v>
       </c>
@@ -3209,7 +3245,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="48" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:3" ht="30">
       <c r="A35" t="s">
         <v>148</v>
       </c>
@@ -3220,7 +3256,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:3" ht="30">
       <c r="A36" t="s">
         <v>149</v>
       </c>
@@ -3231,7 +3267,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:3" ht="15">
       <c r="A37" t="s">
         <v>150</v>
       </c>
@@ -3242,7 +3278,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:3" ht="30">
       <c r="A38" t="s">
         <v>151</v>
       </c>
@@ -3253,7 +3289,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:3" ht="30">
       <c r="A39" t="s">
         <v>152</v>
       </c>
@@ -3264,7 +3300,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:3" ht="30">
       <c r="A40" t="s">
         <v>153</v>
       </c>
@@ -3275,7 +3311,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:3" ht="30">
       <c r="A41" t="s">
         <v>154</v>
       </c>
@@ -3286,7 +3322,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:3" ht="15">
       <c r="A42" t="s">
         <v>155</v>
       </c>
@@ -3297,7 +3333,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:3" ht="30">
       <c r="A43" t="s">
         <v>156</v>
       </c>
@@ -3311,5 +3347,10 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Team Report_Rafif, Maha, Saloni-Final.xlsx
+++ b/Team Report_Rafif, Maha, Saloni-Final.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25317"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -817,7 +817,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="72">
+  <cellStyleXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -874,6 +874,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -924,7 +926,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="72">
+  <cellStyles count="74">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -968,6 +970,8 @@
     <cellStyle name="Followed Hyperlink" xfId="69" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="73" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1038,10 +1042,10 @@
                 <c:formatCode>m/d</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>40442.0</c:v>
+                  <c:v>40440.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40455.0</c:v>
+                  <c:v>40454.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1053,10 +1057,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>36.0</c:v>
+                  <c:v>42.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30.0</c:v>
+                  <c:v>36.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1073,11 +1077,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2037487896"/>
-        <c:axId val="2037484808"/>
+        <c:axId val="2130346040"/>
+        <c:axId val="2130349128"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="2037487896"/>
+        <c:axId val="2130346040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1087,14 +1091,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2037484808"/>
+        <c:crossAx val="2130349128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="2037484808"/>
+        <c:axId val="2130349128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1105,7 +1109,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2037487896"/>
+        <c:crossAx val="2130346040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1591,7 +1595,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
+    <sheetView topLeftCell="A17" zoomScale="150" workbookViewId="0">
       <selection activeCell="B37" sqref="B37:E37"/>
     </sheetView>
   </sheetViews>
@@ -2063,8 +2067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -2099,35 +2103,44 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2">
-        <v>40442</v>
+        <v>40440</v>
       </c>
       <c r="B2">
-        <v>36</v>
+        <v>42</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2">
-        <v>40455</v>
+        <v>40454</v>
       </c>
       <c r="B3">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C3">
         <f>B2-B3</f>
         <v>6</v>
       </c>
       <c r="D3">
-        <v>250</v>
+        <v>67</v>
       </c>
       <c r="E3">
-        <v>120</v>
+        <v>320</v>
       </c>
       <c r="F3" s="8">
         <f>(D3-D2)/E3*60</f>
-        <v>125.00000000000001</v>
+        <v>12.5625</v>
       </c>
     </row>
   </sheetData>
@@ -2147,7 +2160,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>

--- a/Team Report_Rafif, Maha, Saloni-Final.xlsx
+++ b/Team Report_Rafif, Maha, Saloni-Final.xlsx
@@ -1077,11 +1077,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2130346040"/>
-        <c:axId val="2130349128"/>
+        <c:axId val="2124309400"/>
+        <c:axId val="2124609048"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="2130346040"/>
+        <c:axId val="2124309400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1091,14 +1091,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2130349128"/>
+        <c:crossAx val="2124609048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="2130349128"/>
+        <c:axId val="2124609048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1109,7 +1109,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2130346040"/>
+        <c:crossAx val="2124309400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1595,7 +1595,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="B37" sqref="B37:E37"/>
     </sheetView>
   </sheetViews>
@@ -2068,7 +2068,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -2107,18 +2107,6 @@
       </c>
       <c r="B2">
         <v>42</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="8">
-        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2160,7 +2148,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScale="150" workbookViewId="0">
       <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>

--- a/Team Report_Rafif, Maha, Saloni-Final.xlsx
+++ b/Team Report_Rafif, Maha, Saloni-Final.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25317"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26207"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/salonisetia/Downloads/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -16,20 +21,17 @@
     <sheet name="Sprint4" sheetId="6" r:id="rId7"/>
     <sheet name="Stories" sheetId="11" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="245">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -759,6 +761,42 @@
   </si>
   <si>
     <t>Avoid delay</t>
+  </si>
+  <si>
+    <t>T02.01</t>
+  </si>
+  <si>
+    <t>Find their birth date</t>
+  </si>
+  <si>
+    <t>Find their marriage date</t>
+  </si>
+  <si>
+    <t>T02.02</t>
+  </si>
+  <si>
+    <t>T02.03</t>
+  </si>
+  <si>
+    <t>T02.04</t>
+  </si>
+  <si>
+    <t>T10.01</t>
+  </si>
+  <si>
+    <t>Find married Individuals</t>
+  </si>
+  <si>
+    <t>Check if marriage date is after 14 years of birth</t>
+  </si>
+  <si>
+    <t>Check if birth happens before marriage</t>
+  </si>
+  <si>
+    <t>T10.02</t>
+  </si>
+  <si>
+    <t>T10.03</t>
   </si>
 </sst>
 </file>
@@ -1077,11 +1115,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2130346040"/>
-        <c:axId val="2130349128"/>
+        <c:axId val="-2119494336"/>
+        <c:axId val="-2119491408"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="2130346040"/>
+        <c:axId val="-2119494336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1091,14 +1129,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2130349128"/>
+        <c:crossAx val="-2119491408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="2130349128"/>
+        <c:axId val="-2119491408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1109,7 +1147,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2130346040"/>
+        <c:crossAx val="-2119494336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1487,15 +1525,15 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.42578125" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" customWidth="1"/>
-    <col min="4" max="5" width="20.42578125" customWidth="1"/>
+    <col min="1" max="1" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5" customWidth="1"/>
+    <col min="3" max="3" width="8.5" customWidth="1"/>
+    <col min="4" max="5" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>18</v>
       </c>
@@ -1512,7 +1550,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>159</v>
       </c>
@@ -1529,7 +1567,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>160</v>
       </c>
@@ -1546,7 +1584,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>161</v>
       </c>
@@ -1563,7 +1601,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D9" s="4" t="s">
         <v>29</v>
       </c>
@@ -1583,11 +1621,6 @@
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1595,20 +1628,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37:E37"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>210</v>
       </c>
@@ -1625,7 +1658,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1642,15 +1675,24 @@
         <v>213</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>2</v>
+      </c>
       <c r="B3" t="s">
         <v>116</v>
       </c>
       <c r="C3" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="D3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1664,10 +1706,10 @@
         <v>161</v>
       </c>
       <c r="E4" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>118</v>
       </c>
@@ -1675,7 +1717,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>119</v>
       </c>
@@ -1683,7 +1725,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
         <v>120</v>
       </c>
@@ -1691,7 +1733,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1708,7 +1750,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
         <v>122</v>
       </c>
@@ -1716,7 +1758,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
         <v>123</v>
       </c>
@@ -1724,15 +1766,24 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>2</v>
+      </c>
       <c r="B11" t="s">
         <v>124</v>
       </c>
       <c r="C11" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="D11" t="s">
+        <v>161</v>
+      </c>
+      <c r="E11" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
         <v>125</v>
       </c>
@@ -1740,7 +1791,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
         <v>126</v>
       </c>
@@ -1748,7 +1799,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
         <v>127</v>
       </c>
@@ -1756,7 +1807,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
         <v>128</v>
       </c>
@@ -1764,7 +1815,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
         <v>129</v>
       </c>
@@ -1772,7 +1823,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>2</v>
       </c>
@@ -1789,7 +1840,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
         <v>131</v>
       </c>
@@ -1797,7 +1848,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
         <v>132</v>
       </c>
@@ -1805,7 +1856,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
         <v>133</v>
       </c>
@@ -1813,7 +1864,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
         <v>134</v>
       </c>
@@ -1821,7 +1872,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
         <v>135</v>
       </c>
@@ -1829,7 +1880,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>2</v>
       </c>
@@ -1846,7 +1897,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>1</v>
       </c>
@@ -1860,10 +1911,10 @@
         <v>161</v>
       </c>
       <c r="E24" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
         <v>138</v>
       </c>
@@ -1871,7 +1922,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
         <v>139</v>
       </c>
@@ -1879,7 +1930,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
         <v>140</v>
       </c>
@@ -1887,7 +1938,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>1</v>
       </c>
@@ -1904,7 +1955,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
         <v>142</v>
       </c>
@@ -1912,7 +1963,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>1</v>
       </c>
@@ -1929,7 +1980,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
         <v>144</v>
       </c>
@@ -1937,7 +1988,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
         <v>145</v>
       </c>
@@ -1945,7 +1996,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
         <v>146</v>
       </c>
@@ -1953,7 +2004,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B34" t="s">
         <v>147</v>
       </c>
@@ -1961,7 +2012,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
         <v>148</v>
       </c>
@@ -1969,7 +2020,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B36" t="s">
         <v>149</v>
       </c>
@@ -1977,7 +2028,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>2</v>
       </c>
@@ -1994,7 +2045,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B38" t="s">
         <v>151</v>
       </c>
@@ -2002,7 +2053,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>2</v>
       </c>
@@ -2019,7 +2070,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B40" t="s">
         <v>153</v>
       </c>
@@ -2027,7 +2078,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B41" t="s">
         <v>154</v>
       </c>
@@ -2035,7 +2086,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B42" t="s">
         <v>155</v>
       </c>
@@ -2043,7 +2094,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B43" t="s">
         <v>156</v>
       </c>
@@ -2055,11 +2106,6 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2067,21 +2113,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="2"/>
-    <col min="2" max="2" width="16.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" customWidth="1"/>
-    <col min="5" max="5" width="6.85546875" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="4" max="4" width="7.1640625" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2101,7 +2147,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>40440</v>
       </c>
@@ -2121,7 +2167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>40454</v>
       </c>
@@ -2148,11 +2194,6 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2160,25 +2201,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView topLeftCell="A11" zoomScale="150" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" style="6"/>
-    <col min="11" max="11" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" style="6"/>
+    <col min="11" max="11" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -2207,7 +2248,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>115</v>
       </c>
@@ -2236,10 +2277,10 @@
         <v>41182</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="14" t="s">
         <v>184</v>
       </c>
@@ -2247,7 +2288,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="14" t="s">
         <v>185</v>
       </c>
@@ -2255,10 +2296,10 @@
         <v>187</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="14"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>117</v>
       </c>
@@ -2277,11 +2318,20 @@
       <c r="F7">
         <v>240</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="G7">
+        <v>20</v>
+      </c>
+      <c r="H7">
+        <v>30</v>
+      </c>
+      <c r="I7" s="6">
+        <v>41184</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="4"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>178</v>
       </c>
@@ -2289,7 +2339,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>180</v>
       </c>
@@ -2297,7 +2347,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>182</v>
       </c>
@@ -2305,7 +2355,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
         <v>121</v>
       </c>
@@ -2334,11 +2384,11 @@
         <v>41181</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="14" t="s">
         <v>188</v>
       </c>
@@ -2346,7 +2396,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="14" t="s">
         <v>189</v>
       </c>
@@ -2354,7 +2404,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="26">
+    <row r="17" spans="1:9" ht="39" x14ac:dyDescent="0.15">
       <c r="A17" s="14" t="s">
         <v>200</v>
       </c>
@@ -2362,7 +2412,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="26">
+    <row r="18" spans="1:9" ht="39" x14ac:dyDescent="0.15">
       <c r="A18" s="14" t="s">
         <v>201</v>
       </c>
@@ -2370,10 +2420,10 @@
         <v>203</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
         <v>137</v>
       </c>
@@ -2392,12 +2442,21 @@
       <c r="F20">
         <v>240</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="G20">
+        <v>17</v>
+      </c>
+      <c r="H20">
+        <v>40</v>
+      </c>
+      <c r="I20" s="6">
+        <v>41184</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
       <c r="B21"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="14" t="s">
         <v>195</v>
       </c>
@@ -2405,7 +2464,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="14" t="s">
         <v>196</v>
       </c>
@@ -2413,7 +2472,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="26">
+    <row r="24" spans="1:9" ht="26" x14ac:dyDescent="0.15">
       <c r="A24" s="14" t="s">
         <v>197</v>
       </c>
@@ -2421,11 +2480,11 @@
         <v>194</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="14"/>
       <c r="B25" s="15"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
         <v>141</v>
       </c>
@@ -2454,11 +2513,11 @@
         <v>41184</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" s="4"/>
       <c r="B27"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" s="14" t="s">
         <v>191</v>
       </c>
@@ -2466,11 +2525,11 @@
         <v>190</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" s="14"/>
       <c r="B29"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
         <v>143</v>
       </c>
@@ -2499,11 +2558,11 @@
         <v>41184</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" s="4"/>
       <c r="B31"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" s="14" t="s">
         <v>204</v>
       </c>
@@ -2511,7 +2570,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="14" t="s">
         <v>207</v>
       </c>
@@ -2519,35 +2578,35 @@
         <v>206</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B35" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B36" s="5"/>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B37" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B38" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B39" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B41" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B42" s="1" t="s">
         <v>232</v>
       </c>
@@ -2556,28 +2615,23 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -2606,7 +2660,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>130</v>
       </c>
@@ -2626,7 +2680,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="14" t="s">
         <v>222</v>
       </c>
@@ -2634,7 +2688,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="14" t="s">
         <v>223</v>
       </c>
@@ -2642,7 +2696,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>136</v>
       </c>
@@ -2662,7 +2716,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="14" t="s">
         <v>214</v>
       </c>
@@ -2670,7 +2724,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="14" t="s">
         <v>216</v>
       </c>
@@ -2678,7 +2732,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
         <v>150</v>
       </c>
@@ -2698,7 +2752,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>226</v>
       </c>
@@ -2706,7 +2760,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>227</v>
       </c>
@@ -2714,7 +2768,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>230</v>
       </c>
@@ -2722,7 +2776,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
         <v>152</v>
       </c>
@@ -2742,7 +2796,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>218</v>
       </c>
@@ -2750,23 +2804,119 @@
         <v>219</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>220</v>
       </c>
       <c r="B22" t="s">
         <v>221</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A24" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" t="s">
+        <v>161</v>
+      </c>
+      <c r="D24" t="s">
+        <v>175</v>
+      </c>
+      <c r="E24">
+        <v>30</v>
+      </c>
+      <c r="F24">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>233</v>
+      </c>
+      <c r="B26" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>236</v>
+      </c>
+      <c r="B27" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>237</v>
+      </c>
+      <c r="B28" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>238</v>
+      </c>
+      <c r="B29" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A31" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B31" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" t="s">
+        <v>161</v>
+      </c>
+      <c r="D31" t="s">
+        <v>175</v>
+      </c>
+      <c r="E31">
+        <v>25</v>
+      </c>
+      <c r="F31">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>239</v>
+      </c>
+      <c r="B33" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>243</v>
+      </c>
+      <c r="B34" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>244</v>
+      </c>
+      <c r="B35" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="26" x14ac:dyDescent="0.15">
+      <c r="B36" s="16" t="s">
+        <v>241</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2778,9 +2928,9 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" ht="26" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -2812,11 +2962,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2828,9 +2973,9 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" ht="26" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -2862,11 +3007,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2874,17 +3014,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="24.42578125" customWidth="1"/>
-    <col min="3" max="3" width="49.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5" customWidth="1"/>
+    <col min="3" max="3" width="49.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1">
+    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>114</v>
       </c>
@@ -2895,7 +3035,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="30">
+    <row r="2" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>115</v>
       </c>
@@ -2906,7 +3046,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15">
+    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>116</v>
       </c>
@@ -2917,7 +3057,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15">
+    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>117</v>
       </c>
@@ -2928,7 +3068,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30">
+    <row r="5" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>118</v>
       </c>
@@ -2939,7 +3079,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15">
+    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>119</v>
       </c>
@@ -2950,7 +3090,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15">
+    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>120</v>
       </c>
@@ -2961,7 +3101,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="45">
+    <row r="8" spans="1:3" ht="48" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>121</v>
       </c>
@@ -2972,7 +3112,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30">
+    <row r="9" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>122</v>
       </c>
@@ -2983,7 +3123,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="30">
+    <row r="10" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>123</v>
       </c>
@@ -2994,7 +3134,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15">
+    <row r="11" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>124</v>
       </c>
@@ -3005,7 +3145,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15">
+    <row r="12" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>125</v>
       </c>
@@ -3016,7 +3156,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="30">
+    <row r="13" spans="1:3" ht="48" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>126</v>
       </c>
@@ -3027,7 +3167,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="30">
+    <row r="14" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>127</v>
       </c>
@@ -3038,7 +3178,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15">
+    <row r="15" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>128</v>
       </c>
@@ -3049,7 +3189,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15">
+    <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>129</v>
       </c>
@@ -3060,7 +3200,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15">
+    <row r="17" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>130</v>
       </c>
@@ -3071,7 +3211,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15">
+    <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>131</v>
       </c>
@@ -3082,7 +3222,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15">
+    <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>132</v>
       </c>
@@ -3093,7 +3233,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15">
+    <row r="20" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>133</v>
       </c>
@@ -3104,7 +3244,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15">
+    <row r="21" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>134</v>
       </c>
@@ -3115,7 +3255,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="30">
+    <row r="22" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>135</v>
       </c>
@@ -3126,7 +3266,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="30">
+    <row r="23" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>136</v>
       </c>
@@ -3137,7 +3277,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="30">
+    <row r="24" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>137</v>
       </c>
@@ -3148,7 +3288,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="30">
+    <row r="25" spans="1:3" ht="48" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>138</v>
       </c>
@@ -3159,7 +3299,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="30">
+    <row r="26" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>139</v>
       </c>
@@ -3170,7 +3310,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="60">
+    <row r="27" spans="1:3" ht="80" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>140</v>
       </c>
@@ -3181,7 +3321,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15">
+    <row r="28" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>141</v>
       </c>
@@ -3192,7 +3332,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15">
+    <row r="29" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>142</v>
       </c>
@@ -3203,7 +3343,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15">
+    <row r="30" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>143</v>
       </c>
@@ -3214,7 +3354,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15">
+    <row r="31" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>144</v>
       </c>
@@ -3225,7 +3365,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="30">
+    <row r="32" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>145</v>
       </c>
@@ -3236,7 +3376,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15">
+    <row r="33" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>146</v>
       </c>
@@ -3247,7 +3387,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="30">
+    <row r="34" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>147</v>
       </c>
@@ -3258,7 +3398,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="30">
+    <row r="35" spans="1:3" ht="48" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>148</v>
       </c>
@@ -3269,7 +3409,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="30">
+    <row r="36" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>149</v>
       </c>
@@ -3280,7 +3420,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15">
+    <row r="37" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>150</v>
       </c>
@@ -3291,7 +3431,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="30">
+    <row r="38" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>151</v>
       </c>
@@ -3302,7 +3442,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="30">
+    <row r="39" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>152</v>
       </c>
@@ -3313,7 +3453,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="30">
+    <row r="40" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>153</v>
       </c>
@@ -3324,7 +3464,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="30">
+    <row r="41" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>154</v>
       </c>
@@ -3335,7 +3475,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="15">
+    <row r="42" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>155</v>
       </c>
@@ -3346,7 +3486,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="30">
+    <row r="43" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>156</v>
       </c>
@@ -3360,10 +3500,5 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/Team Report_Rafif, Maha, Saloni-Final.xlsx
+++ b/Team Report_Rafif, Maha, Saloni-Final.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="246">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -797,6 +797,9 @@
   </si>
   <si>
     <t>T10.03</t>
+  </si>
+  <si>
+    <t>T10.04</t>
   </si>
 </sst>
 </file>
@@ -1115,11 +1118,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2119494336"/>
-        <c:axId val="-2119491408"/>
+        <c:axId val="-2086818368"/>
+        <c:axId val="-2086815488"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-2119494336"/>
+        <c:axId val="-2086818368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1129,14 +1132,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2119491408"/>
+        <c:crossAx val="-2086815488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-2119491408"/>
+        <c:axId val="-2086815488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1147,7 +1150,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2119494336"/>
+        <c:crossAx val="-2086818368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1628,7 +1631,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
@@ -2114,7 +2117,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2179,14 +2182,14 @@
         <v>6</v>
       </c>
       <c r="D3">
-        <v>67</v>
+        <v>104</v>
       </c>
       <c r="E3">
-        <v>320</v>
+        <v>390</v>
       </c>
       <c r="F3" s="8">
         <f>(D3-D2)/E3*60</f>
-        <v>12.5625</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -2201,7 +2204,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="150" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="150" workbookViewId="0">
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
@@ -2622,8 +2625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="150" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2909,6 +2912,9 @@
       </c>
     </row>
     <row r="36" spans="1:2" ht="26" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>245</v>
+      </c>
       <c r="B36" s="16" t="s">
         <v>241</v>
       </c>

--- a/Team Report_Rafif, Maha, Saloni-Final.xlsx
+++ b/Team Report_Rafif, Maha, Saloni-Final.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26207"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27510"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/salonisetia/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafifarab/Desktop/SSW-555-GEDCOM/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,9 @@
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -1118,11 +1121,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2086818368"/>
-        <c:axId val="-2086815488"/>
+        <c:axId val="775248576"/>
+        <c:axId val="766691600"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-2086818368"/>
+        <c:axId val="775248576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1132,14 +1135,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2086815488"/>
+        <c:crossAx val="766691600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-2086815488"/>
+        <c:axId val="766691600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1150,7 +1153,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2086818368"/>
+        <c:crossAx val="775248576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2204,8 +2207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="150" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2313,7 +2316,7 @@
         <v>161</v>
       </c>
       <c r="D7" t="s">
-        <v>175</v>
+        <v>213</v>
       </c>
       <c r="E7">
         <v>100</v>
@@ -2437,7 +2440,7 @@
         <v>161</v>
       </c>
       <c r="D20" t="s">
-        <v>175</v>
+        <v>213</v>
       </c>
       <c r="E20">
         <v>100</v>
@@ -2625,7 +2628,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>

--- a/Team Report_Rafif, Maha, Saloni-Final.xlsx
+++ b/Team Report_Rafif, Maha, Saloni-Final.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27510"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25317"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafifarab/Desktop/SSW-555-GEDCOM/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -21,13 +16,13 @@
     <sheet name="Sprint4" sheetId="6" r:id="rId7"/>
     <sheet name="Stories" sheetId="11" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
@@ -937,7 +932,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -969,6 +964,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="74">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1121,11 +1117,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="775248576"/>
-        <c:axId val="766691600"/>
+        <c:axId val="2130230328"/>
+        <c:axId val="2130233400"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="775248576"/>
+        <c:axId val="2130230328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1135,14 +1131,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="766691600"/>
+        <c:crossAx val="2130233400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="766691600"/>
+        <c:axId val="2130233400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1153,7 +1149,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="775248576"/>
+        <c:crossAx val="2130230328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1531,15 +1527,15 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5" customWidth="1"/>
-    <col min="3" max="3" width="8.5" customWidth="1"/>
-    <col min="4" max="5" width="20.5" customWidth="1"/>
+    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" customWidth="1"/>
+    <col min="4" max="5" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>18</v>
       </c>
@@ -1556,7 +1552,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>159</v>
       </c>
@@ -1573,7 +1569,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>160</v>
       </c>
@@ -1590,7 +1586,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>161</v>
       </c>
@@ -1607,7 +1603,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5">
       <c r="D9" s="4" t="s">
         <v>29</v>
       </c>
@@ -1627,6 +1623,11 @@
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1638,16 +1639,16 @@
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.6640625" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>210</v>
       </c>
@@ -1664,7 +1665,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1681,7 +1682,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1698,7 +1699,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1715,7 +1716,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5">
       <c r="B5" t="s">
         <v>118</v>
       </c>
@@ -1723,7 +1724,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5">
       <c r="B6" t="s">
         <v>119</v>
       </c>
@@ -1731,7 +1732,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5">
       <c r="B7" t="s">
         <v>120</v>
       </c>
@@ -1739,7 +1740,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1756,7 +1757,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5">
       <c r="B9" t="s">
         <v>122</v>
       </c>
@@ -1764,7 +1765,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5">
       <c r="B10" t="s">
         <v>123</v>
       </c>
@@ -1772,7 +1773,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>2</v>
       </c>
@@ -1789,7 +1790,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5">
       <c r="B12" t="s">
         <v>125</v>
       </c>
@@ -1797,7 +1798,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5">
       <c r="B13" t="s">
         <v>126</v>
       </c>
@@ -1805,7 +1806,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5">
       <c r="B14" t="s">
         <v>127</v>
       </c>
@@ -1813,7 +1814,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5">
       <c r="B15" t="s">
         <v>128</v>
       </c>
@@ -1821,7 +1822,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5">
       <c r="B16" t="s">
         <v>129</v>
       </c>
@@ -1829,7 +1830,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>2</v>
       </c>
@@ -1846,7 +1847,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5">
       <c r="B18" t="s">
         <v>131</v>
       </c>
@@ -1854,7 +1855,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5">
       <c r="B19" t="s">
         <v>132</v>
       </c>
@@ -1862,7 +1863,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5">
       <c r="B20" t="s">
         <v>133</v>
       </c>
@@ -1870,7 +1871,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5">
       <c r="B21" t="s">
         <v>134</v>
       </c>
@@ -1878,7 +1879,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5">
       <c r="B22" t="s">
         <v>135</v>
       </c>
@@ -1886,7 +1887,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5">
       <c r="A23">
         <v>2</v>
       </c>
@@ -1903,7 +1904,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5">
       <c r="A24">
         <v>1</v>
       </c>
@@ -1920,7 +1921,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5">
       <c r="B25" t="s">
         <v>138</v>
       </c>
@@ -1928,7 +1929,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5">
       <c r="B26" t="s">
         <v>139</v>
       </c>
@@ -1936,7 +1937,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5">
       <c r="B27" t="s">
         <v>140</v>
       </c>
@@ -1944,7 +1945,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5">
       <c r="A28">
         <v>1</v>
       </c>
@@ -1961,7 +1962,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5">
       <c r="B29" t="s">
         <v>142</v>
       </c>
@@ -1969,7 +1970,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5">
       <c r="A30">
         <v>1</v>
       </c>
@@ -1986,7 +1987,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:5">
       <c r="B31" t="s">
         <v>144</v>
       </c>
@@ -1994,7 +1995,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:5">
       <c r="B32" t="s">
         <v>145</v>
       </c>
@@ -2002,7 +2003,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5">
       <c r="B33" t="s">
         <v>146</v>
       </c>
@@ -2010,7 +2011,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5">
       <c r="B34" t="s">
         <v>147</v>
       </c>
@@ -2018,7 +2019,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5">
       <c r="B35" t="s">
         <v>148</v>
       </c>
@@ -2026,7 +2027,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5">
       <c r="B36" t="s">
         <v>149</v>
       </c>
@@ -2034,7 +2035,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5">
       <c r="A37">
         <v>2</v>
       </c>
@@ -2051,7 +2052,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5">
       <c r="B38" t="s">
         <v>151</v>
       </c>
@@ -2059,7 +2060,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5">
       <c r="A39">
         <v>2</v>
       </c>
@@ -2076,7 +2077,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5">
       <c r="B40" t="s">
         <v>153</v>
       </c>
@@ -2084,7 +2085,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5">
       <c r="B41" t="s">
         <v>154</v>
       </c>
@@ -2092,7 +2093,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5">
       <c r="B42" t="s">
         <v>155</v>
       </c>
@@ -2100,7 +2101,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5">
       <c r="B43" t="s">
         <v>156</v>
       </c>
@@ -2112,6 +2113,11 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2123,17 +2129,17 @@
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="2"/>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="3" max="3" width="12.5" customWidth="1"/>
-    <col min="4" max="4" width="7.1640625" customWidth="1"/>
-    <col min="5" max="5" width="6.83203125" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="8" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="2"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" s="4" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2153,7 +2159,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="A2" s="2">
         <v>40440</v>
       </c>
@@ -2173,7 +2179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6">
       <c r="A3" s="2">
         <v>40454</v>
       </c>
@@ -2200,6 +2206,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2207,25 +2218,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" style="6"/>
-    <col min="11" max="11" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="6"/>
+    <col min="11" max="11" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -2254,7 +2265,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9">
       <c r="A2" s="4" t="s">
         <v>115</v>
       </c>
@@ -2283,10 +2294,10 @@
         <v>41182</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9">
       <c r="A3" s="4"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9">
       <c r="A4" s="14" t="s">
         <v>184</v>
       </c>
@@ -2294,7 +2305,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9">
       <c r="A5" s="14" t="s">
         <v>185</v>
       </c>
@@ -2302,10 +2313,10 @@
         <v>187</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9">
       <c r="A6" s="14"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9">
       <c r="A7" s="4" t="s">
         <v>117</v>
       </c>
@@ -2334,10 +2345,10 @@
         <v>41184</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9">
       <c r="A8" s="4"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>178</v>
       </c>
@@ -2345,7 +2356,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>180</v>
       </c>
@@ -2353,7 +2364,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>182</v>
       </c>
@@ -2361,7 +2372,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9">
       <c r="A13" s="4" t="s">
         <v>121</v>
       </c>
@@ -2390,11 +2401,11 @@
         <v>41181</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9">
       <c r="A14" s="4"/>
       <c r="B14"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9">
       <c r="A15" s="14" t="s">
         <v>188</v>
       </c>
@@ -2402,7 +2413,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9">
       <c r="A16" s="14" t="s">
         <v>189</v>
       </c>
@@ -2410,7 +2421,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="39" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9" ht="26">
       <c r="A17" s="14" t="s">
         <v>200</v>
       </c>
@@ -2418,7 +2429,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="39" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9" ht="26">
       <c r="A18" s="14" t="s">
         <v>201</v>
       </c>
@@ -2426,10 +2437,10 @@
         <v>203</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9">
       <c r="A19" s="4"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9">
       <c r="A20" s="4" t="s">
         <v>137</v>
       </c>
@@ -2458,11 +2469,11 @@
         <v>41184</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9">
       <c r="A21" s="4"/>
       <c r="B21"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9">
       <c r="A22" s="14" t="s">
         <v>195</v>
       </c>
@@ -2470,7 +2481,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9">
       <c r="A23" s="14" t="s">
         <v>196</v>
       </c>
@@ -2478,7 +2489,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="26" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9" ht="26">
       <c r="A24" s="14" t="s">
         <v>197</v>
       </c>
@@ -2486,11 +2497,11 @@
         <v>194</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9">
       <c r="A25" s="14"/>
       <c r="B25" s="15"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9">
       <c r="A26" s="4" t="s">
         <v>141</v>
       </c>
@@ -2519,11 +2530,11 @@
         <v>41184</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9">
       <c r="A27" s="4"/>
       <c r="B27"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9">
       <c r="A28" s="14" t="s">
         <v>191</v>
       </c>
@@ -2531,11 +2542,11 @@
         <v>190</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9">
       <c r="A29" s="14"/>
       <c r="B29"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:9">
       <c r="A30" s="4" t="s">
         <v>143</v>
       </c>
@@ -2564,11 +2575,11 @@
         <v>41184</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:9">
       <c r="A31" s="4"/>
       <c r="B31"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:9">
       <c r="A32" s="14" t="s">
         <v>204</v>
       </c>
@@ -2576,7 +2587,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:2">
       <c r="A33" s="14" t="s">
         <v>207</v>
       </c>
@@ -2584,35 +2595,35 @@
         <v>206</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:2">
       <c r="B35" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:2">
       <c r="B36" s="5"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:2">
       <c r="B37" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:2">
       <c r="B38" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:2">
       <c r="B39" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:2">
       <c r="B41" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:2">
       <c r="B42" s="1" t="s">
         <v>232</v>
       </c>
@@ -2621,6 +2632,11 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2628,16 +2644,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="35.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -2666,7 +2682,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9">
       <c r="A2" s="4" t="s">
         <v>130</v>
       </c>
@@ -2677,7 +2693,7 @@
         <v>160</v>
       </c>
       <c r="D2" t="s">
-        <v>175</v>
+        <v>213</v>
       </c>
       <c r="E2">
         <v>17</v>
@@ -2685,8 +2701,17 @@
       <c r="F2">
         <v>80</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="G2">
+        <v>13</v>
+      </c>
+      <c r="H2">
+        <v>15</v>
+      </c>
+      <c r="I2" s="17">
+        <v>41192</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="14" t="s">
         <v>222</v>
       </c>
@@ -2694,7 +2719,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9">
       <c r="A5" s="14" t="s">
         <v>223</v>
       </c>
@@ -2702,7 +2727,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9">
       <c r="A7" s="4" t="s">
         <v>136</v>
       </c>
@@ -2722,7 +2747,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9">
       <c r="A9" s="14" t="s">
         <v>214</v>
       </c>
@@ -2730,7 +2755,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9">
       <c r="A10" s="14" t="s">
         <v>216</v>
       </c>
@@ -2738,7 +2763,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9">
       <c r="A13" s="4" t="s">
         <v>150</v>
       </c>
@@ -2758,7 +2783,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>226</v>
       </c>
@@ -2766,7 +2791,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>227</v>
       </c>
@@ -2774,7 +2799,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>230</v>
       </c>
@@ -2782,7 +2807,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6">
       <c r="A19" s="4" t="s">
         <v>152</v>
       </c>
@@ -2802,7 +2827,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>218</v>
       </c>
@@ -2810,7 +2835,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>220</v>
       </c>
@@ -2818,7 +2843,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6">
       <c r="A24" s="4" t="s">
         <v>116</v>
       </c>
@@ -2838,7 +2863,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>233</v>
       </c>
@@ -2846,7 +2871,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>236</v>
       </c>
@@ -2854,7 +2879,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
         <v>237</v>
       </c>
@@ -2862,7 +2887,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
         <v>238</v>
       </c>
@@ -2870,7 +2895,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:6">
       <c r="A31" s="4" t="s">
         <v>124</v>
       </c>
@@ -2890,7 +2915,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>239</v>
       </c>
@@ -2898,7 +2923,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>243</v>
       </c>
@@ -2906,7 +2931,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>244</v>
       </c>
@@ -2914,7 +2939,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="26" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:2" ht="26">
       <c r="A36" t="s">
         <v>245</v>
       </c>
@@ -2926,6 +2951,11 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2937,9 +2967,9 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="26" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -2971,6 +3001,11 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2982,9 +3017,9 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="26" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -3016,6 +3051,11 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3027,13 +3067,13 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="24.5" customWidth="1"/>
-    <col min="3" max="3" width="49.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" customWidth="1"/>
+    <col min="3" max="3" width="49.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>114</v>
       </c>
@@ -3044,7 +3084,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" ht="30">
       <c r="A2" t="s">
         <v>115</v>
       </c>
@@ -3055,7 +3095,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" ht="15">
       <c r="A3" t="s">
         <v>116</v>
       </c>
@@ -3066,7 +3106,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" ht="15">
       <c r="A4" t="s">
         <v>117</v>
       </c>
@@ -3077,7 +3117,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" ht="30">
       <c r="A5" t="s">
         <v>118</v>
       </c>
@@ -3088,7 +3128,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" ht="15">
       <c r="A6" t="s">
         <v>119</v>
       </c>
@@ -3099,7 +3139,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" ht="15">
       <c r="A7" t="s">
         <v>120</v>
       </c>
@@ -3110,7 +3150,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="48" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" ht="45">
       <c r="A8" t="s">
         <v>121</v>
       </c>
@@ -3121,7 +3161,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" ht="30">
       <c r="A9" t="s">
         <v>122</v>
       </c>
@@ -3132,7 +3172,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" ht="30">
       <c r="A10" t="s">
         <v>123</v>
       </c>
@@ -3143,7 +3183,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" ht="15">
       <c r="A11" t="s">
         <v>124</v>
       </c>
@@ -3154,7 +3194,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3" ht="15">
       <c r="A12" t="s">
         <v>125</v>
       </c>
@@ -3165,7 +3205,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="48" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3" ht="30">
       <c r="A13" t="s">
         <v>126</v>
       </c>
@@ -3176,7 +3216,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3" ht="30">
       <c r="A14" t="s">
         <v>127</v>
       </c>
@@ -3187,7 +3227,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3" ht="15">
       <c r="A15" t="s">
         <v>128</v>
       </c>
@@ -3198,7 +3238,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3" ht="15">
       <c r="A16" t="s">
         <v>129</v>
       </c>
@@ -3209,7 +3249,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3" ht="15">
       <c r="A17" t="s">
         <v>130</v>
       </c>
@@ -3220,7 +3260,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3" ht="15">
       <c r="A18" t="s">
         <v>131</v>
       </c>
@@ -3231,7 +3271,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3" ht="15">
       <c r="A19" t="s">
         <v>132</v>
       </c>
@@ -3242,7 +3282,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3" ht="15">
       <c r="A20" t="s">
         <v>133</v>
       </c>
@@ -3253,7 +3293,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3" ht="15">
       <c r="A21" t="s">
         <v>134</v>
       </c>
@@ -3264,7 +3304,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3" ht="30">
       <c r="A22" t="s">
         <v>135</v>
       </c>
@@ -3275,7 +3315,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3" ht="30">
       <c r="A23" t="s">
         <v>136</v>
       </c>
@@ -3286,7 +3326,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3" ht="30">
       <c r="A24" t="s">
         <v>137</v>
       </c>
@@ -3297,7 +3337,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="48" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3" ht="30">
       <c r="A25" t="s">
         <v>138</v>
       </c>
@@ -3308,7 +3348,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3" ht="30">
       <c r="A26" t="s">
         <v>139</v>
       </c>
@@ -3319,7 +3359,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="80" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3" ht="60">
       <c r="A27" t="s">
         <v>140</v>
       </c>
@@ -3330,7 +3370,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3" ht="15">
       <c r="A28" t="s">
         <v>141</v>
       </c>
@@ -3341,7 +3381,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3" ht="15">
       <c r="A29" t="s">
         <v>142</v>
       </c>
@@ -3352,7 +3392,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3" ht="15">
       <c r="A30" t="s">
         <v>143</v>
       </c>
@@ -3363,7 +3403,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:3" ht="15">
       <c r="A31" t="s">
         <v>144</v>
       </c>
@@ -3374,7 +3414,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:3" ht="30">
       <c r="A32" t="s">
         <v>145</v>
       </c>
@@ -3385,7 +3425,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3" ht="15">
       <c r="A33" t="s">
         <v>146</v>
       </c>
@@ -3396,7 +3436,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:3" ht="30">
       <c r="A34" t="s">
         <v>147</v>
       </c>
@@ -3407,7 +3447,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="48" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:3" ht="30">
       <c r="A35" t="s">
         <v>148</v>
       </c>
@@ -3418,7 +3458,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:3" ht="30">
       <c r="A36" t="s">
         <v>149</v>
       </c>
@@ -3429,7 +3469,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:3" ht="15">
       <c r="A37" t="s">
         <v>150</v>
       </c>
@@ -3440,7 +3480,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:3" ht="30">
       <c r="A38" t="s">
         <v>151</v>
       </c>
@@ -3451,7 +3491,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:3" ht="30">
       <c r="A39" t="s">
         <v>152</v>
       </c>
@@ -3462,7 +3502,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:3" ht="30">
       <c r="A40" t="s">
         <v>153</v>
       </c>
@@ -3473,7 +3513,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:3" ht="30">
       <c r="A41" t="s">
         <v>154</v>
       </c>
@@ -3484,7 +3524,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:3" ht="15">
       <c r="A42" t="s">
         <v>155</v>
       </c>
@@ -3495,7 +3535,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:3" ht="30">
       <c r="A43" t="s">
         <v>156</v>
       </c>
@@ -3509,5 +3549,10 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Team Report_Rafif, Maha, Saloni-Final.xlsx
+++ b/Team Report_Rafif, Maha, Saloni-Final.xlsx
@@ -856,7 +856,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="74">
+  <cellStyleXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -913,6 +913,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -966,7 +967,7 @@
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="74">
+  <cellStyles count="75">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1012,6 +1013,7 @@
     <cellStyle name="Followed Hyperlink" xfId="71" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1117,11 +1119,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2130230328"/>
-        <c:axId val="2130233400"/>
+        <c:axId val="2090731736"/>
+        <c:axId val="2090030200"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="2130230328"/>
+        <c:axId val="2090731736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1131,14 +1133,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2130233400"/>
+        <c:crossAx val="2090030200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="2130233400"/>
+        <c:axId val="2090030200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1149,7 +1151,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2130230328"/>
+        <c:crossAx val="2090731736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1635,7 +1637,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
+    <sheetView topLeftCell="A12" zoomScale="150" workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
@@ -2645,7 +2647,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>

--- a/Team Report_Rafif, Maha, Saloni-Final.xlsx
+++ b/Team Report_Rafif, Maha, Saloni-Final.xlsx
@@ -856,7 +856,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="75">
+  <cellStyleXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -913,6 +913,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -967,7 +969,7 @@
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="75">
+  <cellStyles count="77">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1014,6 +1016,8 @@
     <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="73" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1119,11 +1123,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2090731736"/>
-        <c:axId val="2090030200"/>
+        <c:axId val="2127919864"/>
+        <c:axId val="2127922936"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="2090731736"/>
+        <c:axId val="2127919864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1133,14 +1137,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2090030200"/>
+        <c:crossAx val="2127922936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="2090030200"/>
+        <c:axId val="2127922936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1151,7 +1155,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2090731736"/>
+        <c:crossAx val="2127919864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2646,8 +2650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -2776,13 +2780,22 @@
         <v>160</v>
       </c>
       <c r="D13" t="s">
-        <v>175</v>
+        <v>213</v>
       </c>
       <c r="E13">
         <v>30</v>
       </c>
       <c r="F13">
         <v>90</v>
+      </c>
+      <c r="G13">
+        <v>17</v>
+      </c>
+      <c r="H13">
+        <v>13</v>
+      </c>
+      <c r="I13" s="17">
+        <v>41193</v>
       </c>
     </row>
     <row r="15" spans="1:9">

--- a/Team Report_Rafif, Maha, Saloni-Final.xlsx
+++ b/Team Report_Rafif, Maha, Saloni-Final.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25317"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26207"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/salonisetia/Documents/SSW-555-GEDCOM/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="4"/>
   </bookViews>
@@ -16,13 +21,10 @@
     <sheet name="Sprint4" sheetId="6" r:id="rId7"/>
     <sheet name="Stories" sheetId="11" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
   </extLst>
 </workbook>
@@ -1123,11 +1125,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2127919864"/>
-        <c:axId val="2127922936"/>
+        <c:axId val="-2131724048"/>
+        <c:axId val="-2131727040"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="2127919864"/>
+        <c:axId val="-2131724048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1137,14 +1139,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2127922936"/>
+        <c:crossAx val="-2131727040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="2127922936"/>
+        <c:axId val="-2131727040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1155,7 +1157,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2127919864"/>
+        <c:crossAx val="-2131724048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1533,15 +1535,15 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.42578125" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" customWidth="1"/>
-    <col min="4" max="5" width="20.42578125" customWidth="1"/>
+    <col min="1" max="1" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5" customWidth="1"/>
+    <col min="3" max="3" width="8.5" customWidth="1"/>
+    <col min="4" max="5" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>18</v>
       </c>
@@ -1558,7 +1560,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>159</v>
       </c>
@@ -1575,7 +1577,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>160</v>
       </c>
@@ -1592,7 +1594,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>161</v>
       </c>
@@ -1609,7 +1611,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D9" s="4" t="s">
         <v>29</v>
       </c>
@@ -1629,11 +1631,6 @@
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1645,16 +1642,16 @@
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>210</v>
       </c>
@@ -1671,7 +1668,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1688,7 +1685,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1705,7 +1702,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1722,7 +1719,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>118</v>
       </c>
@@ -1730,7 +1727,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>119</v>
       </c>
@@ -1738,7 +1735,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
         <v>120</v>
       </c>
@@ -1746,7 +1743,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1763,7 +1760,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
         <v>122</v>
       </c>
@@ -1771,7 +1768,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
         <v>123</v>
       </c>
@@ -1779,7 +1776,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>2</v>
       </c>
@@ -1796,7 +1793,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
         <v>125</v>
       </c>
@@ -1804,7 +1801,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
         <v>126</v>
       </c>
@@ -1812,7 +1809,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
         <v>127</v>
       </c>
@@ -1820,7 +1817,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
         <v>128</v>
       </c>
@@ -1828,7 +1825,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
         <v>129</v>
       </c>
@@ -1836,7 +1833,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>2</v>
       </c>
@@ -1853,7 +1850,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
         <v>131</v>
       </c>
@@ -1861,7 +1858,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
         <v>132</v>
       </c>
@@ -1869,7 +1866,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
         <v>133</v>
       </c>
@@ -1877,7 +1874,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
         <v>134</v>
       </c>
@@ -1885,7 +1882,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
         <v>135</v>
       </c>
@@ -1893,7 +1890,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>2</v>
       </c>
@@ -1910,7 +1907,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>1</v>
       </c>
@@ -1927,7 +1924,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
         <v>138</v>
       </c>
@@ -1935,7 +1932,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
         <v>139</v>
       </c>
@@ -1943,7 +1940,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
         <v>140</v>
       </c>
@@ -1951,7 +1948,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>1</v>
       </c>
@@ -1968,7 +1965,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
         <v>142</v>
       </c>
@@ -1976,7 +1973,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>1</v>
       </c>
@@ -1993,7 +1990,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
         <v>144</v>
       </c>
@@ -2001,7 +1998,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
         <v>145</v>
       </c>
@@ -2009,7 +2006,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
         <v>146</v>
       </c>
@@ -2017,7 +2014,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B34" t="s">
         <v>147</v>
       </c>
@@ -2025,7 +2022,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
         <v>148</v>
       </c>
@@ -2033,7 +2030,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B36" t="s">
         <v>149</v>
       </c>
@@ -2041,7 +2038,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>2</v>
       </c>
@@ -2058,7 +2055,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B38" t="s">
         <v>151</v>
       </c>
@@ -2066,7 +2063,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>2</v>
       </c>
@@ -2083,7 +2080,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B40" t="s">
         <v>153</v>
       </c>
@@ -2091,7 +2088,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B41" t="s">
         <v>154</v>
       </c>
@@ -2099,7 +2096,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B42" t="s">
         <v>155</v>
       </c>
@@ -2107,7 +2104,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B43" t="s">
         <v>156</v>
       </c>
@@ -2119,11 +2116,6 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2135,17 +2127,17 @@
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="2"/>
-    <col min="2" max="2" width="16.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" customWidth="1"/>
-    <col min="5" max="5" width="6.85546875" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="4" max="4" width="7.1640625" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2165,7 +2157,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>40440</v>
       </c>
@@ -2185,7 +2177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>40454</v>
       </c>
@@ -2212,11 +2204,6 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2228,21 +2215,21 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" style="6"/>
-    <col min="11" max="11" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" style="6"/>
+    <col min="11" max="11" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -2271,7 +2258,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>115</v>
       </c>
@@ -2300,10 +2287,10 @@
         <v>41182</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="14" t="s">
         <v>184</v>
       </c>
@@ -2311,7 +2298,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="14" t="s">
         <v>185</v>
       </c>
@@ -2319,10 +2306,10 @@
         <v>187</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="14"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>117</v>
       </c>
@@ -2351,10 +2338,10 @@
         <v>41184</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="4"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>178</v>
       </c>
@@ -2362,7 +2349,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>180</v>
       </c>
@@ -2370,7 +2357,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>182</v>
       </c>
@@ -2378,7 +2365,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
         <v>121</v>
       </c>
@@ -2407,11 +2394,11 @@
         <v>41181</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="14" t="s">
         <v>188</v>
       </c>
@@ -2419,7 +2406,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="14" t="s">
         <v>189</v>
       </c>
@@ -2427,7 +2414,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="26">
+    <row r="17" spans="1:9" ht="39" x14ac:dyDescent="0.15">
       <c r="A17" s="14" t="s">
         <v>200</v>
       </c>
@@ -2435,7 +2422,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="26">
+    <row r="18" spans="1:9" ht="39" x14ac:dyDescent="0.15">
       <c r="A18" s="14" t="s">
         <v>201</v>
       </c>
@@ -2443,10 +2430,10 @@
         <v>203</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
         <v>137</v>
       </c>
@@ -2475,11 +2462,11 @@
         <v>41184</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
       <c r="B21"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="14" t="s">
         <v>195</v>
       </c>
@@ -2487,7 +2474,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="14" t="s">
         <v>196</v>
       </c>
@@ -2495,7 +2482,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="26">
+    <row r="24" spans="1:9" ht="26" x14ac:dyDescent="0.15">
       <c r="A24" s="14" t="s">
         <v>197</v>
       </c>
@@ -2503,11 +2490,11 @@
         <v>194</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="14"/>
       <c r="B25" s="15"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
         <v>141</v>
       </c>
@@ -2536,11 +2523,11 @@
         <v>41184</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" s="4"/>
       <c r="B27"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" s="14" t="s">
         <v>191</v>
       </c>
@@ -2548,11 +2535,11 @@
         <v>190</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" s="14"/>
       <c r="B29"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
         <v>143</v>
       </c>
@@ -2581,11 +2568,11 @@
         <v>41184</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" s="4"/>
       <c r="B31"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" s="14" t="s">
         <v>204</v>
       </c>
@@ -2593,7 +2580,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="14" t="s">
         <v>207</v>
       </c>
@@ -2601,35 +2588,35 @@
         <v>206</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B35" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B36" s="5"/>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B37" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B38" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B39" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B41" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B42" s="1" t="s">
         <v>232</v>
       </c>
@@ -2638,11 +2625,6 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2650,16 +2632,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -2688,7 +2670,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>130</v>
       </c>
@@ -2717,7 +2699,7 @@
         <v>41192</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="14" t="s">
         <v>222</v>
       </c>
@@ -2725,7 +2707,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="14" t="s">
         <v>223</v>
       </c>
@@ -2733,7 +2715,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>136</v>
       </c>
@@ -2753,7 +2735,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="14" t="s">
         <v>214</v>
       </c>
@@ -2761,7 +2743,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="14" t="s">
         <v>216</v>
       </c>
@@ -2769,7 +2751,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
         <v>150</v>
       </c>
@@ -2798,7 +2780,7 @@
         <v>41193</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>226</v>
       </c>
@@ -2806,7 +2788,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>227</v>
       </c>
@@ -2814,7 +2796,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>230</v>
       </c>
@@ -2822,7 +2804,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
         <v>152</v>
       </c>
@@ -2842,7 +2824,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>218</v>
       </c>
@@ -2850,7 +2832,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>220</v>
       </c>
@@ -2858,7 +2840,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
         <v>116</v>
       </c>
@@ -2869,7 +2851,7 @@
         <v>161</v>
       </c>
       <c r="D24" t="s">
-        <v>175</v>
+        <v>213</v>
       </c>
       <c r="E24">
         <v>30</v>
@@ -2877,8 +2859,17 @@
       <c r="F24">
         <v>60</v>
       </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="G24">
+        <v>28</v>
+      </c>
+      <c r="H24">
+        <v>60</v>
+      </c>
+      <c r="I24" s="17">
+        <v>41193</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>233</v>
       </c>
@@ -2886,7 +2877,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>236</v>
       </c>
@@ -2894,7 +2885,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>237</v>
       </c>
@@ -2902,7 +2893,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>238</v>
       </c>
@@ -2910,7 +2901,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
         <v>124</v>
       </c>
@@ -2930,7 +2921,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>239</v>
       </c>
@@ -2938,7 +2929,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>243</v>
       </c>
@@ -2946,7 +2937,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>244</v>
       </c>
@@ -2954,7 +2945,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="26">
+    <row r="36" spans="1:2" ht="26" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>245</v>
       </c>
@@ -2966,11 +2957,6 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2982,9 +2968,9 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" ht="26" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -3016,11 +3002,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3032,9 +3013,9 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" ht="26" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -3066,11 +3047,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3082,13 +3058,13 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="24.42578125" customWidth="1"/>
-    <col min="3" max="3" width="49.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5" customWidth="1"/>
+    <col min="3" max="3" width="49.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1">
+    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>114</v>
       </c>
@@ -3099,7 +3075,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="30">
+    <row r="2" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>115</v>
       </c>
@@ -3110,7 +3086,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15">
+    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>116</v>
       </c>
@@ -3121,7 +3097,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15">
+    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>117</v>
       </c>
@@ -3132,7 +3108,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30">
+    <row r="5" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>118</v>
       </c>
@@ -3143,7 +3119,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15">
+    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>119</v>
       </c>
@@ -3154,7 +3130,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15">
+    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>120</v>
       </c>
@@ -3165,7 +3141,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="45">
+    <row r="8" spans="1:3" ht="48" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>121</v>
       </c>
@@ -3176,7 +3152,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30">
+    <row r="9" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>122</v>
       </c>
@@ -3187,7 +3163,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="30">
+    <row r="10" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>123</v>
       </c>
@@ -3198,7 +3174,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15">
+    <row r="11" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>124</v>
       </c>
@@ -3209,7 +3185,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15">
+    <row r="12" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>125</v>
       </c>
@@ -3220,7 +3196,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="30">
+    <row r="13" spans="1:3" ht="48" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>126</v>
       </c>
@@ -3231,7 +3207,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="30">
+    <row r="14" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>127</v>
       </c>
@@ -3242,7 +3218,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15">
+    <row r="15" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>128</v>
       </c>
@@ -3253,7 +3229,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15">
+    <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>129</v>
       </c>
@@ -3264,7 +3240,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15">
+    <row r="17" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>130</v>
       </c>
@@ -3275,7 +3251,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15">
+    <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>131</v>
       </c>
@@ -3286,7 +3262,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15">
+    <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>132</v>
       </c>
@@ -3297,7 +3273,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15">
+    <row r="20" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>133</v>
       </c>
@@ -3308,7 +3284,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15">
+    <row r="21" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>134</v>
       </c>
@@ -3319,7 +3295,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="30">
+    <row r="22" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>135</v>
       </c>
@@ -3330,7 +3306,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="30">
+    <row r="23" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>136</v>
       </c>
@@ -3341,7 +3317,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="30">
+    <row r="24" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>137</v>
       </c>
@@ -3352,7 +3328,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="30">
+    <row r="25" spans="1:3" ht="48" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>138</v>
       </c>
@@ -3363,7 +3339,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="30">
+    <row r="26" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>139</v>
       </c>
@@ -3374,7 +3350,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="60">
+    <row r="27" spans="1:3" ht="80" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>140</v>
       </c>
@@ -3385,7 +3361,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15">
+    <row r="28" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>141</v>
       </c>
@@ -3396,7 +3372,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15">
+    <row r="29" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>142</v>
       </c>
@@ -3407,7 +3383,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15">
+    <row r="30" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>143</v>
       </c>
@@ -3418,7 +3394,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15">
+    <row r="31" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>144</v>
       </c>
@@ -3429,7 +3405,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="30">
+    <row r="32" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>145</v>
       </c>
@@ -3440,7 +3416,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15">
+    <row r="33" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>146</v>
       </c>
@@ -3451,7 +3427,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="30">
+    <row r="34" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>147</v>
       </c>
@@ -3462,7 +3438,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="30">
+    <row r="35" spans="1:3" ht="48" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>148</v>
       </c>
@@ -3473,7 +3449,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="30">
+    <row r="36" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>149</v>
       </c>
@@ -3484,7 +3460,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15">
+    <row r="37" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>150</v>
       </c>
@@ -3495,7 +3471,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="30">
+    <row r="38" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>151</v>
       </c>
@@ -3506,7 +3482,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="30">
+    <row r="39" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>152</v>
       </c>
@@ -3517,7 +3493,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="30">
+    <row r="40" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>153</v>
       </c>
@@ -3528,7 +3504,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="30">
+    <row r="41" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>154</v>
       </c>
@@ -3539,7 +3515,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="15">
+    <row r="42" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>155</v>
       </c>
@@ -3550,7 +3526,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="30">
+    <row r="43" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>156</v>
       </c>
@@ -3564,10 +3540,5 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/Team Report_Rafif, Maha, Saloni-Final.xlsx
+++ b/Team Report_Rafif, Maha, Saloni-Final.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26207"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27510"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/salonisetia/Documents/SSW-555-GEDCOM/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafifarab/Desktop/SSW-555-GEDCOM/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,9 @@
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -1125,11 +1128,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2131724048"/>
-        <c:axId val="-2131727040"/>
+        <c:axId val="771830144"/>
+        <c:axId val="764290704"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-2131724048"/>
+        <c:axId val="771830144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1139,14 +1142,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2131727040"/>
+        <c:crossAx val="764290704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-2131727040"/>
+        <c:axId val="764290704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1157,7 +1160,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2131724048"/>
+        <c:crossAx val="771830144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1638,8 +1641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="150" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="150" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1904,7 +1907,7 @@
         <v>159</v>
       </c>
       <c r="E23" t="s">
-        <v>175</v>
+        <v>213</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
@@ -2077,7 +2080,7 @@
         <v>159</v>
       </c>
       <c r="E39" t="s">
-        <v>175</v>
+        <v>213</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
@@ -2632,8 +2635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2726,13 +2729,22 @@
         <v>159</v>
       </c>
       <c r="D7" t="s">
-        <v>175</v>
+        <v>213</v>
       </c>
       <c r="E7">
         <v>15</v>
       </c>
       <c r="F7">
         <v>90</v>
+      </c>
+      <c r="G7">
+        <v>21</v>
+      </c>
+      <c r="H7">
+        <v>30</v>
+      </c>
+      <c r="I7" s="17">
+        <v>41192</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
@@ -2815,13 +2827,22 @@
         <v>159</v>
       </c>
       <c r="D19" t="s">
-        <v>175</v>
+        <v>213</v>
       </c>
       <c r="E19">
         <v>20</v>
       </c>
       <c r="F19">
         <v>90</v>
+      </c>
+      <c r="G19">
+        <v>26</v>
+      </c>
+      <c r="H19">
+        <v>60</v>
+      </c>
+      <c r="I19" s="17">
+        <v>41193</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">

--- a/Team Report_Rafif, Maha, Saloni-Final.xlsx
+++ b/Team Report_Rafif, Maha, Saloni-Final.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -1128,11 +1128,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="771830144"/>
-        <c:axId val="764290704"/>
+        <c:axId val="774677632"/>
+        <c:axId val="769365872"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="771830144"/>
+        <c:axId val="774677632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1142,14 +1142,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="764290704"/>
+        <c:crossAx val="769365872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="764290704"/>
+        <c:axId val="769365872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1160,7 +1160,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="771830144"/>
+        <c:crossAx val="774677632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1641,7 +1641,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
@@ -2635,7 +2635,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>

--- a/Team Report_Rafif, Maha, Saloni-Final.xlsx
+++ b/Team Report_Rafif, Maha, Saloni-Final.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -1128,11 +1128,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="774677632"/>
-        <c:axId val="769365872"/>
+        <c:axId val="751500272"/>
+        <c:axId val="779516080"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="774677632"/>
+        <c:axId val="751500272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1142,14 +1142,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="769365872"/>
+        <c:crossAx val="779516080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="769365872"/>
+        <c:axId val="779516080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1160,7 +1160,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="774677632"/>
+        <c:crossAx val="751500272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1641,8 +1641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2635,8 +2635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>

--- a/Team Report_Rafif, Maha, Saloni-Final.xlsx
+++ b/Team Report_Rafif, Maha, Saloni-Final.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27510"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26207"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafifarab/Desktop/SSW-555-GEDCOM/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/salonisetia/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,6 @@
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -34,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="250">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -586,9 +583,6 @@
     <t>Unique name and birthdate</t>
   </si>
   <si>
-    <t>Initiated</t>
-  </si>
-  <si>
     <t>SSW-555-GEDCOM</t>
   </si>
   <si>
@@ -803,6 +797,21 @@
   </si>
   <si>
     <t>T10.04</t>
+  </si>
+  <si>
+    <t>Review Results:</t>
+  </si>
+  <si>
+    <t>Updating existing code to incorporate new requirements.</t>
+  </si>
+  <si>
+    <t>Pair Programming</t>
+  </si>
+  <si>
+    <t>Avoid miscommunication</t>
+  </si>
+  <si>
+    <t>Procastination</t>
   </si>
 </sst>
 </file>
@@ -1098,6 +1107,9 @@
                 <c:pt idx="1">
                   <c:v>40454.0</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>41193.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1112,6 +1124,9 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>36.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1128,11 +1143,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="751500272"/>
-        <c:axId val="779516080"/>
+        <c:axId val="-2087937168"/>
+        <c:axId val="-2085122304"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="751500272"/>
+        <c:axId val="-2087937168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1142,14 +1157,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="779516080"/>
+        <c:crossAx val="-2085122304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="779516080"/>
+        <c:axId val="-2085122304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1160,7 +1175,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="751500272"/>
+        <c:crossAx val="-2087937168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1608,7 +1623,7 @@
         <v>172</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E5" t="s">
         <v>170</v>
@@ -1619,7 +1634,7 @@
         <v>29</v>
       </c>
       <c r="E9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -1641,8 +1656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView topLeftCell="A16" zoomScale="150" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1656,19 +1671,19 @@
   <sheetData>
     <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -1685,7 +1700,7 @@
         <v>159</v>
       </c>
       <c r="E2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -1702,7 +1717,7 @@
         <v>161</v>
       </c>
       <c r="E3" t="s">
-        <v>175</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -1719,7 +1734,7 @@
         <v>161</v>
       </c>
       <c r="E4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
@@ -1760,7 +1775,7 @@
         <v>160</v>
       </c>
       <c r="E8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
@@ -1793,7 +1808,7 @@
         <v>161</v>
       </c>
       <c r="E11" t="s">
-        <v>175</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
@@ -1850,7 +1865,7 @@
         <v>160</v>
       </c>
       <c r="E17" t="s">
-        <v>175</v>
+        <v>212</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
@@ -1907,7 +1922,7 @@
         <v>159</v>
       </c>
       <c r="E23" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
@@ -1924,7 +1939,7 @@
         <v>161</v>
       </c>
       <c r="E24" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
@@ -1965,7 +1980,7 @@
         <v>159</v>
       </c>
       <c r="E28" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
@@ -1990,7 +2005,7 @@
         <v>160</v>
       </c>
       <c r="E30" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
@@ -2055,7 +2070,7 @@
         <v>160</v>
       </c>
       <c r="E37" t="s">
-        <v>175</v>
+        <v>212</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
@@ -2080,7 +2095,7 @@
         <v>159</v>
       </c>
       <c r="E39" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
@@ -2124,10 +2139,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2202,6 +2217,28 @@
         <v>16</v>
       </c>
     </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
+        <v>41193</v>
+      </c>
+      <c r="B4">
+        <v>30</v>
+      </c>
+      <c r="C4">
+        <f>B3-B4</f>
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>241</v>
+      </c>
+      <c r="E4">
+        <v>598</v>
+      </c>
+      <c r="F4" s="8">
+        <f>(D4-D3)/E4*60</f>
+        <v>13.74581939799331</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2214,8 +2251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView topLeftCell="A19" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37:B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2272,7 +2309,7 @@
         <v>159</v>
       </c>
       <c r="D2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -2295,18 +2332,18 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
@@ -2323,7 +2360,7 @@
         <v>161</v>
       </c>
       <c r="D7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E7">
         <v>100</v>
@@ -2346,26 +2383,26 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
+        <v>177</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
+        <v>179</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
+        <v>181</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
@@ -2379,7 +2416,7 @@
         <v>160</v>
       </c>
       <c r="D13" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E13">
         <v>100</v>
@@ -2403,34 +2440,34 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="39" x14ac:dyDescent="0.15">
       <c r="A17" s="14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="39" x14ac:dyDescent="0.15">
       <c r="A18" s="14" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
@@ -2447,7 +2484,7 @@
         <v>161</v>
       </c>
       <c r="D20" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E20">
         <v>100</v>
@@ -2471,26 +2508,26 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B23" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="26" x14ac:dyDescent="0.15">
       <c r="A24" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.15">
@@ -2508,7 +2545,7 @@
         <v>159</v>
       </c>
       <c r="D26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E26">
         <v>100</v>
@@ -2532,10 +2569,10 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" s="14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B28" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
@@ -2553,7 +2590,7 @@
         <v>160</v>
       </c>
       <c r="D30" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E30">
         <v>100</v>
@@ -2577,18 +2614,18 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="B32" s="16" t="s">
         <v>204</v>
-      </c>
-      <c r="B32" s="16" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B33" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
@@ -2606,12 +2643,12 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B38" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B39" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
@@ -2621,7 +2658,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B42" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -2633,10 +2670,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2684,7 +2721,7 @@
         <v>160</v>
       </c>
       <c r="D2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E2">
         <v>17</v>
@@ -2704,18 +2741,18 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
@@ -2729,7 +2766,7 @@
         <v>159</v>
       </c>
       <c r="D7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E7">
         <v>15</v>
@@ -2749,18 +2786,18 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="B9" t="s">
         <v>214</v>
-      </c>
-      <c r="B9" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="B10" t="s">
         <v>216</v>
-      </c>
-      <c r="B10" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
@@ -2774,7 +2811,7 @@
         <v>160</v>
       </c>
       <c r="D13" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E13">
         <v>30</v>
@@ -2794,26 +2831,26 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B16" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
+        <v>229</v>
+      </c>
+      <c r="B17" t="s">
         <v>230</v>
-      </c>
-      <c r="B17" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
@@ -2827,7 +2864,7 @@
         <v>159</v>
       </c>
       <c r="D19" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E19">
         <v>20</v>
@@ -2847,18 +2884,18 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
+        <v>217</v>
+      </c>
+      <c r="B21" t="s">
         <v>218</v>
-      </c>
-      <c r="B21" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
+        <v>219</v>
+      </c>
+      <c r="B22" t="s">
         <v>220</v>
-      </c>
-      <c r="B22" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
@@ -2872,7 +2909,7 @@
         <v>161</v>
       </c>
       <c r="D24" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E24">
         <v>30</v>
@@ -2892,34 +2929,34 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B26" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B27" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B28" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B29" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
@@ -2933,7 +2970,7 @@
         <v>161</v>
       </c>
       <c r="D31" t="s">
-        <v>175</v>
+        <v>212</v>
       </c>
       <c r="E31">
         <v>25</v>
@@ -2941,37 +2978,99 @@
       <c r="F31">
         <v>60</v>
       </c>
+      <c r="G31">
+        <v>32</v>
+      </c>
+      <c r="H31">
+        <v>30</v>
+      </c>
+      <c r="I31" s="17">
+        <v>41193</v>
+      </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
+        <v>238</v>
+      </c>
+      <c r="B33" t="s">
         <v>239</v>
-      </c>
-      <c r="B33" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B34" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B35" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="26" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
+        <v>244</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B38" t="s">
         <v>245</v>
       </c>
-      <c r="B36" s="16" t="s">
-        <v>241</v>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B40" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B41" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B42" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B43" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="26" x14ac:dyDescent="0.15">
+      <c r="B44" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B45" s="1"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B46" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B47" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B48" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B49" s="1" t="s">
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -3075,7 +3174,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>

--- a/Team Report_Rafif, Maha, Saloni-Final.xlsx
+++ b/Team Report_Rafif, Maha, Saloni-Final.xlsx
@@ -5,11 +5,11 @@
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/salonisetia/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/salonisetia/Documents/SSW-555-GEDCOM/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="264">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -812,6 +812,48 @@
   </si>
   <si>
     <t>Procastination</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>Initiated</t>
+  </si>
+  <si>
+    <t>T05.01</t>
+  </si>
+  <si>
+    <t>T05.02</t>
+  </si>
+  <si>
+    <t>T05.03</t>
+  </si>
+  <si>
+    <t>Find married individuals</t>
+  </si>
+  <si>
+    <t>Find their death date</t>
+  </si>
+  <si>
+    <t>Marriage date should come before death date</t>
+  </si>
+  <si>
+    <t>T05.04</t>
+  </si>
+  <si>
+    <t>T15.01</t>
+  </si>
+  <si>
+    <t>T15.02</t>
+  </si>
+  <si>
+    <t>Count number of children in a family</t>
+  </si>
+  <si>
+    <t>count should be less than 15</t>
   </si>
 </sst>
 </file>
@@ -1143,11 +1185,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2087937168"/>
-        <c:axId val="-2085122304"/>
+        <c:axId val="-2071487600"/>
+        <c:axId val="-2087588816"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-2087937168"/>
+        <c:axId val="-2071487600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1157,14 +1199,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2085122304"/>
+        <c:crossAx val="-2087588816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-2085122304"/>
+        <c:axId val="-2087588816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1175,7 +1217,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2087937168"/>
+        <c:crossAx val="-2071487600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1656,8 +1698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView topLeftCell="A13" zoomScale="150" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2251,7 +2293,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="B37" sqref="B37:B42"/>
     </sheetView>
   </sheetViews>
@@ -3082,13 +3124,16 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="39.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="26" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
@@ -3117,6 +3162,100 @@
       </c>
       <c r="I1" s="9" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E2">
+        <v>30</v>
+      </c>
+      <c r="F2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="B4" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A5" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="B5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A6" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="B6" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A7" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="B7" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A8" s="14"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A9" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" t="s">
+        <v>161</v>
+      </c>
+      <c r="D9" t="s">
+        <v>252</v>
+      </c>
+      <c r="E9">
+        <v>30</v>
+      </c>
+      <c r="F9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>260</v>
+      </c>
+      <c r="B11" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>261</v>
+      </c>
+      <c r="B12" t="s">
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -3172,10 +3311,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="A11" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3184,7 +3323,7 @@
     <col min="3" max="3" width="49.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>114</v>
       </c>
@@ -3194,8 +3333,11 @@
       <c r="C1" s="5" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+      <c r="D1" s="4" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="32" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>115</v>
       </c>
@@ -3205,8 +3347,11 @@
       <c r="C2" s="11" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+      <c r="D2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>116</v>
       </c>
@@ -3216,8 +3361,11 @@
       <c r="C3" s="11" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+      <c r="D3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>117</v>
       </c>
@@ -3227,8 +3375,11 @@
       <c r="C4" s="11" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+      <c r="D4" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="32" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>118</v>
       </c>
@@ -3239,7 +3390,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>119</v>
       </c>
@@ -3249,8 +3400,11 @@
       <c r="C6" s="11" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+      <c r="D6" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>120</v>
       </c>
@@ -3261,7 +3415,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="48" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" ht="48" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>121</v>
       </c>
@@ -3271,8 +3425,11 @@
       <c r="C8" s="11" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+      <c r="D8" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="32" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>122</v>
       </c>
@@ -3283,7 +3440,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" ht="32" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>123</v>
       </c>
@@ -3294,7 +3451,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" ht="32" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>124</v>
       </c>
@@ -3304,8 +3461,11 @@
       <c r="C11" s="11" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+      <c r="D11" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="32" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>125</v>
       </c>
@@ -3316,7 +3476,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="48" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" ht="48" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>126</v>
       </c>
@@ -3327,7 +3487,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" ht="32" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>127</v>
       </c>
@@ -3338,7 +3498,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" ht="32" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>128</v>
       </c>
@@ -3349,7 +3509,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>129</v>
       </c>
@@ -3359,8 +3519,11 @@
       <c r="C16" s="11" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+      <c r="D16" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="32" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>130</v>
       </c>
@@ -3370,8 +3533,11 @@
       <c r="C17" s="11" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+      <c r="D17" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="16" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>131</v>
       </c>
@@ -3382,7 +3548,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>132</v>
       </c>
@@ -3393,7 +3559,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" ht="16" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>133</v>
       </c>
@@ -3404,7 +3570,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4" ht="32" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>134</v>
       </c>
@@ -3415,7 +3581,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" ht="32" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>135</v>
       </c>
@@ -3426,7 +3592,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4" ht="32" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>136</v>
       </c>
@@ -3436,8 +3602,11 @@
       <c r="C23" s="11" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+      <c r="D23" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="32" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>137</v>
       </c>
@@ -3447,8 +3616,11 @@
       <c r="C24" s="11" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="48" x14ac:dyDescent="0.15">
+      <c r="D24" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="48" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>138</v>
       </c>
@@ -3459,7 +3631,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4" ht="32" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>139</v>
       </c>
@@ -3470,7 +3642,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="80" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4" ht="80" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>140</v>
       </c>
@@ -3481,7 +3653,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4" ht="16" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>141</v>
       </c>
@@ -3491,8 +3663,11 @@
       <c r="C28" s="11" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+      <c r="D28" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="16" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>142</v>
       </c>
@@ -3503,7 +3678,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4" ht="16" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>143</v>
       </c>
@@ -3513,8 +3688,11 @@
       <c r="C30" s="11" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+      <c r="D30" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="16" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>144</v>
       </c>
@@ -3525,7 +3703,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4" ht="32" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>145</v>
       </c>
@@ -3536,7 +3714,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4" ht="16" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>146</v>
       </c>
@@ -3547,7 +3725,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4" ht="32" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>147</v>
       </c>
@@ -3558,7 +3736,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="48" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4" ht="48" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>148</v>
       </c>
@@ -3569,7 +3747,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:4" ht="32" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>149</v>
       </c>
@@ -3580,7 +3758,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:4" ht="32" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>150</v>
       </c>
@@ -3590,8 +3768,11 @@
       <c r="C37" s="11" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+      <c r="D37" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="32" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>151</v>
       </c>
@@ -3602,7 +3783,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:4" ht="32" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>152</v>
       </c>
@@ -3612,8 +3793,11 @@
       <c r="C39" s="11" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+      <c r="D39" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="32" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>153</v>
       </c>
@@ -3624,7 +3808,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:4" ht="32" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>154</v>
       </c>
@@ -3635,7 +3819,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:4" ht="32" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>155</v>
       </c>
@@ -3646,7 +3830,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:4" ht="32" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>156</v>
       </c>

--- a/Team Report_Rafif, Maha, Saloni-Final.xlsx
+++ b/Team Report_Rafif, Maha, Saloni-Final.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="272">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -854,6 +854,30 @@
   </si>
   <si>
     <t>count should be less than 15</t>
+  </si>
+  <si>
+    <t>T28.01</t>
+  </si>
+  <si>
+    <t>T28.02</t>
+  </si>
+  <si>
+    <t>T28.03</t>
+  </si>
+  <si>
+    <t>Find children in the family</t>
+  </si>
+  <si>
+    <t>List in order of their birth</t>
+  </si>
+  <si>
+    <t>T30.01</t>
+  </si>
+  <si>
+    <t>T30.02</t>
+  </si>
+  <si>
+    <t>Check if they're living or dead</t>
   </si>
 </sst>
 </file>
@@ -3126,7 +3150,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
@@ -3266,13 +3290,16 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="32.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="26" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
@@ -3301,6 +3328,80 @@
       </c>
       <c r="I1" s="9" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E2">
+        <v>30</v>
+      </c>
+      <c r="F2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>264</v>
+      </c>
+      <c r="B4" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>265</v>
+      </c>
+      <c r="B5" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>266</v>
+      </c>
+      <c r="B6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A8" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" t="s">
+        <v>161</v>
+      </c>
+      <c r="E8">
+        <v>30</v>
+      </c>
+      <c r="F8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>269</v>
+      </c>
+      <c r="B10" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>270</v>
+      </c>
+      <c r="B11" t="s">
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -3313,8 +3414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView topLeftCell="A27" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3677,6 +3778,9 @@
       <c r="C29" s="11" t="s">
         <v>51</v>
       </c>
+      <c r="D29" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="30" spans="1:4" ht="16" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
@@ -3701,6 +3805,9 @@
       </c>
       <c r="C31" s="11" t="s">
         <v>53</v>
+      </c>
+      <c r="D31" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="32" x14ac:dyDescent="0.15">

--- a/Team Report_Rafif, Maha, Saloni-Final.xlsx
+++ b/Team Report_Rafif, Maha, Saloni-Final.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="272">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1209,11 +1209,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2071487600"/>
-        <c:axId val="-2087588816"/>
+        <c:axId val="-2140054496"/>
+        <c:axId val="-2139275904"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-2071487600"/>
+        <c:axId val="-2140054496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1223,14 +1223,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2087588816"/>
+        <c:crossAx val="-2139275904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-2087588816"/>
+        <c:axId val="-2139275904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1241,7 +1241,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2071487600"/>
+        <c:crossAx val="-2140054496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1722,8 +1722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1812,11 +1812,20 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>3</v>
+      </c>
       <c r="B6" t="s">
         <v>119</v>
       </c>
       <c r="C6" t="s">
         <v>70</v>
+      </c>
+      <c r="D6" t="s">
+        <v>161</v>
+      </c>
+      <c r="E6" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -1910,11 +1919,20 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>3</v>
+      </c>
       <c r="B16" t="s">
         <v>129</v>
       </c>
       <c r="C16" t="s">
         <v>82</v>
+      </c>
+      <c r="D16" t="s">
+        <v>161</v>
+      </c>
+      <c r="E16" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
@@ -3159,7 +3177,7 @@
     <col min="2" max="2" width="39.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="26" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -3292,7 +3310,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -3301,7 +3319,7 @@
     <col min="2" max="2" width="32.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="26" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>

--- a/Team Report_Rafif, Maha, Saloni-Final.xlsx
+++ b/Team Report_Rafif, Maha, Saloni-Final.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26207"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25317"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/salonisetia/Documents/SSW-555-GEDCOM/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="2460" yWindow="40" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -21,7 +16,7 @@
     <sheet name="Sprint4" sheetId="6" r:id="rId7"/>
     <sheet name="Stories" sheetId="11" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -31,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="283">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -878,6 +873,39 @@
   </si>
   <si>
     <t>Check if they're living or dead</t>
+  </si>
+  <si>
+    <t>find birthdate</t>
+  </si>
+  <si>
+    <t>compare birth date to today</t>
+  </si>
+  <si>
+    <t>T35.01</t>
+  </si>
+  <si>
+    <t>T35.02</t>
+  </si>
+  <si>
+    <t>T35.03</t>
+  </si>
+  <si>
+    <t>Find Marriage date for each family</t>
+  </si>
+  <si>
+    <t>compare to today</t>
+  </si>
+  <si>
+    <t>print marriage date for next month</t>
+  </si>
+  <si>
+    <t>T39.01</t>
+  </si>
+  <si>
+    <t>T39.02</t>
+  </si>
+  <si>
+    <t>T39.03</t>
   </si>
 </sst>
 </file>
@@ -936,7 +964,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="77">
+  <cellStyleXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -993,6 +1021,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1049,7 +1093,7 @@
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="77">
+  <cellStyles count="93">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1098,6 +1142,22 @@
     <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="75" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1209,11 +1269,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2140054496"/>
-        <c:axId val="-2139275904"/>
+        <c:axId val="-2145426552"/>
+        <c:axId val="2074522616"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-2140054496"/>
+        <c:axId val="-2145426552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1223,14 +1283,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2139275904"/>
+        <c:crossAx val="2074522616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-2139275904"/>
+        <c:axId val="2074522616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1241,7 +1301,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2140054496"/>
+        <c:crossAx val="-2145426552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1619,15 +1679,15 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5" customWidth="1"/>
-    <col min="3" max="3" width="8.5" customWidth="1"/>
-    <col min="4" max="5" width="20.5" customWidth="1"/>
+    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" customWidth="1"/>
+    <col min="4" max="5" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>18</v>
       </c>
@@ -1644,7 +1704,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>159</v>
       </c>
@@ -1661,7 +1721,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>160</v>
       </c>
@@ -1678,7 +1738,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>161</v>
       </c>
@@ -1695,7 +1755,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5">
       <c r="D9" s="4" t="s">
         <v>29</v>
       </c>
@@ -1715,6 +1775,11 @@
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1722,20 +1787,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="150" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.6640625" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>209</v>
       </c>
@@ -1752,7 +1817,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1769,7 +1834,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1786,7 +1851,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1803,7 +1868,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5">
       <c r="B5" t="s">
         <v>118</v>
       </c>
@@ -1811,7 +1876,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1828,7 +1893,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5">
       <c r="B7" t="s">
         <v>120</v>
       </c>
@@ -1836,7 +1901,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1853,7 +1918,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5">
       <c r="B9" t="s">
         <v>122</v>
       </c>
@@ -1861,7 +1926,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5">
       <c r="B10" t="s">
         <v>123</v>
       </c>
@@ -1869,7 +1934,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>2</v>
       </c>
@@ -1886,7 +1951,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5">
       <c r="B12" t="s">
         <v>125</v>
       </c>
@@ -1894,7 +1959,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5">
       <c r="B13" t="s">
         <v>126</v>
       </c>
@@ -1902,7 +1967,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5">
       <c r="B14" t="s">
         <v>127</v>
       </c>
@@ -1910,7 +1975,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5">
       <c r="B15" t="s">
         <v>128</v>
       </c>
@@ -1918,7 +1983,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>3</v>
       </c>
@@ -1935,7 +2000,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>2</v>
       </c>
@@ -1952,7 +2017,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5">
       <c r="B18" t="s">
         <v>131</v>
       </c>
@@ -1960,7 +2025,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5">
       <c r="B19" t="s">
         <v>132</v>
       </c>
@@ -1968,7 +2033,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5">
       <c r="B20" t="s">
         <v>133</v>
       </c>
@@ -1976,7 +2041,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5">
       <c r="B21" t="s">
         <v>134</v>
       </c>
@@ -1984,7 +2049,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5">
       <c r="B22" t="s">
         <v>135</v>
       </c>
@@ -1992,7 +2057,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5">
       <c r="A23">
         <v>2</v>
       </c>
@@ -2009,7 +2074,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5">
       <c r="A24">
         <v>1</v>
       </c>
@@ -2026,7 +2091,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5">
       <c r="B25" t="s">
         <v>138</v>
       </c>
@@ -2034,7 +2099,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5">
       <c r="B26" t="s">
         <v>139</v>
       </c>
@@ -2042,7 +2107,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5">
       <c r="B27" t="s">
         <v>140</v>
       </c>
@@ -2050,7 +2115,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5">
       <c r="A28">
         <v>1</v>
       </c>
@@ -2067,7 +2132,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5">
       <c r="B29" t="s">
         <v>142</v>
       </c>
@@ -2075,7 +2140,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5">
       <c r="A30">
         <v>1</v>
       </c>
@@ -2092,7 +2157,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:5">
       <c r="B31" t="s">
         <v>144</v>
       </c>
@@ -2100,7 +2165,10 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:5">
+      <c r="A32">
+        <v>3</v>
+      </c>
       <c r="B32" t="s">
         <v>145</v>
       </c>
@@ -2108,7 +2176,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5">
       <c r="B33" t="s">
         <v>146</v>
       </c>
@@ -2116,7 +2184,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5">
       <c r="B34" t="s">
         <v>147</v>
       </c>
@@ -2124,7 +2192,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5">
       <c r="B35" t="s">
         <v>148</v>
       </c>
@@ -2132,15 +2200,24 @@
         <v>113</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5">
+      <c r="A36">
+        <v>3</v>
+      </c>
       <c r="B36" t="s">
         <v>149</v>
       </c>
       <c r="C36" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D36" t="s">
+        <v>160</v>
+      </c>
+      <c r="E36" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37">
         <v>2</v>
       </c>
@@ -2157,7 +2234,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5">
       <c r="B38" t="s">
         <v>151</v>
       </c>
@@ -2165,7 +2242,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5">
       <c r="A39">
         <v>2</v>
       </c>
@@ -2182,15 +2259,24 @@
         <v>212</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5">
+      <c r="A40">
+        <v>3</v>
+      </c>
       <c r="B40" t="s">
         <v>153</v>
       </c>
       <c r="C40" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D40" t="s">
+        <v>160</v>
+      </c>
+      <c r="E40" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="B41" t="s">
         <v>154</v>
       </c>
@@ -2198,7 +2284,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5">
       <c r="B42" t="s">
         <v>155</v>
       </c>
@@ -2206,7 +2292,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5">
       <c r="B43" t="s">
         <v>156</v>
       </c>
@@ -2218,6 +2304,11 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2229,17 +2320,17 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="2"/>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="3" max="3" width="12.5" customWidth="1"/>
-    <col min="4" max="4" width="7.1640625" customWidth="1"/>
-    <col min="5" max="5" width="6.83203125" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="8" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="2"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" s="4" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2259,7 +2350,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="A2" s="2">
         <v>40440</v>
       </c>
@@ -2279,7 +2370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6">
       <c r="A3" s="2">
         <v>40454</v>
       </c>
@@ -2301,7 +2392,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6">
       <c r="A4" s="2">
         <v>41193</v>
       </c>
@@ -2328,6 +2419,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2339,21 +2435,21 @@
       <selection activeCell="B37" sqref="B37:B42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" style="6"/>
-    <col min="11" max="11" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="6"/>
+    <col min="11" max="11" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -2382,7 +2478,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9">
       <c r="A2" s="4" t="s">
         <v>115</v>
       </c>
@@ -2411,10 +2507,10 @@
         <v>41182</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9">
       <c r="A3" s="4"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9">
       <c r="A4" s="14" t="s">
         <v>183</v>
       </c>
@@ -2422,7 +2518,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9">
       <c r="A5" s="14" t="s">
         <v>184</v>
       </c>
@@ -2430,10 +2526,10 @@
         <v>186</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9">
       <c r="A6" s="14"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9">
       <c r="A7" s="4" t="s">
         <v>117</v>
       </c>
@@ -2462,10 +2558,10 @@
         <v>41184</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9">
       <c r="A8" s="4"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>177</v>
       </c>
@@ -2473,7 +2569,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>179</v>
       </c>
@@ -2481,7 +2577,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>181</v>
       </c>
@@ -2489,7 +2585,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9">
       <c r="A13" s="4" t="s">
         <v>121</v>
       </c>
@@ -2518,11 +2614,11 @@
         <v>41181</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9">
       <c r="A14" s="4"/>
       <c r="B14"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9">
       <c r="A15" s="14" t="s">
         <v>187</v>
       </c>
@@ -2530,7 +2626,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9">
       <c r="A16" s="14" t="s">
         <v>188</v>
       </c>
@@ -2538,7 +2634,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="39" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9" ht="26">
       <c r="A17" s="14" t="s">
         <v>199</v>
       </c>
@@ -2546,7 +2642,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="39" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9" ht="26">
       <c r="A18" s="14" t="s">
         <v>200</v>
       </c>
@@ -2554,10 +2650,10 @@
         <v>202</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9">
       <c r="A19" s="4"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9">
       <c r="A20" s="4" t="s">
         <v>137</v>
       </c>
@@ -2586,11 +2682,11 @@
         <v>41184</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9">
       <c r="A21" s="4"/>
       <c r="B21"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9">
       <c r="A22" s="14" t="s">
         <v>194</v>
       </c>
@@ -2598,7 +2694,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9">
       <c r="A23" s="14" t="s">
         <v>195</v>
       </c>
@@ -2606,7 +2702,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="26" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9" ht="26">
       <c r="A24" s="14" t="s">
         <v>196</v>
       </c>
@@ -2614,11 +2710,11 @@
         <v>193</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9">
       <c r="A25" s="14"/>
       <c r="B25" s="15"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9">
       <c r="A26" s="4" t="s">
         <v>141</v>
       </c>
@@ -2647,11 +2743,11 @@
         <v>41184</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9">
       <c r="A27" s="4"/>
       <c r="B27"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9">
       <c r="A28" s="14" t="s">
         <v>190</v>
       </c>
@@ -2659,11 +2755,11 @@
         <v>189</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9">
       <c r="A29" s="14"/>
       <c r="B29"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:9">
       <c r="A30" s="4" t="s">
         <v>143</v>
       </c>
@@ -2692,11 +2788,11 @@
         <v>41184</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:9">
       <c r="A31" s="4"/>
       <c r="B31"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:9">
       <c r="A32" s="14" t="s">
         <v>203</v>
       </c>
@@ -2704,7 +2800,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:2">
       <c r="A33" s="14" t="s">
         <v>206</v>
       </c>
@@ -2712,35 +2808,35 @@
         <v>205</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:2">
       <c r="B35" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:2">
       <c r="B36" s="5"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:2">
       <c r="B37" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:2">
       <c r="B38" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:2">
       <c r="B39" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:2">
       <c r="B41" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:2">
       <c r="B42" s="1" t="s">
         <v>231</v>
       </c>
@@ -2749,6 +2845,11 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2756,16 +2857,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView topLeftCell="A5" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21:B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="35.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -2794,7 +2895,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9">
       <c r="A2" s="4" t="s">
         <v>130</v>
       </c>
@@ -2823,7 +2924,7 @@
         <v>41192</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9">
       <c r="A4" s="14" t="s">
         <v>221</v>
       </c>
@@ -2831,7 +2932,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9">
       <c r="A5" s="14" t="s">
         <v>222</v>
       </c>
@@ -2839,7 +2940,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9">
       <c r="A7" s="4" t="s">
         <v>136</v>
       </c>
@@ -2868,7 +2969,7 @@
         <v>41192</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9">
       <c r="A9" s="14" t="s">
         <v>213</v>
       </c>
@@ -2876,7 +2977,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9">
       <c r="A10" s="14" t="s">
         <v>215</v>
       </c>
@@ -2884,7 +2985,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9">
       <c r="A13" s="4" t="s">
         <v>150</v>
       </c>
@@ -2913,7 +3014,7 @@
         <v>41193</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>225</v>
       </c>
@@ -2921,7 +3022,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>226</v>
       </c>
@@ -2929,7 +3030,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
         <v>229</v>
       </c>
@@ -2937,7 +3038,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9">
       <c r="A19" s="4" t="s">
         <v>152</v>
       </c>
@@ -2966,7 +3067,7 @@
         <v>41193</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
         <v>217</v>
       </c>
@@ -2974,7 +3075,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
         <v>219</v>
       </c>
@@ -2982,7 +3083,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9">
       <c r="A24" s="4" t="s">
         <v>116</v>
       </c>
@@ -3011,7 +3112,7 @@
         <v>41193</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9">
       <c r="A26" t="s">
         <v>232</v>
       </c>
@@ -3019,7 +3120,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9">
       <c r="A27" t="s">
         <v>235</v>
       </c>
@@ -3027,7 +3128,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9">
       <c r="A28" t="s">
         <v>236</v>
       </c>
@@ -3035,7 +3136,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9">
       <c r="A29" t="s">
         <v>237</v>
       </c>
@@ -3043,7 +3144,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:9">
       <c r="A31" s="4" t="s">
         <v>124</v>
       </c>
@@ -3072,7 +3173,7 @@
         <v>41193</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>238</v>
       </c>
@@ -3080,7 +3181,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>242</v>
       </c>
@@ -3088,7 +3189,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>243</v>
       </c>
@@ -3096,7 +3197,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="26" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:2" ht="26">
       <c r="A36" t="s">
         <v>244</v>
       </c>
@@ -3104,55 +3205,55 @@
         <v>240</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:2">
       <c r="B38" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:2">
       <c r="B40" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:2">
       <c r="B41" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:2">
       <c r="B42" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:2">
       <c r="B43" s="1" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="26" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:2" ht="26">
       <c r="B44" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:2">
       <c r="B45" s="1"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:2">
       <c r="B46" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:2">
       <c r="B47" s="1" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:2">
       <c r="B48" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:2">
       <c r="B49" s="1" t="s">
         <v>249</v>
       </c>
@@ -3161,23 +3262,28 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="39.33203125" customWidth="1"/>
+    <col min="2" max="2" width="39.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -3206,7 +3312,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9">
       <c r="A2" s="4" t="s">
         <v>119</v>
       </c>
@@ -3226,10 +3332,10 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9">
       <c r="A3" s="4"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9">
       <c r="A4" s="14" t="s">
         <v>253</v>
       </c>
@@ -3237,7 +3343,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9">
       <c r="A5" s="14" t="s">
         <v>254</v>
       </c>
@@ -3245,7 +3351,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9">
       <c r="A6" s="14" t="s">
         <v>255</v>
       </c>
@@ -3253,7 +3359,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9">
       <c r="A7" s="14" t="s">
         <v>259</v>
       </c>
@@ -3261,10 +3367,10 @@
         <v>258</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9">
       <c r="A8" s="14"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9">
       <c r="A9" s="4" t="s">
         <v>129</v>
       </c>
@@ -3284,7 +3390,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>260</v>
       </c>
@@ -3292,17 +3398,111 @@
         <v>262</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>261</v>
       </c>
       <c r="B12" t="s">
         <v>263</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C14" t="s">
+        <v>165</v>
+      </c>
+      <c r="D14" t="s">
+        <v>252</v>
+      </c>
+      <c r="E14">
+        <v>30</v>
+      </c>
+      <c r="F14">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>274</v>
+      </c>
+      <c r="B16" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>275</v>
+      </c>
+      <c r="B17" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>276</v>
+      </c>
+      <c r="B18" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B21" t="s">
+        <v>108</v>
+      </c>
+      <c r="C21" t="s">
+        <v>165</v>
+      </c>
+      <c r="D21" t="s">
+        <v>252</v>
+      </c>
+      <c r="E21">
+        <v>35</v>
+      </c>
+      <c r="F21">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>280</v>
+      </c>
+      <c r="B23" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>281</v>
+      </c>
+      <c r="B24" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>282</v>
+      </c>
+      <c r="B25" t="s">
+        <v>279</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3314,12 +3514,12 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="32.83203125" customWidth="1"/>
+    <col min="2" max="2" width="32.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -3348,7 +3548,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9">
       <c r="A2" s="4" t="s">
         <v>142</v>
       </c>
@@ -3365,7 +3565,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>264</v>
       </c>
@@ -3373,7 +3573,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>265</v>
       </c>
@@ -3381,7 +3581,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>266</v>
       </c>
@@ -3389,7 +3589,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9">
       <c r="A8" s="4" t="s">
         <v>144</v>
       </c>
@@ -3406,7 +3606,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>269</v>
       </c>
@@ -3414,7 +3614,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>270</v>
       </c>
@@ -3425,6 +3625,11 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3436,13 +3641,13 @@
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="24.5" customWidth="1"/>
-    <col min="3" max="3" width="49.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" customWidth="1"/>
+    <col min="3" max="3" width="49.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>114</v>
       </c>
@@ -3456,7 +3661,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="32" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="30">
       <c r="A2" t="s">
         <v>115</v>
       </c>
@@ -3470,7 +3675,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" ht="15">
       <c r="A3" t="s">
         <v>116</v>
       </c>
@@ -3484,7 +3689,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" ht="15">
       <c r="A4" t="s">
         <v>117</v>
       </c>
@@ -3498,7 +3703,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="32" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" ht="30">
       <c r="A5" t="s">
         <v>118</v>
       </c>
@@ -3509,7 +3714,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" ht="15">
       <c r="A6" t="s">
         <v>119</v>
       </c>
@@ -3523,7 +3728,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" ht="15">
       <c r="A7" t="s">
         <v>120</v>
       </c>
@@ -3534,7 +3739,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="48" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" ht="45">
       <c r="A8" t="s">
         <v>121</v>
       </c>
@@ -3548,7 +3753,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="32" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" ht="30">
       <c r="A9" t="s">
         <v>122</v>
       </c>
@@ -3559,7 +3764,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="32" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" ht="30">
       <c r="A10" t="s">
         <v>123</v>
       </c>
@@ -3570,7 +3775,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="32" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" ht="15">
       <c r="A11" t="s">
         <v>124</v>
       </c>
@@ -3584,7 +3789,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="32" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" ht="15">
       <c r="A12" t="s">
         <v>125</v>
       </c>
@@ -3595,7 +3800,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="48" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" ht="30">
       <c r="A13" t="s">
         <v>126</v>
       </c>
@@ -3606,7 +3811,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="32" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" ht="30">
       <c r="A14" t="s">
         <v>127</v>
       </c>
@@ -3617,7 +3822,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="32" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" ht="15">
       <c r="A15" t="s">
         <v>128</v>
       </c>
@@ -3628,7 +3833,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" ht="15">
       <c r="A16" t="s">
         <v>129</v>
       </c>
@@ -3642,7 +3847,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="32" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" ht="15">
       <c r="A17" t="s">
         <v>130</v>
       </c>
@@ -3656,7 +3861,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" ht="15">
       <c r="A18" t="s">
         <v>131</v>
       </c>
@@ -3667,7 +3872,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" ht="15">
       <c r="A19" t="s">
         <v>132</v>
       </c>
@@ -3678,7 +3883,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" ht="15">
       <c r="A20" t="s">
         <v>133</v>
       </c>
@@ -3689,7 +3894,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="32" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4" ht="15">
       <c r="A21" t="s">
         <v>134</v>
       </c>
@@ -3700,7 +3905,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="32" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" ht="30">
       <c r="A22" t="s">
         <v>135</v>
       </c>
@@ -3711,7 +3916,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="32" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4" ht="30">
       <c r="A23" t="s">
         <v>136</v>
       </c>
@@ -3725,7 +3930,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="32" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4" ht="30">
       <c r="A24" t="s">
         <v>137</v>
       </c>
@@ -3739,7 +3944,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="48" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4" ht="30">
       <c r="A25" t="s">
         <v>138</v>
       </c>
@@ -3750,7 +3955,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="32" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4" ht="30">
       <c r="A26" t="s">
         <v>139</v>
       </c>
@@ -3761,7 +3966,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="80" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4" ht="60">
       <c r="A27" t="s">
         <v>140</v>
       </c>
@@ -3772,7 +3977,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4" ht="15">
       <c r="A28" t="s">
         <v>141</v>
       </c>
@@ -3786,7 +3991,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4" ht="15">
       <c r="A29" t="s">
         <v>142</v>
       </c>
@@ -3800,7 +4005,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4" ht="15">
       <c r="A30" t="s">
         <v>143</v>
       </c>
@@ -3814,7 +4019,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4" ht="15">
       <c r="A31" t="s">
         <v>144</v>
       </c>
@@ -3828,7 +4033,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="32" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4" ht="30">
       <c r="A32" t="s">
         <v>145</v>
       </c>
@@ -3839,7 +4044,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4" ht="15">
       <c r="A33" t="s">
         <v>146</v>
       </c>
@@ -3850,7 +4055,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="32" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4" ht="30">
       <c r="A34" t="s">
         <v>147</v>
       </c>
@@ -3861,7 +4066,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="48" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4" ht="30">
       <c r="A35" t="s">
         <v>148</v>
       </c>
@@ -3872,7 +4077,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="32" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:4" ht="30">
       <c r="A36" t="s">
         <v>149</v>
       </c>
@@ -3883,7 +4088,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="32" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:4" ht="15">
       <c r="A37" t="s">
         <v>150</v>
       </c>
@@ -3897,7 +4102,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="32" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:4" ht="30">
       <c r="A38" t="s">
         <v>151</v>
       </c>
@@ -3908,7 +4113,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="32" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:4" ht="30">
       <c r="A39" t="s">
         <v>152</v>
       </c>
@@ -3922,7 +4127,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="32" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:4" ht="30">
       <c r="A40" t="s">
         <v>153</v>
       </c>
@@ -3933,7 +4138,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="32" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:4" ht="30">
       <c r="A41" t="s">
         <v>154</v>
       </c>
@@ -3944,7 +4149,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="32" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:4" ht="15">
       <c r="A42" t="s">
         <v>155</v>
       </c>
@@ -3955,7 +4160,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="32" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:4" ht="30">
       <c r="A43" t="s">
         <v>156</v>
       </c>
@@ -3969,5 +4174,10 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Team Report_Rafif, Maha, Saloni-Final.xlsx
+++ b/Team Report_Rafif, Maha, Saloni-Final.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25317"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26207"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/salonisetia/Documents/SSW-555-GEDCOM/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2460" yWindow="40" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="2460" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
     <sheet name="Sprint4" sheetId="6" r:id="rId7"/>
     <sheet name="Stories" sheetId="11" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -1269,11 +1274,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2145426552"/>
-        <c:axId val="2074522616"/>
+        <c:axId val="-2085044624"/>
+        <c:axId val="-2082826944"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-2145426552"/>
+        <c:axId val="-2085044624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1283,14 +1288,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2074522616"/>
+        <c:crossAx val="-2082826944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="2074522616"/>
+        <c:axId val="-2082826944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1301,7 +1306,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2145426552"/>
+        <c:crossAx val="-2085044624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1679,15 +1684,15 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.42578125" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" customWidth="1"/>
-    <col min="4" max="5" width="20.42578125" customWidth="1"/>
+    <col min="1" max="1" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5" customWidth="1"/>
+    <col min="3" max="3" width="8.5" customWidth="1"/>
+    <col min="4" max="5" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>18</v>
       </c>
@@ -1704,7 +1709,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>159</v>
       </c>
@@ -1721,7 +1726,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>160</v>
       </c>
@@ -1738,7 +1743,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>161</v>
       </c>
@@ -1755,7 +1760,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D9" s="4" t="s">
         <v>29</v>
       </c>
@@ -1775,11 +1780,6 @@
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1787,20 +1787,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="150" workbookViewId="0">
+    <sheetView topLeftCell="A18" zoomScale="150" workbookViewId="0">
       <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>209</v>
       </c>
@@ -1817,7 +1817,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1834,7 +1834,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1851,7 +1851,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1868,7 +1868,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>118</v>
       </c>
@@ -1876,7 +1876,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1893,7 +1893,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
         <v>120</v>
       </c>
@@ -1901,7 +1901,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1918,7 +1918,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
         <v>122</v>
       </c>
@@ -1926,7 +1926,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
         <v>123</v>
       </c>
@@ -1934,7 +1934,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>2</v>
       </c>
@@ -1951,7 +1951,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
         <v>125</v>
       </c>
@@ -1959,7 +1959,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
         <v>126</v>
       </c>
@@ -1967,7 +1967,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
         <v>127</v>
       </c>
@@ -1975,7 +1975,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
         <v>128</v>
       </c>
@@ -1983,7 +1983,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>3</v>
       </c>
@@ -2000,7 +2000,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>2</v>
       </c>
@@ -2017,7 +2017,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
         <v>131</v>
       </c>
@@ -2025,7 +2025,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
         <v>132</v>
       </c>
@@ -2033,7 +2033,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
         <v>133</v>
       </c>
@@ -2041,7 +2041,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
         <v>134</v>
       </c>
@@ -2049,7 +2049,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
         <v>135</v>
       </c>
@@ -2057,7 +2057,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>2</v>
       </c>
@@ -2074,7 +2074,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>1</v>
       </c>
@@ -2091,7 +2091,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
         <v>138</v>
       </c>
@@ -2099,7 +2099,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
         <v>139</v>
       </c>
@@ -2107,7 +2107,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
         <v>140</v>
       </c>
@@ -2115,7 +2115,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>1</v>
       </c>
@@ -2132,7 +2132,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
         <v>142</v>
       </c>
@@ -2140,7 +2140,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>1</v>
       </c>
@@ -2157,7 +2157,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
         <v>144</v>
       </c>
@@ -2165,7 +2165,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>3</v>
       </c>
@@ -2176,7 +2176,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
         <v>146</v>
       </c>
@@ -2184,7 +2184,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B34" t="s">
         <v>147</v>
       </c>
@@ -2192,7 +2192,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
         <v>148</v>
       </c>
@@ -2200,7 +2200,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>3</v>
       </c>
@@ -2217,7 +2217,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>2</v>
       </c>
@@ -2234,7 +2234,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B38" t="s">
         <v>151</v>
       </c>
@@ -2242,7 +2242,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>2</v>
       </c>
@@ -2259,7 +2259,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>3</v>
       </c>
@@ -2276,7 +2276,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B41" t="s">
         <v>154</v>
       </c>
@@ -2284,7 +2284,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B42" t="s">
         <v>155</v>
       </c>
@@ -2292,7 +2292,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B43" t="s">
         <v>156</v>
       </c>
@@ -2304,11 +2304,6 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2320,17 +2315,17 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="2"/>
-    <col min="2" max="2" width="16.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" customWidth="1"/>
-    <col min="5" max="5" width="6.85546875" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="4" max="4" width="7.1640625" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2350,7 +2345,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>40440</v>
       </c>
@@ -2370,7 +2365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>40454</v>
       </c>
@@ -2392,7 +2387,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>41193</v>
       </c>
@@ -2419,11 +2414,6 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2435,21 +2425,21 @@
       <selection activeCell="B37" sqref="B37:B42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" style="6"/>
-    <col min="11" max="11" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" style="6"/>
+    <col min="11" max="11" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -2478,7 +2468,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>115</v>
       </c>
@@ -2507,10 +2497,10 @@
         <v>41182</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="14" t="s">
         <v>183</v>
       </c>
@@ -2518,7 +2508,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="14" t="s">
         <v>184</v>
       </c>
@@ -2526,10 +2516,10 @@
         <v>186</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="14"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>117</v>
       </c>
@@ -2558,10 +2548,10 @@
         <v>41184</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="4"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>177</v>
       </c>
@@ -2569,7 +2559,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>179</v>
       </c>
@@ -2577,7 +2567,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>181</v>
       </c>
@@ -2585,7 +2575,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
         <v>121</v>
       </c>
@@ -2614,11 +2604,11 @@
         <v>41181</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="14" t="s">
         <v>187</v>
       </c>
@@ -2626,7 +2616,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="14" t="s">
         <v>188</v>
       </c>
@@ -2634,7 +2624,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="26">
+    <row r="17" spans="1:9" ht="39" x14ac:dyDescent="0.15">
       <c r="A17" s="14" t="s">
         <v>199</v>
       </c>
@@ -2642,7 +2632,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="26">
+    <row r="18" spans="1:9" ht="39" x14ac:dyDescent="0.15">
       <c r="A18" s="14" t="s">
         <v>200</v>
       </c>
@@ -2650,10 +2640,10 @@
         <v>202</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
         <v>137</v>
       </c>
@@ -2682,11 +2672,11 @@
         <v>41184</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
       <c r="B21"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="14" t="s">
         <v>194</v>
       </c>
@@ -2694,7 +2684,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="14" t="s">
         <v>195</v>
       </c>
@@ -2702,7 +2692,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="26">
+    <row r="24" spans="1:9" ht="26" x14ac:dyDescent="0.15">
       <c r="A24" s="14" t="s">
         <v>196</v>
       </c>
@@ -2710,11 +2700,11 @@
         <v>193</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="14"/>
       <c r="B25" s="15"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
         <v>141</v>
       </c>
@@ -2743,11 +2733,11 @@
         <v>41184</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" s="4"/>
       <c r="B27"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" s="14" t="s">
         <v>190</v>
       </c>
@@ -2755,11 +2745,11 @@
         <v>189</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" s="14"/>
       <c r="B29"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
         <v>143</v>
       </c>
@@ -2788,11 +2778,11 @@
         <v>41184</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" s="4"/>
       <c r="B31"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" s="14" t="s">
         <v>203</v>
       </c>
@@ -2800,7 +2790,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="14" t="s">
         <v>206</v>
       </c>
@@ -2808,35 +2798,35 @@
         <v>205</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B35" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B36" s="5"/>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B37" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B38" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B39" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B41" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B42" s="1" t="s">
         <v>231</v>
       </c>
@@ -2845,11 +2835,6 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2861,12 +2846,12 @@
       <selection activeCell="B21" sqref="B21:B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -2895,7 +2880,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>130</v>
       </c>
@@ -2924,7 +2909,7 @@
         <v>41192</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="14" t="s">
         <v>221</v>
       </c>
@@ -2932,7 +2917,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="14" t="s">
         <v>222</v>
       </c>
@@ -2940,7 +2925,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>136</v>
       </c>
@@ -2969,7 +2954,7 @@
         <v>41192</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="14" t="s">
         <v>213</v>
       </c>
@@ -2977,7 +2962,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="14" t="s">
         <v>215</v>
       </c>
@@ -2985,7 +2970,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
         <v>150</v>
       </c>
@@ -3014,7 +2999,7 @@
         <v>41193</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>225</v>
       </c>
@@ -3022,7 +3007,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>226</v>
       </c>
@@ -3030,7 +3015,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>229</v>
       </c>
@@ -3038,7 +3023,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
         <v>152</v>
       </c>
@@ -3067,7 +3052,7 @@
         <v>41193</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>217</v>
       </c>
@@ -3075,7 +3060,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>219</v>
       </c>
@@ -3083,7 +3068,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
         <v>116</v>
       </c>
@@ -3112,7 +3097,7 @@
         <v>41193</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>232</v>
       </c>
@@ -3120,7 +3105,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>235</v>
       </c>
@@ -3128,7 +3113,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>236</v>
       </c>
@@ -3136,7 +3121,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>237</v>
       </c>
@@ -3144,7 +3129,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
         <v>124</v>
       </c>
@@ -3173,7 +3158,7 @@
         <v>41193</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>238</v>
       </c>
@@ -3181,7 +3166,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>242</v>
       </c>
@@ -3189,7 +3174,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>243</v>
       </c>
@@ -3197,7 +3182,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="26">
+    <row r="36" spans="1:2" ht="26" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>244</v>
       </c>
@@ -3205,55 +3190,55 @@
         <v>240</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B38" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B40" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B41" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B42" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B43" s="1" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="26">
+    <row r="44" spans="1:2" ht="26" x14ac:dyDescent="0.15">
       <c r="B44" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B45" s="1"/>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B46" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B47" s="1" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B48" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="49" spans="2:2">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B49" s="1" t="s">
         <v>249</v>
       </c>
@@ -3262,11 +3247,6 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3274,16 +3254,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="39.28515625" customWidth="1"/>
+    <col min="2" max="2" width="39.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -3312,7 +3292,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>119</v>
       </c>
@@ -3332,10 +3312,10 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="14" t="s">
         <v>253</v>
       </c>
@@ -3343,7 +3323,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="14" t="s">
         <v>254</v>
       </c>
@@ -3351,7 +3331,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="14" t="s">
         <v>255</v>
       </c>
@@ -3359,7 +3339,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="14" t="s">
         <v>259</v>
       </c>
@@ -3367,10 +3347,10 @@
         <v>258</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="14"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>129</v>
       </c>
@@ -3381,7 +3361,7 @@
         <v>161</v>
       </c>
       <c r="D9" t="s">
-        <v>252</v>
+        <v>212</v>
       </c>
       <c r="E9">
         <v>30</v>
@@ -3389,8 +3369,14 @@
       <c r="F9">
         <v>60</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="G9">
+        <v>14</v>
+      </c>
+      <c r="H9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>260</v>
       </c>
@@ -3398,7 +3384,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>261</v>
       </c>
@@ -3406,7 +3392,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
         <v>149</v>
       </c>
@@ -3426,7 +3412,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>274</v>
       </c>
@@ -3434,7 +3420,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>275</v>
       </c>
@@ -3442,7 +3428,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>276</v>
       </c>
@@ -3450,7 +3436,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
         <v>153</v>
       </c>
@@ -3470,7 +3456,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>280</v>
       </c>
@@ -3478,7 +3464,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>281</v>
       </c>
@@ -3486,7 +3472,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>282</v>
       </c>
@@ -3498,11 +3484,6 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3514,12 +3495,12 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="32.85546875" customWidth="1"/>
+    <col min="2" max="2" width="32.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -3548,7 +3529,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>142</v>
       </c>
@@ -3565,7 +3546,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>264</v>
       </c>
@@ -3573,7 +3554,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>265</v>
       </c>
@@ -3581,7 +3562,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>266</v>
       </c>
@@ -3589,7 +3570,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>144</v>
       </c>
@@ -3606,7 +3587,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>269</v>
       </c>
@@ -3614,7 +3595,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>270</v>
       </c>
@@ -3625,11 +3606,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3641,13 +3617,13 @@
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="24.42578125" customWidth="1"/>
-    <col min="3" max="3" width="49.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5" customWidth="1"/>
+    <col min="3" max="3" width="49.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1">
+    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>114</v>
       </c>
@@ -3661,7 +3637,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30">
+    <row r="2" spans="1:4" ht="32" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>115</v>
       </c>
@@ -3675,7 +3651,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15">
+    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>116</v>
       </c>
@@ -3689,7 +3665,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15">
+    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>117</v>
       </c>
@@ -3703,7 +3679,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="30">
+    <row r="5" spans="1:4" ht="32" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>118</v>
       </c>
@@ -3714,7 +3690,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15">
+    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>119</v>
       </c>
@@ -3728,7 +3704,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15">
+    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>120</v>
       </c>
@@ -3739,7 +3715,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="45">
+    <row r="8" spans="1:4" ht="48" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>121</v>
       </c>
@@ -3753,7 +3729,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="30">
+    <row r="9" spans="1:4" ht="32" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>122</v>
       </c>
@@ -3764,7 +3740,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="30">
+    <row r="10" spans="1:4" ht="32" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>123</v>
       </c>
@@ -3775,7 +3751,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15">
+    <row r="11" spans="1:4" ht="32" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>124</v>
       </c>
@@ -3789,7 +3765,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15">
+    <row r="12" spans="1:4" ht="32" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>125</v>
       </c>
@@ -3800,7 +3776,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="30">
+    <row r="13" spans="1:4" ht="48" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>126</v>
       </c>
@@ -3811,7 +3787,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="30">
+    <row r="14" spans="1:4" ht="32" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>127</v>
       </c>
@@ -3822,7 +3798,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15">
+    <row r="15" spans="1:4" ht="32" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>128</v>
       </c>
@@ -3833,7 +3809,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15">
+    <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>129</v>
       </c>
@@ -3847,7 +3823,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15">
+    <row r="17" spans="1:4" ht="32" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>130</v>
       </c>
@@ -3861,7 +3837,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15">
+    <row r="18" spans="1:4" ht="16" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>131</v>
       </c>
@@ -3872,7 +3848,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15">
+    <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>132</v>
       </c>
@@ -3883,7 +3859,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15">
+    <row r="20" spans="1:4" ht="16" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>133</v>
       </c>
@@ -3894,7 +3870,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15">
+    <row r="21" spans="1:4" ht="32" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>134</v>
       </c>
@@ -3905,7 +3881,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="30">
+    <row r="22" spans="1:4" ht="32" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>135</v>
       </c>
@@ -3916,7 +3892,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="30">
+    <row r="23" spans="1:4" ht="32" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>136</v>
       </c>
@@ -3930,7 +3906,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="30">
+    <row r="24" spans="1:4" ht="32" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>137</v>
       </c>
@@ -3944,7 +3920,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="30">
+    <row r="25" spans="1:4" ht="48" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>138</v>
       </c>
@@ -3955,7 +3931,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="30">
+    <row r="26" spans="1:4" ht="32" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>139</v>
       </c>
@@ -3966,7 +3942,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="60">
+    <row r="27" spans="1:4" ht="80" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>140</v>
       </c>
@@ -3977,7 +3953,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15">
+    <row r="28" spans="1:4" ht="16" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>141</v>
       </c>
@@ -3991,7 +3967,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15">
+    <row r="29" spans="1:4" ht="16" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>142</v>
       </c>
@@ -4005,7 +3981,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15">
+    <row r="30" spans="1:4" ht="16" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>143</v>
       </c>
@@ -4019,7 +3995,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15">
+    <row r="31" spans="1:4" ht="16" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>144</v>
       </c>
@@ -4033,7 +4009,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="30">
+    <row r="32" spans="1:4" ht="32" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>145</v>
       </c>
@@ -4044,7 +4020,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15">
+    <row r="33" spans="1:4" ht="16" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>146</v>
       </c>
@@ -4055,7 +4031,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="30">
+    <row r="34" spans="1:4" ht="32" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>147</v>
       </c>
@@ -4066,7 +4042,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="30">
+    <row r="35" spans="1:4" ht="48" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>148</v>
       </c>
@@ -4077,7 +4053,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="30">
+    <row r="36" spans="1:4" ht="32" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>149</v>
       </c>
@@ -4088,7 +4064,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15">
+    <row r="37" spans="1:4" ht="32" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>150</v>
       </c>
@@ -4102,7 +4078,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="30">
+    <row r="38" spans="1:4" ht="32" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>151</v>
       </c>
@@ -4113,7 +4089,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="30">
+    <row r="39" spans="1:4" ht="32" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>152</v>
       </c>
@@ -4127,7 +4103,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="30">
+    <row r="40" spans="1:4" ht="32" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>153</v>
       </c>
@@ -4138,7 +4114,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="30">
+    <row r="41" spans="1:4" ht="32" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>154</v>
       </c>
@@ -4149,7 +4125,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15">
+    <row r="42" spans="1:4" ht="32" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>155</v>
       </c>
@@ -4160,7 +4136,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="30">
+    <row r="43" spans="1:4" ht="32" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>156</v>
       </c>
@@ -4174,10 +4150,5 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/Team Report_Rafif, Maha, Saloni-Final.xlsx
+++ b/Team Report_Rafif, Maha, Saloni-Final.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26207"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27510"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/salonisetia/Documents/SSW-555-GEDCOM/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafifarab/Desktop/SSW-555-GEDCOM/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2460" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="2460" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,9 @@
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -1274,11 +1277,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2085044624"/>
-        <c:axId val="-2082826944"/>
+        <c:axId val="754882000"/>
+        <c:axId val="773775776"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-2085044624"/>
+        <c:axId val="754882000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1288,14 +1291,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2082826944"/>
+        <c:crossAx val="773775776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-2082826944"/>
+        <c:axId val="773775776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1306,7 +1309,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2085044624"/>
+        <c:crossAx val="754882000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2311,8 +2314,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2399,14 +2402,14 @@
         <v>6</v>
       </c>
       <c r="D4">
-        <v>241</v>
+        <v>288</v>
       </c>
       <c r="E4">
-        <v>598</v>
+        <v>688</v>
       </c>
       <c r="F4" s="8">
         <f>(D4-D3)/E4*60</f>
-        <v>13.74581939799331</v>
+        <v>16.046511627906977</v>
       </c>
     </row>
   </sheetData>
@@ -2842,7 +2845,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="B21" sqref="B21:B22"/>
     </sheetView>
   </sheetViews>
@@ -3254,7 +3257,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+    <sheetView topLeftCell="A15" zoomScale="150" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>

--- a/Team Report_Rafif, Maha, Saloni-Final.xlsx
+++ b/Team Report_Rafif, Maha, Saloni-Final.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2460" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="2460" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="293">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -914,6 +914,36 @@
   </si>
   <si>
     <t>T39.03</t>
+  </si>
+  <si>
+    <t>T25.01</t>
+  </si>
+  <si>
+    <t>find first name for individual</t>
+  </si>
+  <si>
+    <t>T25.02</t>
+  </si>
+  <si>
+    <t>check same family</t>
+  </si>
+  <si>
+    <t>T25.03</t>
+  </si>
+  <si>
+    <t>check unique first name</t>
+  </si>
+  <si>
+    <t>T21.01</t>
+  </si>
+  <si>
+    <t>find husband and wife</t>
+  </si>
+  <si>
+    <t>T21.02</t>
+  </si>
+  <si>
+    <t>check correct gender</t>
   </si>
 </sst>
 </file>
@@ -1277,11 +1307,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="754882000"/>
-        <c:axId val="773775776"/>
+        <c:axId val="735540208"/>
+        <c:axId val="768527840"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="754882000"/>
+        <c:axId val="735540208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1291,14 +1321,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="773775776"/>
+        <c:crossAx val="768527840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="773775776"/>
+        <c:axId val="768527840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1309,7 +1339,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="754882000"/>
+        <c:crossAx val="735540208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1790,8 +1820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView topLeftCell="A13" zoomScale="150" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2053,11 +2083,20 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>3</v>
+      </c>
       <c r="B22" t="s">
         <v>135</v>
       </c>
       <c r="C22" t="s">
         <v>88</v>
+      </c>
+      <c r="D22" t="s">
+        <v>159</v>
+      </c>
+      <c r="E22" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
@@ -2103,11 +2142,20 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>3</v>
+      </c>
       <c r="B26" t="s">
         <v>139</v>
       </c>
       <c r="C26" t="s">
         <v>94</v>
+      </c>
+      <c r="D26" t="s">
+        <v>159</v>
+      </c>
+      <c r="E26" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
@@ -2314,7 +2362,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -2424,7 +2472,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
+    <sheetView topLeftCell="A27" zoomScale="150" workbookViewId="0">
       <selection activeCell="B37" sqref="B37:B42"/>
     </sheetView>
   </sheetViews>
@@ -2845,7 +2893,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
+    <sheetView topLeftCell="A33" zoomScale="150" workbookViewId="0">
       <selection activeCell="B21" sqref="B21:B22"/>
     </sheetView>
   </sheetViews>
@@ -3255,10 +3303,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3397,89 +3445,169 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="B14" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="C14" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D14" t="s">
         <v>252</v>
       </c>
       <c r="E14">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F14">
         <v>60</v>
       </c>
     </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>289</v>
+      </c>
+      <c r="B15" t="s">
+        <v>290</v>
+      </c>
+    </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>274</v>
+        <v>291</v>
       </c>
       <c r="B16" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>275</v>
-      </c>
-      <c r="B17" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
-        <v>276</v>
+      <c r="A18" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="B18" t="s">
-        <v>230</v>
+        <v>94</v>
+      </c>
+      <c r="C18" t="s">
+        <v>162</v>
+      </c>
+      <c r="D18" t="s">
+        <v>252</v>
+      </c>
+      <c r="E18">
+        <v>35</v>
+      </c>
+      <c r="F18">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>283</v>
+      </c>
+      <c r="B19" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>285</v>
+      </c>
+      <c r="B20" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" s="4" t="s">
-        <v>153</v>
+      <c r="A21" t="s">
+        <v>287</v>
       </c>
       <c r="B21" t="s">
-        <v>108</v>
-      </c>
-      <c r="C21" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A23" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B23" t="s">
+        <v>104</v>
+      </c>
+      <c r="C23" t="s">
         <v>165</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D23" t="s">
         <v>252</v>
       </c>
-      <c r="E21">
-        <v>35</v>
-      </c>
-      <c r="F21">
+      <c r="E23">
+        <v>30</v>
+      </c>
+      <c r="F23">
         <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
-        <v>280</v>
-      </c>
-      <c r="B23" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
-        <v>281</v>
-      </c>
-      <c r="B24" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
+        <v>274</v>
+      </c>
+      <c r="B25" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>275</v>
+      </c>
+      <c r="B26" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>276</v>
+      </c>
+      <c r="B27" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A30" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B30" t="s">
+        <v>108</v>
+      </c>
+      <c r="C30" t="s">
+        <v>165</v>
+      </c>
+      <c r="D30" t="s">
+        <v>252</v>
+      </c>
+      <c r="E30">
+        <v>35</v>
+      </c>
+      <c r="F30">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>280</v>
+      </c>
+      <c r="B32" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>281</v>
+      </c>
+      <c r="B33" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
         <v>282</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B34" t="s">
         <v>279</v>
       </c>
     </row>

--- a/Team Report_Rafif, Maha, Saloni-Final.xlsx
+++ b/Team Report_Rafif, Maha, Saloni-Final.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27510"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25317"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafifarab/Desktop/SSW-555-GEDCOM/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="2460" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="2"/>
   </bookViews>
@@ -21,13 +16,13 @@
     <sheet name="Sprint4" sheetId="6" r:id="rId7"/>
     <sheet name="Stories" sheetId="11" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
@@ -1277,11 +1272,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="754882000"/>
-        <c:axId val="773775776"/>
+        <c:axId val="-2135303560"/>
+        <c:axId val="-2135300488"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="754882000"/>
+        <c:axId val="-2135303560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1291,14 +1286,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="773775776"/>
+        <c:crossAx val="-2135300488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="773775776"/>
+        <c:axId val="-2135300488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1309,7 +1304,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="754882000"/>
+        <c:crossAx val="-2135303560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1687,15 +1682,15 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5" customWidth="1"/>
-    <col min="3" max="3" width="8.5" customWidth="1"/>
-    <col min="4" max="5" width="20.5" customWidth="1"/>
+    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" customWidth="1"/>
+    <col min="4" max="5" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>18</v>
       </c>
@@ -1712,7 +1707,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>159</v>
       </c>
@@ -1729,7 +1724,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>160</v>
       </c>
@@ -1746,7 +1741,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>161</v>
       </c>
@@ -1763,7 +1758,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5">
       <c r="D9" s="4" t="s">
         <v>29</v>
       </c>
@@ -1783,6 +1778,11 @@
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1794,16 +1794,16 @@
       <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.6640625" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>209</v>
       </c>
@@ -1820,7 +1820,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1837,7 +1837,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1854,7 +1854,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1871,7 +1871,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5">
       <c r="B5" t="s">
         <v>118</v>
       </c>
@@ -1879,7 +1879,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1896,7 +1896,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5">
       <c r="B7" t="s">
         <v>120</v>
       </c>
@@ -1904,7 +1904,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1921,7 +1921,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5">
       <c r="B9" t="s">
         <v>122</v>
       </c>
@@ -1929,7 +1929,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5">
       <c r="B10" t="s">
         <v>123</v>
       </c>
@@ -1937,7 +1937,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>2</v>
       </c>
@@ -1954,7 +1954,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5">
       <c r="B12" t="s">
         <v>125</v>
       </c>
@@ -1962,7 +1962,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5">
       <c r="B13" t="s">
         <v>126</v>
       </c>
@@ -1970,7 +1970,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5">
       <c r="B14" t="s">
         <v>127</v>
       </c>
@@ -1978,7 +1978,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5">
       <c r="B15" t="s">
         <v>128</v>
       </c>
@@ -1986,7 +1986,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>3</v>
       </c>
@@ -2003,7 +2003,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>2</v>
       </c>
@@ -2020,7 +2020,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5">
       <c r="B18" t="s">
         <v>131</v>
       </c>
@@ -2028,7 +2028,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5">
       <c r="B19" t="s">
         <v>132</v>
       </c>
@@ -2036,7 +2036,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5">
       <c r="B20" t="s">
         <v>133</v>
       </c>
@@ -2044,7 +2044,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5">
       <c r="B21" t="s">
         <v>134</v>
       </c>
@@ -2052,7 +2052,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5">
       <c r="B22" t="s">
         <v>135</v>
       </c>
@@ -2060,7 +2060,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5">
       <c r="A23">
         <v>2</v>
       </c>
@@ -2077,7 +2077,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5">
       <c r="A24">
         <v>1</v>
       </c>
@@ -2094,7 +2094,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5">
       <c r="B25" t="s">
         <v>138</v>
       </c>
@@ -2102,7 +2102,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5">
       <c r="B26" t="s">
         <v>139</v>
       </c>
@@ -2110,7 +2110,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5">
       <c r="B27" t="s">
         <v>140</v>
       </c>
@@ -2118,7 +2118,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5">
       <c r="A28">
         <v>1</v>
       </c>
@@ -2135,7 +2135,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5">
       <c r="B29" t="s">
         <v>142</v>
       </c>
@@ -2143,7 +2143,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5">
       <c r="A30">
         <v>1</v>
       </c>
@@ -2160,7 +2160,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:5">
       <c r="B31" t="s">
         <v>144</v>
       </c>
@@ -2168,7 +2168,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:5">
       <c r="A32">
         <v>3</v>
       </c>
@@ -2179,7 +2179,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5">
       <c r="B33" t="s">
         <v>146</v>
       </c>
@@ -2187,7 +2187,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5">
       <c r="B34" t="s">
         <v>147</v>
       </c>
@@ -2195,7 +2195,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5">
       <c r="B35" t="s">
         <v>148</v>
       </c>
@@ -2203,7 +2203,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5">
       <c r="A36">
         <v>3</v>
       </c>
@@ -2220,7 +2220,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5">
       <c r="A37">
         <v>2</v>
       </c>
@@ -2237,7 +2237,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5">
       <c r="B38" t="s">
         <v>151</v>
       </c>
@@ -2245,7 +2245,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5">
       <c r="A39">
         <v>2</v>
       </c>
@@ -2262,7 +2262,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5">
       <c r="A40">
         <v>3</v>
       </c>
@@ -2279,7 +2279,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5">
       <c r="B41" t="s">
         <v>154</v>
       </c>
@@ -2287,7 +2287,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5">
       <c r="B42" t="s">
         <v>155</v>
       </c>
@@ -2295,7 +2295,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5">
       <c r="B43" t="s">
         <v>156</v>
       </c>
@@ -2307,6 +2307,11 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2315,20 +2320,20 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="2"/>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="3" max="3" width="12.5" customWidth="1"/>
-    <col min="4" max="4" width="7.1640625" customWidth="1"/>
-    <col min="5" max="5" width="6.83203125" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="8" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="2"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" s="4" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2348,7 +2353,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="A2" s="2">
         <v>40440</v>
       </c>
@@ -2368,7 +2373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6">
       <c r="A3" s="2">
         <v>40454</v>
       </c>
@@ -2390,7 +2395,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6">
       <c r="A4" s="2">
         <v>41193</v>
       </c>
@@ -2402,14 +2407,14 @@
         <v>6</v>
       </c>
       <c r="D4">
-        <v>288</v>
+        <v>105</v>
       </c>
       <c r="E4">
-        <v>688</v>
+        <v>178</v>
       </c>
       <c r="F4" s="8">
         <f>(D4-D3)/E4*60</f>
-        <v>16.046511627906977</v>
+        <v>0.33707865168539325</v>
       </c>
     </row>
   </sheetData>
@@ -2417,6 +2422,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2428,21 +2438,21 @@
       <selection activeCell="B37" sqref="B37:B42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" style="6"/>
-    <col min="11" max="11" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="6"/>
+    <col min="11" max="11" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -2471,7 +2481,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9">
       <c r="A2" s="4" t="s">
         <v>115</v>
       </c>
@@ -2500,10 +2510,10 @@
         <v>41182</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9">
       <c r="A3" s="4"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9">
       <c r="A4" s="14" t="s">
         <v>183</v>
       </c>
@@ -2511,7 +2521,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9">
       <c r="A5" s="14" t="s">
         <v>184</v>
       </c>
@@ -2519,10 +2529,10 @@
         <v>186</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9">
       <c r="A6" s="14"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9">
       <c r="A7" s="4" t="s">
         <v>117</v>
       </c>
@@ -2551,10 +2561,10 @@
         <v>41184</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9">
       <c r="A8" s="4"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>177</v>
       </c>
@@ -2562,7 +2572,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>179</v>
       </c>
@@ -2570,7 +2580,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>181</v>
       </c>
@@ -2578,7 +2588,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9">
       <c r="A13" s="4" t="s">
         <v>121</v>
       </c>
@@ -2607,11 +2617,11 @@
         <v>41181</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9">
       <c r="A14" s="4"/>
       <c r="B14"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9">
       <c r="A15" s="14" t="s">
         <v>187</v>
       </c>
@@ -2619,7 +2629,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9">
       <c r="A16" s="14" t="s">
         <v>188</v>
       </c>
@@ -2627,7 +2637,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="39" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9" ht="26">
       <c r="A17" s="14" t="s">
         <v>199</v>
       </c>
@@ -2635,7 +2645,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="39" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9" ht="26">
       <c r="A18" s="14" t="s">
         <v>200</v>
       </c>
@@ -2643,10 +2653,10 @@
         <v>202</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9">
       <c r="A19" s="4"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9">
       <c r="A20" s="4" t="s">
         <v>137</v>
       </c>
@@ -2675,11 +2685,11 @@
         <v>41184</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9">
       <c r="A21" s="4"/>
       <c r="B21"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9">
       <c r="A22" s="14" t="s">
         <v>194</v>
       </c>
@@ -2687,7 +2697,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9">
       <c r="A23" s="14" t="s">
         <v>195</v>
       </c>
@@ -2695,7 +2705,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="26" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9" ht="26">
       <c r="A24" s="14" t="s">
         <v>196</v>
       </c>
@@ -2703,11 +2713,11 @@
         <v>193</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9">
       <c r="A25" s="14"/>
       <c r="B25" s="15"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9">
       <c r="A26" s="4" t="s">
         <v>141</v>
       </c>
@@ -2736,11 +2746,11 @@
         <v>41184</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9">
       <c r="A27" s="4"/>
       <c r="B27"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9">
       <c r="A28" s="14" t="s">
         <v>190</v>
       </c>
@@ -2748,11 +2758,11 @@
         <v>189</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9">
       <c r="A29" s="14"/>
       <c r="B29"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:9">
       <c r="A30" s="4" t="s">
         <v>143</v>
       </c>
@@ -2781,11 +2791,11 @@
         <v>41184</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:9">
       <c r="A31" s="4"/>
       <c r="B31"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:9">
       <c r="A32" s="14" t="s">
         <v>203</v>
       </c>
@@ -2793,7 +2803,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:2">
       <c r="A33" s="14" t="s">
         <v>206</v>
       </c>
@@ -2801,35 +2811,35 @@
         <v>205</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:2">
       <c r="B35" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:2">
       <c r="B36" s="5"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:2">
       <c r="B37" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:2">
       <c r="B38" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:2">
       <c r="B39" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:2">
       <c r="B41" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:2">
       <c r="B42" s="1" t="s">
         <v>231</v>
       </c>
@@ -2838,6 +2848,11 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2845,16 +2860,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:B22"/>
+    <sheetView topLeftCell="C1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="35.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -2883,7 +2898,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9">
       <c r="A2" s="4" t="s">
         <v>130</v>
       </c>
@@ -2912,7 +2927,7 @@
         <v>41192</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9">
       <c r="A4" s="14" t="s">
         <v>221</v>
       </c>
@@ -2920,7 +2935,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9">
       <c r="A5" s="14" t="s">
         <v>222</v>
       </c>
@@ -2928,7 +2943,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9">
       <c r="A7" s="4" t="s">
         <v>136</v>
       </c>
@@ -2957,7 +2972,7 @@
         <v>41192</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9">
       <c r="A9" s="14" t="s">
         <v>213</v>
       </c>
@@ -2965,7 +2980,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9">
       <c r="A10" s="14" t="s">
         <v>215</v>
       </c>
@@ -2973,7 +2988,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9">
       <c r="A13" s="4" t="s">
         <v>150</v>
       </c>
@@ -3002,7 +3017,7 @@
         <v>41193</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>225</v>
       </c>
@@ -3010,7 +3025,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>226</v>
       </c>
@@ -3018,7 +3033,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
         <v>229</v>
       </c>
@@ -3026,7 +3041,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9">
       <c r="A19" s="4" t="s">
         <v>152</v>
       </c>
@@ -3055,7 +3070,7 @@
         <v>41193</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
         <v>217</v>
       </c>
@@ -3063,7 +3078,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
         <v>219</v>
       </c>
@@ -3071,7 +3086,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9">
       <c r="A24" s="4" t="s">
         <v>116</v>
       </c>
@@ -3100,7 +3115,7 @@
         <v>41193</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9">
       <c r="A26" t="s">
         <v>232</v>
       </c>
@@ -3108,7 +3123,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9">
       <c r="A27" t="s">
         <v>235</v>
       </c>
@@ -3116,7 +3131,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9">
       <c r="A28" t="s">
         <v>236</v>
       </c>
@@ -3124,7 +3139,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9">
       <c r="A29" t="s">
         <v>237</v>
       </c>
@@ -3132,7 +3147,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:9">
       <c r="A31" s="4" t="s">
         <v>124</v>
       </c>
@@ -3161,7 +3176,7 @@
         <v>41193</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>238</v>
       </c>
@@ -3169,7 +3184,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>242</v>
       </c>
@@ -3177,7 +3192,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>243</v>
       </c>
@@ -3185,7 +3200,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="26" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:2" ht="26">
       <c r="A36" t="s">
         <v>244</v>
       </c>
@@ -3193,55 +3208,55 @@
         <v>240</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:2">
       <c r="B38" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:2">
       <c r="B40" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:2">
       <c r="B41" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:2">
       <c r="B42" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:2">
       <c r="B43" s="1" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="26" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:2" ht="26">
       <c r="B44" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:2">
       <c r="B45" s="1"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:2">
       <c r="B46" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:2">
       <c r="B47" s="1" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:2">
       <c r="B48" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:2">
       <c r="B49" s="1" t="s">
         <v>249</v>
       </c>
@@ -3250,6 +3265,11 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3261,12 +3281,12 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="39.33203125" customWidth="1"/>
+    <col min="2" max="2" width="39.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -3295,7 +3315,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9">
       <c r="A2" s="4" t="s">
         <v>119</v>
       </c>
@@ -3315,10 +3335,10 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9">
       <c r="A3" s="4"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9">
       <c r="A4" s="14" t="s">
         <v>253</v>
       </c>
@@ -3326,7 +3346,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9">
       <c r="A5" s="14" t="s">
         <v>254</v>
       </c>
@@ -3334,7 +3354,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9">
       <c r="A6" s="14" t="s">
         <v>255</v>
       </c>
@@ -3342,7 +3362,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9">
       <c r="A7" s="14" t="s">
         <v>259</v>
       </c>
@@ -3350,10 +3370,10 @@
         <v>258</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9">
       <c r="A8" s="14"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9">
       <c r="A9" s="4" t="s">
         <v>129</v>
       </c>
@@ -3379,7 +3399,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>260</v>
       </c>
@@ -3387,7 +3407,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>261</v>
       </c>
@@ -3395,7 +3415,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9">
       <c r="A14" s="4" t="s">
         <v>149</v>
       </c>
@@ -3415,7 +3435,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>274</v>
       </c>
@@ -3423,7 +3443,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>275</v>
       </c>
@@ -3431,7 +3451,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>276</v>
       </c>
@@ -3439,7 +3459,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6">
       <c r="A21" s="4" t="s">
         <v>153</v>
       </c>
@@ -3459,7 +3479,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>280</v>
       </c>
@@ -3467,7 +3487,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>281</v>
       </c>
@@ -3475,7 +3495,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>282</v>
       </c>
@@ -3487,6 +3507,11 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3498,12 +3523,12 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="32.83203125" customWidth="1"/>
+    <col min="2" max="2" width="32.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -3532,7 +3557,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9">
       <c r="A2" s="4" t="s">
         <v>142</v>
       </c>
@@ -3549,7 +3574,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>264</v>
       </c>
@@ -3557,7 +3582,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>265</v>
       </c>
@@ -3565,7 +3590,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>266</v>
       </c>
@@ -3573,7 +3598,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9">
       <c r="A8" s="4" t="s">
         <v>144</v>
       </c>
@@ -3590,7 +3615,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>269</v>
       </c>
@@ -3598,7 +3623,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>270</v>
       </c>
@@ -3609,6 +3634,11 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3620,13 +3650,13 @@
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="24.5" customWidth="1"/>
-    <col min="3" max="3" width="49.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" customWidth="1"/>
+    <col min="3" max="3" width="49.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>114</v>
       </c>
@@ -3640,7 +3670,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="32" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="30">
       <c r="A2" t="s">
         <v>115</v>
       </c>
@@ -3654,7 +3684,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" ht="15">
       <c r="A3" t="s">
         <v>116</v>
       </c>
@@ -3668,7 +3698,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" ht="15">
       <c r="A4" t="s">
         <v>117</v>
       </c>
@@ -3682,7 +3712,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="32" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" ht="30">
       <c r="A5" t="s">
         <v>118</v>
       </c>
@@ -3693,7 +3723,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" ht="15">
       <c r="A6" t="s">
         <v>119</v>
       </c>
@@ -3707,7 +3737,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" ht="15">
       <c r="A7" t="s">
         <v>120</v>
       </c>
@@ -3718,7 +3748,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="48" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" ht="45">
       <c r="A8" t="s">
         <v>121</v>
       </c>
@@ -3732,7 +3762,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="32" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" ht="30">
       <c r="A9" t="s">
         <v>122</v>
       </c>
@@ -3743,7 +3773,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="32" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" ht="30">
       <c r="A10" t="s">
         <v>123</v>
       </c>
@@ -3754,7 +3784,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="32" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" ht="15">
       <c r="A11" t="s">
         <v>124</v>
       </c>
@@ -3768,7 +3798,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="32" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" ht="15">
       <c r="A12" t="s">
         <v>125</v>
       </c>
@@ -3779,7 +3809,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="48" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" ht="30">
       <c r="A13" t="s">
         <v>126</v>
       </c>
@@ -3790,7 +3820,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="32" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" ht="30">
       <c r="A14" t="s">
         <v>127</v>
       </c>
@@ -3801,7 +3831,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="32" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" ht="15">
       <c r="A15" t="s">
         <v>128</v>
       </c>
@@ -3812,7 +3842,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" ht="15">
       <c r="A16" t="s">
         <v>129</v>
       </c>
@@ -3826,7 +3856,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="32" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" ht="15">
       <c r="A17" t="s">
         <v>130</v>
       </c>
@@ -3840,7 +3870,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" ht="15">
       <c r="A18" t="s">
         <v>131</v>
       </c>
@@ -3851,7 +3881,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" ht="15">
       <c r="A19" t="s">
         <v>132</v>
       </c>
@@ -3862,7 +3892,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" ht="15">
       <c r="A20" t="s">
         <v>133</v>
       </c>
@@ -3873,7 +3903,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="32" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4" ht="15">
       <c r="A21" t="s">
         <v>134</v>
       </c>
@@ -3884,7 +3914,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="32" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" ht="30">
       <c r="A22" t="s">
         <v>135</v>
       </c>
@@ -3895,7 +3925,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="32" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4" ht="30">
       <c r="A23" t="s">
         <v>136</v>
       </c>
@@ -3909,7 +3939,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="32" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4" ht="30">
       <c r="A24" t="s">
         <v>137</v>
       </c>
@@ -3923,7 +3953,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="48" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4" ht="30">
       <c r="A25" t="s">
         <v>138</v>
       </c>
@@ -3934,7 +3964,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="32" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4" ht="30">
       <c r="A26" t="s">
         <v>139</v>
       </c>
@@ -3945,7 +3975,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="80" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4" ht="60">
       <c r="A27" t="s">
         <v>140</v>
       </c>
@@ -3956,7 +3986,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4" ht="15">
       <c r="A28" t="s">
         <v>141</v>
       </c>
@@ -3970,7 +4000,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4" ht="15">
       <c r="A29" t="s">
         <v>142</v>
       </c>
@@ -3984,7 +4014,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4" ht="15">
       <c r="A30" t="s">
         <v>143</v>
       </c>
@@ -3998,7 +4028,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4" ht="15">
       <c r="A31" t="s">
         <v>144</v>
       </c>
@@ -4012,7 +4042,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="32" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4" ht="30">
       <c r="A32" t="s">
         <v>145</v>
       </c>
@@ -4023,7 +4053,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4" ht="15">
       <c r="A33" t="s">
         <v>146</v>
       </c>
@@ -4034,7 +4064,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="32" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4" ht="30">
       <c r="A34" t="s">
         <v>147</v>
       </c>
@@ -4045,7 +4075,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="48" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4" ht="30">
       <c r="A35" t="s">
         <v>148</v>
       </c>
@@ -4056,7 +4086,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="32" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:4" ht="30">
       <c r="A36" t="s">
         <v>149</v>
       </c>
@@ -4067,7 +4097,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="32" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:4" ht="15">
       <c r="A37" t="s">
         <v>150</v>
       </c>
@@ -4081,7 +4111,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="32" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:4" ht="30">
       <c r="A38" t="s">
         <v>151</v>
       </c>
@@ -4092,7 +4122,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="32" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:4" ht="30">
       <c r="A39" t="s">
         <v>152</v>
       </c>
@@ -4106,7 +4136,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="32" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:4" ht="30">
       <c r="A40" t="s">
         <v>153</v>
       </c>
@@ -4117,7 +4147,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="32" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:4" ht="30">
       <c r="A41" t="s">
         <v>154</v>
       </c>
@@ -4128,7 +4158,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="32" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:4" ht="15">
       <c r="A42" t="s">
         <v>155</v>
       </c>
@@ -4139,7 +4169,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="32" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:4" ht="30">
       <c r="A43" t="s">
         <v>156</v>
       </c>
@@ -4153,5 +4183,10 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Team Report_Rafif, Maha, Saloni-Final.xlsx
+++ b/Team Report_Rafif, Maha, Saloni-Final.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25317"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2460" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="2460" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -1272,11 +1272,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2135303560"/>
-        <c:axId val="-2135300488"/>
+        <c:axId val="-2143127992"/>
+        <c:axId val="-2142405624"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-2135303560"/>
+        <c:axId val="-2143127992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1286,14 +1286,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2135300488"/>
+        <c:crossAx val="-2142405624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-2135300488"/>
+        <c:axId val="-2142405624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1304,7 +1304,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2135303560"/>
+        <c:crossAx val="-2143127992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1790,8 +1790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="150" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -2169,9 +2169,6 @@
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32">
-        <v>3</v>
-      </c>
       <c r="B32" t="s">
         <v>145</v>
       </c>
@@ -2319,7 +2316,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -2434,7 +2431,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
+    <sheetView topLeftCell="A18" zoomScale="150" workbookViewId="0">
       <selection activeCell="B37" sqref="B37:B42"/>
     </sheetView>
   </sheetViews>
@@ -2860,7 +2857,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="H2" sqref="H2:H24"/>
     </sheetView>
   </sheetViews>
@@ -3277,7 +3274,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -3646,8 +3643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>

--- a/Team Report_Rafif, Maha, Saloni-Final.xlsx
+++ b/Team Report_Rafif, Maha, Saloni-Final.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="291">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -916,24 +916,6 @@
     <t>T39.03</t>
   </si>
   <si>
-    <t>T25.01</t>
-  </si>
-  <si>
-    <t>find first name for individual</t>
-  </si>
-  <si>
-    <t>T25.02</t>
-  </si>
-  <si>
-    <t>check same family</t>
-  </si>
-  <si>
-    <t>T25.03</t>
-  </si>
-  <si>
-    <t>check unique first name</t>
-  </si>
-  <si>
     <t>T21.01</t>
   </si>
   <si>
@@ -944,6 +926,18 @@
   </si>
   <si>
     <t>check correct gender</t>
+  </si>
+  <si>
+    <t>T31.01</t>
+  </si>
+  <si>
+    <t>T31.02</t>
+  </si>
+  <si>
+    <t>Check age over 30</t>
+  </si>
+  <si>
+    <t>check single people</t>
   </si>
 </sst>
 </file>
@@ -1307,11 +1301,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="735540208"/>
-        <c:axId val="768527840"/>
+        <c:axId val="788299120"/>
+        <c:axId val="764528144"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="735540208"/>
+        <c:axId val="788299120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1321,14 +1315,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="768527840"/>
+        <c:crossAx val="764528144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="768527840"/>
+        <c:axId val="764528144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1339,7 +1333,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="735540208"/>
+        <c:crossAx val="788299120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3306,7 +3300,7 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3465,26 +3459,26 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B15" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="B16" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B18" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="C18" t="s">
         <v>162</v>
@@ -3493,7 +3487,7 @@
         <v>252</v>
       </c>
       <c r="E18">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F18">
         <v>60</v>
@@ -3501,26 +3495,18 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="B19" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="B20" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
-        <v>287</v>
-      </c>
-      <c r="B21" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
@@ -3745,7 +3731,7 @@
   <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView topLeftCell="A27" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="B32" sqref="A32:B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>

--- a/Team Report_Rafif, Maha, Saloni-Final.xlsx
+++ b/Team Report_Rafif, Maha, Saloni-Final.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2460" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="2460" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -1301,11 +1301,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="788299120"/>
-        <c:axId val="764528144"/>
+        <c:axId val="787995520"/>
+        <c:axId val="774403024"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="788299120"/>
+        <c:axId val="787995520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1315,14 +1315,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="764528144"/>
+        <c:crossAx val="774403024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="764528144"/>
+        <c:axId val="774403024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1333,7 +1333,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="788299120"/>
+        <c:crossAx val="787995520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1814,8 +1814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="150" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="150" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32:E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2136,20 +2136,11 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26">
-        <v>3</v>
-      </c>
       <c r="B26" t="s">
         <v>139</v>
       </c>
       <c r="C26" t="s">
         <v>94</v>
-      </c>
-      <c r="D26" t="s">
-        <v>159</v>
-      </c>
-      <c r="E26" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
@@ -2219,6 +2210,12 @@
       </c>
       <c r="C32" t="s">
         <v>101</v>
+      </c>
+      <c r="D32" t="s">
+        <v>159</v>
+      </c>
+      <c r="E32" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
@@ -2466,7 +2463,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScale="150" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScale="150" workbookViewId="0">
       <selection activeCell="B37" sqref="B37:B42"/>
     </sheetView>
   </sheetViews>
@@ -3299,7 +3296,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>

--- a/Team Report_Rafif, Maha, Saloni-Final.xlsx
+++ b/Team Report_Rafif, Maha, Saloni-Final.xlsx
@@ -1301,11 +1301,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="787995520"/>
-        <c:axId val="774403024"/>
+        <c:axId val="781867632"/>
+        <c:axId val="781774384"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="787995520"/>
+        <c:axId val="781867632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1315,14 +1315,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="774403024"/>
+        <c:crossAx val="781774384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="774403024"/>
+        <c:axId val="781774384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1333,7 +1333,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="787995520"/>
+        <c:crossAx val="781867632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>

--- a/Team Report_Rafif, Maha, Saloni-Final.xlsx
+++ b/Team Report_Rafif, Maha, Saloni-Final.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="304">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -938,6 +938,45 @@
   </si>
   <si>
     <t>check single people</t>
+  </si>
+  <si>
+    <t>T04.01</t>
+  </si>
+  <si>
+    <t>Find mariage date</t>
+  </si>
+  <si>
+    <t>Find divorce date</t>
+  </si>
+  <si>
+    <t>Check if divorce happens before marriage</t>
+  </si>
+  <si>
+    <t>T04.02</t>
+  </si>
+  <si>
+    <t>T04.03</t>
+  </si>
+  <si>
+    <t>T06.01</t>
+  </si>
+  <si>
+    <t>Find their divorce date</t>
+  </si>
+  <si>
+    <t>Find death date</t>
+  </si>
+  <si>
+    <t>Check if death happens before divorce</t>
+  </si>
+  <si>
+    <t>T06.02</t>
+  </si>
+  <si>
+    <t>T06.03</t>
+  </si>
+  <si>
+    <t>T06.04</t>
   </si>
 </sst>
 </file>
@@ -1301,11 +1340,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="781867632"/>
-        <c:axId val="781774384"/>
+        <c:axId val="780217152"/>
+        <c:axId val="784938816"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="781867632"/>
+        <c:axId val="780217152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1315,14 +1354,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="781774384"/>
+        <c:crossAx val="784938816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="781774384"/>
+        <c:axId val="784938816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1333,7 +1372,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="781867632"/>
+        <c:crossAx val="780217152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1814,8 +1853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32:E32"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1896,11 +1935,20 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>4</v>
+      </c>
       <c r="B5" t="s">
         <v>118</v>
       </c>
       <c r="C5" t="s">
         <v>69</v>
+      </c>
+      <c r="D5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E5" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -1921,11 +1969,20 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>4</v>
+      </c>
       <c r="B7" t="s">
         <v>120</v>
       </c>
       <c r="C7" t="s">
         <v>71</v>
+      </c>
+      <c r="D7" t="s">
+        <v>159</v>
+      </c>
+      <c r="E7" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
@@ -2463,7 +2520,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="B37" sqref="B37:B42"/>
     </sheetView>
   </sheetViews>
@@ -2884,8 +2941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:B22"/>
+    <sheetView topLeftCell="A10" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26:B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3603,15 +3660,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="32.83203125" customWidth="1"/>
+    <col min="2" max="2" width="36.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
@@ -3715,6 +3772,102 @@
       </c>
       <c r="B11" t="s">
         <v>271</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A13" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" t="s">
+        <v>159</v>
+      </c>
+      <c r="D13" t="s">
+        <v>252</v>
+      </c>
+      <c r="E13">
+        <v>30</v>
+      </c>
+      <c r="F13">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>291</v>
+      </c>
+      <c r="B14" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>295</v>
+      </c>
+      <c r="B15" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>296</v>
+      </c>
+      <c r="B16" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" t="s">
+        <v>159</v>
+      </c>
+      <c r="D18" t="s">
+        <v>252</v>
+      </c>
+      <c r="E18">
+        <v>30</v>
+      </c>
+      <c r="F18">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>297</v>
+      </c>
+      <c r="B19" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>301</v>
+      </c>
+      <c r="B20" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>302</v>
+      </c>
+      <c r="B21" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>303</v>
+      </c>
+      <c r="B22" t="s">
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -3727,8 +3880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B32" sqref="A32:B32"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>

--- a/Team Report_Rafif, Maha, Saloni-Final.xlsx
+++ b/Team Report_Rafif, Maha, Saloni-Final.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27510"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27610"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2460" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="2460" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -1340,11 +1340,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="780217152"/>
-        <c:axId val="784938816"/>
+        <c:axId val="1306140048"/>
+        <c:axId val="1306142368"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="780217152"/>
+        <c:axId val="1306140048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1354,14 +1354,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="784938816"/>
+        <c:crossAx val="1306142368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="784938816"/>
+        <c:axId val="1306142368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1372,7 +1372,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="780217152"/>
+        <c:crossAx val="1306140048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1853,8 +1853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2147,7 +2147,7 @@
         <v>159</v>
       </c>
       <c r="E22" t="s">
-        <v>252</v>
+        <v>212</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
@@ -2272,7 +2272,7 @@
         <v>159</v>
       </c>
       <c r="E32" t="s">
-        <v>252</v>
+        <v>212</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
@@ -3353,8 +3353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3499,16 +3499,25 @@
         <v>88</v>
       </c>
       <c r="C14" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D14" t="s">
-        <v>252</v>
+        <v>212</v>
       </c>
       <c r="E14">
         <v>35</v>
       </c>
       <c r="F14">
         <v>60</v>
+      </c>
+      <c r="G14">
+        <v>39</v>
+      </c>
+      <c r="H14">
+        <v>20</v>
+      </c>
+      <c r="I14" s="17">
+        <v>41203</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
@@ -3527,7 +3536,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
         <v>145</v>
       </c>
@@ -3535,10 +3544,10 @@
         <v>101</v>
       </c>
       <c r="C18" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D18" t="s">
-        <v>252</v>
+        <v>212</v>
       </c>
       <c r="E18">
         <v>30</v>
@@ -3546,8 +3555,17 @@
       <c r="F18">
         <v>60</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G18">
+        <v>25</v>
+      </c>
+      <c r="H18">
+        <v>15</v>
+      </c>
+      <c r="I18" s="17">
+        <v>41203</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>287</v>
       </c>
@@ -3555,7 +3573,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>288</v>
       </c>
@@ -3563,7 +3581,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
         <v>149</v>
       </c>
@@ -3583,7 +3601,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>274</v>
       </c>
@@ -3591,7 +3609,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>275</v>
       </c>
@@ -3599,7 +3617,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>276</v>
       </c>
@@ -3607,7 +3625,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
         <v>153</v>
       </c>
@@ -3627,7 +3645,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>280</v>
       </c>

--- a/Team Report_Rafif, Maha, Saloni-Final.xlsx
+++ b/Team Report_Rafif, Maha, Saloni-Final.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27510"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25317"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafifarab/Desktop/SSW-555-GEDCOM/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2460" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="2460" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -21,20 +16,20 @@
     <sheet name="Sprint4" sheetId="6" r:id="rId7"/>
     <sheet name="Stories" sheetId="11" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="304">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1035,7 +1030,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="93">
+  <cellStyleXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1092,6 +1087,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1164,7 +1164,7 @@
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="93">
+  <cellStyles count="98">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1229,6 +1229,11 @@
     <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="91" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="95" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="97" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1340,11 +1345,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="780217152"/>
-        <c:axId val="784938816"/>
+        <c:axId val="2132053560"/>
+        <c:axId val="2132056680"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="780217152"/>
+        <c:axId val="2132053560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1354,14 +1359,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="784938816"/>
+        <c:crossAx val="2132056680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="784938816"/>
+        <c:axId val="2132056680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1372,7 +1377,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="780217152"/>
+        <c:crossAx val="2132053560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1750,15 +1755,15 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5" customWidth="1"/>
-    <col min="3" max="3" width="8.5" customWidth="1"/>
-    <col min="4" max="5" width="20.5" customWidth="1"/>
+    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" customWidth="1"/>
+    <col min="4" max="5" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>18</v>
       </c>
@@ -1775,7 +1780,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>159</v>
       </c>
@@ -1792,7 +1797,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>160</v>
       </c>
@@ -1809,7 +1814,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>161</v>
       </c>
@@ -1826,7 +1831,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5">
       <c r="D9" s="4" t="s">
         <v>29</v>
       </c>
@@ -1846,6 +1851,11 @@
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1853,20 +1863,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.6640625" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>209</v>
       </c>
@@ -1883,7 +1893,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1900,7 +1910,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1917,7 +1927,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1934,7 +1944,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1951,7 +1961,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1968,7 +1978,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1985,7 +1995,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>1</v>
       </c>
@@ -2002,7 +2012,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5">
       <c r="B9" t="s">
         <v>122</v>
       </c>
@@ -2010,7 +2020,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5">
       <c r="B10" t="s">
         <v>123</v>
       </c>
@@ -2018,7 +2028,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>2</v>
       </c>
@@ -2035,7 +2045,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5">
       <c r="B12" t="s">
         <v>125</v>
       </c>
@@ -2043,7 +2053,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5">
       <c r="B13" t="s">
         <v>126</v>
       </c>
@@ -2051,7 +2061,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5">
       <c r="B14" t="s">
         <v>127</v>
       </c>
@@ -2059,7 +2069,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5">
       <c r="B15" t="s">
         <v>128</v>
       </c>
@@ -2067,7 +2077,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>3</v>
       </c>
@@ -2084,7 +2094,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>2</v>
       </c>
@@ -2101,7 +2111,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5">
       <c r="B18" t="s">
         <v>131</v>
       </c>
@@ -2109,7 +2119,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5">
       <c r="B19" t="s">
         <v>132</v>
       </c>
@@ -2117,7 +2127,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5">
       <c r="B20" t="s">
         <v>133</v>
       </c>
@@ -2125,7 +2135,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5">
       <c r="B21" t="s">
         <v>134</v>
       </c>
@@ -2133,7 +2143,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5">
       <c r="A22">
         <v>3</v>
       </c>
@@ -2150,7 +2160,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5">
       <c r="A23">
         <v>2</v>
       </c>
@@ -2167,7 +2177,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5">
       <c r="A24">
         <v>1</v>
       </c>
@@ -2184,7 +2194,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5">
       <c r="B25" t="s">
         <v>138</v>
       </c>
@@ -2192,7 +2202,10 @@
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>4</v>
+      </c>
       <c r="B26" t="s">
         <v>139</v>
       </c>
@@ -2200,7 +2213,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5">
       <c r="B27" t="s">
         <v>140</v>
       </c>
@@ -2208,7 +2221,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5">
       <c r="A28">
         <v>1</v>
       </c>
@@ -2225,15 +2238,21 @@
         <v>212</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>4</v>
+      </c>
       <c r="B29" t="s">
         <v>142</v>
       </c>
       <c r="C29" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D29" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30">
         <v>1</v>
       </c>
@@ -2250,15 +2269,21 @@
         <v>212</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <v>4</v>
+      </c>
       <c r="B31" t="s">
         <v>144</v>
       </c>
       <c r="C31" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D31" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32">
         <v>3</v>
       </c>
@@ -2275,7 +2300,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5">
       <c r="B33" t="s">
         <v>146</v>
       </c>
@@ -2283,7 +2308,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5">
       <c r="B34" t="s">
         <v>147</v>
       </c>
@@ -2291,7 +2316,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5">
       <c r="B35" t="s">
         <v>148</v>
       </c>
@@ -2299,7 +2324,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5">
       <c r="A36">
         <v>3</v>
       </c>
@@ -2316,7 +2341,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5">
       <c r="A37">
         <v>2</v>
       </c>
@@ -2333,7 +2358,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5">
       <c r="B38" t="s">
         <v>151</v>
       </c>
@@ -2341,7 +2366,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5">
       <c r="A39">
         <v>2</v>
       </c>
@@ -2358,7 +2383,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5">
       <c r="A40">
         <v>3</v>
       </c>
@@ -2375,7 +2400,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5">
       <c r="B41" t="s">
         <v>154</v>
       </c>
@@ -2383,7 +2408,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5">
       <c r="B42" t="s">
         <v>155</v>
       </c>
@@ -2391,7 +2416,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5">
       <c r="B43" t="s">
         <v>156</v>
       </c>
@@ -2403,6 +2428,11 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2414,17 +2444,17 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="2"/>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="3" max="3" width="12.5" customWidth="1"/>
-    <col min="4" max="4" width="7.1640625" customWidth="1"/>
-    <col min="5" max="5" width="6.83203125" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="8" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="2"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" s="4" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2444,7 +2474,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="A2" s="2">
         <v>40440</v>
       </c>
@@ -2464,7 +2494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6">
       <c r="A3" s="2">
         <v>40454</v>
       </c>
@@ -2486,7 +2516,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6">
       <c r="A4" s="2">
         <v>41193</v>
       </c>
@@ -2513,6 +2543,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2524,21 +2559,21 @@
       <selection activeCell="B37" sqref="B37:B42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" style="6"/>
-    <col min="11" max="11" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="6"/>
+    <col min="11" max="11" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -2567,7 +2602,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9">
       <c r="A2" s="4" t="s">
         <v>115</v>
       </c>
@@ -2596,10 +2631,10 @@
         <v>41182</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9">
       <c r="A3" s="4"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9">
       <c r="A4" s="14" t="s">
         <v>183</v>
       </c>
@@ -2607,7 +2642,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9">
       <c r="A5" s="14" t="s">
         <v>184</v>
       </c>
@@ -2615,10 +2650,10 @@
         <v>186</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9">
       <c r="A6" s="14"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9">
       <c r="A7" s="4" t="s">
         <v>117</v>
       </c>
@@ -2647,10 +2682,10 @@
         <v>41184</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9">
       <c r="A8" s="4"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>177</v>
       </c>
@@ -2658,7 +2693,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>179</v>
       </c>
@@ -2666,7 +2701,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>181</v>
       </c>
@@ -2674,7 +2709,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9">
       <c r="A13" s="4" t="s">
         <v>121</v>
       </c>
@@ -2703,11 +2738,11 @@
         <v>41181</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9">
       <c r="A14" s="4"/>
       <c r="B14"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9">
       <c r="A15" s="14" t="s">
         <v>187</v>
       </c>
@@ -2715,7 +2750,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9">
       <c r="A16" s="14" t="s">
         <v>188</v>
       </c>
@@ -2723,7 +2758,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="39" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9" ht="26">
       <c r="A17" s="14" t="s">
         <v>199</v>
       </c>
@@ -2731,7 +2766,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="39" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9" ht="26">
       <c r="A18" s="14" t="s">
         <v>200</v>
       </c>
@@ -2739,10 +2774,10 @@
         <v>202</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9">
       <c r="A19" s="4"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9">
       <c r="A20" s="4" t="s">
         <v>137</v>
       </c>
@@ -2771,11 +2806,11 @@
         <v>41184</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9">
       <c r="A21" s="4"/>
       <c r="B21"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9">
       <c r="A22" s="14" t="s">
         <v>194</v>
       </c>
@@ -2783,7 +2818,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9">
       <c r="A23" s="14" t="s">
         <v>195</v>
       </c>
@@ -2791,7 +2826,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="26" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9" ht="26">
       <c r="A24" s="14" t="s">
         <v>196</v>
       </c>
@@ -2799,11 +2834,11 @@
         <v>193</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9">
       <c r="A25" s="14"/>
       <c r="B25" s="15"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9">
       <c r="A26" s="4" t="s">
         <v>141</v>
       </c>
@@ -2832,11 +2867,11 @@
         <v>41184</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9">
       <c r="A27" s="4"/>
       <c r="B27"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9">
       <c r="A28" s="14" t="s">
         <v>190</v>
       </c>
@@ -2844,11 +2879,11 @@
         <v>189</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9">
       <c r="A29" s="14"/>
       <c r="B29"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:9">
       <c r="A30" s="4" t="s">
         <v>143</v>
       </c>
@@ -2877,11 +2912,11 @@
         <v>41184</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:9">
       <c r="A31" s="4"/>
       <c r="B31"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:9">
       <c r="A32" s="14" t="s">
         <v>203</v>
       </c>
@@ -2889,7 +2924,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:2">
       <c r="A33" s="14" t="s">
         <v>206</v>
       </c>
@@ -2897,35 +2932,35 @@
         <v>205</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:2">
       <c r="B35" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:2">
       <c r="B36" s="5"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:2">
       <c r="B37" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:2">
       <c r="B38" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:2">
       <c r="B39" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:2">
       <c r="B41" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:2">
       <c r="B42" s="1" t="s">
         <v>231</v>
       </c>
@@ -2934,6 +2969,11 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2945,12 +2985,12 @@
       <selection activeCell="B26" sqref="B26:B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="35.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -2979,7 +3019,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9">
       <c r="A2" s="4" t="s">
         <v>130</v>
       </c>
@@ -3008,7 +3048,7 @@
         <v>41192</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9">
       <c r="A4" s="14" t="s">
         <v>221</v>
       </c>
@@ -3016,7 +3056,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9">
       <c r="A5" s="14" t="s">
         <v>222</v>
       </c>
@@ -3024,7 +3064,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9">
       <c r="A7" s="4" t="s">
         <v>136</v>
       </c>
@@ -3053,7 +3093,7 @@
         <v>41192</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9">
       <c r="A9" s="14" t="s">
         <v>213</v>
       </c>
@@ -3061,7 +3101,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9">
       <c r="A10" s="14" t="s">
         <v>215</v>
       </c>
@@ -3069,7 +3109,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9">
       <c r="A13" s="4" t="s">
         <v>150</v>
       </c>
@@ -3098,7 +3138,7 @@
         <v>41193</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>225</v>
       </c>
@@ -3106,7 +3146,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>226</v>
       </c>
@@ -3114,7 +3154,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
         <v>229</v>
       </c>
@@ -3122,7 +3162,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9">
       <c r="A19" s="4" t="s">
         <v>152</v>
       </c>
@@ -3151,7 +3191,7 @@
         <v>41193</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
         <v>217</v>
       </c>
@@ -3159,7 +3199,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
         <v>219</v>
       </c>
@@ -3167,7 +3207,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9">
       <c r="A24" s="4" t="s">
         <v>116</v>
       </c>
@@ -3196,7 +3236,7 @@
         <v>41193</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9">
       <c r="A26" t="s">
         <v>232</v>
       </c>
@@ -3204,7 +3244,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9">
       <c r="A27" t="s">
         <v>235</v>
       </c>
@@ -3212,7 +3252,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9">
       <c r="A28" t="s">
         <v>236</v>
       </c>
@@ -3220,7 +3260,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9">
       <c r="A29" t="s">
         <v>237</v>
       </c>
@@ -3228,7 +3268,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:9">
       <c r="A31" s="4" t="s">
         <v>124</v>
       </c>
@@ -3257,7 +3297,7 @@
         <v>41193</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>238</v>
       </c>
@@ -3265,7 +3305,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>242</v>
       </c>
@@ -3273,7 +3313,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>243</v>
       </c>
@@ -3281,7 +3321,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="26" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:2" ht="26">
       <c r="A36" t="s">
         <v>244</v>
       </c>
@@ -3289,55 +3329,55 @@
         <v>240</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:2">
       <c r="B38" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:2">
       <c r="B40" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:2">
       <c r="B41" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:2">
       <c r="B42" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:2">
       <c r="B43" s="1" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="26" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:2" ht="26">
       <c r="B44" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:2">
       <c r="B45" s="1"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:2">
       <c r="B46" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:2">
       <c r="B47" s="1" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:2">
       <c r="B48" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:2">
       <c r="B49" s="1" t="s">
         <v>249</v>
       </c>
@@ -3346,6 +3386,11 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3353,16 +3398,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="39.33203125" customWidth="1"/>
+    <col min="2" max="2" width="39.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -3391,7 +3436,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9">
       <c r="A2" s="4" t="s">
         <v>119</v>
       </c>
@@ -3411,10 +3456,10 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9">
       <c r="A3" s="4"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9">
       <c r="A4" s="14" t="s">
         <v>253</v>
       </c>
@@ -3422,7 +3467,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9">
       <c r="A5" s="14" t="s">
         <v>254</v>
       </c>
@@ -3430,7 +3475,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9">
       <c r="A6" s="14" t="s">
         <v>255</v>
       </c>
@@ -3438,7 +3483,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9">
       <c r="A7" s="14" t="s">
         <v>259</v>
       </c>
@@ -3446,10 +3491,10 @@
         <v>258</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9">
       <c r="A8" s="14"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9">
       <c r="A9" s="4" t="s">
         <v>129</v>
       </c>
@@ -3475,7 +3520,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>260</v>
       </c>
@@ -3483,7 +3528,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>261</v>
       </c>
@@ -3491,7 +3536,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9">
       <c r="A14" s="4" t="s">
         <v>135</v>
       </c>
@@ -3511,7 +3556,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>283</v>
       </c>
@@ -3519,7 +3564,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>285</v>
       </c>
@@ -3527,7 +3572,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9">
       <c r="A18" s="4" t="s">
         <v>145</v>
       </c>
@@ -3547,7 +3592,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
         <v>287</v>
       </c>
@@ -3555,7 +3600,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
         <v>288</v>
       </c>
@@ -3563,7 +3608,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9">
       <c r="A23" s="4" t="s">
         <v>149</v>
       </c>
@@ -3574,7 +3619,7 @@
         <v>165</v>
       </c>
       <c r="D23" t="s">
-        <v>252</v>
+        <v>212</v>
       </c>
       <c r="E23">
         <v>30</v>
@@ -3582,8 +3627,17 @@
       <c r="F23">
         <v>60</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G23">
+        <v>14</v>
+      </c>
+      <c r="H23">
+        <v>8</v>
+      </c>
+      <c r="I23" s="17">
+        <v>41203</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" t="s">
         <v>274</v>
       </c>
@@ -3591,7 +3645,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9">
       <c r="A26" t="s">
         <v>275</v>
       </c>
@@ -3599,7 +3653,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9">
       <c r="A27" t="s">
         <v>276</v>
       </c>
@@ -3607,7 +3661,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:9">
       <c r="A30" s="4" t="s">
         <v>153</v>
       </c>
@@ -3627,7 +3681,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:9">
       <c r="A32" t="s">
         <v>280</v>
       </c>
@@ -3635,7 +3689,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>281</v>
       </c>
@@ -3643,7 +3697,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>282</v>
       </c>
@@ -3655,23 +3709,28 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="A24" sqref="A24:B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="36.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -3700,7 +3759,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9">
       <c r="A2" s="4" t="s">
         <v>142</v>
       </c>
@@ -3717,7 +3776,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>264</v>
       </c>
@@ -3725,7 +3784,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>265</v>
       </c>
@@ -3733,7 +3792,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>266</v>
       </c>
@@ -3741,7 +3800,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9">
       <c r="A8" s="4" t="s">
         <v>144</v>
       </c>
@@ -3758,7 +3817,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>269</v>
       </c>
@@ -3766,7 +3825,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>270</v>
       </c>
@@ -3774,7 +3833,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9">
       <c r="A13" s="4" t="s">
         <v>118</v>
       </c>
@@ -3794,7 +3853,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>291</v>
       </c>
@@ -3802,7 +3861,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>295</v>
       </c>
@@ -3810,7 +3869,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>296</v>
       </c>
@@ -3818,7 +3877,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6">
       <c r="A18" s="4" t="s">
         <v>120</v>
       </c>
@@ -3838,7 +3897,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>297</v>
       </c>
@@ -3846,7 +3905,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>301</v>
       </c>
@@ -3854,7 +3913,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>302</v>
       </c>
@@ -3862,17 +3921,30 @@
         <v>299</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>303</v>
       </c>
       <c r="B22" t="s">
         <v>300</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>139</v>
+      </c>
+      <c r="B24" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3880,17 +3952,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView topLeftCell="A26" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="24.5" customWidth="1"/>
-    <col min="3" max="3" width="49.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" customWidth="1"/>
+    <col min="3" max="3" width="49.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>114</v>
       </c>
@@ -3904,7 +3976,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="32" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="30">
       <c r="A2" t="s">
         <v>115</v>
       </c>
@@ -3918,7 +3990,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" ht="15">
       <c r="A3" t="s">
         <v>116</v>
       </c>
@@ -3932,7 +4004,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" ht="15">
       <c r="A4" t="s">
         <v>117</v>
       </c>
@@ -3946,7 +4018,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="32" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" ht="30">
       <c r="A5" t="s">
         <v>118</v>
       </c>
@@ -3957,7 +4029,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" ht="15">
       <c r="A6" t="s">
         <v>119</v>
       </c>
@@ -3971,7 +4043,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" ht="15">
       <c r="A7" t="s">
         <v>120</v>
       </c>
@@ -3982,7 +4054,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="48" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" ht="45">
       <c r="A8" t="s">
         <v>121</v>
       </c>
@@ -3996,7 +4068,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="32" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" ht="30">
       <c r="A9" t="s">
         <v>122</v>
       </c>
@@ -4007,7 +4079,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="32" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" ht="30">
       <c r="A10" t="s">
         <v>123</v>
       </c>
@@ -4018,7 +4090,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="32" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" ht="15">
       <c r="A11" t="s">
         <v>124</v>
       </c>
@@ -4032,7 +4104,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="32" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" ht="15">
       <c r="A12" t="s">
         <v>125</v>
       </c>
@@ -4043,7 +4115,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="48" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" ht="30">
       <c r="A13" t="s">
         <v>126</v>
       </c>
@@ -4054,7 +4126,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="32" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" ht="30">
       <c r="A14" t="s">
         <v>127</v>
       </c>
@@ -4065,7 +4137,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="32" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" ht="15">
       <c r="A15" t="s">
         <v>128</v>
       </c>
@@ -4076,7 +4148,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" ht="15">
       <c r="A16" t="s">
         <v>129</v>
       </c>
@@ -4090,7 +4162,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="32" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" ht="15">
       <c r="A17" t="s">
         <v>130</v>
       </c>
@@ -4104,7 +4176,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" ht="15">
       <c r="A18" t="s">
         <v>131</v>
       </c>
@@ -4115,7 +4187,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" ht="15">
       <c r="A19" t="s">
         <v>132</v>
       </c>
@@ -4126,7 +4198,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" ht="15">
       <c r="A20" t="s">
         <v>133</v>
       </c>
@@ -4137,7 +4209,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="32" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4" ht="15">
       <c r="A21" t="s">
         <v>134</v>
       </c>
@@ -4148,7 +4220,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="32" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" ht="30">
       <c r="A22" t="s">
         <v>135</v>
       </c>
@@ -4159,7 +4231,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="32" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4" ht="30">
       <c r="A23" t="s">
         <v>136</v>
       </c>
@@ -4173,7 +4245,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="32" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4" ht="30">
       <c r="A24" t="s">
         <v>137</v>
       </c>
@@ -4187,7 +4259,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="48" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4" ht="30">
       <c r="A25" t="s">
         <v>138</v>
       </c>
@@ -4198,7 +4270,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="32" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4" ht="30">
       <c r="A26" t="s">
         <v>139</v>
       </c>
@@ -4209,7 +4281,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="80" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4" ht="60">
       <c r="A27" t="s">
         <v>140</v>
       </c>
@@ -4220,7 +4292,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4" ht="15">
       <c r="A28" t="s">
         <v>141</v>
       </c>
@@ -4234,7 +4306,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4" ht="15">
       <c r="A29" t="s">
         <v>142</v>
       </c>
@@ -4248,7 +4320,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4" ht="15">
       <c r="A30" t="s">
         <v>143</v>
       </c>
@@ -4262,7 +4334,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4" ht="15">
       <c r="A31" t="s">
         <v>144</v>
       </c>
@@ -4276,7 +4348,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="32" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4" ht="30">
       <c r="A32" t="s">
         <v>145</v>
       </c>
@@ -4287,7 +4359,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4" ht="15">
       <c r="A33" t="s">
         <v>146</v>
       </c>
@@ -4298,7 +4370,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="32" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4" ht="30">
       <c r="A34" t="s">
         <v>147</v>
       </c>
@@ -4309,7 +4381,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="48" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4" ht="30">
       <c r="A35" t="s">
         <v>148</v>
       </c>
@@ -4320,7 +4392,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="32" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:4" ht="30">
       <c r="A36" t="s">
         <v>149</v>
       </c>
@@ -4331,7 +4403,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="32" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:4" ht="15">
       <c r="A37" t="s">
         <v>150</v>
       </c>
@@ -4345,7 +4417,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="32" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:4" ht="30">
       <c r="A38" t="s">
         <v>151</v>
       </c>
@@ -4356,7 +4428,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="32" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:4" ht="30">
       <c r="A39" t="s">
         <v>152</v>
       </c>
@@ -4370,7 +4442,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="32" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:4" ht="30">
       <c r="A40" t="s">
         <v>153</v>
       </c>
@@ -4381,7 +4453,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="32" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:4" ht="30">
       <c r="A41" t="s">
         <v>154</v>
       </c>
@@ -4392,7 +4464,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="32" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:4" ht="15">
       <c r="A42" t="s">
         <v>155</v>
       </c>
@@ -4403,7 +4475,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="32" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:4" ht="30">
       <c r="A43" t="s">
         <v>156</v>
       </c>
@@ -4417,5 +4489,10 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Team Report_Rafif, Maha, Saloni-Final.xlsx
+++ b/Team Report_Rafif, Maha, Saloni-Final.xlsx
@@ -1030,7 +1030,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="98">
+  <cellStyleXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1087,6 +1087,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1164,7 +1165,7 @@
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="98">
+  <cellStyles count="99">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1234,6 +1235,7 @@
     <cellStyle name="Followed Hyperlink" xfId="95" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="97" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1345,11 +1347,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2132053560"/>
-        <c:axId val="2132056680"/>
+        <c:axId val="2139896072"/>
+        <c:axId val="2139899144"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="2132053560"/>
+        <c:axId val="2139896072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1359,14 +1361,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2132056680"/>
+        <c:crossAx val="2139899144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="2132056680"/>
+        <c:axId val="2139899144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1377,7 +1379,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2132053560"/>
+        <c:crossAx val="2139896072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3398,8 +3400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="150" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -3672,13 +3674,22 @@
         <v>165</v>
       </c>
       <c r="D30" t="s">
-        <v>252</v>
+        <v>212</v>
       </c>
       <c r="E30">
         <v>35</v>
       </c>
       <c r="F30">
         <v>60</v>
+      </c>
+      <c r="G30">
+        <v>23</v>
+      </c>
+      <c r="H30">
+        <v>24</v>
+      </c>
+      <c r="I30" s="17">
+        <v>41203</v>
       </c>
     </row>
     <row r="32" spans="1:9">

--- a/Team Report_Rafif, Maha, Saloni-Final.xlsx
+++ b/Team Report_Rafif, Maha, Saloni-Final.xlsx
@@ -1347,11 +1347,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2139896072"/>
-        <c:axId val="2139899144"/>
+        <c:axId val="2142105992"/>
+        <c:axId val="2142109064"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="2139896072"/>
+        <c:axId val="2142105992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1361,14 +1361,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2139899144"/>
+        <c:crossAx val="2142109064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="2139899144"/>
+        <c:axId val="2142109064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1379,7 +1379,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2139896072"/>
+        <c:crossAx val="2142105992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3400,8 +3400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="150" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -3683,10 +3683,10 @@
         <v>60</v>
       </c>
       <c r="G30">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="H30">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="I30" s="17">
         <v>41203</v>

--- a/Team Report_Rafif, Maha, Saloni-Final.xlsx
+++ b/Team Report_Rafif, Maha, Saloni-Final.xlsx
@@ -563,9 +563,6 @@
     <t>rafif353</t>
   </si>
   <si>
-    <t>malidrisis</t>
-  </si>
-  <si>
     <t>ssetia93</t>
   </si>
   <si>
@@ -972,6 +969,9 @@
   </si>
   <si>
     <t>T06.04</t>
+  </si>
+  <si>
+    <t>malidrisi</t>
   </si>
 </sst>
 </file>
@@ -1030,7 +1030,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="99">
+  <cellStyleXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1087,6 +1087,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1165,7 +1167,7 @@
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="99">
+  <cellStyles count="101">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1236,6 +1238,8 @@
     <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="97" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="99" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1306,13 +1310,16 @@
                 <c:formatCode>m/d</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>40440.0</c:v>
+                  <c:v>41171.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40454.0</c:v>
+                  <c:v>41185.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>41193.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41213.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1332,6 +1339,9 @@
                 <c:pt idx="2">
                   <c:v>30.0</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>24.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1347,11 +1357,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2142105992"/>
-        <c:axId val="2142109064"/>
+        <c:axId val="-2100141992"/>
+        <c:axId val="-2099895912"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="2142105992"/>
+        <c:axId val="-2100141992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1361,14 +1371,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2142109064"/>
+        <c:crossAx val="-2099895912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="2142109064"/>
+        <c:axId val="-2099895912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1379,7 +1389,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2142105992"/>
+        <c:crossAx val="-2100141992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1754,7 +1764,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -1813,7 +1823,7 @@
         <v>167</v>
       </c>
       <c r="E4" t="s">
-        <v>169</v>
+        <v>303</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1821,16 +1831,16 @@
         <v>161</v>
       </c>
       <c r="B5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C5" t="s">
         <v>171</v>
       </c>
-      <c r="C5" t="s">
-        <v>172</v>
-      </c>
       <c r="D5" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1838,7 +1848,7 @@
         <v>29</v>
       </c>
       <c r="E9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -1865,8 +1875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView topLeftCell="A22" zoomScale="150" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -1880,19 +1890,19 @@
   <sheetData>
     <row r="1" spans="1:5" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1909,7 +1919,7 @@
         <v>159</v>
       </c>
       <c r="E2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1926,7 +1936,7 @@
         <v>161</v>
       </c>
       <c r="E3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1943,7 +1953,7 @@
         <v>161</v>
       </c>
       <c r="E4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1960,7 +1970,7 @@
         <v>159</v>
       </c>
       <c r="E5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1977,7 +1987,7 @@
         <v>161</v>
       </c>
       <c r="E6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1994,7 +2004,7 @@
         <v>159</v>
       </c>
       <c r="E7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2011,7 +2021,7 @@
         <v>160</v>
       </c>
       <c r="E8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2044,7 +2054,7 @@
         <v>161</v>
       </c>
       <c r="E11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2093,7 +2103,7 @@
         <v>161</v>
       </c>
       <c r="E16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2110,7 +2120,7 @@
         <v>160</v>
       </c>
       <c r="E17" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -2159,7 +2169,7 @@
         <v>159</v>
       </c>
       <c r="E22" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -2176,7 +2186,7 @@
         <v>159</v>
       </c>
       <c r="E23" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -2193,7 +2203,7 @@
         <v>161</v>
       </c>
       <c r="E24" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -2237,7 +2247,7 @@
         <v>159</v>
       </c>
       <c r="E28" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -2268,7 +2278,7 @@
         <v>160</v>
       </c>
       <c r="E30" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -2299,7 +2309,7 @@
         <v>159</v>
       </c>
       <c r="E32" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2340,7 +2350,7 @@
         <v>160</v>
       </c>
       <c r="E36" t="s">
-        <v>252</v>
+        <v>211</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -2357,7 +2367,7 @@
         <v>160</v>
       </c>
       <c r="E37" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -2382,7 +2392,7 @@
         <v>159</v>
       </c>
       <c r="E39" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -2399,7 +2409,7 @@
         <v>160</v>
       </c>
       <c r="E40" t="s">
-        <v>252</v>
+        <v>211</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -2440,10 +2450,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -2478,7 +2488,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2">
-        <v>40440</v>
+        <v>41171</v>
       </c>
       <c r="B2">
         <v>42</v>
@@ -2498,7 +2508,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2">
-        <v>40454</v>
+        <v>41185</v>
       </c>
       <c r="B3">
         <v>36</v>
@@ -2530,14 +2540,25 @@
         <v>6</v>
       </c>
       <c r="D4">
-        <v>288</v>
+        <v>137</v>
       </c>
       <c r="E4">
-        <v>688</v>
+        <v>208</v>
       </c>
       <c r="F4" s="8">
         <f>(D4-D3)/E4*60</f>
-        <v>16.046511627906977</v>
+        <v>9.5192307692307683</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="6">
+        <v>41213</v>
+      </c>
+      <c r="B5">
+        <v>24</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2557,8 +2578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37:B42"/>
+    <sheetView topLeftCell="A10" zoomScale="150" workbookViewId="0">
+      <selection activeCell="H30" sqref="H2:H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -2609,13 +2630,13 @@
         <v>115</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C2" t="s">
         <v>159</v>
       </c>
       <c r="D2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -2638,18 +2659,18 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -2666,7 +2687,7 @@
         <v>161</v>
       </c>
       <c r="D7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E7">
         <v>100</v>
@@ -2689,26 +2710,26 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
+        <v>176</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
+        <v>178</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>179</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
+        <v>180</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -2722,7 +2743,7 @@
         <v>160</v>
       </c>
       <c r="D13" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E13">
         <v>100</v>
@@ -2746,34 +2767,34 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="26">
       <c r="A17" s="14" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="26">
       <c r="A18" s="14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -2784,13 +2805,13 @@
         <v>137</v>
       </c>
       <c r="B20" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C20" t="s">
         <v>161</v>
       </c>
       <c r="D20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E20">
         <v>100</v>
@@ -2814,26 +2835,26 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B23" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="26">
       <c r="A24" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -2851,7 +2872,7 @@
         <v>159</v>
       </c>
       <c r="D26" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E26">
         <v>100</v>
@@ -2875,10 +2896,10 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B28" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -2896,7 +2917,7 @@
         <v>160</v>
       </c>
       <c r="D30" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E30">
         <v>100</v>
@@ -2920,18 +2941,18 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="B32" s="16" t="s">
         <v>203</v>
-      </c>
-      <c r="B32" s="16" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B33" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -2949,12 +2970,12 @@
     </row>
     <row r="38" spans="1:2">
       <c r="B38" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="B39" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -2964,7 +2985,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="B42" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -2983,8 +3004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26:B29"/>
+    <sheetView topLeftCell="D1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="H31" sqref="H2:H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -3032,7 +3053,7 @@
         <v>160</v>
       </c>
       <c r="D2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E2">
         <v>17</v>
@@ -3052,18 +3073,18 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3077,7 +3098,7 @@
         <v>159</v>
       </c>
       <c r="D7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E7">
         <v>15</v>
@@ -3097,18 +3118,18 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="B9" t="s">
         <v>213</v>
-      </c>
-      <c r="B9" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="B10" t="s">
         <v>215</v>
-      </c>
-      <c r="B10" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -3122,7 +3143,7 @@
         <v>160</v>
       </c>
       <c r="D13" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E13">
         <v>30</v>
@@ -3142,26 +3163,26 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B15" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B16" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
+        <v>228</v>
+      </c>
+      <c r="B17" t="s">
         <v>229</v>
-      </c>
-      <c r="B17" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -3175,7 +3196,7 @@
         <v>159</v>
       </c>
       <c r="D19" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E19">
         <v>20</v>
@@ -3195,18 +3216,18 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
+        <v>216</v>
+      </c>
+      <c r="B21" t="s">
         <v>217</v>
-      </c>
-      <c r="B21" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
+        <v>218</v>
+      </c>
+      <c r="B22" t="s">
         <v>219</v>
-      </c>
-      <c r="B22" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -3220,7 +3241,7 @@
         <v>161</v>
       </c>
       <c r="D24" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E24">
         <v>30</v>
@@ -3240,34 +3261,34 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B26" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B27" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B28" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B29" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -3281,7 +3302,7 @@
         <v>161</v>
       </c>
       <c r="D31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E31">
         <v>25</v>
@@ -3301,39 +3322,39 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
+        <v>237</v>
+      </c>
+      <c r="B33" t="s">
         <v>238</v>
-      </c>
-      <c r="B33" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B34" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B35" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="26">
       <c r="A36" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="B38" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -3343,22 +3364,22 @@
     </row>
     <row r="41" spans="1:2">
       <c r="B41" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="B42" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="B43" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="26">
       <c r="B44" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -3371,17 +3392,17 @@
     </row>
     <row r="47" spans="1:2">
       <c r="B47" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="B48" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -3401,7 +3422,7 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="150" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -3449,7 +3470,7 @@
         <v>161</v>
       </c>
       <c r="D2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E2">
         <v>30</v>
@@ -3463,34 +3484,34 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="14" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="14" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="14" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="14" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3507,7 +3528,7 @@
         <v>161</v>
       </c>
       <c r="D9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E9">
         <v>30</v>
@@ -3524,18 +3545,18 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B11" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B12" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -3549,7 +3570,7 @@
         <v>162</v>
       </c>
       <c r="D14" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E14">
         <v>35</v>
@@ -3560,18 +3581,18 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
+        <v>282</v>
+      </c>
+      <c r="B15" t="s">
         <v>283</v>
-      </c>
-      <c r="B15" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
+        <v>284</v>
+      </c>
+      <c r="B16" t="s">
         <v>285</v>
-      </c>
-      <c r="B16" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -3585,7 +3606,7 @@
         <v>162</v>
       </c>
       <c r="D18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E18">
         <v>30</v>
@@ -3596,18 +3617,18 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B19" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B20" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -3621,7 +3642,7 @@
         <v>165</v>
       </c>
       <c r="D23" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E23">
         <v>30</v>
@@ -3641,26 +3662,26 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B25" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B26" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B27" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -3674,7 +3695,7 @@
         <v>165</v>
       </c>
       <c r="D30" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E30">
         <v>35</v>
@@ -3694,26 +3715,26 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B32" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B33" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B34" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -3789,26 +3810,26 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3830,18 +3851,18 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
+        <v>269</v>
+      </c>
+      <c r="B11" t="s">
         <v>270</v>
-      </c>
-      <c r="B11" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -3855,7 +3876,7 @@
         <v>159</v>
       </c>
       <c r="D13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E13">
         <v>30</v>
@@ -3866,26 +3887,26 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
+        <v>290</v>
+      </c>
+      <c r="B14" t="s">
         <v>291</v>
-      </c>
-      <c r="B14" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B15" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B16" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -3899,7 +3920,7 @@
         <v>159</v>
       </c>
       <c r="D18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E18">
         <v>30</v>
@@ -3910,34 +3931,34 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B19" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B20" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B21" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B22" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -3963,8 +3984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A35" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -3984,7 +4005,7 @@
         <v>66</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="30">
@@ -3998,7 +4019,7 @@
         <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15">
@@ -4012,7 +4033,7 @@
         <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15">
@@ -4026,7 +4047,7 @@
         <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="30">
@@ -4051,7 +4072,7 @@
         <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15">
@@ -4076,7 +4097,7 @@
         <v>73</v>
       </c>
       <c r="D8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="30">
@@ -4112,7 +4133,7 @@
         <v>37</v>
       </c>
       <c r="D11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15">
@@ -4170,7 +4191,7 @@
         <v>41</v>
       </c>
       <c r="D16" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15">
@@ -4184,7 +4205,7 @@
         <v>42</v>
       </c>
       <c r="D17" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15">
@@ -4253,7 +4274,7 @@
         <v>90</v>
       </c>
       <c r="D23" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="30">
@@ -4267,7 +4288,7 @@
         <v>47</v>
       </c>
       <c r="D24" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="30">
@@ -4314,7 +4335,7 @@
         <v>50</v>
       </c>
       <c r="D28" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15">
@@ -4328,7 +4349,7 @@
         <v>51</v>
       </c>
       <c r="D29" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15">
@@ -4342,7 +4363,7 @@
         <v>52</v>
       </c>
       <c r="D30" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15">
@@ -4356,7 +4377,7 @@
         <v>53</v>
       </c>
       <c r="D31" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="30">
@@ -4425,7 +4446,7 @@
         <v>59</v>
       </c>
       <c r="D37" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="30">
@@ -4450,7 +4471,7 @@
         <v>61</v>
       </c>
       <c r="D39" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="30">

--- a/Team Report_Rafif, Maha, Saloni-Final.xlsx
+++ b/Team Report_Rafif, Maha, Saloni-Final.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25317"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26207"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/salonisetia/Documents/SSW-555-GEDCOM/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2460" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="2460" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -16,20 +21,17 @@
     <sheet name="Sprint4" sheetId="6" r:id="rId7"/>
     <sheet name="Stories" sheetId="11" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="304">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1357,11 +1359,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2100141992"/>
-        <c:axId val="-2099895912"/>
+        <c:axId val="-2100235296"/>
+        <c:axId val="2074992704"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-2100141992"/>
+        <c:axId val="-2100235296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1371,14 +1373,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2099895912"/>
+        <c:crossAx val="2074992704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-2099895912"/>
+        <c:axId val="2074992704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1389,7 +1391,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2100141992"/>
+        <c:crossAx val="-2100235296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1767,15 +1769,15 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.42578125" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" customWidth="1"/>
-    <col min="4" max="5" width="20.42578125" customWidth="1"/>
+    <col min="1" max="1" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5" customWidth="1"/>
+    <col min="3" max="3" width="8.5" customWidth="1"/>
+    <col min="4" max="5" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>18</v>
       </c>
@@ -1792,7 +1794,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>159</v>
       </c>
@@ -1809,7 +1811,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>160</v>
       </c>
@@ -1826,7 +1828,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>161</v>
       </c>
@@ -1843,7 +1845,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D9" s="4" t="s">
         <v>29</v>
       </c>
@@ -1863,11 +1865,6 @@
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1875,20 +1872,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>208</v>
       </c>
@@ -1905,7 +1902,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1922,7 +1919,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1939,7 +1936,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1956,7 +1953,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1973,7 +1970,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1987,10 +1984,10 @@
         <v>161</v>
       </c>
       <c r="E6" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>4</v>
       </c>
@@ -2007,7 +2004,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>1</v>
       </c>
@@ -2024,7 +2021,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
         <v>122</v>
       </c>
@@ -2032,7 +2029,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
         <v>123</v>
       </c>
@@ -2040,7 +2037,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>2</v>
       </c>
@@ -2057,7 +2054,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
         <v>125</v>
       </c>
@@ -2065,7 +2062,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
         <v>126</v>
       </c>
@@ -2073,7 +2070,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
         <v>127</v>
       </c>
@@ -2081,7 +2078,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
         <v>128</v>
       </c>
@@ -2089,7 +2086,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>3</v>
       </c>
@@ -2103,10 +2100,10 @@
         <v>161</v>
       </c>
       <c r="E16" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>2</v>
       </c>
@@ -2123,7 +2120,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
         <v>131</v>
       </c>
@@ -2131,7 +2128,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
         <v>132</v>
       </c>
@@ -2139,7 +2136,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
         <v>133</v>
       </c>
@@ -2147,7 +2144,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
         <v>134</v>
       </c>
@@ -2155,7 +2152,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>3</v>
       </c>
@@ -2172,7 +2169,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>2</v>
       </c>
@@ -2189,7 +2186,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>1</v>
       </c>
@@ -2206,7 +2203,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
         <v>138</v>
       </c>
@@ -2214,7 +2211,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>4</v>
       </c>
@@ -2225,7 +2222,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
         <v>140</v>
       </c>
@@ -2233,7 +2230,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>1</v>
       </c>
@@ -2250,7 +2247,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>4</v>
       </c>
@@ -2264,7 +2261,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>1</v>
       </c>
@@ -2281,7 +2278,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>4</v>
       </c>
@@ -2295,7 +2292,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>3</v>
       </c>
@@ -2312,7 +2309,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
         <v>146</v>
       </c>
@@ -2320,7 +2317,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B34" t="s">
         <v>147</v>
       </c>
@@ -2328,7 +2325,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
         <v>148</v>
       </c>
@@ -2336,7 +2333,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>3</v>
       </c>
@@ -2353,7 +2350,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>2</v>
       </c>
@@ -2370,7 +2367,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B38" t="s">
         <v>151</v>
       </c>
@@ -2378,7 +2375,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>2</v>
       </c>
@@ -2395,7 +2392,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>3</v>
       </c>
@@ -2412,7 +2409,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B41" t="s">
         <v>154</v>
       </c>
@@ -2420,7 +2417,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B42" t="s">
         <v>155</v>
       </c>
@@ -2428,7 +2425,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B43" t="s">
         <v>156</v>
       </c>
@@ -2440,11 +2437,6 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2456,17 +2448,17 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="2"/>
-    <col min="2" max="2" width="16.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" customWidth="1"/>
-    <col min="5" max="5" width="6.85546875" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="4" max="4" width="7.1640625" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2486,7 +2478,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>41171</v>
       </c>
@@ -2506,7 +2498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>41185</v>
       </c>
@@ -2528,7 +2520,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>41193</v>
       </c>
@@ -2550,7 +2542,7 @@
         <v>9.5192307692307683</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="6">
         <v>41213</v>
       </c>
@@ -2566,11 +2558,6 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2582,21 +2569,21 @@
       <selection activeCell="H30" sqref="H2:H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" style="6"/>
-    <col min="11" max="11" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" style="6"/>
+    <col min="11" max="11" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -2625,7 +2612,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>115</v>
       </c>
@@ -2654,10 +2641,10 @@
         <v>41182</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="14" t="s">
         <v>182</v>
       </c>
@@ -2665,7 +2652,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="14" t="s">
         <v>183</v>
       </c>
@@ -2673,10 +2660,10 @@
         <v>185</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="14"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>117</v>
       </c>
@@ -2705,10 +2692,10 @@
         <v>41184</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="4"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>176</v>
       </c>
@@ -2716,7 +2703,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>178</v>
       </c>
@@ -2724,7 +2711,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>180</v>
       </c>
@@ -2732,7 +2719,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
         <v>121</v>
       </c>
@@ -2761,11 +2748,11 @@
         <v>41181</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="14" t="s">
         <v>186</v>
       </c>
@@ -2773,7 +2760,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="14" t="s">
         <v>187</v>
       </c>
@@ -2781,7 +2768,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="26">
+    <row r="17" spans="1:9" ht="39" x14ac:dyDescent="0.15">
       <c r="A17" s="14" t="s">
         <v>198</v>
       </c>
@@ -2789,7 +2776,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="26">
+    <row r="18" spans="1:9" ht="39" x14ac:dyDescent="0.15">
       <c r="A18" s="14" t="s">
         <v>199</v>
       </c>
@@ -2797,10 +2784,10 @@
         <v>201</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
         <v>137</v>
       </c>
@@ -2829,11 +2816,11 @@
         <v>41184</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
       <c r="B21"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="14" t="s">
         <v>193</v>
       </c>
@@ -2841,7 +2828,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="14" t="s">
         <v>194</v>
       </c>
@@ -2849,7 +2836,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="26">
+    <row r="24" spans="1:9" ht="26" x14ac:dyDescent="0.15">
       <c r="A24" s="14" t="s">
         <v>195</v>
       </c>
@@ -2857,11 +2844,11 @@
         <v>192</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="14"/>
       <c r="B25" s="15"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
         <v>141</v>
       </c>
@@ -2890,11 +2877,11 @@
         <v>41184</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" s="4"/>
       <c r="B27"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" s="14" t="s">
         <v>189</v>
       </c>
@@ -2902,11 +2889,11 @@
         <v>188</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" s="14"/>
       <c r="B29"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
         <v>143</v>
       </c>
@@ -2935,11 +2922,11 @@
         <v>41184</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" s="4"/>
       <c r="B31"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" s="14" t="s">
         <v>202</v>
       </c>
@@ -2947,7 +2934,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="14" t="s">
         <v>205</v>
       </c>
@@ -2955,35 +2942,35 @@
         <v>204</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B35" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B36" s="5"/>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B37" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B38" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B39" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B41" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B42" s="1" t="s">
         <v>230</v>
       </c>
@@ -2992,11 +2979,6 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3008,12 +2990,12 @@
       <selection activeCell="H31" sqref="H2:H31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -3042,7 +3024,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>130</v>
       </c>
@@ -3071,7 +3053,7 @@
         <v>41192</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="14" t="s">
         <v>220</v>
       </c>
@@ -3079,7 +3061,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="14" t="s">
         <v>221</v>
       </c>
@@ -3087,7 +3069,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>136</v>
       </c>
@@ -3116,7 +3098,7 @@
         <v>41192</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="14" t="s">
         <v>212</v>
       </c>
@@ -3124,7 +3106,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="14" t="s">
         <v>214</v>
       </c>
@@ -3132,7 +3114,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
         <v>150</v>
       </c>
@@ -3161,7 +3143,7 @@
         <v>41193</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>224</v>
       </c>
@@ -3169,7 +3151,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>225</v>
       </c>
@@ -3177,7 +3159,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>228</v>
       </c>
@@ -3185,7 +3167,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
         <v>152</v>
       </c>
@@ -3214,7 +3196,7 @@
         <v>41193</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>216</v>
       </c>
@@ -3222,7 +3204,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>218</v>
       </c>
@@ -3230,7 +3212,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
         <v>116</v>
       </c>
@@ -3259,7 +3241,7 @@
         <v>41193</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>231</v>
       </c>
@@ -3267,7 +3249,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>234</v>
       </c>
@@ -3275,7 +3257,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>235</v>
       </c>
@@ -3283,7 +3265,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>236</v>
       </c>
@@ -3291,7 +3273,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
         <v>124</v>
       </c>
@@ -3320,7 +3302,7 @@
         <v>41193</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>237</v>
       </c>
@@ -3328,7 +3310,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>241</v>
       </c>
@@ -3336,7 +3318,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>242</v>
       </c>
@@ -3344,7 +3326,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="26">
+    <row r="36" spans="1:2" ht="26" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>243</v>
       </c>
@@ -3352,55 +3334,55 @@
         <v>239</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B38" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B40" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B41" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B42" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B43" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="26">
+    <row r="44" spans="1:2" ht="26" x14ac:dyDescent="0.15">
       <c r="B44" s="1" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B45" s="1"/>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B46" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B47" s="1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B48" s="1" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="49" spans="2:2">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B49" s="1" t="s">
         <v>248</v>
       </c>
@@ -3409,11 +3391,6 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3421,16 +3398,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="150" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="39.28515625" customWidth="1"/>
+    <col min="2" max="2" width="39.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -3459,7 +3436,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>119</v>
       </c>
@@ -3470,7 +3447,7 @@
         <v>161</v>
       </c>
       <c r="D2" t="s">
-        <v>251</v>
+        <v>211</v>
       </c>
       <c r="E2">
         <v>30</v>
@@ -3478,11 +3455,20 @@
       <c r="F2">
         <v>60</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="G2">
+        <v>57</v>
+      </c>
+      <c r="H2">
+        <v>60</v>
+      </c>
+      <c r="I2" s="17">
+        <v>41206</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="14" t="s">
         <v>252</v>
       </c>
@@ -3490,7 +3476,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="14" t="s">
         <v>253</v>
       </c>
@@ -3498,7 +3484,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="14" t="s">
         <v>254</v>
       </c>
@@ -3506,7 +3492,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="14" t="s">
         <v>258</v>
       </c>
@@ -3514,10 +3500,10 @@
         <v>257</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="14"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>129</v>
       </c>
@@ -3542,8 +3528,11 @@
       <c r="H9">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="I9" s="17">
+        <v>41194</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>259</v>
       </c>
@@ -3551,7 +3540,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>260</v>
       </c>
@@ -3559,7 +3548,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
         <v>135</v>
       </c>
@@ -3579,7 +3568,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>282</v>
       </c>
@@ -3587,7 +3576,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>284</v>
       </c>
@@ -3595,7 +3584,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
         <v>145</v>
       </c>
@@ -3615,7 +3604,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>286</v>
       </c>
@@ -3623,7 +3612,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>287</v>
       </c>
@@ -3631,7 +3620,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
         <v>149</v>
       </c>
@@ -3660,7 +3649,7 @@
         <v>41203</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>273</v>
       </c>
@@ -3668,7 +3657,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>274</v>
       </c>
@@ -3676,7 +3665,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>275</v>
       </c>
@@ -3684,7 +3673,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
         <v>153</v>
       </c>
@@ -3713,7 +3702,7 @@
         <v>41203</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>279</v>
       </c>
@@ -3721,7 +3710,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>280</v>
       </c>
@@ -3729,7 +3718,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>281</v>
       </c>
@@ -3741,11 +3730,6 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3754,15 +3738,15 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:B24"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -3791,7 +3775,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>142</v>
       </c>
@@ -3801,6 +3785,9 @@
       <c r="C2" t="s">
         <v>161</v>
       </c>
+      <c r="D2" t="s">
+        <v>251</v>
+      </c>
       <c r="E2">
         <v>30</v>
       </c>
@@ -3808,7 +3795,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>263</v>
       </c>
@@ -3816,7 +3803,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>264</v>
       </c>
@@ -3824,7 +3811,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>265</v>
       </c>
@@ -3832,7 +3819,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>144</v>
       </c>
@@ -3842,6 +3829,9 @@
       <c r="C8" t="s">
         <v>161</v>
       </c>
+      <c r="D8" t="s">
+        <v>251</v>
+      </c>
       <c r="E8">
         <v>30</v>
       </c>
@@ -3849,7 +3839,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>268</v>
       </c>
@@ -3857,7 +3847,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>269</v>
       </c>
@@ -3865,7 +3855,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
         <v>118</v>
       </c>
@@ -3885,7 +3875,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>290</v>
       </c>
@@ -3893,7 +3883,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>294</v>
       </c>
@@ -3901,7 +3891,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>295</v>
       </c>
@@ -3909,7 +3899,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
         <v>120</v>
       </c>
@@ -3929,7 +3919,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>296</v>
       </c>
@@ -3937,7 +3927,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>300</v>
       </c>
@@ -3945,7 +3935,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>301</v>
       </c>
@@ -3953,7 +3943,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>302</v>
       </c>
@@ -3961,7 +3951,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>139</v>
       </c>
@@ -3972,11 +3962,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3988,13 +3973,13 @@
       <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="24.42578125" customWidth="1"/>
-    <col min="3" max="3" width="49.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5" customWidth="1"/>
+    <col min="3" max="3" width="49.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1">
+    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>114</v>
       </c>
@@ -4008,7 +3993,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30">
+    <row r="2" spans="1:4" ht="32" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>115</v>
       </c>
@@ -4022,7 +4007,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15">
+    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>116</v>
       </c>
@@ -4036,7 +4021,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15">
+    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>117</v>
       </c>
@@ -4050,7 +4035,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="30">
+    <row r="5" spans="1:4" ht="32" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>118</v>
       </c>
@@ -4061,7 +4046,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15">
+    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>119</v>
       </c>
@@ -4075,7 +4060,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15">
+    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>120</v>
       </c>
@@ -4086,7 +4071,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="45">
+    <row r="8" spans="1:4" ht="48" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>121</v>
       </c>
@@ -4100,7 +4085,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="30">
+    <row r="9" spans="1:4" ht="32" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>122</v>
       </c>
@@ -4111,7 +4096,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="30">
+    <row r="10" spans="1:4" ht="32" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>123</v>
       </c>
@@ -4122,7 +4107,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15">
+    <row r="11" spans="1:4" ht="32" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>124</v>
       </c>
@@ -4136,7 +4121,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15">
+    <row r="12" spans="1:4" ht="32" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>125</v>
       </c>
@@ -4147,7 +4132,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="30">
+    <row r="13" spans="1:4" ht="48" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>126</v>
       </c>
@@ -4158,7 +4143,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="30">
+    <row r="14" spans="1:4" ht="32" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>127</v>
       </c>
@@ -4169,7 +4154,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15">
+    <row r="15" spans="1:4" ht="32" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>128</v>
       </c>
@@ -4180,7 +4165,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15">
+    <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>129</v>
       </c>
@@ -4194,7 +4179,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15">
+    <row r="17" spans="1:4" ht="32" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>130</v>
       </c>
@@ -4208,7 +4193,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15">
+    <row r="18" spans="1:4" ht="16" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>131</v>
       </c>
@@ -4219,7 +4204,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15">
+    <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>132</v>
       </c>
@@ -4230,7 +4215,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15">
+    <row r="20" spans="1:4" ht="16" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>133</v>
       </c>
@@ -4241,7 +4226,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15">
+    <row r="21" spans="1:4" ht="32" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>134</v>
       </c>
@@ -4252,7 +4237,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="30">
+    <row r="22" spans="1:4" ht="32" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>135</v>
       </c>
@@ -4263,7 +4248,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="30">
+    <row r="23" spans="1:4" ht="32" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>136</v>
       </c>
@@ -4277,7 +4262,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="30">
+    <row r="24" spans="1:4" ht="32" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>137</v>
       </c>
@@ -4291,7 +4276,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="30">
+    <row r="25" spans="1:4" ht="48" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>138</v>
       </c>
@@ -4302,7 +4287,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="30">
+    <row r="26" spans="1:4" ht="32" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>139</v>
       </c>
@@ -4313,7 +4298,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="60">
+    <row r="27" spans="1:4" ht="80" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>140</v>
       </c>
@@ -4324,7 +4309,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15">
+    <row r="28" spans="1:4" ht="16" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>141</v>
       </c>
@@ -4338,7 +4323,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15">
+    <row r="29" spans="1:4" ht="16" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>142</v>
       </c>
@@ -4352,7 +4337,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15">
+    <row r="30" spans="1:4" ht="16" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>143</v>
       </c>
@@ -4366,7 +4351,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15">
+    <row r="31" spans="1:4" ht="16" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>144</v>
       </c>
@@ -4380,7 +4365,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="30">
+    <row r="32" spans="1:4" ht="32" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>145</v>
       </c>
@@ -4391,7 +4376,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15">
+    <row r="33" spans="1:4" ht="16" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>146</v>
       </c>
@@ -4402,7 +4387,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="30">
+    <row r="34" spans="1:4" ht="32" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>147</v>
       </c>
@@ -4413,7 +4398,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="30">
+    <row r="35" spans="1:4" ht="48" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>148</v>
       </c>
@@ -4424,7 +4409,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="30">
+    <row r="36" spans="1:4" ht="32" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>149</v>
       </c>
@@ -4435,7 +4420,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15">
+    <row r="37" spans="1:4" ht="32" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>150</v>
       </c>
@@ -4449,7 +4434,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="30">
+    <row r="38" spans="1:4" ht="32" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>151</v>
       </c>
@@ -4460,7 +4445,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="30">
+    <row r="39" spans="1:4" ht="32" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>152</v>
       </c>
@@ -4474,7 +4459,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="30">
+    <row r="40" spans="1:4" ht="32" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>153</v>
       </c>
@@ -4485,7 +4470,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="30">
+    <row r="41" spans="1:4" ht="32" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>154</v>
       </c>
@@ -4496,7 +4481,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15">
+    <row r="42" spans="1:4" ht="32" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>155</v>
       </c>
@@ -4507,7 +4492,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="30">
+    <row r="43" spans="1:4" ht="32" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>156</v>
       </c>
@@ -4521,10 +4506,5 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/Team Report_Rafif, Maha, Saloni-Final.xlsx
+++ b/Team Report_Rafif, Maha, Saloni-Final.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2460" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="2460" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -1872,7 +1872,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -3737,8 +3737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3830,13 +3830,22 @@
         <v>161</v>
       </c>
       <c r="D8" t="s">
-        <v>251</v>
+        <v>211</v>
       </c>
       <c r="E8">
         <v>30</v>
       </c>
       <c r="F8">
         <v>60</v>
+      </c>
+      <c r="G8">
+        <v>18</v>
+      </c>
+      <c r="H8">
+        <v>10</v>
+      </c>
+      <c r="I8" s="17">
+        <v>41206</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">

--- a/Team Report_Rafif, Maha, Saloni-Final.xlsx
+++ b/Team Report_Rafif, Maha, Saloni-Final.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2460" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="3360" yWindow="1260" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -3839,7 +3839,7 @@
         <v>60</v>
       </c>
       <c r="G8">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H8">
         <v>10</v>

--- a/Team Report_Rafif, Maha, Saloni-Final.xlsx
+++ b/Team Report_Rafif, Maha, Saloni-Final.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3360" yWindow="1260" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="3160" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="304">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1872,8 +1872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2260,6 +2260,9 @@
       <c r="D29" t="s">
         <v>161</v>
       </c>
+      <c r="E29" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30">
@@ -2290,6 +2293,9 @@
       </c>
       <c r="D31" t="s">
         <v>161</v>
+      </c>
+      <c r="E31" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
@@ -3737,8 +3743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3786,13 +3792,22 @@
         <v>161</v>
       </c>
       <c r="D2" t="s">
-        <v>251</v>
+        <v>211</v>
       </c>
       <c r="E2">
         <v>30</v>
       </c>
       <c r="F2">
         <v>60</v>
+      </c>
+      <c r="G2">
+        <v>28</v>
+      </c>
+      <c r="H2">
+        <v>40</v>
+      </c>
+      <c r="I2" s="17">
+        <v>41207</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">

--- a/Team Report_Rafif, Maha, Saloni-Final.xlsx
+++ b/Team Report_Rafif, Maha, Saloni-Final.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26207"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27610"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/salonisetia/Documents/SSW-555-GEDCOM/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafifarab/Desktop/SSW-555-GEDCOM/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,6 +23,9 @@
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -1359,11 +1362,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2100235296"/>
-        <c:axId val="2074992704"/>
+        <c:axId val="-2083721536"/>
+        <c:axId val="-2083719760"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-2100235296"/>
+        <c:axId val="-2083721536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1373,14 +1376,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2074992704"/>
+        <c:crossAx val="-2083719760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="2074992704"/>
+        <c:axId val="-2083719760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1391,7 +1394,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2100235296"/>
+        <c:crossAx val="-2083721536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1873,7 +1876,7 @@
   <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2166,7 +2169,7 @@
         <v>159</v>
       </c>
       <c r="E22" t="s">
-        <v>251</v>
+        <v>211</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
@@ -2312,7 +2315,7 @@
         <v>159</v>
       </c>
       <c r="E32" t="s">
-        <v>251</v>
+        <v>211</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
@@ -3405,7 +3408,7 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3562,16 +3565,25 @@
         <v>88</v>
       </c>
       <c r="C14" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D14" t="s">
-        <v>251</v>
+        <v>211</v>
       </c>
       <c r="E14">
         <v>35</v>
       </c>
       <c r="F14">
         <v>60</v>
+      </c>
+      <c r="G14">
+        <v>39</v>
+      </c>
+      <c r="H14">
+        <v>20</v>
+      </c>
+      <c r="I14" s="17">
+        <v>41203</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
@@ -3598,16 +3610,25 @@
         <v>101</v>
       </c>
       <c r="C18" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D18" t="s">
-        <v>251</v>
+        <v>211</v>
       </c>
       <c r="E18">
         <v>30</v>
       </c>
       <c r="F18">
         <v>60</v>
+      </c>
+      <c r="G18">
+        <v>25</v>
+      </c>
+      <c r="H18">
+        <v>10</v>
+      </c>
+      <c r="I18" s="17">
+        <v>41203</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
@@ -3634,7 +3655,7 @@
         <v>104</v>
       </c>
       <c r="C23" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D23" t="s">
         <v>211</v>
@@ -3687,7 +3708,7 @@
         <v>108</v>
       </c>
       <c r="C30" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D30" t="s">
         <v>211</v>

--- a/Team Report_Rafif, Maha, Saloni-Final.xlsx
+++ b/Team Report_Rafif, Maha, Saloni-Final.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3160" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="3160" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -1362,11 +1362,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2083721536"/>
-        <c:axId val="-2083719760"/>
+        <c:axId val="-2080842224"/>
+        <c:axId val="-2080840448"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-2083721536"/>
+        <c:axId val="-2080842224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1376,14 +1376,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2083719760"/>
+        <c:crossAx val="-2080840448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-2083719760"/>
+        <c:axId val="-2080840448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1394,7 +1394,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2083721536"/>
+        <c:crossAx val="-2080842224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1875,7 +1875,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -2453,7 +2453,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -2560,6 +2560,16 @@
       </c>
       <c r="C5">
         <v>6</v>
+      </c>
+      <c r="D5">
+        <v>178</v>
+      </c>
+      <c r="E5">
+        <v>143</v>
+      </c>
+      <c r="F5" s="8">
+        <f>(D5-D4)/E5*60</f>
+        <v>17.202797202797203</v>
       </c>
     </row>
   </sheetData>

--- a/Team Report_Rafif, Maha, Saloni-Final.xlsx
+++ b/Team Report_Rafif, Maha, Saloni-Final.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25317"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2460" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="2460" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="316">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -972,6 +972,42 @@
   </si>
   <si>
     <t>malidrisi</t>
+  </si>
+  <si>
+    <t>T25.01</t>
+  </si>
+  <si>
+    <t>T25.02</t>
+  </si>
+  <si>
+    <t>T25.03</t>
+  </si>
+  <si>
+    <t>T25.04</t>
+  </si>
+  <si>
+    <t>define a list for each family names</t>
+  </si>
+  <si>
+    <t>add husband and wife names</t>
+  </si>
+  <si>
+    <t>add children names</t>
+  </si>
+  <si>
+    <t>check if sthe list has repeated name</t>
+  </si>
+  <si>
+    <t>T24.01</t>
+  </si>
+  <si>
+    <t>T24.02</t>
+  </si>
+  <si>
+    <t>T24.03</t>
+  </si>
+  <si>
+    <t>T24.04</t>
   </si>
 </sst>
 </file>
@@ -1030,7 +1066,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="101">
+  <cellStyleXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1087,6 +1123,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1167,7 +1211,7 @@
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="101">
+  <cellStyles count="109">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1240,6 +1284,14 @@
     <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="99" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="101" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="103" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="105" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="107" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1357,11 +1409,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2100141992"/>
-        <c:axId val="-2099895912"/>
+        <c:axId val="2131348200"/>
+        <c:axId val="-2103631960"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-2100141992"/>
+        <c:axId val="2131348200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1371,14 +1423,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2099895912"/>
+        <c:crossAx val="-2103631960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-2099895912"/>
+        <c:axId val="-2103631960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1389,7 +1441,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2100141992"/>
+        <c:crossAx val="2131348200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1875,8 +1927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView topLeftCell="A16" zoomScale="150" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -2207,11 +2259,17 @@
       </c>
     </row>
     <row r="25" spans="1:5">
+      <c r="A25">
+        <v>4</v>
+      </c>
       <c r="B25" t="s">
         <v>138</v>
       </c>
       <c r="C25" t="s">
         <v>93</v>
+      </c>
+      <c r="D25" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -2223,6 +2281,12 @@
       </c>
       <c r="C26" t="s">
         <v>94</v>
+      </c>
+      <c r="D26" t="s">
+        <v>160</v>
+      </c>
+      <c r="E26" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -3004,7 +3068,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="150" workbookViewId="0">
+    <sheetView topLeftCell="A18" zoomScale="150" workbookViewId="0">
       <selection activeCell="H31" sqref="H2:H31"/>
     </sheetView>
   </sheetViews>
@@ -3421,7 +3485,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="150" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScale="150" workbookViewId="0">
       <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
@@ -3751,10 +3815,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:B24"/>
+    <sheetView topLeftCell="A11" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -3962,16 +4026,113 @@
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" t="s">
+      <c r="A24" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" t="s">
+        <v>160</v>
+      </c>
+      <c r="D24" t="s">
+        <v>251</v>
+      </c>
+      <c r="E24">
+        <v>35</v>
+      </c>
+      <c r="F24">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>312</v>
+      </c>
+      <c r="B26" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>313</v>
+      </c>
+      <c r="B27" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>314</v>
+      </c>
+      <c r="B28" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>315</v>
+      </c>
+      <c r="B29" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B33" s="4" t="s">
         <v>94</v>
+      </c>
+      <c r="C33" t="s">
+        <v>160</v>
+      </c>
+      <c r="D33" t="s">
+        <v>251</v>
+      </c>
+      <c r="E33">
+        <v>35</v>
+      </c>
+      <c r="F33">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>304</v>
+      </c>
+      <c r="B35" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>305</v>
+      </c>
+      <c r="B36" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>306</v>
+      </c>
+      <c r="B37" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>307</v>
+      </c>
+      <c r="B38" t="s">
+        <v>311</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3984,8 +4145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>

--- a/Team Report_Rafif, Maha, Saloni-Final.xlsx
+++ b/Team Report_Rafif, Maha, Saloni-Final.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25317"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2460" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="7"/>
+    <workbookView xWindow="2460" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -1409,11 +1409,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2131348200"/>
-        <c:axId val="-2103631960"/>
+        <c:axId val="-2105078120"/>
+        <c:axId val="-2105351544"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="2131348200"/>
+        <c:axId val="-2105078120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1423,14 +1423,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2103631960"/>
+        <c:crossAx val="-2105351544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-2103631960"/>
+        <c:axId val="-2105351544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1441,7 +1441,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2131348200"/>
+        <c:crossAx val="-2105078120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2516,8 +2516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -3485,7 +3485,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="150" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="150" workbookViewId="0">
       <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
@@ -4145,7 +4145,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView topLeftCell="A21" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>

--- a/Team Report_Rafif, Maha, Saloni-Final.xlsx
+++ b/Team Report_Rafif, Maha, Saloni-Final.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25317"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2460" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="2460" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="319">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1008,6 +1008,15 @@
   </si>
   <si>
     <t>T24.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Review each others code </t>
+  </si>
+  <si>
+    <t>Adding test cases</t>
+  </si>
+  <si>
+    <t>Avoid changing the original gedcom to test US</t>
   </si>
 </sst>
 </file>
@@ -1066,7 +1075,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="109">
+  <cellStyleXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1123,6 +1132,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1211,7 +1222,7 @@
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="109">
+  <cellStyles count="111">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1292,6 +1303,8 @@
     <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="107" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="109" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1409,11 +1422,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2105078120"/>
-        <c:axId val="-2105351544"/>
+        <c:axId val="2139635720"/>
+        <c:axId val="-2103952168"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-2105078120"/>
+        <c:axId val="2139635720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1423,14 +1436,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2105351544"/>
+        <c:crossAx val="-2103952168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-2105351544"/>
+        <c:axId val="-2103952168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1441,7 +1454,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2105078120"/>
+        <c:crossAx val="2139635720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2516,7 +2529,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -2642,7 +2655,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="150" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScale="150" workbookViewId="0">
       <selection activeCell="H30" sqref="H2:H30"/>
     </sheetView>
   </sheetViews>
@@ -3068,8 +3081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="150" workbookViewId="0">
-      <selection activeCell="H31" sqref="H2:H31"/>
+    <sheetView topLeftCell="A25" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38:B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -3483,10 +3496,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -3799,6 +3812,64 @@
       </c>
       <c r="B34" t="s">
         <v>278</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="B36" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="B38" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="B39" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="B40" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="B41" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="B42" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="B43" s="1"/>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="B44" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="B45" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="B46" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="B47" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="B48" s="1" t="s">
+        <v>318</v>
       </c>
     </row>
   </sheetData>

--- a/Team Report_Rafif, Maha, Saloni-Final.xlsx
+++ b/Team Report_Rafif, Maha, Saloni-Final.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25317"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27610"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafifarab/Desktop/SSW-555-GEDCOM/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="2460" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="5"/>
   </bookViews>
@@ -16,20 +21,20 @@
     <sheet name="Sprint4" sheetId="6" r:id="rId7"/>
     <sheet name="Stories" sheetId="11" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="319">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1422,11 +1427,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2139635720"/>
-        <c:axId val="-2103952168"/>
+        <c:axId val="-2038674240"/>
+        <c:axId val="-2038671920"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="2139635720"/>
+        <c:axId val="-2038674240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1436,14 +1441,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2103952168"/>
+        <c:crossAx val="-2038671920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-2103952168"/>
+        <c:axId val="-2038671920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1454,7 +1459,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2139635720"/>
+        <c:crossAx val="-2038674240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1832,15 +1837,15 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.42578125" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" customWidth="1"/>
-    <col min="4" max="5" width="20.42578125" customWidth="1"/>
+    <col min="1" max="1" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5" customWidth="1"/>
+    <col min="3" max="3" width="8.5" customWidth="1"/>
+    <col min="4" max="5" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>18</v>
       </c>
@@ -1857,7 +1862,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>159</v>
       </c>
@@ -1874,7 +1879,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>160</v>
       </c>
@@ -1891,7 +1896,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>161</v>
       </c>
@@ -1908,7 +1913,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D9" s="4" t="s">
         <v>29</v>
       </c>
@@ -1928,11 +1933,6 @@
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1940,20 +1940,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>208</v>
       </c>
@@ -1970,7 +1970,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1987,7 +1987,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2004,7 +2004,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2021,7 +2021,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2038,7 +2038,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>3</v>
       </c>
@@ -2055,7 +2055,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>4</v>
       </c>
@@ -2072,7 +2072,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>1</v>
       </c>
@@ -2089,7 +2089,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
         <v>122</v>
       </c>
@@ -2097,7 +2097,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
         <v>123</v>
       </c>
@@ -2105,7 +2105,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>2</v>
       </c>
@@ -2122,7 +2122,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
         <v>125</v>
       </c>
@@ -2130,7 +2130,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
         <v>126</v>
       </c>
@@ -2138,7 +2138,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
         <v>127</v>
       </c>
@@ -2146,7 +2146,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
         <v>128</v>
       </c>
@@ -2154,7 +2154,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>3</v>
       </c>
@@ -2171,7 +2171,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>2</v>
       </c>
@@ -2188,7 +2188,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
         <v>131</v>
       </c>
@@ -2196,7 +2196,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
         <v>132</v>
       </c>
@@ -2204,7 +2204,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
         <v>133</v>
       </c>
@@ -2212,7 +2212,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
         <v>134</v>
       </c>
@@ -2220,7 +2220,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>3</v>
       </c>
@@ -2234,10 +2234,10 @@
         <v>159</v>
       </c>
       <c r="E22" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>2</v>
       </c>
@@ -2254,7 +2254,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>1</v>
       </c>
@@ -2271,7 +2271,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>4</v>
       </c>
@@ -2285,7 +2285,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>4</v>
       </c>
@@ -2302,7 +2302,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
         <v>140</v>
       </c>
@@ -2310,7 +2310,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>1</v>
       </c>
@@ -2327,7 +2327,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>4</v>
       </c>
@@ -2341,7 +2341,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>1</v>
       </c>
@@ -2358,7 +2358,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>4</v>
       </c>
@@ -2372,7 +2372,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>3</v>
       </c>
@@ -2386,10 +2386,10 @@
         <v>159</v>
       </c>
       <c r="E32" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
         <v>146</v>
       </c>
@@ -2397,7 +2397,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B34" t="s">
         <v>147</v>
       </c>
@@ -2405,7 +2405,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
         <v>148</v>
       </c>
@@ -2413,7 +2413,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>3</v>
       </c>
@@ -2430,7 +2430,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>2</v>
       </c>
@@ -2447,7 +2447,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B38" t="s">
         <v>151</v>
       </c>
@@ -2455,7 +2455,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>2</v>
       </c>
@@ -2472,7 +2472,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>3</v>
       </c>
@@ -2489,7 +2489,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B41" t="s">
         <v>154</v>
       </c>
@@ -2497,7 +2497,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B42" t="s">
         <v>155</v>
       </c>
@@ -2505,7 +2505,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B43" t="s">
         <v>156</v>
       </c>
@@ -2517,11 +2517,6 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2533,17 +2528,17 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="2"/>
-    <col min="2" max="2" width="16.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" customWidth="1"/>
-    <col min="5" max="5" width="6.85546875" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="4" max="4" width="7.1640625" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2563,7 +2558,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>41171</v>
       </c>
@@ -2583,7 +2578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>41185</v>
       </c>
@@ -2605,7 +2600,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>41193</v>
       </c>
@@ -2627,7 +2622,7 @@
         <v>9.5192307692307683</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="6">
         <v>41213</v>
       </c>
@@ -2643,11 +2638,6 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2659,21 +2649,21 @@
       <selection activeCell="H30" sqref="H2:H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" style="6"/>
-    <col min="11" max="11" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" style="6"/>
+    <col min="11" max="11" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -2702,7 +2692,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>115</v>
       </c>
@@ -2731,10 +2721,10 @@
         <v>41182</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="14" t="s">
         <v>182</v>
       </c>
@@ -2742,7 +2732,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="14" t="s">
         <v>183</v>
       </c>
@@ -2750,10 +2740,10 @@
         <v>185</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="14"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>117</v>
       </c>
@@ -2782,10 +2772,10 @@
         <v>41184</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="4"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>176</v>
       </c>
@@ -2793,7 +2783,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>178</v>
       </c>
@@ -2801,7 +2791,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>180</v>
       </c>
@@ -2809,7 +2799,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
         <v>121</v>
       </c>
@@ -2838,11 +2828,11 @@
         <v>41181</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="14" t="s">
         <v>186</v>
       </c>
@@ -2850,7 +2840,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="14" t="s">
         <v>187</v>
       </c>
@@ -2858,7 +2848,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="26">
+    <row r="17" spans="1:9" ht="39" x14ac:dyDescent="0.15">
       <c r="A17" s="14" t="s">
         <v>198</v>
       </c>
@@ -2866,7 +2856,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="26">
+    <row r="18" spans="1:9" ht="39" x14ac:dyDescent="0.15">
       <c r="A18" s="14" t="s">
         <v>199</v>
       </c>
@@ -2874,10 +2864,10 @@
         <v>201</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
         <v>137</v>
       </c>
@@ -2906,11 +2896,11 @@
         <v>41184</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
       <c r="B21"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="14" t="s">
         <v>193</v>
       </c>
@@ -2918,7 +2908,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="14" t="s">
         <v>194</v>
       </c>
@@ -2926,7 +2916,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="26">
+    <row r="24" spans="1:9" ht="26" x14ac:dyDescent="0.15">
       <c r="A24" s="14" t="s">
         <v>195</v>
       </c>
@@ -2934,11 +2924,11 @@
         <v>192</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="14"/>
       <c r="B25" s="15"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
         <v>141</v>
       </c>
@@ -2967,11 +2957,11 @@
         <v>41184</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" s="4"/>
       <c r="B27"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" s="14" t="s">
         <v>189</v>
       </c>
@@ -2979,11 +2969,11 @@
         <v>188</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" s="14"/>
       <c r="B29"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
         <v>143</v>
       </c>
@@ -3012,11 +3002,11 @@
         <v>41184</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" s="4"/>
       <c r="B31"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" s="14" t="s">
         <v>202</v>
       </c>
@@ -3024,7 +3014,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="14" t="s">
         <v>205</v>
       </c>
@@ -3032,35 +3022,35 @@
         <v>204</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B35" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B36" s="5"/>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B37" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B38" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B39" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B41" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B42" s="1" t="s">
         <v>230</v>
       </c>
@@ -3069,11 +3059,6 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3085,12 +3070,12 @@
       <selection activeCell="B38" sqref="B38:B49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -3119,7 +3104,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>130</v>
       </c>
@@ -3148,7 +3133,7 @@
         <v>41192</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="14" t="s">
         <v>220</v>
       </c>
@@ -3156,7 +3141,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="14" t="s">
         <v>221</v>
       </c>
@@ -3164,7 +3149,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>136</v>
       </c>
@@ -3193,7 +3178,7 @@
         <v>41192</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="14" t="s">
         <v>212</v>
       </c>
@@ -3201,7 +3186,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="14" t="s">
         <v>214</v>
       </c>
@@ -3209,7 +3194,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
         <v>150</v>
       </c>
@@ -3238,7 +3223,7 @@
         <v>41193</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>224</v>
       </c>
@@ -3246,7 +3231,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>225</v>
       </c>
@@ -3254,7 +3239,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>228</v>
       </c>
@@ -3262,7 +3247,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
         <v>152</v>
       </c>
@@ -3291,7 +3276,7 @@
         <v>41193</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>216</v>
       </c>
@@ -3299,7 +3284,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>218</v>
       </c>
@@ -3307,7 +3292,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
         <v>116</v>
       </c>
@@ -3336,7 +3321,7 @@
         <v>41193</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>231</v>
       </c>
@@ -3344,7 +3329,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>234</v>
       </c>
@@ -3352,7 +3337,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>235</v>
       </c>
@@ -3360,7 +3345,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>236</v>
       </c>
@@ -3368,7 +3353,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
         <v>124</v>
       </c>
@@ -3397,7 +3382,7 @@
         <v>41193</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>237</v>
       </c>
@@ -3405,7 +3390,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>241</v>
       </c>
@@ -3413,7 +3398,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>242</v>
       </c>
@@ -3421,7 +3406,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="26">
+    <row r="36" spans="1:2" ht="26" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>243</v>
       </c>
@@ -3429,55 +3414,55 @@
         <v>239</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B38" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B40" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B41" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B42" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B43" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="26">
+    <row r="44" spans="1:2" ht="26" x14ac:dyDescent="0.15">
       <c r="B44" s="1" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B45" s="1"/>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B46" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B47" s="1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B48" s="1" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="49" spans="2:2">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B49" s="1" t="s">
         <v>248</v>
       </c>
@@ -3486,11 +3471,6 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3498,16 +3478,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="39.28515625" customWidth="1"/>
+    <col min="2" max="2" width="39.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -3536,7 +3516,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>119</v>
       </c>
@@ -3556,10 +3536,10 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="14" t="s">
         <v>252</v>
       </c>
@@ -3567,7 +3547,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="14" t="s">
         <v>253</v>
       </c>
@@ -3575,7 +3555,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="14" t="s">
         <v>254</v>
       </c>
@@ -3583,7 +3563,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="14" t="s">
         <v>258</v>
       </c>
@@ -3591,10 +3571,10 @@
         <v>257</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="14"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>129</v>
       </c>
@@ -3620,7 +3600,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>259</v>
       </c>
@@ -3628,7 +3608,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>260</v>
       </c>
@@ -3636,7 +3616,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
         <v>135</v>
       </c>
@@ -3647,7 +3627,7 @@
         <v>162</v>
       </c>
       <c r="D14" t="s">
-        <v>251</v>
+        <v>211</v>
       </c>
       <c r="E14">
         <v>35</v>
@@ -3655,8 +3635,17 @@
       <c r="F14">
         <v>60</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="G14">
+        <v>39</v>
+      </c>
+      <c r="H14">
+        <v>20</v>
+      </c>
+      <c r="I14" s="17">
+        <v>41203</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>282</v>
       </c>
@@ -3664,7 +3653,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>284</v>
       </c>
@@ -3672,7 +3661,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
         <v>145</v>
       </c>
@@ -3683,7 +3672,7 @@
         <v>162</v>
       </c>
       <c r="D18" t="s">
-        <v>251</v>
+        <v>211</v>
       </c>
       <c r="E18">
         <v>30</v>
@@ -3691,8 +3680,17 @@
       <c r="F18">
         <v>60</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="G18">
+        <v>25</v>
+      </c>
+      <c r="H18">
+        <v>10</v>
+      </c>
+      <c r="I18" s="17">
+        <v>41203</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>286</v>
       </c>
@@ -3700,7 +3698,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>287</v>
       </c>
@@ -3708,7 +3706,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
         <v>149</v>
       </c>
@@ -3737,7 +3735,7 @@
         <v>41203</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>273</v>
       </c>
@@ -3745,7 +3743,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>274</v>
       </c>
@@ -3753,7 +3751,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>275</v>
       </c>
@@ -3761,7 +3759,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
         <v>153</v>
       </c>
@@ -3790,7 +3788,7 @@
         <v>41203</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>279</v>
       </c>
@@ -3798,7 +3796,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>280</v>
       </c>
@@ -3806,7 +3804,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>281</v>
       </c>
@@ -3814,60 +3812,60 @@
         <v>278</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B36" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B38" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B39" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B40" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B41" s="1" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B42" s="1" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B43" s="1"/>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B44" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B45" s="1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B46" s="1" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B47" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" ht="26" x14ac:dyDescent="0.15">
       <c r="B48" s="1" t="s">
         <v>318</v>
       </c>
@@ -3876,11 +3874,6 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3888,16 +3881,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -3926,7 +3919,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>142</v>
       </c>
@@ -3936,6 +3929,9 @@
       <c r="C2" t="s">
         <v>161</v>
       </c>
+      <c r="D2" t="s">
+        <v>251</v>
+      </c>
       <c r="E2">
         <v>30</v>
       </c>
@@ -3943,7 +3939,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>263</v>
       </c>
@@ -3951,7 +3947,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>264</v>
       </c>
@@ -3959,7 +3955,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>265</v>
       </c>
@@ -3967,7 +3963,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>144</v>
       </c>
@@ -3977,6 +3973,9 @@
       <c r="C8" t="s">
         <v>161</v>
       </c>
+      <c r="D8" t="s">
+        <v>251</v>
+      </c>
       <c r="E8">
         <v>30</v>
       </c>
@@ -3984,7 +3983,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>268</v>
       </c>
@@ -3992,7 +3991,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>269</v>
       </c>
@@ -4000,7 +3999,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
         <v>118</v>
       </c>
@@ -4020,7 +4019,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>290</v>
       </c>
@@ -4028,7 +4027,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>294</v>
       </c>
@@ -4036,7 +4035,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>295</v>
       </c>
@@ -4044,7 +4043,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
         <v>120</v>
       </c>
@@ -4064,7 +4063,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>296</v>
       </c>
@@ -4072,7 +4071,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>300</v>
       </c>
@@ -4080,7 +4079,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>301</v>
       </c>
@@ -4088,7 +4087,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>302</v>
       </c>
@@ -4096,7 +4095,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
         <v>138</v>
       </c>
@@ -4116,7 +4115,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>312</v>
       </c>
@@ -4124,7 +4123,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>313</v>
       </c>
@@ -4132,7 +4131,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>314</v>
       </c>
@@ -4140,7 +4139,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>315</v>
       </c>
@@ -4148,7 +4147,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
         <v>139</v>
       </c>
@@ -4168,7 +4167,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>304</v>
       </c>
@@ -4176,7 +4175,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>305</v>
       </c>
@@ -4184,7 +4183,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>306</v>
       </c>
@@ -4192,7 +4191,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>307</v>
       </c>
@@ -4204,11 +4203,6 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4220,13 +4214,13 @@
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="24.42578125" customWidth="1"/>
-    <col min="3" max="3" width="49.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5" customWidth="1"/>
+    <col min="3" max="3" width="49.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1">
+    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>114</v>
       </c>
@@ -4240,7 +4234,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30">
+    <row r="2" spans="1:4" ht="32" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>115</v>
       </c>
@@ -4254,7 +4248,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15">
+    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>116</v>
       </c>
@@ -4268,7 +4262,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15">
+    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>117</v>
       </c>
@@ -4282,7 +4276,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="30">
+    <row r="5" spans="1:4" ht="32" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>118</v>
       </c>
@@ -4293,7 +4287,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15">
+    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>119</v>
       </c>
@@ -4307,7 +4301,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15">
+    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>120</v>
       </c>
@@ -4318,7 +4312,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="45">
+    <row r="8" spans="1:4" ht="48" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>121</v>
       </c>
@@ -4332,7 +4326,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="30">
+    <row r="9" spans="1:4" ht="32" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>122</v>
       </c>
@@ -4343,7 +4337,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="30">
+    <row r="10" spans="1:4" ht="32" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>123</v>
       </c>
@@ -4354,7 +4348,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15">
+    <row r="11" spans="1:4" ht="32" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>124</v>
       </c>
@@ -4368,7 +4362,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15">
+    <row r="12" spans="1:4" ht="32" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>125</v>
       </c>
@@ -4379,7 +4373,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="30">
+    <row r="13" spans="1:4" ht="48" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>126</v>
       </c>
@@ -4390,7 +4384,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="30">
+    <row r="14" spans="1:4" ht="32" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>127</v>
       </c>
@@ -4401,7 +4395,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15">
+    <row r="15" spans="1:4" ht="32" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>128</v>
       </c>
@@ -4412,7 +4406,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15">
+    <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>129</v>
       </c>
@@ -4426,7 +4420,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15">
+    <row r="17" spans="1:4" ht="32" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>130</v>
       </c>
@@ -4440,7 +4434,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15">
+    <row r="18" spans="1:4" ht="16" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>131</v>
       </c>
@@ -4451,7 +4445,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15">
+    <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>132</v>
       </c>
@@ -4462,7 +4456,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15">
+    <row r="20" spans="1:4" ht="16" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>133</v>
       </c>
@@ -4473,7 +4467,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15">
+    <row r="21" spans="1:4" ht="32" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>134</v>
       </c>
@@ -4484,7 +4478,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="30">
+    <row r="22" spans="1:4" ht="32" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>135</v>
       </c>
@@ -4495,7 +4489,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="30">
+    <row r="23" spans="1:4" ht="32" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>136</v>
       </c>
@@ -4509,7 +4503,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="30">
+    <row r="24" spans="1:4" ht="32" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>137</v>
       </c>
@@ -4523,7 +4517,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="30">
+    <row r="25" spans="1:4" ht="48" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>138</v>
       </c>
@@ -4534,7 +4528,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="30">
+    <row r="26" spans="1:4" ht="32" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>139</v>
       </c>
@@ -4545,7 +4539,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="60">
+    <row r="27" spans="1:4" ht="80" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>140</v>
       </c>
@@ -4556,7 +4550,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15">
+    <row r="28" spans="1:4" ht="16" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>141</v>
       </c>
@@ -4570,7 +4564,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15">
+    <row r="29" spans="1:4" ht="16" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>142</v>
       </c>
@@ -4584,7 +4578,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15">
+    <row r="30" spans="1:4" ht="16" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>143</v>
       </c>
@@ -4598,7 +4592,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15">
+    <row r="31" spans="1:4" ht="16" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>144</v>
       </c>
@@ -4612,7 +4606,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="30">
+    <row r="32" spans="1:4" ht="32" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>145</v>
       </c>
@@ -4623,7 +4617,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15">
+    <row r="33" spans="1:4" ht="16" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>146</v>
       </c>
@@ -4634,7 +4628,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="30">
+    <row r="34" spans="1:4" ht="32" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>147</v>
       </c>
@@ -4645,7 +4639,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="30">
+    <row r="35" spans="1:4" ht="48" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>148</v>
       </c>
@@ -4656,7 +4650,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="30">
+    <row r="36" spans="1:4" ht="32" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>149</v>
       </c>
@@ -4667,7 +4661,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15">
+    <row r="37" spans="1:4" ht="32" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>150</v>
       </c>
@@ -4681,7 +4675,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="30">
+    <row r="38" spans="1:4" ht="32" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>151</v>
       </c>
@@ -4692,7 +4686,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="30">
+    <row r="39" spans="1:4" ht="32" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>152</v>
       </c>
@@ -4706,7 +4700,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="30">
+    <row r="40" spans="1:4" ht="32" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>153</v>
       </c>
@@ -4717,7 +4711,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="30">
+    <row r="41" spans="1:4" ht="32" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>154</v>
       </c>
@@ -4728,7 +4722,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15">
+    <row r="42" spans="1:4" ht="32" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>155</v>
       </c>
@@ -4739,7 +4733,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="30">
+    <row r="43" spans="1:4" ht="32" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>156</v>
       </c>
@@ -4753,10 +4747,5 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/Team Report_Rafif, Maha, Saloni-Final.xlsx
+++ b/Team Report_Rafif, Maha, Saloni-Final.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27610"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26207"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafifarab/Desktop/SSW-555-GEDCOM/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/salonisetia/Documents/SSW-555-GEDCOM/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2460" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="1360" yWindow="7260" windowWidth="25600" windowHeight="9000" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,6 @@
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -34,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="319">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1427,11 +1424,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2038674240"/>
-        <c:axId val="-2038671920"/>
+        <c:axId val="-2080280400"/>
+        <c:axId val="-2080118976"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-2038674240"/>
+        <c:axId val="-2080280400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1441,14 +1438,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2038671920"/>
+        <c:crossAx val="-2080118976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-2038671920"/>
+        <c:axId val="-2080118976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1459,7 +1456,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2038674240"/>
+        <c:crossAx val="-2080280400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1940,8 +1937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView topLeftCell="A27" zoomScale="150" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2052,7 +2049,7 @@
         <v>161</v>
       </c>
       <c r="E6" t="s">
-        <v>251</v>
+        <v>211</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -2168,7 +2165,7 @@
         <v>161</v>
       </c>
       <c r="E16" t="s">
-        <v>251</v>
+        <v>211</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
@@ -2340,6 +2337,9 @@
       <c r="D29" t="s">
         <v>161</v>
       </c>
+      <c r="E29" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30">
@@ -2370,6 +2370,9 @@
       </c>
       <c r="D31" t="s">
         <v>161</v>
+      </c>
+      <c r="E31" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
@@ -3478,8 +3481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3527,13 +3530,22 @@
         <v>161</v>
       </c>
       <c r="D2" t="s">
-        <v>251</v>
+        <v>211</v>
       </c>
       <c r="E2">
         <v>30</v>
       </c>
       <c r="F2">
         <v>60</v>
+      </c>
+      <c r="G2">
+        <v>57</v>
+      </c>
+      <c r="H2">
+        <v>60</v>
+      </c>
+      <c r="I2" s="17">
+        <v>41206</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -3598,6 +3610,9 @@
       </c>
       <c r="H9">
         <v>15</v>
+      </c>
+      <c r="I9" s="17">
+        <v>41194</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
@@ -3881,8 +3896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="150" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3930,13 +3945,22 @@
         <v>161</v>
       </c>
       <c r="D2" t="s">
-        <v>251</v>
+        <v>211</v>
       </c>
       <c r="E2">
         <v>30</v>
       </c>
       <c r="F2">
         <v>60</v>
+      </c>
+      <c r="G2">
+        <v>28</v>
+      </c>
+      <c r="H2">
+        <v>40</v>
+      </c>
+      <c r="I2" s="17">
+        <v>41207</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -3974,13 +3998,22 @@
         <v>161</v>
       </c>
       <c r="D8" t="s">
-        <v>251</v>
+        <v>211</v>
       </c>
       <c r="E8">
         <v>30</v>
       </c>
       <c r="F8">
         <v>60</v>
+      </c>
+      <c r="G8">
+        <v>14</v>
+      </c>
+      <c r="H8">
+        <v>10</v>
+      </c>
+      <c r="I8" s="17">
+        <v>41206</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">

--- a/Team Report_Rafif, Maha, Saloni-Final.xlsx
+++ b/Team Report_Rafif, Maha, Saloni-Final.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26207"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27610"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/salonisetia/Documents/SSW-555-GEDCOM/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafifarab/Desktop/SSW-555-GEDCOM/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1360" yWindow="7260" windowWidth="25600" windowHeight="9000" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="980" yWindow="520" windowWidth="27820" windowHeight="16860" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,9 @@
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="319">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1424,11 +1427,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2080280400"/>
-        <c:axId val="-2080118976"/>
+        <c:axId val="-2039050096"/>
+        <c:axId val="-2039393888"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-2080280400"/>
+        <c:axId val="-2039050096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1438,14 +1441,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2080118976"/>
+        <c:crossAx val="-2039393888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-2080118976"/>
+        <c:axId val="-2039393888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1456,7 +1459,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2080280400"/>
+        <c:crossAx val="-2039050096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1937,8 +1940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2281,6 +2284,9 @@
       <c r="D25" t="s">
         <v>160</v>
       </c>
+      <c r="E25" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26">
@@ -2528,7 +2534,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2634,6 +2640,16 @@
       </c>
       <c r="C5">
         <v>6</v>
+      </c>
+      <c r="D5">
+        <v>178</v>
+      </c>
+      <c r="E5">
+        <v>143</v>
+      </c>
+      <c r="F5" s="8">
+        <f>(D5-D4)/E5*60</f>
+        <v>17.202797202797203</v>
       </c>
     </row>
   </sheetData>
@@ -3482,7 +3498,7 @@
   <dimension ref="A1:I48"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3639,7 +3655,7 @@
         <v>88</v>
       </c>
       <c r="C14" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D14" t="s">
         <v>211</v>
@@ -3684,7 +3700,7 @@
         <v>101</v>
       </c>
       <c r="C18" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D18" t="s">
         <v>211</v>
@@ -3729,7 +3745,7 @@
         <v>104</v>
       </c>
       <c r="C23" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D23" t="s">
         <v>211</v>
@@ -3782,7 +3798,7 @@
         <v>108</v>
       </c>
       <c r="C30" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D30" t="s">
         <v>211</v>
@@ -3896,8 +3912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="150" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4049,7 +4065,7 @@
         <v>30</v>
       </c>
       <c r="F13">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
@@ -4093,7 +4109,7 @@
         <v>30</v>
       </c>
       <c r="F18">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
@@ -4132,7 +4148,7 @@
       <c r="A24" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="14" t="s">
         <v>93</v>
       </c>
       <c r="C24" t="s">
@@ -4184,7 +4200,7 @@
       <c r="A33" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="14" t="s">
         <v>94</v>
       </c>
       <c r="C33" t="s">

--- a/Team Report_Rafif, Maha, Saloni-Final.xlsx
+++ b/Team Report_Rafif, Maha, Saloni-Final.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="980" yWindow="520" windowWidth="27820" windowHeight="16860" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="980" yWindow="520" windowWidth="27820" windowHeight="16860" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -1427,11 +1427,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2039050096"/>
-        <c:axId val="-2039393888"/>
+        <c:axId val="-2003809120"/>
+        <c:axId val="-2003327232"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-2039050096"/>
+        <c:axId val="-2003809120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1441,14 +1441,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2039393888"/>
+        <c:crossAx val="-2003327232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-2039393888"/>
+        <c:axId val="-2003327232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1459,7 +1459,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2039050096"/>
+        <c:crossAx val="-2003809120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2664,7 +2664,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="H30" sqref="H2:H30"/>
     </sheetView>
   </sheetViews>
@@ -3085,7 +3085,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="B38" sqref="B38:B49"/>
     </sheetView>
   </sheetViews>
@@ -3497,7 +3497,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
@@ -3912,8 +3912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4065,7 +4065,7 @@
         <v>30</v>
       </c>
       <c r="F13">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
@@ -4109,7 +4109,7 @@
         <v>30</v>
       </c>
       <c r="F18">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">

--- a/Team Report_Rafif, Maha, Saloni-Final.xlsx
+++ b/Team Report_Rafif, Maha, Saloni-Final.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="980" yWindow="520" windowWidth="27820" windowHeight="16860" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="980" yWindow="520" windowWidth="27820" windowHeight="16860" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -1427,11 +1427,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2003809120"/>
-        <c:axId val="-2003327232"/>
+        <c:axId val="-2002756944"/>
+        <c:axId val="-2046661040"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-2003809120"/>
+        <c:axId val="-2002756944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1441,14 +1441,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2003327232"/>
+        <c:crossAx val="-2046661040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-2003327232"/>
+        <c:axId val="-2046661040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1459,7 +1459,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2003809120"/>
+        <c:crossAx val="-2002756944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3497,7 +3497,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
@@ -3912,7 +3912,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>

--- a/Team Report_Rafif, Maha, Saloni-Final.xlsx
+++ b/Team Report_Rafif, Maha, Saloni-Final.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27610"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25317"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafifarab/Desktop/SSW-555-GEDCOM/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="980" yWindow="520" windowWidth="27820" windowHeight="16860" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -21,13 +16,13 @@
     <sheet name="Sprint4" sheetId="6" r:id="rId7"/>
     <sheet name="Stories" sheetId="11" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
@@ -1080,7 +1075,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="111">
+  <cellStyleXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1137,6 +1132,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1227,7 +1228,7 @@
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="111">
+  <cellStyles count="117">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1310,6 +1311,12 @@
     <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="109" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="111" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="113" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="115" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1427,11 +1434,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2002756944"/>
-        <c:axId val="-2046661040"/>
+        <c:axId val="-2096541624"/>
+        <c:axId val="-2096624280"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-2002756944"/>
+        <c:axId val="-2096541624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1441,14 +1448,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2046661040"/>
+        <c:crossAx val="-2096624280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-2046661040"/>
+        <c:axId val="-2096624280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1459,7 +1466,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2002756944"/>
+        <c:crossAx val="-2096541624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1837,15 +1844,15 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5" customWidth="1"/>
-    <col min="3" max="3" width="8.5" customWidth="1"/>
-    <col min="4" max="5" width="20.5" customWidth="1"/>
+    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" customWidth="1"/>
+    <col min="4" max="5" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>18</v>
       </c>
@@ -1862,7 +1869,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>159</v>
       </c>
@@ -1879,7 +1886,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>160</v>
       </c>
@@ -1896,7 +1903,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>161</v>
       </c>
@@ -1913,7 +1920,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5">
       <c r="D9" s="4" t="s">
         <v>29</v>
       </c>
@@ -1933,6 +1940,11 @@
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1940,20 +1952,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="150" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.6640625" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>208</v>
       </c>
@@ -1970,7 +1982,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1987,7 +1999,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2004,7 +2016,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2021,7 +2033,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2038,7 +2050,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>3</v>
       </c>
@@ -2055,7 +2067,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>4</v>
       </c>
@@ -2072,7 +2084,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>1</v>
       </c>
@@ -2089,7 +2101,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5">
       <c r="B9" t="s">
         <v>122</v>
       </c>
@@ -2097,7 +2109,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5">
       <c r="B10" t="s">
         <v>123</v>
       </c>
@@ -2105,7 +2117,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>2</v>
       </c>
@@ -2122,7 +2134,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5">
       <c r="B12" t="s">
         <v>125</v>
       </c>
@@ -2130,7 +2142,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5">
       <c r="B13" t="s">
         <v>126</v>
       </c>
@@ -2138,7 +2150,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5">
       <c r="B14" t="s">
         <v>127</v>
       </c>
@@ -2146,7 +2158,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5">
       <c r="B15" t="s">
         <v>128</v>
       </c>
@@ -2154,7 +2166,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>3</v>
       </c>
@@ -2171,7 +2183,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>2</v>
       </c>
@@ -2188,7 +2200,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5">
       <c r="B18" t="s">
         <v>131</v>
       </c>
@@ -2196,7 +2208,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5">
       <c r="B19" t="s">
         <v>132</v>
       </c>
@@ -2204,7 +2216,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5">
       <c r="B20" t="s">
         <v>133</v>
       </c>
@@ -2212,7 +2224,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5">
       <c r="B21" t="s">
         <v>134</v>
       </c>
@@ -2220,7 +2232,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5">
       <c r="A22">
         <v>3</v>
       </c>
@@ -2237,7 +2249,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5">
       <c r="A23">
         <v>2</v>
       </c>
@@ -2254,7 +2266,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5">
       <c r="A24">
         <v>1</v>
       </c>
@@ -2271,7 +2283,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5">
       <c r="A25">
         <v>4</v>
       </c>
@@ -2285,10 +2297,10 @@
         <v>160</v>
       </c>
       <c r="E25" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26">
         <v>4</v>
       </c>
@@ -2302,10 +2314,10 @@
         <v>160</v>
       </c>
       <c r="E26" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="B27" t="s">
         <v>140</v>
       </c>
@@ -2313,7 +2325,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5">
       <c r="A28">
         <v>1</v>
       </c>
@@ -2330,7 +2342,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5">
       <c r="A29">
         <v>4</v>
       </c>
@@ -2347,7 +2359,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5">
       <c r="A30">
         <v>1</v>
       </c>
@@ -2364,7 +2376,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:5">
       <c r="A31">
         <v>4</v>
       </c>
@@ -2381,7 +2393,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:5">
       <c r="A32">
         <v>3</v>
       </c>
@@ -2398,7 +2410,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5">
       <c r="B33" t="s">
         <v>146</v>
       </c>
@@ -2406,7 +2418,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5">
       <c r="B34" t="s">
         <v>147</v>
       </c>
@@ -2414,7 +2426,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5">
       <c r="B35" t="s">
         <v>148</v>
       </c>
@@ -2422,7 +2434,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5">
       <c r="A36">
         <v>3</v>
       </c>
@@ -2439,7 +2451,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5">
       <c r="A37">
         <v>2</v>
       </c>
@@ -2456,7 +2468,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5">
       <c r="B38" t="s">
         <v>151</v>
       </c>
@@ -2464,7 +2476,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5">
       <c r="A39">
         <v>2</v>
       </c>
@@ -2481,7 +2493,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5">
       <c r="A40">
         <v>3</v>
       </c>
@@ -2498,7 +2510,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5">
       <c r="B41" t="s">
         <v>154</v>
       </c>
@@ -2506,7 +2518,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5">
       <c r="B42" t="s">
         <v>155</v>
       </c>
@@ -2514,7 +2526,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5">
       <c r="B43" t="s">
         <v>156</v>
       </c>
@@ -2526,6 +2538,11 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2537,17 +2554,17 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="2"/>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="3" max="3" width="12.5" customWidth="1"/>
-    <col min="4" max="4" width="7.1640625" customWidth="1"/>
-    <col min="5" max="5" width="6.83203125" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="8" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="2"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" s="4" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2567,7 +2584,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="A2" s="2">
         <v>41171</v>
       </c>
@@ -2587,7 +2604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6">
       <c r="A3" s="2">
         <v>41185</v>
       </c>
@@ -2609,7 +2626,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6">
       <c r="A4" s="2">
         <v>41193</v>
       </c>
@@ -2631,7 +2648,7 @@
         <v>9.5192307692307683</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6">
       <c r="A5" s="6">
         <v>41213</v>
       </c>
@@ -2657,6 +2674,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2668,21 +2690,21 @@
       <selection activeCell="H30" sqref="H2:H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" style="6"/>
-    <col min="11" max="11" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="6"/>
+    <col min="11" max="11" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -2711,7 +2733,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9">
       <c r="A2" s="4" t="s">
         <v>115</v>
       </c>
@@ -2740,10 +2762,10 @@
         <v>41182</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9">
       <c r="A3" s="4"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9">
       <c r="A4" s="14" t="s">
         <v>182</v>
       </c>
@@ -2751,7 +2773,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9">
       <c r="A5" s="14" t="s">
         <v>183</v>
       </c>
@@ -2759,10 +2781,10 @@
         <v>185</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9">
       <c r="A6" s="14"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9">
       <c r="A7" s="4" t="s">
         <v>117</v>
       </c>
@@ -2791,10 +2813,10 @@
         <v>41184</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9">
       <c r="A8" s="4"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>176</v>
       </c>
@@ -2802,7 +2824,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>178</v>
       </c>
@@ -2810,7 +2832,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>180</v>
       </c>
@@ -2818,7 +2840,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9">
       <c r="A13" s="4" t="s">
         <v>121</v>
       </c>
@@ -2847,11 +2869,11 @@
         <v>41181</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9">
       <c r="A14" s="4"/>
       <c r="B14"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9">
       <c r="A15" s="14" t="s">
         <v>186</v>
       </c>
@@ -2859,7 +2881,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9">
       <c r="A16" s="14" t="s">
         <v>187</v>
       </c>
@@ -2867,7 +2889,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="39" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9" ht="26">
       <c r="A17" s="14" t="s">
         <v>198</v>
       </c>
@@ -2875,7 +2897,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="39" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9" ht="26">
       <c r="A18" s="14" t="s">
         <v>199</v>
       </c>
@@ -2883,10 +2905,10 @@
         <v>201</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9">
       <c r="A19" s="4"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9">
       <c r="A20" s="4" t="s">
         <v>137</v>
       </c>
@@ -2915,11 +2937,11 @@
         <v>41184</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9">
       <c r="A21" s="4"/>
       <c r="B21"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9">
       <c r="A22" s="14" t="s">
         <v>193</v>
       </c>
@@ -2927,7 +2949,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9">
       <c r="A23" s="14" t="s">
         <v>194</v>
       </c>
@@ -2935,7 +2957,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="26" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9" ht="26">
       <c r="A24" s="14" t="s">
         <v>195</v>
       </c>
@@ -2943,11 +2965,11 @@
         <v>192</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9">
       <c r="A25" s="14"/>
       <c r="B25" s="15"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9">
       <c r="A26" s="4" t="s">
         <v>141</v>
       </c>
@@ -2976,11 +2998,11 @@
         <v>41184</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9">
       <c r="A27" s="4"/>
       <c r="B27"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9">
       <c r="A28" s="14" t="s">
         <v>189</v>
       </c>
@@ -2988,11 +3010,11 @@
         <v>188</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9">
       <c r="A29" s="14"/>
       <c r="B29"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:9">
       <c r="A30" s="4" t="s">
         <v>143</v>
       </c>
@@ -3021,11 +3043,11 @@
         <v>41184</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:9">
       <c r="A31" s="4"/>
       <c r="B31"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:9">
       <c r="A32" s="14" t="s">
         <v>202</v>
       </c>
@@ -3033,7 +3055,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:2">
       <c r="A33" s="14" t="s">
         <v>205</v>
       </c>
@@ -3041,35 +3063,35 @@
         <v>204</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:2">
       <c r="B35" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:2">
       <c r="B36" s="5"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:2">
       <c r="B37" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:2">
       <c r="B38" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:2">
       <c r="B39" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:2">
       <c r="B41" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:2">
       <c r="B42" s="1" t="s">
         <v>230</v>
       </c>
@@ -3078,6 +3100,11 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3089,12 +3116,12 @@
       <selection activeCell="B38" sqref="B38:B49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="35.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -3123,7 +3150,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9">
       <c r="A2" s="4" t="s">
         <v>130</v>
       </c>
@@ -3152,7 +3179,7 @@
         <v>41192</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9">
       <c r="A4" s="14" t="s">
         <v>220</v>
       </c>
@@ -3160,7 +3187,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9">
       <c r="A5" s="14" t="s">
         <v>221</v>
       </c>
@@ -3168,7 +3195,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9">
       <c r="A7" s="4" t="s">
         <v>136</v>
       </c>
@@ -3197,7 +3224,7 @@
         <v>41192</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9">
       <c r="A9" s="14" t="s">
         <v>212</v>
       </c>
@@ -3205,7 +3232,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9">
       <c r="A10" s="14" t="s">
         <v>214</v>
       </c>
@@ -3213,7 +3240,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9">
       <c r="A13" s="4" t="s">
         <v>150</v>
       </c>
@@ -3242,7 +3269,7 @@
         <v>41193</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>224</v>
       </c>
@@ -3250,7 +3277,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>225</v>
       </c>
@@ -3258,7 +3285,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
         <v>228</v>
       </c>
@@ -3266,7 +3293,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9">
       <c r="A19" s="4" t="s">
         <v>152</v>
       </c>
@@ -3295,7 +3322,7 @@
         <v>41193</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
         <v>216</v>
       </c>
@@ -3303,7 +3330,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
         <v>218</v>
       </c>
@@ -3311,7 +3338,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9">
       <c r="A24" s="4" t="s">
         <v>116</v>
       </c>
@@ -3340,7 +3367,7 @@
         <v>41193</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9">
       <c r="A26" t="s">
         <v>231</v>
       </c>
@@ -3348,7 +3375,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9">
       <c r="A27" t="s">
         <v>234</v>
       </c>
@@ -3356,7 +3383,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9">
       <c r="A28" t="s">
         <v>235</v>
       </c>
@@ -3364,7 +3391,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9">
       <c r="A29" t="s">
         <v>236</v>
       </c>
@@ -3372,7 +3399,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:9">
       <c r="A31" s="4" t="s">
         <v>124</v>
       </c>
@@ -3401,7 +3428,7 @@
         <v>41193</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>237</v>
       </c>
@@ -3409,7 +3436,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>241</v>
       </c>
@@ -3417,7 +3444,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>242</v>
       </c>
@@ -3425,7 +3452,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="26" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:2" ht="26">
       <c r="A36" t="s">
         <v>243</v>
       </c>
@@ -3433,55 +3460,55 @@
         <v>239</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:2">
       <c r="B38" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:2">
       <c r="B40" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:2">
       <c r="B41" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:2">
       <c r="B42" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:2">
       <c r="B43" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="26" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:2" ht="26">
       <c r="B44" s="1" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:2">
       <c r="B45" s="1"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:2">
       <c r="B46" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:2">
       <c r="B47" s="1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:2">
       <c r="B48" s="1" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:2">
       <c r="B49" s="1" t="s">
         <v>248</v>
       </c>
@@ -3490,6 +3517,11 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3497,16 +3529,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
+    <sheetView topLeftCell="B3" zoomScale="150" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="39.33203125" customWidth="1"/>
+    <col min="2" max="2" width="39.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -3535,7 +3567,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9">
       <c r="A2" s="4" t="s">
         <v>119</v>
       </c>
@@ -3564,10 +3596,10 @@
         <v>41206</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9">
       <c r="A3" s="4"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9">
       <c r="A4" s="14" t="s">
         <v>252</v>
       </c>
@@ -3575,7 +3607,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9">
       <c r="A5" s="14" t="s">
         <v>253</v>
       </c>
@@ -3583,7 +3615,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9">
       <c r="A6" s="14" t="s">
         <v>254</v>
       </c>
@@ -3591,7 +3623,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9">
       <c r="A7" s="14" t="s">
         <v>258</v>
       </c>
@@ -3599,10 +3631,10 @@
         <v>257</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9">
       <c r="A8" s="14"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9">
       <c r="A9" s="4" t="s">
         <v>129</v>
       </c>
@@ -3631,7 +3663,7 @@
         <v>41194</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>259</v>
       </c>
@@ -3639,7 +3671,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>260</v>
       </c>
@@ -3647,7 +3679,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9">
       <c r="A14" s="4" t="s">
         <v>135</v>
       </c>
@@ -3676,7 +3708,7 @@
         <v>41203</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>282</v>
       </c>
@@ -3684,7 +3716,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>284</v>
       </c>
@@ -3692,7 +3724,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9">
       <c r="A18" s="4" t="s">
         <v>145</v>
       </c>
@@ -3721,7 +3753,7 @@
         <v>41203</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
         <v>286</v>
       </c>
@@ -3729,7 +3761,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
         <v>287</v>
       </c>
@@ -3737,7 +3769,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9">
       <c r="A23" s="4" t="s">
         <v>149</v>
       </c>
@@ -3766,7 +3798,7 @@
         <v>41203</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9">
       <c r="A25" t="s">
         <v>273</v>
       </c>
@@ -3774,7 +3806,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9">
       <c r="A26" t="s">
         <v>274</v>
       </c>
@@ -3782,7 +3814,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9">
       <c r="A27" t="s">
         <v>275</v>
       </c>
@@ -3790,7 +3822,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:9">
       <c r="A30" s="4" t="s">
         <v>153</v>
       </c>
@@ -3819,7 +3851,7 @@
         <v>41203</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:9">
       <c r="A32" t="s">
         <v>279</v>
       </c>
@@ -3827,7 +3859,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>280</v>
       </c>
@@ -3835,7 +3867,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>281</v>
       </c>
@@ -3843,60 +3875,60 @@
         <v>278</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:2">
       <c r="B36" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:2">
       <c r="B38" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:2">
       <c r="B39" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:2">
       <c r="B40" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:2">
       <c r="B41" s="1" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:2">
       <c r="B42" s="1" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:2">
       <c r="B43" s="1"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:2">
       <c r="B44" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:2">
       <c r="B45" s="1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:2">
       <c r="B46" s="1" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:2">
       <c r="B47" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="26" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:2">
       <c r="B48" s="1" t="s">
         <v>318</v>
       </c>
@@ -3905,6 +3937,11 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3912,16 +3949,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView topLeftCell="A14" zoomScale="150" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="36.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -3950,7 +3987,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9">
       <c r="A2" s="4" t="s">
         <v>142</v>
       </c>
@@ -3979,7 +4016,7 @@
         <v>41207</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>263</v>
       </c>
@@ -3987,7 +4024,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>264</v>
       </c>
@@ -3995,7 +4032,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>265</v>
       </c>
@@ -4003,7 +4040,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9">
       <c r="A8" s="4" t="s">
         <v>144</v>
       </c>
@@ -4032,7 +4069,7 @@
         <v>41206</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>268</v>
       </c>
@@ -4040,7 +4077,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>269</v>
       </c>
@@ -4048,7 +4085,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9">
       <c r="A13" s="4" t="s">
         <v>118</v>
       </c>
@@ -4068,7 +4105,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>290</v>
       </c>
@@ -4076,7 +4113,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>294</v>
       </c>
@@ -4084,7 +4121,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>295</v>
       </c>
@@ -4092,7 +4129,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9">
       <c r="A18" s="4" t="s">
         <v>120</v>
       </c>
@@ -4112,7 +4149,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
         <v>296</v>
       </c>
@@ -4120,7 +4157,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
         <v>300</v>
       </c>
@@ -4128,7 +4165,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
         <v>301</v>
       </c>
@@ -4136,7 +4173,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
         <v>302</v>
       </c>
@@ -4144,7 +4181,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9">
       <c r="A24" s="4" t="s">
         <v>138</v>
       </c>
@@ -4155,7 +4192,7 @@
         <v>160</v>
       </c>
       <c r="D24" t="s">
-        <v>251</v>
+        <v>211</v>
       </c>
       <c r="E24">
         <v>35</v>
@@ -4163,8 +4200,17 @@
       <c r="F24">
         <v>40</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G24">
+        <v>19</v>
+      </c>
+      <c r="H24">
+        <v>15</v>
+      </c>
+      <c r="I24" s="17">
+        <v>41213</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" t="s">
         <v>312</v>
       </c>
@@ -4172,7 +4218,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9">
       <c r="A27" t="s">
         <v>313</v>
       </c>
@@ -4180,7 +4226,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9">
       <c r="A28" t="s">
         <v>314</v>
       </c>
@@ -4188,7 +4234,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9">
       <c r="A29" t="s">
         <v>315</v>
       </c>
@@ -4196,7 +4242,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:9">
       <c r="A33" s="4" t="s">
         <v>139</v>
       </c>
@@ -4207,7 +4253,7 @@
         <v>160</v>
       </c>
       <c r="D33" t="s">
-        <v>251</v>
+        <v>211</v>
       </c>
       <c r="E33">
         <v>35</v>
@@ -4215,8 +4261,17 @@
       <c r="F33">
         <v>40</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G33">
+        <v>18</v>
+      </c>
+      <c r="H33">
+        <v>17</v>
+      </c>
+      <c r="I33" s="17">
+        <v>41213</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" t="s">
         <v>304</v>
       </c>
@@ -4224,7 +4279,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:9">
       <c r="A36" t="s">
         <v>305</v>
       </c>
@@ -4232,7 +4287,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:9">
       <c r="A37" t="s">
         <v>306</v>
       </c>
@@ -4240,7 +4295,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:9">
       <c r="A38" t="s">
         <v>307</v>
       </c>
@@ -4252,6 +4307,11 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4263,13 +4323,13 @@
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="24.5" customWidth="1"/>
-    <col min="3" max="3" width="49.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" customWidth="1"/>
+    <col min="3" max="3" width="49.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>114</v>
       </c>
@@ -4283,7 +4343,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="32" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="30">
       <c r="A2" t="s">
         <v>115</v>
       </c>
@@ -4297,7 +4357,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" ht="15">
       <c r="A3" t="s">
         <v>116</v>
       </c>
@@ -4311,7 +4371,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" ht="15">
       <c r="A4" t="s">
         <v>117</v>
       </c>
@@ -4325,7 +4385,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="32" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" ht="30">
       <c r="A5" t="s">
         <v>118</v>
       </c>
@@ -4336,7 +4396,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" ht="15">
       <c r="A6" t="s">
         <v>119</v>
       </c>
@@ -4350,7 +4410,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" ht="15">
       <c r="A7" t="s">
         <v>120</v>
       </c>
@@ -4361,7 +4421,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="48" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" ht="45">
       <c r="A8" t="s">
         <v>121</v>
       </c>
@@ -4375,7 +4435,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="32" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" ht="30">
       <c r="A9" t="s">
         <v>122</v>
       </c>
@@ -4386,7 +4446,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="32" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" ht="30">
       <c r="A10" t="s">
         <v>123</v>
       </c>
@@ -4397,7 +4457,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="32" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" ht="15">
       <c r="A11" t="s">
         <v>124</v>
       </c>
@@ -4411,7 +4471,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="32" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" ht="15">
       <c r="A12" t="s">
         <v>125</v>
       </c>
@@ -4422,7 +4482,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="48" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" ht="30">
       <c r="A13" t="s">
         <v>126</v>
       </c>
@@ -4433,7 +4493,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="32" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" ht="30">
       <c r="A14" t="s">
         <v>127</v>
       </c>
@@ -4444,7 +4504,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="32" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" ht="15">
       <c r="A15" t="s">
         <v>128</v>
       </c>
@@ -4455,7 +4515,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" ht="15">
       <c r="A16" t="s">
         <v>129</v>
       </c>
@@ -4469,7 +4529,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="32" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" ht="15">
       <c r="A17" t="s">
         <v>130</v>
       </c>
@@ -4483,7 +4543,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" ht="15">
       <c r="A18" t="s">
         <v>131</v>
       </c>
@@ -4494,7 +4554,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" ht="15">
       <c r="A19" t="s">
         <v>132</v>
       </c>
@@ -4505,7 +4565,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" ht="15">
       <c r="A20" t="s">
         <v>133</v>
       </c>
@@ -4516,7 +4576,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="32" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4" ht="15">
       <c r="A21" t="s">
         <v>134</v>
       </c>
@@ -4527,7 +4587,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="32" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" ht="30">
       <c r="A22" t="s">
         <v>135</v>
       </c>
@@ -4538,7 +4598,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="32" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4" ht="30">
       <c r="A23" t="s">
         <v>136</v>
       </c>
@@ -4552,7 +4612,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="32" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4" ht="30">
       <c r="A24" t="s">
         <v>137</v>
       </c>
@@ -4566,7 +4626,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="48" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4" ht="30">
       <c r="A25" t="s">
         <v>138</v>
       </c>
@@ -4577,7 +4637,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="32" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4" ht="30">
       <c r="A26" t="s">
         <v>139</v>
       </c>
@@ -4588,7 +4648,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="80" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4" ht="60">
       <c r="A27" t="s">
         <v>140</v>
       </c>
@@ -4599,7 +4659,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4" ht="15">
       <c r="A28" t="s">
         <v>141</v>
       </c>
@@ -4613,7 +4673,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4" ht="15">
       <c r="A29" t="s">
         <v>142</v>
       </c>
@@ -4627,7 +4687,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4" ht="15">
       <c r="A30" t="s">
         <v>143</v>
       </c>
@@ -4641,7 +4701,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4" ht="15">
       <c r="A31" t="s">
         <v>144</v>
       </c>
@@ -4655,7 +4715,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="32" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4" ht="30">
       <c r="A32" t="s">
         <v>145</v>
       </c>
@@ -4666,7 +4726,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4" ht="15">
       <c r="A33" t="s">
         <v>146</v>
       </c>
@@ -4677,7 +4737,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="32" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4" ht="30">
       <c r="A34" t="s">
         <v>147</v>
       </c>
@@ -4688,7 +4748,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="48" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4" ht="30">
       <c r="A35" t="s">
         <v>148</v>
       </c>
@@ -4699,7 +4759,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="32" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:4" ht="30">
       <c r="A36" t="s">
         <v>149</v>
       </c>
@@ -4710,7 +4770,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="32" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:4" ht="15">
       <c r="A37" t="s">
         <v>150</v>
       </c>
@@ -4724,7 +4784,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="32" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:4" ht="30">
       <c r="A38" t="s">
         <v>151</v>
       </c>
@@ -4735,7 +4795,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="32" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:4" ht="30">
       <c r="A39" t="s">
         <v>152</v>
       </c>
@@ -4749,7 +4809,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="32" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:4" ht="30">
       <c r="A40" t="s">
         <v>153</v>
       </c>
@@ -4760,7 +4820,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="32" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:4" ht="30">
       <c r="A41" t="s">
         <v>154</v>
       </c>
@@ -4771,7 +4831,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="32" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:4" ht="15">
       <c r="A42" t="s">
         <v>155</v>
       </c>
@@ -4782,7 +4842,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="32" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:4" ht="30">
       <c r="A43" t="s">
         <v>156</v>
       </c>
@@ -4796,5 +4856,10 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Team Report_Rafif, Maha, Saloni-Final.xlsx
+++ b/Team Report_Rafif, Maha, Saloni-Final.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25317"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27610"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafifarab/Desktop/SSW-555-GEDCOM/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -16,20 +21,20 @@
     <sheet name="Sprint4" sheetId="6" r:id="rId7"/>
     <sheet name="Stories" sheetId="11" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="318">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -813,9 +818,6 @@
   </si>
   <si>
     <t>y</t>
-  </si>
-  <si>
-    <t>Initiated</t>
   </si>
   <si>
     <t>T05.01</t>
@@ -1398,6 +1400,9 @@
                 <c:pt idx="3">
                   <c:v>41213.0</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>41227.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1419,6 +1424,9 @@
                 <c:pt idx="3">
                   <c:v>24.0</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1434,11 +1442,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2096541624"/>
-        <c:axId val="-2096624280"/>
+        <c:axId val="-1998719008"/>
+        <c:axId val="-1999210464"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-2096541624"/>
+        <c:axId val="-1998719008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1448,14 +1456,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2096624280"/>
+        <c:crossAx val="-1999210464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-2096624280"/>
+        <c:axId val="-1999210464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1466,7 +1474,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2096541624"/>
+        <c:crossAx val="-1998719008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1844,15 +1852,15 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.42578125" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" customWidth="1"/>
-    <col min="4" max="5" width="20.42578125" customWidth="1"/>
+    <col min="1" max="1" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5" customWidth="1"/>
+    <col min="3" max="3" width="8.5" customWidth="1"/>
+    <col min="4" max="5" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>18</v>
       </c>
@@ -1869,7 +1877,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>159</v>
       </c>
@@ -1886,7 +1894,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>160</v>
       </c>
@@ -1900,10 +1908,10 @@
         <v>167</v>
       </c>
       <c r="E4" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>161</v>
       </c>
@@ -1920,7 +1928,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D9" s="4" t="s">
         <v>29</v>
       </c>
@@ -1940,11 +1948,6 @@
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1952,20 +1955,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>208</v>
       </c>
@@ -1982,7 +1985,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1999,7 +2002,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2016,7 +2019,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2033,7 +2036,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2047,10 +2050,10 @@
         <v>159</v>
       </c>
       <c r="E5" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>3</v>
       </c>
@@ -2067,7 +2070,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>4</v>
       </c>
@@ -2081,10 +2084,10 @@
         <v>159</v>
       </c>
       <c r="E7" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>1</v>
       </c>
@@ -2101,7 +2104,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
         <v>122</v>
       </c>
@@ -2109,7 +2112,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
         <v>123</v>
       </c>
@@ -2117,7 +2120,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>2</v>
       </c>
@@ -2134,7 +2137,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
         <v>125</v>
       </c>
@@ -2142,7 +2145,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
         <v>126</v>
       </c>
@@ -2150,7 +2153,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
         <v>127</v>
       </c>
@@ -2158,7 +2161,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
         <v>128</v>
       </c>
@@ -2166,7 +2169,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>3</v>
       </c>
@@ -2183,7 +2186,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>2</v>
       </c>
@@ -2200,7 +2203,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
         <v>131</v>
       </c>
@@ -2208,7 +2211,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
         <v>132</v>
       </c>
@@ -2216,7 +2219,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
         <v>133</v>
       </c>
@@ -2224,7 +2227,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
         <v>134</v>
       </c>
@@ -2232,7 +2235,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>3</v>
       </c>
@@ -2249,7 +2252,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>2</v>
       </c>
@@ -2266,7 +2269,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>1</v>
       </c>
@@ -2283,7 +2286,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>4</v>
       </c>
@@ -2300,7 +2303,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>4</v>
       </c>
@@ -2317,7 +2320,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
         <v>140</v>
       </c>
@@ -2325,7 +2328,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>1</v>
       </c>
@@ -2342,7 +2345,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>4</v>
       </c>
@@ -2359,7 +2362,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>1</v>
       </c>
@@ -2376,7 +2379,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>4</v>
       </c>
@@ -2393,7 +2396,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>3</v>
       </c>
@@ -2410,7 +2413,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
         <v>146</v>
       </c>
@@ -2418,7 +2421,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B34" t="s">
         <v>147</v>
       </c>
@@ -2426,7 +2429,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
         <v>148</v>
       </c>
@@ -2434,7 +2437,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>3</v>
       </c>
@@ -2451,7 +2454,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>2</v>
       </c>
@@ -2468,7 +2471,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B38" t="s">
         <v>151</v>
       </c>
@@ -2476,7 +2479,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>2</v>
       </c>
@@ -2493,7 +2496,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>3</v>
       </c>
@@ -2510,7 +2513,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B41" t="s">
         <v>154</v>
       </c>
@@ -2518,7 +2521,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B42" t="s">
         <v>155</v>
       </c>
@@ -2526,7 +2529,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B43" t="s">
         <v>156</v>
       </c>
@@ -2538,33 +2541,28 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="2"/>
-    <col min="2" max="2" width="16.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" customWidth="1"/>
-    <col min="5" max="5" width="6.85546875" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="4" max="4" width="7.1640625" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2584,7 +2582,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>41171</v>
       </c>
@@ -2604,7 +2602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>41185</v>
       </c>
@@ -2626,7 +2624,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>41193</v>
       </c>
@@ -2648,7 +2646,7 @@
         <v>9.5192307692307683</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="6">
         <v>41213</v>
       </c>
@@ -2667,6 +2665,27 @@
       <c r="F5" s="8">
         <f>(D5-D4)/E5*60</f>
         <v>17.202797202797203</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
+        <v>41227</v>
+      </c>
+      <c r="B6">
+        <v>18</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>128</v>
+      </c>
+      <c r="E6">
+        <v>96</v>
+      </c>
+      <c r="F6" s="8">
+        <f>(D5-D6)/E6*60</f>
+        <v>31.250000000000004</v>
       </c>
     </row>
   </sheetData>
@@ -2674,11 +2693,6 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2690,21 +2704,21 @@
       <selection activeCell="H30" sqref="H2:H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" style="6"/>
-    <col min="11" max="11" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" style="6"/>
+    <col min="11" max="11" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -2733,7 +2747,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>115</v>
       </c>
@@ -2762,10 +2776,10 @@
         <v>41182</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="14" t="s">
         <v>182</v>
       </c>
@@ -2773,7 +2787,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="14" t="s">
         <v>183</v>
       </c>
@@ -2781,10 +2795,10 @@
         <v>185</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="14"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>117</v>
       </c>
@@ -2813,10 +2827,10 @@
         <v>41184</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="4"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>176</v>
       </c>
@@ -2824,7 +2838,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>178</v>
       </c>
@@ -2832,7 +2846,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>180</v>
       </c>
@@ -2840,7 +2854,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
         <v>121</v>
       </c>
@@ -2869,11 +2883,11 @@
         <v>41181</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="14" t="s">
         <v>186</v>
       </c>
@@ -2881,7 +2895,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="14" t="s">
         <v>187</v>
       </c>
@@ -2889,7 +2903,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="26">
+    <row r="17" spans="1:9" ht="39" x14ac:dyDescent="0.15">
       <c r="A17" s="14" t="s">
         <v>198</v>
       </c>
@@ -2897,7 +2911,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="26">
+    <row r="18" spans="1:9" ht="39" x14ac:dyDescent="0.15">
       <c r="A18" s="14" t="s">
         <v>199</v>
       </c>
@@ -2905,10 +2919,10 @@
         <v>201</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
         <v>137</v>
       </c>
@@ -2937,11 +2951,11 @@
         <v>41184</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
       <c r="B21"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="14" t="s">
         <v>193</v>
       </c>
@@ -2949,7 +2963,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="14" t="s">
         <v>194</v>
       </c>
@@ -2957,7 +2971,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="26">
+    <row r="24" spans="1:9" ht="26" x14ac:dyDescent="0.15">
       <c r="A24" s="14" t="s">
         <v>195</v>
       </c>
@@ -2965,11 +2979,11 @@
         <v>192</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="14"/>
       <c r="B25" s="15"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
         <v>141</v>
       </c>
@@ -2998,11 +3012,11 @@
         <v>41184</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" s="4"/>
       <c r="B27"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" s="14" t="s">
         <v>189</v>
       </c>
@@ -3010,11 +3024,11 @@
         <v>188</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" s="14"/>
       <c r="B29"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
         <v>143</v>
       </c>
@@ -3043,11 +3057,11 @@
         <v>41184</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" s="4"/>
       <c r="B31"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" s="14" t="s">
         <v>202</v>
       </c>
@@ -3055,7 +3069,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="14" t="s">
         <v>205</v>
       </c>
@@ -3063,35 +3077,35 @@
         <v>204</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B35" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B36" s="5"/>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B37" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B38" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B39" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B41" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B42" s="1" t="s">
         <v>230</v>
       </c>
@@ -3100,11 +3114,6 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3116,12 +3125,12 @@
       <selection activeCell="B38" sqref="B38:B49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -3150,7 +3159,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>130</v>
       </c>
@@ -3179,7 +3188,7 @@
         <v>41192</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="14" t="s">
         <v>220</v>
       </c>
@@ -3187,7 +3196,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="14" t="s">
         <v>221</v>
       </c>
@@ -3195,7 +3204,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>136</v>
       </c>
@@ -3224,7 +3233,7 @@
         <v>41192</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="14" t="s">
         <v>212</v>
       </c>
@@ -3232,7 +3241,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="14" t="s">
         <v>214</v>
       </c>
@@ -3240,7 +3249,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
         <v>150</v>
       </c>
@@ -3269,7 +3278,7 @@
         <v>41193</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>224</v>
       </c>
@@ -3277,7 +3286,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>225</v>
       </c>
@@ -3285,7 +3294,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>228</v>
       </c>
@@ -3293,7 +3302,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
         <v>152</v>
       </c>
@@ -3322,7 +3331,7 @@
         <v>41193</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>216</v>
       </c>
@@ -3330,7 +3339,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>218</v>
       </c>
@@ -3338,7 +3347,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
         <v>116</v>
       </c>
@@ -3367,7 +3376,7 @@
         <v>41193</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>231</v>
       </c>
@@ -3375,7 +3384,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>234</v>
       </c>
@@ -3383,7 +3392,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>235</v>
       </c>
@@ -3391,7 +3400,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>236</v>
       </c>
@@ -3399,7 +3408,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
         <v>124</v>
       </c>
@@ -3428,7 +3437,7 @@
         <v>41193</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>237</v>
       </c>
@@ -3436,7 +3445,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>241</v>
       </c>
@@ -3444,7 +3453,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>242</v>
       </c>
@@ -3452,7 +3461,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="26">
+    <row r="36" spans="1:2" ht="26" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>243</v>
       </c>
@@ -3460,55 +3469,55 @@
         <v>239</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B38" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B40" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B41" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B42" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B43" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="26">
+    <row r="44" spans="1:2" ht="26" x14ac:dyDescent="0.15">
       <c r="B44" s="1" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B45" s="1"/>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B46" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B47" s="1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B48" s="1" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="49" spans="2:2">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B49" s="1" t="s">
         <v>248</v>
       </c>
@@ -3517,11 +3526,6 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3533,12 +3537,12 @@
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="39.28515625" customWidth="1"/>
+    <col min="2" max="2" width="39.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -3567,7 +3571,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>119</v>
       </c>
@@ -3596,45 +3600,45 @@
         <v>41206</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="B4" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A5" s="14" t="s">
         <v>252</v>
-      </c>
-      <c r="B4" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="14" t="s">
-        <v>253</v>
       </c>
       <c r="B5" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="14" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B6" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A7" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="B7" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="14" t="s">
-        <v>258</v>
-      </c>
-      <c r="B7" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="14"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>129</v>
       </c>
@@ -3663,23 +3667,23 @@
         <v>41194</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
+        <v>258</v>
+      </c>
+      <c r="B11" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
         <v>259</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
-      <c r="A12" t="s">
-        <v>260</v>
-      </c>
-      <c r="B12" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
         <v>135</v>
       </c>
@@ -3708,23 +3712,23 @@
         <v>41203</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
+        <v>281</v>
+      </c>
+      <c r="B15" t="s">
         <v>282</v>
       </c>
-      <c r="B15" t="s">
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" t="s">
+      <c r="B16" t="s">
         <v>284</v>
       </c>
-      <c r="B16" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
         <v>145</v>
       </c>
@@ -3753,23 +3757,23 @@
         <v>41203</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
+        <v>285</v>
+      </c>
+      <c r="B19" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
         <v>286</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
-      <c r="A20" t="s">
-        <v>287</v>
-      </c>
-      <c r="B20" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
         <v>149</v>
       </c>
@@ -3798,31 +3802,31 @@
         <v>41203</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
+        <v>272</v>
+      </c>
+      <c r="B25" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
         <v>273</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
-      <c r="A26" t="s">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
         <v>274</v>
-      </c>
-      <c r="B26" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" t="s">
-        <v>275</v>
       </c>
       <c r="B27" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
         <v>153</v>
       </c>
@@ -3851,97 +3855,92 @@
         <v>41203</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
+        <v>278</v>
+      </c>
+      <c r="B32" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
         <v>279</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
         <v>280</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B34" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>281</v>
-      </c>
-      <c r="B34" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B36" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B38" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B39" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B40" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B41" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B42" s="1" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
-      <c r="B42" s="1" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B43" s="1"/>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B44" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B45" s="1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B46" s="1" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B47" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" ht="26" x14ac:dyDescent="0.15">
       <c r="B48" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3949,16 +3948,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="150" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -3987,7 +3986,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>142</v>
       </c>
@@ -4016,31 +4015,31 @@
         <v>41207</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>262</v>
+      </c>
+      <c r="B4" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
         <v>263</v>
-      </c>
-      <c r="B4" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
-        <v>264</v>
       </c>
       <c r="B5" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B6" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>144</v>
       </c>
@@ -4069,23 +4068,23 @@
         <v>41206</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
+        <v>267</v>
+      </c>
+      <c r="B10" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
         <v>268</v>
       </c>
-      <c r="B10" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
         <v>269</v>
       </c>
-      <c r="B11" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
         <v>118</v>
       </c>
@@ -4096,7 +4095,7 @@
         <v>159</v>
       </c>
       <c r="D13" t="s">
-        <v>251</v>
+        <v>211</v>
       </c>
       <c r="E13">
         <v>30</v>
@@ -4104,32 +4103,41 @@
       <c r="F13">
         <v>30</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="G13">
+        <v>25</v>
+      </c>
+      <c r="H13">
+        <v>7</v>
+      </c>
+      <c r="I13" s="17">
+        <v>41216</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
+        <v>289</v>
+      </c>
+      <c r="B14" t="s">
         <v>290</v>
       </c>
-      <c r="B14" t="s">
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>293</v>
+      </c>
+      <c r="B15" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
-      <c r="A15" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
         <v>294</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
-      <c r="A16" t="s">
-        <v>295</v>
-      </c>
-      <c r="B16" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
         <v>120</v>
       </c>
@@ -4140,7 +4148,7 @@
         <v>159</v>
       </c>
       <c r="D18" t="s">
-        <v>251</v>
+        <v>211</v>
       </c>
       <c r="E18">
         <v>30</v>
@@ -4148,40 +4156,49 @@
       <c r="F18">
         <v>30</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="G18">
+        <v>24</v>
+      </c>
+      <c r="H18">
+        <v>7</v>
+      </c>
+      <c r="I18" s="17">
+        <v>41216</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B19" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
+        <v>299</v>
+      </c>
+      <c r="B20" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
         <v>300</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
-      <c r="A21" t="s">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
         <v>301</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
-      <c r="A22" t="s">
-        <v>302</v>
-      </c>
-      <c r="B22" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
         <v>138</v>
       </c>
@@ -4210,39 +4227,39 @@
         <v>41213</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
+        <v>311</v>
+      </c>
+      <c r="B26" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
         <v>312</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
-      <c r="A27" t="s">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
         <v>313</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
-      <c r="A28" t="s">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
         <v>314</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
-      <c r="A29" t="s">
-        <v>315</v>
-      </c>
-      <c r="B29" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
         <v>139</v>
       </c>
@@ -4271,47 +4288,42 @@
         <v>41213</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
+        <v>303</v>
+      </c>
+      <c r="B35" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
         <v>304</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B36" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
-      <c r="A36" t="s">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
         <v>305</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B37" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
-      <c r="A37" t="s">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
         <v>306</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B38" t="s">
         <v>310</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38" t="s">
-        <v>307</v>
-      </c>
-      <c r="B38" t="s">
-        <v>311</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4323,13 +4335,13 @@
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="24.42578125" customWidth="1"/>
-    <col min="3" max="3" width="49.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5" customWidth="1"/>
+    <col min="3" max="3" width="49.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1">
+    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>114</v>
       </c>
@@ -4343,7 +4355,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30">
+    <row r="2" spans="1:4" ht="32" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>115</v>
       </c>
@@ -4357,7 +4369,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15">
+    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>116</v>
       </c>
@@ -4371,7 +4383,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15">
+    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>117</v>
       </c>
@@ -4385,7 +4397,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="30">
+    <row r="5" spans="1:4" ht="32" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>118</v>
       </c>
@@ -4396,7 +4408,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15">
+    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>119</v>
       </c>
@@ -4410,7 +4422,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15">
+    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>120</v>
       </c>
@@ -4421,7 +4433,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="45">
+    <row r="8" spans="1:4" ht="48" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>121</v>
       </c>
@@ -4435,7 +4447,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="30">
+    <row r="9" spans="1:4" ht="32" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>122</v>
       </c>
@@ -4446,7 +4458,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="30">
+    <row r="10" spans="1:4" ht="32" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>123</v>
       </c>
@@ -4457,7 +4469,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15">
+    <row r="11" spans="1:4" ht="32" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>124</v>
       </c>
@@ -4471,7 +4483,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15">
+    <row r="12" spans="1:4" ht="32" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>125</v>
       </c>
@@ -4482,7 +4494,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="30">
+    <row r="13" spans="1:4" ht="48" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>126</v>
       </c>
@@ -4493,7 +4505,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="30">
+    <row r="14" spans="1:4" ht="32" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>127</v>
       </c>
@@ -4504,7 +4516,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15">
+    <row r="15" spans="1:4" ht="32" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>128</v>
       </c>
@@ -4515,7 +4527,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15">
+    <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>129</v>
       </c>
@@ -4529,7 +4541,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15">
+    <row r="17" spans="1:4" ht="32" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>130</v>
       </c>
@@ -4543,7 +4555,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15">
+    <row r="18" spans="1:4" ht="16" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>131</v>
       </c>
@@ -4554,7 +4566,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15">
+    <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>132</v>
       </c>
@@ -4565,7 +4577,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15">
+    <row r="20" spans="1:4" ht="16" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>133</v>
       </c>
@@ -4576,7 +4588,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15">
+    <row r="21" spans="1:4" ht="32" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>134</v>
       </c>
@@ -4587,7 +4599,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="30">
+    <row r="22" spans="1:4" ht="32" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>135</v>
       </c>
@@ -4598,7 +4610,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="30">
+    <row r="23" spans="1:4" ht="32" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>136</v>
       </c>
@@ -4612,7 +4624,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="30">
+    <row r="24" spans="1:4" ht="32" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>137</v>
       </c>
@@ -4626,7 +4638,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="30">
+    <row r="25" spans="1:4" ht="48" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>138</v>
       </c>
@@ -4637,7 +4649,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="30">
+    <row r="26" spans="1:4" ht="32" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>139</v>
       </c>
@@ -4648,7 +4660,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="60">
+    <row r="27" spans="1:4" ht="80" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>140</v>
       </c>
@@ -4659,7 +4671,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15">
+    <row r="28" spans="1:4" ht="16" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>141</v>
       </c>
@@ -4673,7 +4685,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15">
+    <row r="29" spans="1:4" ht="16" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>142</v>
       </c>
@@ -4687,7 +4699,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15">
+    <row r="30" spans="1:4" ht="16" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>143</v>
       </c>
@@ -4701,7 +4713,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15">
+    <row r="31" spans="1:4" ht="16" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>144</v>
       </c>
@@ -4715,7 +4727,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="30">
+    <row r="32" spans="1:4" ht="32" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>145</v>
       </c>
@@ -4726,7 +4738,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15">
+    <row r="33" spans="1:4" ht="16" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>146</v>
       </c>
@@ -4737,7 +4749,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="30">
+    <row r="34" spans="1:4" ht="32" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>147</v>
       </c>
@@ -4748,7 +4760,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="30">
+    <row r="35" spans="1:4" ht="48" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>148</v>
       </c>
@@ -4759,7 +4771,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="30">
+    <row r="36" spans="1:4" ht="32" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>149</v>
       </c>
@@ -4770,7 +4782,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15">
+    <row r="37" spans="1:4" ht="32" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>150</v>
       </c>
@@ -4784,7 +4796,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="30">
+    <row r="38" spans="1:4" ht="32" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>151</v>
       </c>
@@ -4795,7 +4807,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="30">
+    <row r="39" spans="1:4" ht="32" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>152</v>
       </c>
@@ -4809,7 +4821,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="30">
+    <row r="40" spans="1:4" ht="32" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>153</v>
       </c>
@@ -4820,7 +4832,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="30">
+    <row r="41" spans="1:4" ht="32" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>154</v>
       </c>
@@ -4831,7 +4843,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15">
+    <row r="42" spans="1:4" ht="32" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>155</v>
       </c>
@@ -4842,7 +4854,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="30">
+    <row r="43" spans="1:4" ht="32" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>156</v>
       </c>
@@ -4856,10 +4868,5 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/Team Report_Rafif, Maha, Saloni-Final.xlsx
+++ b/Team Report_Rafif, Maha, Saloni-Final.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27610"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25317"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafifarab/Desktop/SSW-555-GEDCOM/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -21,20 +16,20 @@
     <sheet name="Sprint4" sheetId="6" r:id="rId7"/>
     <sheet name="Stories" sheetId="11" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="321">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -128,10 +123,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Code Velocity</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Min</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1019,6 +1010,18 @@
   </si>
   <si>
     <t>Avoid changing the original gedcom to test US</t>
+  </si>
+  <si>
+    <t>Code Velocity</t>
+  </si>
+  <si>
+    <t>pair programming</t>
+  </si>
+  <si>
+    <t>continious integration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">avoid being late </t>
   </si>
 </sst>
 </file>
@@ -1077,7 +1080,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="117">
+  <cellStyleXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1134,6 +1137,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1230,7 +1234,7 @@
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="117">
+  <cellStyles count="118">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1319,6 +1323,7 @@
     <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="115" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="117" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1442,11 +1447,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1998719008"/>
-        <c:axId val="-1999210464"/>
+        <c:axId val="2141389944"/>
+        <c:axId val="2107144616"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-1998719008"/>
+        <c:axId val="2141389944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1456,14 +1461,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1999210464"/>
+        <c:crossAx val="2107144616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-1999210464"/>
+        <c:axId val="2107144616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1474,7 +1479,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1998719008"/>
+        <c:crossAx val="2141389944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1852,15 +1857,15 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5" customWidth="1"/>
-    <col min="3" max="3" width="8.5" customWidth="1"/>
-    <col min="4" max="5" width="20.5" customWidth="1"/>
+    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" customWidth="1"/>
+    <col min="4" max="5" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>18</v>
       </c>
@@ -1874,66 +1879,66 @@
         <v>21</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="E3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="E4" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="E5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="D9" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>159</v>
-      </c>
-      <c r="B3" t="s">
-        <v>162</v>
-      </c>
-      <c r="C3" t="s">
-        <v>163</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="E3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>160</v>
-      </c>
-      <c r="B4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C4" t="s">
-        <v>166</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="E4" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>161</v>
-      </c>
-      <c r="B5" t="s">
-        <v>170</v>
-      </c>
-      <c r="C5" t="s">
-        <v>171</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="E5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="D9" s="4" t="s">
-        <v>29</v>
-      </c>
       <c r="E9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -1948,6 +1953,11 @@
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1959,588 +1969,593 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.6640625" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E5" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E6" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E7" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>1</v>
       </c>
       <c r="B8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" t="s">
+        <v>159</v>
+      </c>
+      <c r="E8" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="B9" t="s">
         <v>121</v>
       </c>
-      <c r="C8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D8" t="s">
-        <v>160</v>
-      </c>
-      <c r="E8" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B9" t="s">
+      <c r="C9" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="B10" t="s">
         <v>122</v>
       </c>
-      <c r="C9" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B10" t="s">
-        <v>123</v>
-      </c>
       <c r="C10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>2</v>
       </c>
       <c r="B11" t="s">
+        <v>123</v>
+      </c>
+      <c r="C11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" t="s">
+        <v>160</v>
+      </c>
+      <c r="E11" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="B12" t="s">
         <v>124</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>76</v>
       </c>
-      <c r="D11" t="s">
-        <v>161</v>
-      </c>
-      <c r="E11" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B12" t="s">
+    </row>
+    <row r="13" spans="1:5">
+      <c r="B13" t="s">
         <v>125</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B13" t="s">
+    <row r="14" spans="1:5">
+      <c r="B14" t="s">
         <v>126</v>
       </c>
-      <c r="C13" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B14" t="s">
+      <c r="C14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="B15" t="s">
         <v>127</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B15" t="s">
-        <v>128</v>
-      </c>
-      <c r="C15" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E16" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>2</v>
       </c>
       <c r="B17" t="s">
+        <v>129</v>
+      </c>
+      <c r="C17" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" t="s">
+        <v>159</v>
+      </c>
+      <c r="E17" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="B18" t="s">
         <v>130</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
         <v>83</v>
       </c>
-      <c r="D17" t="s">
-        <v>160</v>
-      </c>
-      <c r="E17" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B18" t="s">
+    </row>
+    <row r="19" spans="1:5">
+      <c r="B19" t="s">
         <v>131</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B19" t="s">
+    <row r="20" spans="1:5">
+      <c r="B20" t="s">
         <v>132</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B20" t="s">
+    <row r="21" spans="1:5">
+      <c r="B21" t="s">
         <v>133</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B21" t="s">
-        <v>134</v>
-      </c>
-      <c r="C21" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5">
       <c r="A22">
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E22" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23">
         <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D23" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E23" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24">
         <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D24" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E24" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25">
         <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D25" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E25" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26">
         <v>4</v>
       </c>
       <c r="B26" t="s">
+        <v>138</v>
+      </c>
+      <c r="C26" t="s">
+        <v>93</v>
+      </c>
+      <c r="D26" t="s">
+        <v>159</v>
+      </c>
+      <c r="E26" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="B27" t="s">
         <v>139</v>
       </c>
-      <c r="C26" t="s">
-        <v>94</v>
-      </c>
-      <c r="D26" t="s">
-        <v>160</v>
-      </c>
-      <c r="E26" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B27" t="s">
-        <v>140</v>
-      </c>
       <c r="C27" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28">
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D28" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E28" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29">
         <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C29" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D29" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E29" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30">
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C30" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D30" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E30" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31">
         <v>4</v>
       </c>
       <c r="B31" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C31" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D31" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E31" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32">
         <v>3</v>
       </c>
       <c r="B32" t="s">
+        <v>144</v>
+      </c>
+      <c r="C32" t="s">
+        <v>100</v>
+      </c>
+      <c r="D32" t="s">
+        <v>158</v>
+      </c>
+      <c r="E32" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="B33" t="s">
         <v>145</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C33" t="s">
         <v>101</v>
       </c>
-      <c r="D32" t="s">
-        <v>159</v>
-      </c>
-      <c r="E32" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B33" t="s">
+    </row>
+    <row r="34" spans="1:5">
+      <c r="B34" t="s">
         <v>146</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C34" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B34" t="s">
+    <row r="35" spans="1:5">
+      <c r="B35" t="s">
         <v>147</v>
       </c>
-      <c r="C34" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B35" t="s">
-        <v>148</v>
-      </c>
       <c r="C35" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36">
         <v>3</v>
       </c>
       <c r="B36" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C36" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D36" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E36" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37">
         <v>2</v>
       </c>
       <c r="B37" t="s">
+        <v>149</v>
+      </c>
+      <c r="C37" t="s">
+        <v>104</v>
+      </c>
+      <c r="D37" t="s">
+        <v>159</v>
+      </c>
+      <c r="E37" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="B38" t="s">
         <v>150</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C38" t="s">
         <v>105</v>
       </c>
-      <c r="D37" t="s">
-        <v>160</v>
-      </c>
-      <c r="E37" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B38" t="s">
-        <v>151</v>
-      </c>
-      <c r="C38" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39">
         <v>2</v>
       </c>
       <c r="B39" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C39" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D39" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E39" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40">
         <v>3</v>
       </c>
       <c r="B40" t="s">
+        <v>152</v>
+      </c>
+      <c r="C40" t="s">
+        <v>107</v>
+      </c>
+      <c r="D40" t="s">
+        <v>159</v>
+      </c>
+      <c r="E40" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="B41" t="s">
         <v>153</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C41" t="s">
         <v>108</v>
       </c>
-      <c r="D40" t="s">
-        <v>160</v>
-      </c>
-      <c r="E40" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B41" t="s">
+    </row>
+    <row r="42" spans="1:5">
+      <c r="B42" t="s">
         <v>154</v>
       </c>
-      <c r="C41" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B42" t="s">
+      <c r="C42" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="B43" t="s">
         <v>155</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C43" t="s">
         <v>111</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B43" t="s">
-        <v>156</v>
-      </c>
-      <c r="C43" t="s">
-        <v>112</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2548,21 +2563,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="2"/>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="3" max="3" width="12.5" customWidth="1"/>
-    <col min="4" max="4" width="7.1640625" customWidth="1"/>
-    <col min="5" max="5" width="6.83203125" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="8" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="2"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" s="4" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2576,13 +2591,13 @@
         <v>22</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="2">
         <v>41171</v>
       </c>
@@ -2602,7 +2617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6">
       <c r="A3" s="2">
         <v>41185</v>
       </c>
@@ -2624,7 +2639,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6">
       <c r="A4" s="2">
         <v>41193</v>
       </c>
@@ -2646,7 +2661,7 @@
         <v>9.5192307692307683</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6">
       <c r="A5" s="6">
         <v>41213</v>
       </c>
@@ -2667,7 +2682,7 @@
         <v>17.202797202797203</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6">
       <c r="A6" s="2">
         <v>41227</v>
       </c>
@@ -2684,8 +2699,8 @@
         <v>96</v>
       </c>
       <c r="F6" s="8">
-        <f>(D5-D6)/E6*60</f>
-        <v>31.250000000000004</v>
+        <f>(D6-D5)/E6*60</f>
+        <v>-31.250000000000004</v>
       </c>
     </row>
   </sheetData>
@@ -2693,6 +2708,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2700,25 +2720,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
+    <sheetView topLeftCell="A35" zoomScale="150" workbookViewId="0">
       <selection activeCell="H30" sqref="H2:H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" style="6"/>
-    <col min="11" max="11" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="6"/>
+    <col min="11" max="11" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -2747,18 +2767,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9">
       <c r="A2" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -2776,40 +2796,40 @@
         <v>41182</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9">
       <c r="A3" s="4"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9">
       <c r="A4" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9">
       <c r="A6" s="14"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9">
       <c r="A7" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E7">
         <v>100</v>
@@ -2827,45 +2847,45 @@
         <v>41184</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9">
       <c r="A8" s="4"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
+        <v>175</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B9" s="1" t="s">
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
+      <c r="B10" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B10" s="1" t="s">
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
+      <c r="B11" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D13" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E13">
         <v>100</v>
@@ -2883,57 +2903,57 @@
         <v>41181</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9">
       <c r="A14" s="4"/>
       <c r="B14"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9">
       <c r="A15" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A16" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="B16" s="1" t="s">
+    <row r="17" spans="1:9" ht="26">
+      <c r="A17" s="14" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" ht="39" x14ac:dyDescent="0.15">
-      <c r="A17" s="14" t="s">
+      <c r="B17" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="26">
+      <c r="A18" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="39" x14ac:dyDescent="0.15">
-      <c r="A18" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9">
       <c r="A19" s="4"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9">
       <c r="A20" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E20">
         <v>100</v>
@@ -2951,50 +2971,50 @@
         <v>41184</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9">
       <c r="A21" s="4"/>
       <c r="B21"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9">
       <c r="A22" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="B22" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A23" s="14" t="s">
+    <row r="24" spans="1:9" ht="26">
+      <c r="A24" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" s="15" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="26" x14ac:dyDescent="0.15">
-      <c r="A24" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9">
       <c r="A25" s="14"/>
       <c r="B25" s="15"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9">
       <c r="A26" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C26" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D26" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E26">
         <v>100</v>
@@ -3012,34 +3032,34 @@
         <v>41184</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9">
       <c r="A27" s="4"/>
       <c r="B27"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9">
       <c r="A28" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B28" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="14"/>
       <c r="B29"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:9">
       <c r="A30" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B30" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C30" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D30" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E30">
         <v>100</v>
@@ -3057,63 +3077,68 @@
         <v>41184</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:9">
       <c r="A31" s="4"/>
       <c r="B31"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:9">
       <c r="A32" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="B32" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="B32" s="16" t="s">
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="B33" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A33" s="14" t="s">
+    <row r="35" spans="1:2">
+      <c r="B35" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="B36" s="5"/>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="B37" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="B38" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B33" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B35" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B36" s="5"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B37" s="5" t="s">
+    </row>
+    <row r="39" spans="1:2">
+      <c r="B39" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="B41" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B38" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B39" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B41" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:2">
       <c r="B42" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3121,16 +3146,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38:B49"/>
+    <sheetView topLeftCell="A30" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="35.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -3159,18 +3184,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9">
       <c r="A2" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E2">
         <v>17</v>
@@ -3188,34 +3213,34 @@
         <v>41192</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9">
       <c r="A4" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="B4" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="14" t="s">
         <v>220</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="14" t="s">
-        <v>221</v>
-      </c>
-      <c r="B5" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9">
       <c r="A7" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E7">
         <v>15</v>
@@ -3233,34 +3258,34 @@
         <v>41192</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9">
       <c r="A9" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="B9" t="s">
         <v>212</v>
       </c>
-      <c r="B9" t="s">
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="14" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A10" s="14" t="s">
+      <c r="B10" t="s">
         <v>214</v>
       </c>
-      <c r="B10" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D13" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E13">
         <v>30</v>
@@ -3278,42 +3303,42 @@
         <v>41193</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
+        <v>223</v>
+      </c>
+      <c r="B15" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
         <v>224</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>225</v>
-      </c>
-      <c r="B16" t="s">
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
+      <c r="B17" t="s">
         <v>228</v>
       </c>
-      <c r="B17" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D19" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E19">
         <v>20</v>
@@ -3331,34 +3356,34 @@
         <v>41193</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
+        <v>215</v>
+      </c>
+      <c r="B21" t="s">
         <v>216</v>
       </c>
-      <c r="B21" t="s">
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
+      <c r="B22" t="s">
         <v>218</v>
       </c>
-      <c r="B22" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C24" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D24" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E24">
         <v>30</v>
@@ -3376,50 +3401,50 @@
         <v>41193</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9">
       <c r="A26" t="s">
+        <v>230</v>
+      </c>
+      <c r="B26" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" t="s">
+        <v>233</v>
+      </c>
+      <c r="B27" t="s">
         <v>231</v>
       </c>
-      <c r="B26" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A27" t="s">
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" t="s">
         <v>234</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A28" t="s">
+    <row r="29" spans="1:9">
+      <c r="A29" t="s">
         <v>235</v>
       </c>
-      <c r="B28" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A29" t="s">
-        <v>236</v>
-      </c>
       <c r="B29" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B31" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C31" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D31" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E31">
         <v>25</v>
@@ -3437,95 +3462,100 @@
         <v>41193</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
+        <v>236</v>
+      </c>
+      <c r="B33" t="s">
         <v>237</v>
       </c>
-      <c r="B33" t="s">
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>240</v>
+      </c>
+      <c r="B34" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>241</v>
+      </c>
+      <c r="B35" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="26">
+      <c r="A36" t="s">
+        <v>242</v>
+      </c>
+      <c r="B36" s="16" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A34" t="s">
-        <v>241</v>
-      </c>
-      <c r="B34" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A35" t="s">
-        <v>242</v>
-      </c>
-      <c r="B35" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="26" x14ac:dyDescent="0.15">
-      <c r="A36" t="s">
+    <row r="38" spans="1:2">
+      <c r="B38" t="s">
         <v>243</v>
       </c>
-      <c r="B36" s="16" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B38" t="s">
+    </row>
+    <row r="40" spans="1:2">
+      <c r="B40" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="B41" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="B42" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="B43" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="26">
+      <c r="B44" s="1" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B40" s="5" t="s">
+    <row r="45" spans="1:2">
+      <c r="B45" s="1"/>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="B46" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B41" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B42" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B43" s="1" t="s">
+    <row r="47" spans="1:2">
+      <c r="B47" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="B48" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="26" x14ac:dyDescent="0.15">
-      <c r="B44" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B45" s="1"/>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B46" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B47" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B48" s="1" t="s">
+    <row r="49" spans="2:2">
+      <c r="B49" s="1" t="s">
         <v>247</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B49" s="1" t="s">
-        <v>248</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3533,16 +3563,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView topLeftCell="B3" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView topLeftCell="A30" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36:B48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="39.33203125" customWidth="1"/>
+    <col min="2" max="2" width="39.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -3571,18 +3601,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9">
       <c r="A2" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E2">
         <v>30</v>
@@ -3600,56 +3630,56 @@
         <v>41206</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9">
       <c r="A3" s="4"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9">
       <c r="A4" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="B4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="14" t="s">
         <v>251</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="B6" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="14" t="s">
-        <v>252</v>
-      </c>
-      <c r="B5" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" s="14" t="s">
-        <v>253</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="7" spans="1:9">
+      <c r="A7" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="B7" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" s="14" t="s">
-        <v>257</v>
-      </c>
-      <c r="B7" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9">
       <c r="A8" s="14"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9">
       <c r="A9" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E9">
         <v>30</v>
@@ -3667,34 +3697,34 @@
         <v>41194</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
+        <v>257</v>
+      </c>
+      <c r="B11" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
         <v>258</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>259</v>
-      </c>
-      <c r="B12" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9">
       <c r="A14" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E14">
         <v>35</v>
@@ -3712,34 +3742,34 @@
         <v>41203</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
+        <v>280</v>
+      </c>
+      <c r="B15" t="s">
         <v>281</v>
       </c>
-      <c r="B15" t="s">
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
+      <c r="B16" t="s">
         <v>283</v>
       </c>
-      <c r="B16" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E18">
         <v>30</v>
@@ -3757,34 +3787,34 @@
         <v>41203</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
+        <v>284</v>
+      </c>
+      <c r="B19" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
         <v>285</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
-        <v>286</v>
-      </c>
-      <c r="B20" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9">
       <c r="A23" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D23" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E23">
         <v>30</v>
@@ -3802,42 +3832,42 @@
         <v>41203</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9">
       <c r="A25" t="s">
+        <v>271</v>
+      </c>
+      <c r="B25" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
         <v>272</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
+    <row r="27" spans="1:9">
+      <c r="A27" t="s">
         <v>273</v>
       </c>
-      <c r="B26" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A27" t="s">
-        <v>274</v>
-      </c>
       <c r="B27" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C30" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D30" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E30">
         <v>35</v>
@@ -3855,109 +3885,114 @@
         <v>41203</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:9">
       <c r="A32" t="s">
+        <v>277</v>
+      </c>
+      <c r="B32" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
         <v>278</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A33" t="s">
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
         <v>279</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B34" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A34" t="s">
-        <v>280</v>
-      </c>
-      <c r="B34" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:2">
       <c r="B36" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
       <c r="B38" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="B39" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="B40" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="B41" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="B42" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="B43" s="1"/>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="B44" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B39" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B40" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B41" s="1" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B42" s="1" t="s">
+    <row r="45" spans="1:2">
+      <c r="B45" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="B46" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="B47" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="B48" s="1" t="s">
         <v>316</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B43" s="1"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B44" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B45" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B46" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B47" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="26" x14ac:dyDescent="0.15">
-      <c r="B48" s="1" t="s">
-        <v>317</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="36.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -3986,18 +4021,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9">
       <c r="A2" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E2">
         <v>30</v>
@@ -4015,42 +4050,42 @@
         <v>41207</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
+        <v>261</v>
+      </c>
+      <c r="B4" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
         <v>262</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>263</v>
+      </c>
+      <c r="B6" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>263</v>
-      </c>
-      <c r="B5" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>264</v>
-      </c>
-      <c r="B6" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9">
       <c r="A8" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E8">
         <v>30</v>
@@ -4068,34 +4103,34 @@
         <v>41206</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
+        <v>266</v>
+      </c>
+      <c r="B10" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
         <v>267</v>
       </c>
-      <c r="B10" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
         <v>268</v>
       </c>
-      <c r="B11" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D13" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E13">
         <v>30</v>
@@ -4113,42 +4148,42 @@
         <v>41216</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
+        <v>288</v>
+      </c>
+      <c r="B14" t="s">
         <v>289</v>
       </c>
-      <c r="B14" t="s">
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>292</v>
+      </c>
+      <c r="B15" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
         <v>293</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>294</v>
-      </c>
-      <c r="B16" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9">
       <c r="A18" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E18">
         <v>30</v>
@@ -4166,50 +4201,50 @@
         <v>41216</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
+        <v>294</v>
+      </c>
+      <c r="B19" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>298</v>
+      </c>
+      <c r="B20" t="s">
         <v>295</v>
       </c>
-      <c r="B19" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
         <v>299</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
         <v>300</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
-        <v>301</v>
-      </c>
-      <c r="B22" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9">
       <c r="A24" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D24" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E24">
         <v>35</v>
@@ -4227,50 +4262,50 @@
         <v>41213</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9">
       <c r="A26" t="s">
+        <v>310</v>
+      </c>
+      <c r="B26" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" t="s">
         <v>311</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A27" t="s">
+    <row r="28" spans="1:9">
+      <c r="A28" t="s">
         <v>312</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A28" t="s">
+    <row r="29" spans="1:9">
+      <c r="A29" t="s">
         <v>313</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A29" t="s">
-        <v>314</v>
-      </c>
-      <c r="B29" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:9">
       <c r="A33" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C33" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D33" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E33">
         <v>35</v>
@@ -4288,42 +4323,95 @@
         <v>41213</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:9">
       <c r="A35" t="s">
+        <v>302</v>
+      </c>
+      <c r="B35" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" t="s">
         <v>303</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B36" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A36" t="s">
+    <row r="37" spans="1:9">
+      <c r="A37" t="s">
         <v>304</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B37" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A37" t="s">
+    <row r="38" spans="1:9">
+      <c r="A38" t="s">
         <v>305</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B38" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A38" t="s">
-        <v>306</v>
-      </c>
-      <c r="B38" t="s">
-        <v>310</v>
-      </c>
+    <row r="40" spans="1:9">
+      <c r="B40" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="B42" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="B43" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="B44" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="B45" s="1"/>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="B46" s="1"/>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="B47" s="1"/>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="B48" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" s="1"/>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" s="1"/>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4335,538 +4423,543 @@
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="24.5" customWidth="1"/>
-    <col min="3" max="3" width="49.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" customWidth="1"/>
+    <col min="3" max="3" width="49.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="30">
+      <c r="A2" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="B2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15">
+      <c r="A3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15">
+      <c r="A4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B4" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="C4" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="32" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="5" spans="1:4" ht="30">
+      <c r="A5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15">
+      <c r="A6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15">
+      <c r="A7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="45">
+      <c r="A8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="30">
+      <c r="A9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B9" t="s">
         <v>157</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>117</v>
-      </c>
-      <c r="B4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="32" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>118</v>
-      </c>
-      <c r="B5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>119</v>
-      </c>
-      <c r="B6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>120</v>
-      </c>
-      <c r="B7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" s="11" t="s">
+      <c r="C9" s="11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="48" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>121</v>
-      </c>
-      <c r="B8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C8" s="11" t="s">
+    <row r="10" spans="1:4" ht="30">
+      <c r="A10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B10" t="s">
         <v>73</v>
       </c>
-      <c r="D8" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="32" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>122</v>
-      </c>
-      <c r="B9" t="s">
-        <v>158</v>
-      </c>
-      <c r="C9" s="11" t="s">
+      <c r="C10" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15">
+      <c r="A11" t="s">
+        <v>123</v>
+      </c>
+      <c r="B11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="32" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>123</v>
-      </c>
-      <c r="B10" t="s">
-        <v>74</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="32" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
+      <c r="D11" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15">
+      <c r="A12" t="s">
         <v>124</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>76</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C12" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D11" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="32" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
+    </row>
+    <row r="13" spans="1:4" ht="30">
+      <c r="A13" t="s">
         <v>125</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>77</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C13" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="30">
+      <c r="A14" t="s">
+        <v>126</v>
+      </c>
+      <c r="B14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="48" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>126</v>
-      </c>
-      <c r="B13" t="s">
-        <v>78</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="32" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
+    <row r="15" spans="1:4" ht="15">
+      <c r="A15" t="s">
         <v>127</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>80</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C15" s="11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="32" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
+    <row r="16" spans="1:4" ht="15">
+      <c r="A16" t="s">
         <v>128</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>81</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C16" s="11" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
+      <c r="D16" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15">
+      <c r="A17" t="s">
         <v>129</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>82</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C17" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D16" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="32" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
+      <c r="D17" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15">
+      <c r="A18" t="s">
         <v>130</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>83</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C18" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D17" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="16" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
+    </row>
+    <row r="19" spans="1:4" ht="15">
+      <c r="A19" t="s">
         <v>131</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>84</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C19" s="11" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
+    <row r="20" spans="1:4" ht="15">
+      <c r="A20" t="s">
         <v>132</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>85</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C20" s="11" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="16" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
+    <row r="21" spans="1:4" ht="15">
+      <c r="A21" t="s">
         <v>133</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>86</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C21" s="11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="32" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
+    <row r="22" spans="1:4" ht="30">
+      <c r="A22" t="s">
         <v>134</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>87</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C22" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="30">
+      <c r="A23" t="s">
+        <v>135</v>
+      </c>
+      <c r="B23" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="30">
+      <c r="A24" t="s">
+        <v>136</v>
+      </c>
+      <c r="B24" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" s="11" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="32" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
-        <v>135</v>
-      </c>
-      <c r="B22" t="s">
-        <v>88</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="32" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
-        <v>136</v>
-      </c>
-      <c r="B23" t="s">
-        <v>91</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="D23" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="32" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
+      <c r="D24" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="30">
+      <c r="A25" t="s">
         <v>137</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>92</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C25" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D24" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="48" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
+    </row>
+    <row r="26" spans="1:4" ht="30">
+      <c r="A26" t="s">
         <v>138</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>93</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C26" s="11" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="32" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
+    <row r="27" spans="1:4" ht="60">
+      <c r="A27" t="s">
         <v>139</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
+        <v>95</v>
+      </c>
+      <c r="C27" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="C26" s="11" t="s">
+    </row>
+    <row r="28" spans="1:4" ht="15">
+      <c r="A28" t="s">
+        <v>140</v>
+      </c>
+      <c r="B28" t="s">
+        <v>96</v>
+      </c>
+      <c r="C28" s="11" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="80" x14ac:dyDescent="0.15">
-      <c r="A27" t="s">
-        <v>140</v>
-      </c>
-      <c r="B27" t="s">
-        <v>96</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="16" x14ac:dyDescent="0.15">
-      <c r="A28" t="s">
+      <c r="D28" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15">
+      <c r="A29" t="s">
         <v>141</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" t="s">
         <v>97</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C29" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D28" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="16" x14ac:dyDescent="0.15">
-      <c r="A29" t="s">
+      <c r="D29" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15">
+      <c r="A30" t="s">
         <v>142</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" t="s">
         <v>98</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C30" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D29" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="16" x14ac:dyDescent="0.15">
-      <c r="A30" t="s">
+      <c r="D30" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15">
+      <c r="A31" t="s">
         <v>143</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
         <v>99</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C31" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="D30" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="16" x14ac:dyDescent="0.15">
-      <c r="A31" t="s">
+      <c r="D31" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="30">
+      <c r="A32" t="s">
         <v>144</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" t="s">
         <v>100</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C32" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="D31" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="32" x14ac:dyDescent="0.15">
-      <c r="A32" t="s">
+    </row>
+    <row r="33" spans="1:4" ht="15">
+      <c r="A33" t="s">
         <v>145</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" t="s">
         <v>101</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C33" s="11" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="16" x14ac:dyDescent="0.15">
-      <c r="A33" t="s">
+    <row r="34" spans="1:4" ht="30">
+      <c r="A34" t="s">
         <v>146</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B34" t="s">
         <v>102</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C34" s="11" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="32" x14ac:dyDescent="0.15">
-      <c r="A34" t="s">
+    <row r="35" spans="1:4" ht="30">
+      <c r="A35" t="s">
         <v>147</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B35" t="s">
+        <v>112</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="30">
+      <c r="A36" t="s">
+        <v>148</v>
+      </c>
+      <c r="B36" t="s">
         <v>103</v>
       </c>
-      <c r="C34" s="11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="48" x14ac:dyDescent="0.15">
-      <c r="A35" t="s">
-        <v>148</v>
-      </c>
-      <c r="B35" t="s">
-        <v>113</v>
-      </c>
-      <c r="C35" s="11" t="s">
+      <c r="C36" s="11" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="32" x14ac:dyDescent="0.15">
-      <c r="A36" t="s">
+    <row r="37" spans="1:4" ht="15">
+      <c r="A37" t="s">
         <v>149</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B37" t="s">
         <v>104</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C37" s="11" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" ht="32" x14ac:dyDescent="0.15">
-      <c r="A37" t="s">
+      <c r="D37" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="30">
+      <c r="A38" t="s">
         <v>150</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B38" t="s">
         <v>105</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C38" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="D37" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="32" x14ac:dyDescent="0.15">
-      <c r="A38" t="s">
+    </row>
+    <row r="39" spans="1:4" ht="30">
+      <c r="A39" t="s">
         <v>151</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B39" t="s">
         <v>106</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C39" s="11" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" ht="32" x14ac:dyDescent="0.15">
-      <c r="A39" t="s">
+      <c r="D39" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="30">
+      <c r="A40" t="s">
         <v>152</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B40" t="s">
         <v>107</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C40" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D39" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="32" x14ac:dyDescent="0.15">
-      <c r="A40" t="s">
+    </row>
+    <row r="41" spans="1:4" ht="30">
+      <c r="A41" t="s">
         <v>153</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B41" t="s">
         <v>108</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="C41" s="11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15">
+      <c r="A42" t="s">
+        <v>154</v>
+      </c>
+      <c r="B42" t="s">
+        <v>110</v>
+      </c>
+      <c r="C42" s="11" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="32" x14ac:dyDescent="0.15">
-      <c r="A41" t="s">
-        <v>154</v>
-      </c>
-      <c r="B41" t="s">
-        <v>109</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="32" x14ac:dyDescent="0.15">
-      <c r="A42" t="s">
+    <row r="43" spans="1:4" ht="30">
+      <c r="A43" t="s">
         <v>155</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B43" t="s">
         <v>111</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="C43" s="11" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="32" x14ac:dyDescent="0.15">
-      <c r="A43" t="s">
-        <v>156</v>
-      </c>
-      <c r="B43" t="s">
-        <v>112</v>
-      </c>
-      <c r="C43" s="11" t="s">
-        <v>64</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>